--- a/DTW/data/10person/no_skip.xlsx
+++ b/DTW/data/10person/no_skip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\INC_BEV_FastMOT\DTW\data\10person\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE834CC-3FA6-41E1-A4D6-B399FD85B45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F674D5AC-2871-4DA0-8AC3-B8798F90B16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1370" yWindow="1710" windowWidth="32780" windowHeight="18060" xr2:uid="{F7770F3D-F9C2-4C2A-97D3-3A6C1C02D526}"/>
+    <workbookView xWindow="290" yWindow="1060" windowWidth="14920" windowHeight="18060" xr2:uid="{F7770F3D-F9C2-4C2A-97D3-3A6C1C02D526}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="20">
   <si>
     <t>정익</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,6 +94,26 @@
   </si>
   <si>
     <t>검은색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14,21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,10,12,13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,9,10,11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -269,6 +289,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -276,12 +302,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -600,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E810037-98D3-4B06-AAD8-9F0B4D51D317}">
   <dimension ref="A1:D880"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A847" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N846" sqref="N846"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -610,100 +630,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="8">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="5">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="9"/>
-      <c r="B2" s="6"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="8"/>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="9"/>
-      <c r="B3" s="6"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="9"/>
-      <c r="B4" s="6"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="9"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="9"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="9"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="9"/>
-      <c r="B8" s="6"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="9"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="9"/>
-      <c r="B10" s="6"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="9"/>
-      <c r="B11" s="7"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" s="9"/>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -712,178 +750,198 @@
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="9"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" s="9"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" s="9"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" s="9"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" s="9"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" s="9"/>
-      <c r="B18" s="6"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" s="9"/>
-      <c r="B19" s="6"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" s="9"/>
-      <c r="B20" s="6"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" s="9"/>
-      <c r="B21" s="6"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="9"/>
-      <c r="B22" s="7"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" s="9"/>
-      <c r="B23" s="5" t="s">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" s="9"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A25" s="9"/>
-      <c r="B25" s="6"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A26" s="9"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A27" s="9"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="4"/>
+      <c r="D27" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A28" s="9"/>
-      <c r="B28" s="6"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="4"/>
+      <c r="D28" s="4">
+        <v>13</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A29" s="9"/>
-      <c r="B29" s="6"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="8"/>
       <c r="C29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A30" s="9"/>
-      <c r="B30" s="6"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="8"/>
       <c r="C30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="4"/>
+      <c r="D30" s="4">
+        <v>18</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A31" s="9"/>
-      <c r="B31" s="6"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="8"/>
       <c r="C31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="4"/>
+      <c r="D31" s="4">
+        <v>19</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A32" s="9"/>
-      <c r="B32" s="6"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="8"/>
       <c r="C32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="4"/>
+      <c r="D32" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="33" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="9"/>
-      <c r="B33" s="7"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="9"/>
       <c r="C33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="4"/>
+      <c r="D33" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A34" s="9"/>
-      <c r="B34" s="5" t="s">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -892,90 +950,90 @@
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A35" s="9"/>
-      <c r="B35" s="6"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="8"/>
       <c r="C35" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D35" s="4"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A36" s="9"/>
-      <c r="B36" s="6"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="8"/>
       <c r="C36" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A37" s="9"/>
-      <c r="B37" s="6"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="8"/>
       <c r="C37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A38" s="9"/>
-      <c r="B38" s="6"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="8"/>
       <c r="C38" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A39" s="9"/>
-      <c r="B39" s="6"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="8"/>
       <c r="C39" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A40" s="9"/>
-      <c r="B40" s="6"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="8"/>
       <c r="C40" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A41" s="9"/>
-      <c r="B41" s="6"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="8"/>
       <c r="C41" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="4"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A42" s="9"/>
-      <c r="B42" s="6"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="8"/>
       <c r="C42" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D42" s="4"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A43" s="9"/>
-      <c r="B43" s="6"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="8"/>
       <c r="C43" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D43" s="4"/>
     </row>
     <row r="44" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A44" s="9"/>
-      <c r="B44" s="7"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="9"/>
       <c r="C44" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A45" s="8">
+      <c r="A45" s="5">
         <v>2</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -984,88 +1042,88 @@
       <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A46" s="9"/>
-      <c r="B46" s="6"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="8"/>
       <c r="C46" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D46" s="4"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A47" s="9"/>
-      <c r="B47" s="6"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="8"/>
       <c r="C47" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D47" s="4"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A48" s="9"/>
-      <c r="B48" s="6"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="8"/>
       <c r="C48" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D48" s="4"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A49" s="9"/>
-      <c r="B49" s="6"/>
+      <c r="A49" s="6"/>
+      <c r="B49" s="8"/>
       <c r="C49" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="4"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A50" s="9"/>
-      <c r="B50" s="6"/>
+      <c r="A50" s="6"/>
+      <c r="B50" s="8"/>
       <c r="C50" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A51" s="9"/>
-      <c r="B51" s="6"/>
+      <c r="A51" s="6"/>
+      <c r="B51" s="8"/>
       <c r="C51" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D51" s="4"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A52" s="9"/>
-      <c r="B52" s="6"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="8"/>
       <c r="C52" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="4"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A53" s="9"/>
-      <c r="B53" s="6"/>
+      <c r="A53" s="6"/>
+      <c r="B53" s="8"/>
       <c r="C53" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="4"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A54" s="9"/>
-      <c r="B54" s="6"/>
+      <c r="A54" s="6"/>
+      <c r="B54" s="8"/>
       <c r="C54" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D54" s="4"/>
     </row>
     <row r="55" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A55" s="9"/>
-      <c r="B55" s="7"/>
+      <c r="A55" s="6"/>
+      <c r="B55" s="9"/>
       <c r="C55" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D55" s="4"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A56" s="9"/>
-      <c r="B56" s="5" t="s">
+      <c r="A56" s="6"/>
+      <c r="B56" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -1074,88 +1132,88 @@
       <c r="D56" s="3"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A57" s="9"/>
-      <c r="B57" s="6"/>
+      <c r="A57" s="6"/>
+      <c r="B57" s="8"/>
       <c r="C57" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D57" s="4"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A58" s="9"/>
-      <c r="B58" s="6"/>
+      <c r="A58" s="6"/>
+      <c r="B58" s="8"/>
       <c r="C58" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D58" s="4"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A59" s="9"/>
-      <c r="B59" s="6"/>
+      <c r="A59" s="6"/>
+      <c r="B59" s="8"/>
       <c r="C59" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D59" s="4"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A60" s="9"/>
-      <c r="B60" s="6"/>
+      <c r="A60" s="6"/>
+      <c r="B60" s="8"/>
       <c r="C60" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="4"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A61" s="9"/>
-      <c r="B61" s="6"/>
+      <c r="A61" s="6"/>
+      <c r="B61" s="8"/>
       <c r="C61" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D61" s="4"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A62" s="9"/>
-      <c r="B62" s="6"/>
+      <c r="A62" s="6"/>
+      <c r="B62" s="8"/>
       <c r="C62" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A63" s="9"/>
-      <c r="B63" s="6"/>
+      <c r="A63" s="6"/>
+      <c r="B63" s="8"/>
       <c r="C63" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="4"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A64" s="9"/>
-      <c r="B64" s="6"/>
+      <c r="A64" s="6"/>
+      <c r="B64" s="8"/>
       <c r="C64" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="4"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A65" s="9"/>
-      <c r="B65" s="6"/>
+      <c r="A65" s="6"/>
+      <c r="B65" s="8"/>
       <c r="C65" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D65" s="4"/>
     </row>
     <row r="66" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A66" s="9"/>
-      <c r="B66" s="7"/>
+      <c r="A66" s="6"/>
+      <c r="B66" s="9"/>
       <c r="C66" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D66" s="4"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A67" s="9"/>
-      <c r="B67" s="5" t="s">
+      <c r="A67" s="6"/>
+      <c r="B67" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C67" s="2" t="s">
@@ -1164,88 +1222,88 @@
       <c r="D67" s="3"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A68" s="9"/>
-      <c r="B68" s="6"/>
+      <c r="A68" s="6"/>
+      <c r="B68" s="8"/>
       <c r="C68" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A69" s="9"/>
-      <c r="B69" s="6"/>
+      <c r="A69" s="6"/>
+      <c r="B69" s="8"/>
       <c r="C69" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D69" s="4"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A70" s="9"/>
-      <c r="B70" s="6"/>
+      <c r="A70" s="6"/>
+      <c r="B70" s="8"/>
       <c r="C70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D70" s="4"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A71" s="9"/>
-      <c r="B71" s="6"/>
+      <c r="A71" s="6"/>
+      <c r="B71" s="8"/>
       <c r="C71" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="4"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A72" s="9"/>
-      <c r="B72" s="6"/>
+      <c r="A72" s="6"/>
+      <c r="B72" s="8"/>
       <c r="C72" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D72" s="4"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A73" s="9"/>
-      <c r="B73" s="6"/>
+      <c r="A73" s="6"/>
+      <c r="B73" s="8"/>
       <c r="C73" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A74" s="9"/>
-      <c r="B74" s="6"/>
+      <c r="A74" s="6"/>
+      <c r="B74" s="8"/>
       <c r="C74" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D74" s="4"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A75" s="9"/>
-      <c r="B75" s="6"/>
+      <c r="A75" s="6"/>
+      <c r="B75" s="8"/>
       <c r="C75" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="4"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A76" s="9"/>
-      <c r="B76" s="6"/>
+      <c r="A76" s="6"/>
+      <c r="B76" s="8"/>
       <c r="C76" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D76" s="4"/>
     </row>
     <row r="77" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A77" s="9"/>
-      <c r="B77" s="7"/>
+      <c r="A77" s="6"/>
+      <c r="B77" s="9"/>
       <c r="C77" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D77" s="4"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A78" s="9"/>
-      <c r="B78" s="5" t="s">
+      <c r="A78" s="6"/>
+      <c r="B78" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -1254,90 +1312,90 @@
       <c r="D78" s="3"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A79" s="9"/>
-      <c r="B79" s="6"/>
+      <c r="A79" s="6"/>
+      <c r="B79" s="8"/>
       <c r="C79" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D79" s="4"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A80" s="9"/>
-      <c r="B80" s="6"/>
+      <c r="A80" s="6"/>
+      <c r="B80" s="8"/>
       <c r="C80" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D80" s="4"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A81" s="9"/>
-      <c r="B81" s="6"/>
+      <c r="A81" s="6"/>
+      <c r="B81" s="8"/>
       <c r="C81" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D81" s="4"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A82" s="9"/>
-      <c r="B82" s="6"/>
+      <c r="A82" s="6"/>
+      <c r="B82" s="8"/>
       <c r="C82" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="4"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A83" s="9"/>
-      <c r="B83" s="6"/>
+      <c r="A83" s="6"/>
+      <c r="B83" s="8"/>
       <c r="C83" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D83" s="4"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A84" s="9"/>
-      <c r="B84" s="6"/>
+      <c r="A84" s="6"/>
+      <c r="B84" s="8"/>
       <c r="C84" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D84" s="4"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A85" s="9"/>
-      <c r="B85" s="6"/>
+      <c r="A85" s="6"/>
+      <c r="B85" s="8"/>
       <c r="C85" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="4"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A86" s="9"/>
-      <c r="B86" s="6"/>
+      <c r="A86" s="6"/>
+      <c r="B86" s="8"/>
       <c r="C86" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D86" s="4"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A87" s="9"/>
-      <c r="B87" s="6"/>
+      <c r="A87" s="6"/>
+      <c r="B87" s="8"/>
       <c r="C87" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D87" s="4"/>
     </row>
     <row r="88" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A88" s="9"/>
-      <c r="B88" s="7"/>
+      <c r="A88" s="6"/>
+      <c r="B88" s="9"/>
       <c r="C88" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D88" s="4"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A89" s="8">
+      <c r="A89" s="5">
         <v>3</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C89" s="2" t="s">
@@ -1346,88 +1404,88 @@
       <c r="D89" s="3"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A90" s="9"/>
-      <c r="B90" s="6"/>
+      <c r="A90" s="6"/>
+      <c r="B90" s="8"/>
       <c r="C90" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D90" s="4"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A91" s="9"/>
-      <c r="B91" s="6"/>
+      <c r="A91" s="6"/>
+      <c r="B91" s="8"/>
       <c r="C91" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D91" s="4"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A92" s="9"/>
-      <c r="B92" s="6"/>
+      <c r="A92" s="6"/>
+      <c r="B92" s="8"/>
       <c r="C92" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D92" s="4"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A93" s="9"/>
-      <c r="B93" s="6"/>
+      <c r="A93" s="6"/>
+      <c r="B93" s="8"/>
       <c r="C93" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="4"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A94" s="9"/>
-      <c r="B94" s="6"/>
+      <c r="A94" s="6"/>
+      <c r="B94" s="8"/>
       <c r="C94" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D94" s="4"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A95" s="9"/>
-      <c r="B95" s="6"/>
+      <c r="A95" s="6"/>
+      <c r="B95" s="8"/>
       <c r="C95" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D95" s="4"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A96" s="9"/>
-      <c r="B96" s="6"/>
+      <c r="A96" s="6"/>
+      <c r="B96" s="8"/>
       <c r="C96" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="4"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A97" s="9"/>
-      <c r="B97" s="6"/>
+      <c r="A97" s="6"/>
+      <c r="B97" s="8"/>
       <c r="C97" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D97" s="4"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A98" s="9"/>
-      <c r="B98" s="6"/>
+      <c r="A98" s="6"/>
+      <c r="B98" s="8"/>
       <c r="C98" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D98" s="4"/>
     </row>
     <row r="99" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A99" s="9"/>
-      <c r="B99" s="7"/>
+      <c r="A99" s="6"/>
+      <c r="B99" s="9"/>
       <c r="C99" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D99" s="4"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A100" s="9"/>
-      <c r="B100" s="5" t="s">
+      <c r="A100" s="6"/>
+      <c r="B100" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C100" s="2" t="s">
@@ -1436,88 +1494,88 @@
       <c r="D100" s="3"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A101" s="9"/>
-      <c r="B101" s="6"/>
+      <c r="A101" s="6"/>
+      <c r="B101" s="8"/>
       <c r="C101" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D101" s="4"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A102" s="9"/>
-      <c r="B102" s="6"/>
+      <c r="A102" s="6"/>
+      <c r="B102" s="8"/>
       <c r="C102" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D102" s="4"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A103" s="9"/>
-      <c r="B103" s="6"/>
+      <c r="A103" s="6"/>
+      <c r="B103" s="8"/>
       <c r="C103" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D103" s="4"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A104" s="9"/>
-      <c r="B104" s="6"/>
+      <c r="A104" s="6"/>
+      <c r="B104" s="8"/>
       <c r="C104" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="4"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A105" s="9"/>
-      <c r="B105" s="6"/>
+      <c r="A105" s="6"/>
+      <c r="B105" s="8"/>
       <c r="C105" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D105" s="4"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A106" s="9"/>
-      <c r="B106" s="6"/>
+      <c r="A106" s="6"/>
+      <c r="B106" s="8"/>
       <c r="C106" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D106" s="4"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A107" s="9"/>
-      <c r="B107" s="6"/>
+      <c r="A107" s="6"/>
+      <c r="B107" s="8"/>
       <c r="C107" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D107" s="4"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A108" s="9"/>
-      <c r="B108" s="6"/>
+      <c r="A108" s="6"/>
+      <c r="B108" s="8"/>
       <c r="C108" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D108" s="4"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A109" s="9"/>
-      <c r="B109" s="6"/>
+      <c r="A109" s="6"/>
+      <c r="B109" s="8"/>
       <c r="C109" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D109" s="4"/>
     </row>
     <row r="110" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A110" s="9"/>
-      <c r="B110" s="7"/>
+      <c r="A110" s="6"/>
+      <c r="B110" s="9"/>
       <c r="C110" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D110" s="4"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A111" s="9"/>
-      <c r="B111" s="5" t="s">
+      <c r="A111" s="6"/>
+      <c r="B111" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C111" s="2" t="s">
@@ -1526,88 +1584,88 @@
       <c r="D111" s="3"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A112" s="9"/>
-      <c r="B112" s="6"/>
+      <c r="A112" s="6"/>
+      <c r="B112" s="8"/>
       <c r="C112" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D112" s="4"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A113" s="9"/>
-      <c r="B113" s="6"/>
+      <c r="A113" s="6"/>
+      <c r="B113" s="8"/>
       <c r="C113" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D113" s="4"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A114" s="9"/>
-      <c r="B114" s="6"/>
+      <c r="A114" s="6"/>
+      <c r="B114" s="8"/>
       <c r="C114" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D114" s="4"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A115" s="9"/>
-      <c r="B115" s="6"/>
+      <c r="A115" s="6"/>
+      <c r="B115" s="8"/>
       <c r="C115" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="4"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A116" s="9"/>
-      <c r="B116" s="6"/>
+      <c r="A116" s="6"/>
+      <c r="B116" s="8"/>
       <c r="C116" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D116" s="4"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A117" s="9"/>
-      <c r="B117" s="6"/>
+      <c r="A117" s="6"/>
+      <c r="B117" s="8"/>
       <c r="C117" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D117" s="4"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A118" s="9"/>
-      <c r="B118" s="6"/>
+      <c r="A118" s="6"/>
+      <c r="B118" s="8"/>
       <c r="C118" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="4"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A119" s="9"/>
-      <c r="B119" s="6"/>
+      <c r="A119" s="6"/>
+      <c r="B119" s="8"/>
       <c r="C119" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D119" s="4"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A120" s="9"/>
-      <c r="B120" s="6"/>
+      <c r="A120" s="6"/>
+      <c r="B120" s="8"/>
       <c r="C120" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D120" s="4"/>
     </row>
     <row r="121" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A121" s="9"/>
-      <c r="B121" s="7"/>
+      <c r="A121" s="6"/>
+      <c r="B121" s="9"/>
       <c r="C121" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D121" s="4"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A122" s="9"/>
-      <c r="B122" s="5" t="s">
+      <c r="A122" s="6"/>
+      <c r="B122" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C122" s="2" t="s">
@@ -1616,90 +1674,90 @@
       <c r="D122" s="3"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A123" s="9"/>
-      <c r="B123" s="6"/>
+      <c r="A123" s="6"/>
+      <c r="B123" s="8"/>
       <c r="C123" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D123" s="4"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A124" s="9"/>
-      <c r="B124" s="6"/>
+      <c r="A124" s="6"/>
+      <c r="B124" s="8"/>
       <c r="C124" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D124" s="4"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A125" s="9"/>
-      <c r="B125" s="6"/>
+      <c r="A125" s="6"/>
+      <c r="B125" s="8"/>
       <c r="C125" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D125" s="4"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A126" s="9"/>
-      <c r="B126" s="6"/>
+      <c r="A126" s="6"/>
+      <c r="B126" s="8"/>
       <c r="C126" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="4"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A127" s="9"/>
-      <c r="B127" s="6"/>
+      <c r="A127" s="6"/>
+      <c r="B127" s="8"/>
       <c r="C127" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D127" s="4"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A128" s="9"/>
-      <c r="B128" s="6"/>
+      <c r="A128" s="6"/>
+      <c r="B128" s="8"/>
       <c r="C128" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D128" s="4"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A129" s="9"/>
-      <c r="B129" s="6"/>
+      <c r="A129" s="6"/>
+      <c r="B129" s="8"/>
       <c r="C129" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="4"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A130" s="9"/>
-      <c r="B130" s="6"/>
+      <c r="A130" s="6"/>
+      <c r="B130" s="8"/>
       <c r="C130" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D130" s="4"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A131" s="9"/>
-      <c r="B131" s="6"/>
+      <c r="A131" s="6"/>
+      <c r="B131" s="8"/>
       <c r="C131" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D131" s="4"/>
     </row>
     <row r="132" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A132" s="9"/>
-      <c r="B132" s="7"/>
+      <c r="A132" s="6"/>
+      <c r="B132" s="9"/>
       <c r="C132" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D132" s="4"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A133" s="8">
+      <c r="A133" s="5">
         <v>4</v>
       </c>
-      <c r="B133" s="5" t="s">
+      <c r="B133" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C133" s="2" t="s">
@@ -1708,88 +1766,88 @@
       <c r="D133" s="3"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A134" s="9"/>
-      <c r="B134" s="6"/>
+      <c r="A134" s="6"/>
+      <c r="B134" s="8"/>
       <c r="C134" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D134" s="4"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A135" s="9"/>
-      <c r="B135" s="6"/>
+      <c r="A135" s="6"/>
+      <c r="B135" s="8"/>
       <c r="C135" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D135" s="4"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A136" s="9"/>
-      <c r="B136" s="6"/>
+      <c r="A136" s="6"/>
+      <c r="B136" s="8"/>
       <c r="C136" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D136" s="4"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A137" s="9"/>
-      <c r="B137" s="6"/>
+      <c r="A137" s="6"/>
+      <c r="B137" s="8"/>
       <c r="C137" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="4"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A138" s="9"/>
-      <c r="B138" s="6"/>
+      <c r="A138" s="6"/>
+      <c r="B138" s="8"/>
       <c r="C138" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D138" s="4"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A139" s="9"/>
-      <c r="B139" s="6"/>
+      <c r="A139" s="6"/>
+      <c r="B139" s="8"/>
       <c r="C139" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D139" s="4"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A140" s="9"/>
-      <c r="B140" s="6"/>
+      <c r="A140" s="6"/>
+      <c r="B140" s="8"/>
       <c r="C140" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="4"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A141" s="9"/>
-      <c r="B141" s="6"/>
+      <c r="A141" s="6"/>
+      <c r="B141" s="8"/>
       <c r="C141" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D141" s="4"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A142" s="9"/>
-      <c r="B142" s="6"/>
+      <c r="A142" s="6"/>
+      <c r="B142" s="8"/>
       <c r="C142" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D142" s="4"/>
     </row>
     <row r="143" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A143" s="9"/>
-      <c r="B143" s="7"/>
+      <c r="A143" s="6"/>
+      <c r="B143" s="9"/>
       <c r="C143" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D143" s="4"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A144" s="9"/>
-      <c r="B144" s="5" t="s">
+      <c r="A144" s="6"/>
+      <c r="B144" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C144" s="2" t="s">
@@ -1798,88 +1856,88 @@
       <c r="D144" s="3"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A145" s="9"/>
-      <c r="B145" s="6"/>
+      <c r="A145" s="6"/>
+      <c r="B145" s="8"/>
       <c r="C145" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D145" s="4"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A146" s="9"/>
-      <c r="B146" s="6"/>
+      <c r="A146" s="6"/>
+      <c r="B146" s="8"/>
       <c r="C146" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D146" s="4"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A147" s="9"/>
-      <c r="B147" s="6"/>
+      <c r="A147" s="6"/>
+      <c r="B147" s="8"/>
       <c r="C147" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D147" s="4"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A148" s="9"/>
-      <c r="B148" s="6"/>
+      <c r="A148" s="6"/>
+      <c r="B148" s="8"/>
       <c r="C148" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="4"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A149" s="9"/>
-      <c r="B149" s="6"/>
+      <c r="A149" s="6"/>
+      <c r="B149" s="8"/>
       <c r="C149" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D149" s="4"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A150" s="9"/>
-      <c r="B150" s="6"/>
+      <c r="A150" s="6"/>
+      <c r="B150" s="8"/>
       <c r="C150" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D150" s="4"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A151" s="9"/>
-      <c r="B151" s="6"/>
+      <c r="A151" s="6"/>
+      <c r="B151" s="8"/>
       <c r="C151" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D151" s="4"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A152" s="9"/>
-      <c r="B152" s="6"/>
+      <c r="A152" s="6"/>
+      <c r="B152" s="8"/>
       <c r="C152" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D152" s="4"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A153" s="9"/>
-      <c r="B153" s="6"/>
+      <c r="A153" s="6"/>
+      <c r="B153" s="8"/>
       <c r="C153" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D153" s="4"/>
     </row>
     <row r="154" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A154" s="9"/>
-      <c r="B154" s="7"/>
+      <c r="A154" s="6"/>
+      <c r="B154" s="9"/>
       <c r="C154" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D154" s="4"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A155" s="9"/>
-      <c r="B155" s="5" t="s">
+      <c r="A155" s="6"/>
+      <c r="B155" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C155" s="2" t="s">
@@ -1888,88 +1946,88 @@
       <c r="D155" s="3"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A156" s="9"/>
-      <c r="B156" s="6"/>
+      <c r="A156" s="6"/>
+      <c r="B156" s="8"/>
       <c r="C156" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D156" s="4"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A157" s="9"/>
-      <c r="B157" s="6"/>
+      <c r="A157" s="6"/>
+      <c r="B157" s="8"/>
       <c r="C157" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D157" s="4"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A158" s="9"/>
-      <c r="B158" s="6"/>
+      <c r="A158" s="6"/>
+      <c r="B158" s="8"/>
       <c r="C158" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D158" s="4"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A159" s="9"/>
-      <c r="B159" s="6"/>
+      <c r="A159" s="6"/>
+      <c r="B159" s="8"/>
       <c r="C159" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="4"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A160" s="9"/>
-      <c r="B160" s="6"/>
+      <c r="A160" s="6"/>
+      <c r="B160" s="8"/>
       <c r="C160" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D160" s="4"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A161" s="9"/>
-      <c r="B161" s="6"/>
+      <c r="A161" s="6"/>
+      <c r="B161" s="8"/>
       <c r="C161" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D161" s="4"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A162" s="9"/>
-      <c r="B162" s="6"/>
+      <c r="A162" s="6"/>
+      <c r="B162" s="8"/>
       <c r="C162" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D162" s="4"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A163" s="9"/>
-      <c r="B163" s="6"/>
+      <c r="A163" s="6"/>
+      <c r="B163" s="8"/>
       <c r="C163" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D163" s="4"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A164" s="9"/>
-      <c r="B164" s="6"/>
+      <c r="A164" s="6"/>
+      <c r="B164" s="8"/>
       <c r="C164" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D164" s="4"/>
     </row>
     <row r="165" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A165" s="9"/>
-      <c r="B165" s="7"/>
+      <c r="A165" s="6"/>
+      <c r="B165" s="9"/>
       <c r="C165" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D165" s="4"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A166" s="9"/>
-      <c r="B166" s="5" t="s">
+      <c r="A166" s="6"/>
+      <c r="B166" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C166" s="2" t="s">
@@ -1978,90 +2036,90 @@
       <c r="D166" s="3"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A167" s="9"/>
-      <c r="B167" s="6"/>
+      <c r="A167" s="6"/>
+      <c r="B167" s="8"/>
       <c r="C167" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D167" s="4"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A168" s="9"/>
-      <c r="B168" s="6"/>
+      <c r="A168" s="6"/>
+      <c r="B168" s="8"/>
       <c r="C168" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D168" s="4"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A169" s="9"/>
-      <c r="B169" s="6"/>
+      <c r="A169" s="6"/>
+      <c r="B169" s="8"/>
       <c r="C169" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D169" s="4"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A170" s="9"/>
-      <c r="B170" s="6"/>
+      <c r="A170" s="6"/>
+      <c r="B170" s="8"/>
       <c r="C170" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="4"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A171" s="9"/>
-      <c r="B171" s="6"/>
+      <c r="A171" s="6"/>
+      <c r="B171" s="8"/>
       <c r="C171" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D171" s="4"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A172" s="9"/>
-      <c r="B172" s="6"/>
+      <c r="A172" s="6"/>
+      <c r="B172" s="8"/>
       <c r="C172" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D172" s="4"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A173" s="9"/>
-      <c r="B173" s="6"/>
+      <c r="A173" s="6"/>
+      <c r="B173" s="8"/>
       <c r="C173" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D173" s="4"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A174" s="9"/>
-      <c r="B174" s="6"/>
+      <c r="A174" s="6"/>
+      <c r="B174" s="8"/>
       <c r="C174" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D174" s="4"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A175" s="9"/>
-      <c r="B175" s="6"/>
+      <c r="A175" s="6"/>
+      <c r="B175" s="8"/>
       <c r="C175" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D175" s="4"/>
     </row>
     <row r="176" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A176" s="9"/>
-      <c r="B176" s="7"/>
+      <c r="A176" s="6"/>
+      <c r="B176" s="9"/>
       <c r="C176" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D176" s="4"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A177" s="8">
+      <c r="A177" s="5">
         <v>5</v>
       </c>
-      <c r="B177" s="5" t="s">
+      <c r="B177" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C177" s="2" t="s">
@@ -2070,88 +2128,88 @@
       <c r="D177" s="3"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A178" s="9"/>
-      <c r="B178" s="6"/>
+      <c r="A178" s="6"/>
+      <c r="B178" s="8"/>
       <c r="C178" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D178" s="4"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A179" s="9"/>
-      <c r="B179" s="6"/>
+      <c r="A179" s="6"/>
+      <c r="B179" s="8"/>
       <c r="C179" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D179" s="4"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A180" s="9"/>
-      <c r="B180" s="6"/>
+      <c r="A180" s="6"/>
+      <c r="B180" s="8"/>
       <c r="C180" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D180" s="4"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A181" s="9"/>
-      <c r="B181" s="6"/>
+      <c r="A181" s="6"/>
+      <c r="B181" s="8"/>
       <c r="C181" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D181" s="4"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A182" s="9"/>
-      <c r="B182" s="6"/>
+      <c r="A182" s="6"/>
+      <c r="B182" s="8"/>
       <c r="C182" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D182" s="4"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A183" s="9"/>
-      <c r="B183" s="6"/>
+      <c r="A183" s="6"/>
+      <c r="B183" s="8"/>
       <c r="C183" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D183" s="4"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A184" s="9"/>
-      <c r="B184" s="6"/>
+      <c r="A184" s="6"/>
+      <c r="B184" s="8"/>
       <c r="C184" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D184" s="4"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A185" s="9"/>
-      <c r="B185" s="6"/>
+      <c r="A185" s="6"/>
+      <c r="B185" s="8"/>
       <c r="C185" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D185" s="4"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A186" s="9"/>
-      <c r="B186" s="6"/>
+      <c r="A186" s="6"/>
+      <c r="B186" s="8"/>
       <c r="C186" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D186" s="4"/>
     </row>
     <row r="187" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A187" s="9"/>
-      <c r="B187" s="7"/>
+      <c r="A187" s="6"/>
+      <c r="B187" s="9"/>
       <c r="C187" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D187" s="4"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A188" s="9"/>
-      <c r="B188" s="5" t="s">
+      <c r="A188" s="6"/>
+      <c r="B188" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C188" s="2" t="s">
@@ -2160,88 +2218,88 @@
       <c r="D188" s="3"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A189" s="9"/>
-      <c r="B189" s="6"/>
+      <c r="A189" s="6"/>
+      <c r="B189" s="8"/>
       <c r="C189" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D189" s="4"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A190" s="9"/>
-      <c r="B190" s="6"/>
+      <c r="A190" s="6"/>
+      <c r="B190" s="8"/>
       <c r="C190" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D190" s="4"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A191" s="9"/>
-      <c r="B191" s="6"/>
+      <c r="A191" s="6"/>
+      <c r="B191" s="8"/>
       <c r="C191" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D191" s="4"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A192" s="9"/>
-      <c r="B192" s="6"/>
+      <c r="A192" s="6"/>
+      <c r="B192" s="8"/>
       <c r="C192" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D192" s="4"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A193" s="9"/>
-      <c r="B193" s="6"/>
+      <c r="A193" s="6"/>
+      <c r="B193" s="8"/>
       <c r="C193" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D193" s="4"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A194" s="9"/>
-      <c r="B194" s="6"/>
+      <c r="A194" s="6"/>
+      <c r="B194" s="8"/>
       <c r="C194" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D194" s="4"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A195" s="9"/>
-      <c r="B195" s="6"/>
+      <c r="A195" s="6"/>
+      <c r="B195" s="8"/>
       <c r="C195" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D195" s="4"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A196" s="9"/>
-      <c r="B196" s="6"/>
+      <c r="A196" s="6"/>
+      <c r="B196" s="8"/>
       <c r="C196" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D196" s="4"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A197" s="9"/>
-      <c r="B197" s="6"/>
+      <c r="A197" s="6"/>
+      <c r="B197" s="8"/>
       <c r="C197" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D197" s="4"/>
     </row>
     <row r="198" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A198" s="9"/>
-      <c r="B198" s="7"/>
+      <c r="A198" s="6"/>
+      <c r="B198" s="9"/>
       <c r="C198" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D198" s="4"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A199" s="9"/>
-      <c r="B199" s="5" t="s">
+      <c r="A199" s="6"/>
+      <c r="B199" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C199" s="2" t="s">
@@ -2250,88 +2308,88 @@
       <c r="D199" s="3"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A200" s="9"/>
-      <c r="B200" s="6"/>
+      <c r="A200" s="6"/>
+      <c r="B200" s="8"/>
       <c r="C200" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D200" s="4"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A201" s="9"/>
-      <c r="B201" s="6"/>
+      <c r="A201" s="6"/>
+      <c r="B201" s="8"/>
       <c r="C201" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D201" s="4"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A202" s="9"/>
-      <c r="B202" s="6"/>
+      <c r="A202" s="6"/>
+      <c r="B202" s="8"/>
       <c r="C202" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D202" s="4"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A203" s="9"/>
-      <c r="B203" s="6"/>
+      <c r="A203" s="6"/>
+      <c r="B203" s="8"/>
       <c r="C203" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D203" s="4"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A204" s="9"/>
-      <c r="B204" s="6"/>
+      <c r="A204" s="6"/>
+      <c r="B204" s="8"/>
       <c r="C204" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D204" s="4"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A205" s="9"/>
-      <c r="B205" s="6"/>
+      <c r="A205" s="6"/>
+      <c r="B205" s="8"/>
       <c r="C205" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D205" s="4"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A206" s="9"/>
-      <c r="B206" s="6"/>
+      <c r="A206" s="6"/>
+      <c r="B206" s="8"/>
       <c r="C206" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D206" s="4"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A207" s="9"/>
-      <c r="B207" s="6"/>
+      <c r="A207" s="6"/>
+      <c r="B207" s="8"/>
       <c r="C207" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D207" s="4"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A208" s="9"/>
-      <c r="B208" s="6"/>
+      <c r="A208" s="6"/>
+      <c r="B208" s="8"/>
       <c r="C208" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D208" s="4"/>
     </row>
     <row r="209" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A209" s="9"/>
-      <c r="B209" s="7"/>
+      <c r="A209" s="6"/>
+      <c r="B209" s="9"/>
       <c r="C209" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D209" s="4"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A210" s="9"/>
-      <c r="B210" s="5" t="s">
+      <c r="A210" s="6"/>
+      <c r="B210" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C210" s="2" t="s">
@@ -2340,90 +2398,90 @@
       <c r="D210" s="3"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A211" s="9"/>
-      <c r="B211" s="6"/>
+      <c r="A211" s="6"/>
+      <c r="B211" s="8"/>
       <c r="C211" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D211" s="4"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A212" s="9"/>
-      <c r="B212" s="6"/>
+      <c r="A212" s="6"/>
+      <c r="B212" s="8"/>
       <c r="C212" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D212" s="4"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A213" s="9"/>
-      <c r="B213" s="6"/>
+      <c r="A213" s="6"/>
+      <c r="B213" s="8"/>
       <c r="C213" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D213" s="4"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A214" s="9"/>
-      <c r="B214" s="6"/>
+      <c r="A214" s="6"/>
+      <c r="B214" s="8"/>
       <c r="C214" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D214" s="4"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A215" s="9"/>
-      <c r="B215" s="6"/>
+      <c r="A215" s="6"/>
+      <c r="B215" s="8"/>
       <c r="C215" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D215" s="4"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A216" s="9"/>
-      <c r="B216" s="6"/>
+      <c r="A216" s="6"/>
+      <c r="B216" s="8"/>
       <c r="C216" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D216" s="4"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A217" s="9"/>
-      <c r="B217" s="6"/>
+      <c r="A217" s="6"/>
+      <c r="B217" s="8"/>
       <c r="C217" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D217" s="4"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A218" s="9"/>
-      <c r="B218" s="6"/>
+      <c r="A218" s="6"/>
+      <c r="B218" s="8"/>
       <c r="C218" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D218" s="4"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A219" s="9"/>
-      <c r="B219" s="6"/>
+      <c r="A219" s="6"/>
+      <c r="B219" s="8"/>
       <c r="C219" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D219" s="4"/>
     </row>
     <row r="220" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A220" s="9"/>
-      <c r="B220" s="7"/>
+      <c r="A220" s="6"/>
+      <c r="B220" s="9"/>
       <c r="C220" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D220" s="4"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A221" s="8">
-        <v>6</v>
-      </c>
-      <c r="B221" s="5" t="s">
+      <c r="A221" s="5">
+        <v>6</v>
+      </c>
+      <c r="B221" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C221" s="2" t="s">
@@ -2432,88 +2490,88 @@
       <c r="D221" s="3"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A222" s="9"/>
-      <c r="B222" s="6"/>
+      <c r="A222" s="6"/>
+      <c r="B222" s="8"/>
       <c r="C222" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D222" s="4"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A223" s="9"/>
-      <c r="B223" s="6"/>
+      <c r="A223" s="6"/>
+      <c r="B223" s="8"/>
       <c r="C223" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D223" s="4"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A224" s="9"/>
-      <c r="B224" s="6"/>
+      <c r="A224" s="6"/>
+      <c r="B224" s="8"/>
       <c r="C224" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D224" s="4"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A225" s="9"/>
-      <c r="B225" s="6"/>
+      <c r="A225" s="6"/>
+      <c r="B225" s="8"/>
       <c r="C225" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D225" s="4"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A226" s="9"/>
-      <c r="B226" s="6"/>
+      <c r="A226" s="6"/>
+      <c r="B226" s="8"/>
       <c r="C226" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D226" s="4"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A227" s="9"/>
-      <c r="B227" s="6"/>
+      <c r="A227" s="6"/>
+      <c r="B227" s="8"/>
       <c r="C227" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D227" s="4"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A228" s="9"/>
-      <c r="B228" s="6"/>
+      <c r="A228" s="6"/>
+      <c r="B228" s="8"/>
       <c r="C228" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D228" s="4"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A229" s="9"/>
-      <c r="B229" s="6"/>
+      <c r="A229" s="6"/>
+      <c r="B229" s="8"/>
       <c r="C229" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D229" s="4"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A230" s="9"/>
-      <c r="B230" s="6"/>
+      <c r="A230" s="6"/>
+      <c r="B230" s="8"/>
       <c r="C230" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D230" s="4"/>
     </row>
     <row r="231" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A231" s="9"/>
-      <c r="B231" s="7"/>
+      <c r="A231" s="6"/>
+      <c r="B231" s="9"/>
       <c r="C231" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D231" s="4"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A232" s="9"/>
-      <c r="B232" s="5" t="s">
+      <c r="A232" s="6"/>
+      <c r="B232" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C232" s="2" t="s">
@@ -2522,88 +2580,88 @@
       <c r="D232" s="3"/>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A233" s="9"/>
-      <c r="B233" s="6"/>
+      <c r="A233" s="6"/>
+      <c r="B233" s="8"/>
       <c r="C233" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D233" s="4"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A234" s="9"/>
-      <c r="B234" s="6"/>
+      <c r="A234" s="6"/>
+      <c r="B234" s="8"/>
       <c r="C234" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D234" s="4"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A235" s="9"/>
-      <c r="B235" s="6"/>
+      <c r="A235" s="6"/>
+      <c r="B235" s="8"/>
       <c r="C235" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D235" s="4"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A236" s="9"/>
-      <c r="B236" s="6"/>
+      <c r="A236" s="6"/>
+      <c r="B236" s="8"/>
       <c r="C236" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D236" s="4"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A237" s="9"/>
-      <c r="B237" s="6"/>
+      <c r="A237" s="6"/>
+      <c r="B237" s="8"/>
       <c r="C237" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D237" s="4"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A238" s="9"/>
-      <c r="B238" s="6"/>
+      <c r="A238" s="6"/>
+      <c r="B238" s="8"/>
       <c r="C238" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D238" s="4"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A239" s="9"/>
-      <c r="B239" s="6"/>
+      <c r="A239" s="6"/>
+      <c r="B239" s="8"/>
       <c r="C239" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D239" s="4"/>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A240" s="9"/>
-      <c r="B240" s="6"/>
+      <c r="A240" s="6"/>
+      <c r="B240" s="8"/>
       <c r="C240" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D240" s="4"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A241" s="9"/>
-      <c r="B241" s="6"/>
+      <c r="A241" s="6"/>
+      <c r="B241" s="8"/>
       <c r="C241" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D241" s="4"/>
     </row>
     <row r="242" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A242" s="9"/>
-      <c r="B242" s="7"/>
+      <c r="A242" s="6"/>
+      <c r="B242" s="9"/>
       <c r="C242" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D242" s="4"/>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A243" s="9"/>
-      <c r="B243" s="5" t="s">
+      <c r="A243" s="6"/>
+      <c r="B243" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C243" s="2" t="s">
@@ -2612,88 +2670,88 @@
       <c r="D243" s="3"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A244" s="9"/>
-      <c r="B244" s="6"/>
+      <c r="A244" s="6"/>
+      <c r="B244" s="8"/>
       <c r="C244" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D244" s="4"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A245" s="9"/>
-      <c r="B245" s="6"/>
+      <c r="A245" s="6"/>
+      <c r="B245" s="8"/>
       <c r="C245" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D245" s="4"/>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A246" s="9"/>
-      <c r="B246" s="6"/>
+      <c r="A246" s="6"/>
+      <c r="B246" s="8"/>
       <c r="C246" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D246" s="4"/>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A247" s="9"/>
-      <c r="B247" s="6"/>
+      <c r="A247" s="6"/>
+      <c r="B247" s="8"/>
       <c r="C247" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D247" s="4"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A248" s="9"/>
-      <c r="B248" s="6"/>
+      <c r="A248" s="6"/>
+      <c r="B248" s="8"/>
       <c r="C248" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D248" s="4"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A249" s="9"/>
-      <c r="B249" s="6"/>
+      <c r="A249" s="6"/>
+      <c r="B249" s="8"/>
       <c r="C249" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D249" s="4"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A250" s="9"/>
-      <c r="B250" s="6"/>
+      <c r="A250" s="6"/>
+      <c r="B250" s="8"/>
       <c r="C250" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D250" s="4"/>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A251" s="9"/>
-      <c r="B251" s="6"/>
+      <c r="A251" s="6"/>
+      <c r="B251" s="8"/>
       <c r="C251" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D251" s="4"/>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A252" s="9"/>
-      <c r="B252" s="6"/>
+      <c r="A252" s="6"/>
+      <c r="B252" s="8"/>
       <c r="C252" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D252" s="4"/>
     </row>
     <row r="253" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A253" s="9"/>
-      <c r="B253" s="7"/>
+      <c r="A253" s="6"/>
+      <c r="B253" s="9"/>
       <c r="C253" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D253" s="4"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A254" s="9"/>
-      <c r="B254" s="5" t="s">
+      <c r="A254" s="6"/>
+      <c r="B254" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C254" s="2" t="s">
@@ -2702,90 +2760,90 @@
       <c r="D254" s="3"/>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A255" s="9"/>
-      <c r="B255" s="6"/>
+      <c r="A255" s="6"/>
+      <c r="B255" s="8"/>
       <c r="C255" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D255" s="4"/>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A256" s="9"/>
-      <c r="B256" s="6"/>
+      <c r="A256" s="6"/>
+      <c r="B256" s="8"/>
       <c r="C256" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D256" s="4"/>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A257" s="9"/>
-      <c r="B257" s="6"/>
+      <c r="A257" s="6"/>
+      <c r="B257" s="8"/>
       <c r="C257" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D257" s="4"/>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A258" s="9"/>
-      <c r="B258" s="6"/>
+      <c r="A258" s="6"/>
+      <c r="B258" s="8"/>
       <c r="C258" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D258" s="4"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A259" s="9"/>
-      <c r="B259" s="6"/>
+      <c r="A259" s="6"/>
+      <c r="B259" s="8"/>
       <c r="C259" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D259" s="4"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A260" s="9"/>
-      <c r="B260" s="6"/>
+      <c r="A260" s="6"/>
+      <c r="B260" s="8"/>
       <c r="C260" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D260" s="4"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A261" s="9"/>
-      <c r="B261" s="6"/>
+      <c r="A261" s="6"/>
+      <c r="B261" s="8"/>
       <c r="C261" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D261" s="4"/>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A262" s="9"/>
-      <c r="B262" s="6"/>
+      <c r="A262" s="6"/>
+      <c r="B262" s="8"/>
       <c r="C262" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D262" s="4"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A263" s="9"/>
-      <c r="B263" s="6"/>
+      <c r="A263" s="6"/>
+      <c r="B263" s="8"/>
       <c r="C263" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D263" s="4"/>
     </row>
     <row r="264" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A264" s="9"/>
-      <c r="B264" s="7"/>
+      <c r="A264" s="6"/>
+      <c r="B264" s="9"/>
       <c r="C264" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D264" s="4"/>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A265" s="8">
-        <v>7</v>
-      </c>
-      <c r="B265" s="5" t="s">
+      <c r="A265" s="5">
+        <v>7</v>
+      </c>
+      <c r="B265" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C265" s="2" t="s">
@@ -2794,88 +2852,88 @@
       <c r="D265" s="3"/>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A266" s="9"/>
-      <c r="B266" s="6"/>
+      <c r="A266" s="6"/>
+      <c r="B266" s="8"/>
       <c r="C266" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D266" s="4"/>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A267" s="9"/>
-      <c r="B267" s="6"/>
+      <c r="A267" s="6"/>
+      <c r="B267" s="8"/>
       <c r="C267" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D267" s="4"/>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A268" s="9"/>
-      <c r="B268" s="6"/>
+      <c r="A268" s="6"/>
+      <c r="B268" s="8"/>
       <c r="C268" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D268" s="4"/>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A269" s="9"/>
-      <c r="B269" s="6"/>
+      <c r="A269" s="6"/>
+      <c r="B269" s="8"/>
       <c r="C269" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D269" s="4"/>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A270" s="9"/>
-      <c r="B270" s="6"/>
+      <c r="A270" s="6"/>
+      <c r="B270" s="8"/>
       <c r="C270" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D270" s="4"/>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A271" s="9"/>
-      <c r="B271" s="6"/>
+      <c r="A271" s="6"/>
+      <c r="B271" s="8"/>
       <c r="C271" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D271" s="4"/>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A272" s="9"/>
-      <c r="B272" s="6"/>
+      <c r="A272" s="6"/>
+      <c r="B272" s="8"/>
       <c r="C272" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D272" s="4"/>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A273" s="9"/>
-      <c r="B273" s="6"/>
+      <c r="A273" s="6"/>
+      <c r="B273" s="8"/>
       <c r="C273" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D273" s="4"/>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A274" s="9"/>
-      <c r="B274" s="6"/>
+      <c r="A274" s="6"/>
+      <c r="B274" s="8"/>
       <c r="C274" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D274" s="4"/>
     </row>
     <row r="275" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A275" s="9"/>
-      <c r="B275" s="7"/>
+      <c r="A275" s="6"/>
+      <c r="B275" s="9"/>
       <c r="C275" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D275" s="4"/>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A276" s="9"/>
-      <c r="B276" s="5" t="s">
+      <c r="A276" s="6"/>
+      <c r="B276" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C276" s="2" t="s">
@@ -2884,88 +2942,88 @@
       <c r="D276" s="3"/>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A277" s="9"/>
-      <c r="B277" s="6"/>
+      <c r="A277" s="6"/>
+      <c r="B277" s="8"/>
       <c r="C277" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D277" s="4"/>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A278" s="9"/>
-      <c r="B278" s="6"/>
+      <c r="A278" s="6"/>
+      <c r="B278" s="8"/>
       <c r="C278" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D278" s="4"/>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A279" s="9"/>
-      <c r="B279" s="6"/>
+      <c r="A279" s="6"/>
+      <c r="B279" s="8"/>
       <c r="C279" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D279" s="4"/>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A280" s="9"/>
-      <c r="B280" s="6"/>
+      <c r="A280" s="6"/>
+      <c r="B280" s="8"/>
       <c r="C280" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D280" s="4"/>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A281" s="9"/>
-      <c r="B281" s="6"/>
+      <c r="A281" s="6"/>
+      <c r="B281" s="8"/>
       <c r="C281" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D281" s="4"/>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A282" s="9"/>
-      <c r="B282" s="6"/>
+      <c r="A282" s="6"/>
+      <c r="B282" s="8"/>
       <c r="C282" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D282" s="4"/>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A283" s="9"/>
-      <c r="B283" s="6"/>
+      <c r="A283" s="6"/>
+      <c r="B283" s="8"/>
       <c r="C283" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D283" s="4"/>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A284" s="9"/>
-      <c r="B284" s="6"/>
+      <c r="A284" s="6"/>
+      <c r="B284" s="8"/>
       <c r="C284" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D284" s="4"/>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A285" s="9"/>
-      <c r="B285" s="6"/>
+      <c r="A285" s="6"/>
+      <c r="B285" s="8"/>
       <c r="C285" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D285" s="4"/>
     </row>
     <row r="286" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A286" s="9"/>
-      <c r="B286" s="7"/>
+      <c r="A286" s="6"/>
+      <c r="B286" s="9"/>
       <c r="C286" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D286" s="4"/>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A287" s="9"/>
-      <c r="B287" s="5" t="s">
+      <c r="A287" s="6"/>
+      <c r="B287" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C287" s="2" t="s">
@@ -2974,88 +3032,88 @@
       <c r="D287" s="3"/>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A288" s="9"/>
-      <c r="B288" s="6"/>
+      <c r="A288" s="6"/>
+      <c r="B288" s="8"/>
       <c r="C288" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D288" s="4"/>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A289" s="9"/>
-      <c r="B289" s="6"/>
+      <c r="A289" s="6"/>
+      <c r="B289" s="8"/>
       <c r="C289" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D289" s="4"/>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A290" s="9"/>
-      <c r="B290" s="6"/>
+      <c r="A290" s="6"/>
+      <c r="B290" s="8"/>
       <c r="C290" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D290" s="4"/>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A291" s="9"/>
-      <c r="B291" s="6"/>
+      <c r="A291" s="6"/>
+      <c r="B291" s="8"/>
       <c r="C291" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D291" s="4"/>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A292" s="9"/>
-      <c r="B292" s="6"/>
+      <c r="A292" s="6"/>
+      <c r="B292" s="8"/>
       <c r="C292" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D292" s="4"/>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A293" s="9"/>
-      <c r="B293" s="6"/>
+      <c r="A293" s="6"/>
+      <c r="B293" s="8"/>
       <c r="C293" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D293" s="4"/>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A294" s="9"/>
-      <c r="B294" s="6"/>
+      <c r="A294" s="6"/>
+      <c r="B294" s="8"/>
       <c r="C294" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D294" s="4"/>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A295" s="9"/>
-      <c r="B295" s="6"/>
+      <c r="A295" s="6"/>
+      <c r="B295" s="8"/>
       <c r="C295" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D295" s="4"/>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A296" s="9"/>
-      <c r="B296" s="6"/>
+      <c r="A296" s="6"/>
+      <c r="B296" s="8"/>
       <c r="C296" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D296" s="4"/>
     </row>
     <row r="297" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A297" s="9"/>
-      <c r="B297" s="7"/>
+      <c r="A297" s="6"/>
+      <c r="B297" s="9"/>
       <c r="C297" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D297" s="4"/>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A298" s="9"/>
-      <c r="B298" s="5" t="s">
+      <c r="A298" s="6"/>
+      <c r="B298" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C298" s="2" t="s">
@@ -3064,90 +3122,90 @@
       <c r="D298" s="3"/>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A299" s="9"/>
-      <c r="B299" s="6"/>
+      <c r="A299" s="6"/>
+      <c r="B299" s="8"/>
       <c r="C299" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D299" s="4"/>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A300" s="9"/>
-      <c r="B300" s="6"/>
+      <c r="A300" s="6"/>
+      <c r="B300" s="8"/>
       <c r="C300" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D300" s="4"/>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A301" s="9"/>
-      <c r="B301" s="6"/>
+      <c r="A301" s="6"/>
+      <c r="B301" s="8"/>
       <c r="C301" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D301" s="4"/>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A302" s="9"/>
-      <c r="B302" s="6"/>
+      <c r="A302" s="6"/>
+      <c r="B302" s="8"/>
       <c r="C302" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D302" s="4"/>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A303" s="9"/>
-      <c r="B303" s="6"/>
+      <c r="A303" s="6"/>
+      <c r="B303" s="8"/>
       <c r="C303" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D303" s="4"/>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A304" s="9"/>
-      <c r="B304" s="6"/>
+      <c r="A304" s="6"/>
+      <c r="B304" s="8"/>
       <c r="C304" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D304" s="4"/>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A305" s="9"/>
-      <c r="B305" s="6"/>
+      <c r="A305" s="6"/>
+      <c r="B305" s="8"/>
       <c r="C305" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D305" s="4"/>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A306" s="9"/>
-      <c r="B306" s="6"/>
+      <c r="A306" s="6"/>
+      <c r="B306" s="8"/>
       <c r="C306" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D306" s="4"/>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A307" s="9"/>
-      <c r="B307" s="6"/>
+      <c r="A307" s="6"/>
+      <c r="B307" s="8"/>
       <c r="C307" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D307" s="4"/>
     </row>
     <row r="308" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A308" s="9"/>
-      <c r="B308" s="7"/>
+      <c r="A308" s="6"/>
+      <c r="B308" s="9"/>
       <c r="C308" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D308" s="4"/>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A309" s="8">
-        <v>8</v>
-      </c>
-      <c r="B309" s="5" t="s">
+      <c r="A309" s="5">
+        <v>8</v>
+      </c>
+      <c r="B309" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C309" s="2" t="s">
@@ -3156,88 +3214,88 @@
       <c r="D309" s="3"/>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A310" s="9"/>
-      <c r="B310" s="6"/>
+      <c r="A310" s="6"/>
+      <c r="B310" s="8"/>
       <c r="C310" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D310" s="4"/>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A311" s="9"/>
-      <c r="B311" s="6"/>
+      <c r="A311" s="6"/>
+      <c r="B311" s="8"/>
       <c r="C311" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D311" s="4"/>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A312" s="9"/>
-      <c r="B312" s="6"/>
+      <c r="A312" s="6"/>
+      <c r="B312" s="8"/>
       <c r="C312" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D312" s="4"/>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A313" s="9"/>
-      <c r="B313" s="6"/>
+      <c r="A313" s="6"/>
+      <c r="B313" s="8"/>
       <c r="C313" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D313" s="4"/>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A314" s="9"/>
-      <c r="B314" s="6"/>
+      <c r="A314" s="6"/>
+      <c r="B314" s="8"/>
       <c r="C314" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D314" s="4"/>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A315" s="9"/>
-      <c r="B315" s="6"/>
+      <c r="A315" s="6"/>
+      <c r="B315" s="8"/>
       <c r="C315" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D315" s="4"/>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A316" s="9"/>
-      <c r="B316" s="6"/>
+      <c r="A316" s="6"/>
+      <c r="B316" s="8"/>
       <c r="C316" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D316" s="4"/>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A317" s="9"/>
-      <c r="B317" s="6"/>
+      <c r="A317" s="6"/>
+      <c r="B317" s="8"/>
       <c r="C317" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D317" s="4"/>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A318" s="9"/>
-      <c r="B318" s="6"/>
+      <c r="A318" s="6"/>
+      <c r="B318" s="8"/>
       <c r="C318" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D318" s="4"/>
     </row>
     <row r="319" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A319" s="9"/>
-      <c r="B319" s="7"/>
+      <c r="A319" s="6"/>
+      <c r="B319" s="9"/>
       <c r="C319" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D319" s="4"/>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A320" s="9"/>
-      <c r="B320" s="5" t="s">
+      <c r="A320" s="6"/>
+      <c r="B320" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C320" s="2" t="s">
@@ -3246,88 +3304,88 @@
       <c r="D320" s="3"/>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A321" s="9"/>
-      <c r="B321" s="6"/>
+      <c r="A321" s="6"/>
+      <c r="B321" s="8"/>
       <c r="C321" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D321" s="4"/>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A322" s="9"/>
-      <c r="B322" s="6"/>
+      <c r="A322" s="6"/>
+      <c r="B322" s="8"/>
       <c r="C322" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D322" s="4"/>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A323" s="9"/>
-      <c r="B323" s="6"/>
+      <c r="A323" s="6"/>
+      <c r="B323" s="8"/>
       <c r="C323" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D323" s="4"/>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A324" s="9"/>
-      <c r="B324" s="6"/>
+      <c r="A324" s="6"/>
+      <c r="B324" s="8"/>
       <c r="C324" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D324" s="4"/>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A325" s="9"/>
-      <c r="B325" s="6"/>
+      <c r="A325" s="6"/>
+      <c r="B325" s="8"/>
       <c r="C325" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D325" s="4"/>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A326" s="9"/>
-      <c r="B326" s="6"/>
+      <c r="A326" s="6"/>
+      <c r="B326" s="8"/>
       <c r="C326" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D326" s="4"/>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A327" s="9"/>
-      <c r="B327" s="6"/>
+      <c r="A327" s="6"/>
+      <c r="B327" s="8"/>
       <c r="C327" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D327" s="4"/>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A328" s="9"/>
-      <c r="B328" s="6"/>
+      <c r="A328" s="6"/>
+      <c r="B328" s="8"/>
       <c r="C328" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D328" s="4"/>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A329" s="9"/>
-      <c r="B329" s="6"/>
+      <c r="A329" s="6"/>
+      <c r="B329" s="8"/>
       <c r="C329" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D329" s="4"/>
     </row>
     <row r="330" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A330" s="9"/>
-      <c r="B330" s="7"/>
+      <c r="A330" s="6"/>
+      <c r="B330" s="9"/>
       <c r="C330" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D330" s="4"/>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A331" s="9"/>
-      <c r="B331" s="5" t="s">
+      <c r="A331" s="6"/>
+      <c r="B331" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C331" s="2" t="s">
@@ -3336,88 +3394,88 @@
       <c r="D331" s="3"/>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A332" s="9"/>
-      <c r="B332" s="6"/>
+      <c r="A332" s="6"/>
+      <c r="B332" s="8"/>
       <c r="C332" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D332" s="4"/>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A333" s="9"/>
-      <c r="B333" s="6"/>
+      <c r="A333" s="6"/>
+      <c r="B333" s="8"/>
       <c r="C333" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D333" s="4"/>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A334" s="9"/>
-      <c r="B334" s="6"/>
+      <c r="A334" s="6"/>
+      <c r="B334" s="8"/>
       <c r="C334" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D334" s="4"/>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A335" s="9"/>
-      <c r="B335" s="6"/>
+      <c r="A335" s="6"/>
+      <c r="B335" s="8"/>
       <c r="C335" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D335" s="4"/>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A336" s="9"/>
-      <c r="B336" s="6"/>
+      <c r="A336" s="6"/>
+      <c r="B336" s="8"/>
       <c r="C336" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D336" s="4"/>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A337" s="9"/>
-      <c r="B337" s="6"/>
+      <c r="A337" s="6"/>
+      <c r="B337" s="8"/>
       <c r="C337" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D337" s="4"/>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A338" s="9"/>
-      <c r="B338" s="6"/>
+      <c r="A338" s="6"/>
+      <c r="B338" s="8"/>
       <c r="C338" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D338" s="4"/>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A339" s="9"/>
-      <c r="B339" s="6"/>
+      <c r="A339" s="6"/>
+      <c r="B339" s="8"/>
       <c r="C339" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D339" s="4"/>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A340" s="9"/>
-      <c r="B340" s="6"/>
+      <c r="A340" s="6"/>
+      <c r="B340" s="8"/>
       <c r="C340" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D340" s="4"/>
     </row>
     <row r="341" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A341" s="9"/>
-      <c r="B341" s="7"/>
+      <c r="A341" s="6"/>
+      <c r="B341" s="9"/>
       <c r="C341" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D341" s="4"/>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A342" s="9"/>
-      <c r="B342" s="5" t="s">
+      <c r="A342" s="6"/>
+      <c r="B342" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C342" s="2" t="s">
@@ -3426,90 +3484,90 @@
       <c r="D342" s="3"/>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A343" s="9"/>
-      <c r="B343" s="6"/>
+      <c r="A343" s="6"/>
+      <c r="B343" s="8"/>
       <c r="C343" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D343" s="4"/>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A344" s="9"/>
-      <c r="B344" s="6"/>
+      <c r="A344" s="6"/>
+      <c r="B344" s="8"/>
       <c r="C344" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D344" s="4"/>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A345" s="9"/>
-      <c r="B345" s="6"/>
+      <c r="A345" s="6"/>
+      <c r="B345" s="8"/>
       <c r="C345" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D345" s="4"/>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A346" s="9"/>
-      <c r="B346" s="6"/>
+      <c r="A346" s="6"/>
+      <c r="B346" s="8"/>
       <c r="C346" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D346" s="4"/>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A347" s="9"/>
-      <c r="B347" s="6"/>
+      <c r="A347" s="6"/>
+      <c r="B347" s="8"/>
       <c r="C347" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D347" s="4"/>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A348" s="9"/>
-      <c r="B348" s="6"/>
+      <c r="A348" s="6"/>
+      <c r="B348" s="8"/>
       <c r="C348" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D348" s="4"/>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A349" s="9"/>
-      <c r="B349" s="6"/>
+      <c r="A349" s="6"/>
+      <c r="B349" s="8"/>
       <c r="C349" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D349" s="4"/>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A350" s="9"/>
-      <c r="B350" s="6"/>
+      <c r="A350" s="6"/>
+      <c r="B350" s="8"/>
       <c r="C350" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D350" s="4"/>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A351" s="9"/>
-      <c r="B351" s="6"/>
+      <c r="A351" s="6"/>
+      <c r="B351" s="8"/>
       <c r="C351" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D351" s="4"/>
     </row>
     <row r="352" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A352" s="9"/>
-      <c r="B352" s="7"/>
+      <c r="A352" s="6"/>
+      <c r="B352" s="9"/>
       <c r="C352" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D352" s="4"/>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A353" s="8">
+      <c r="A353" s="5">
         <v>9</v>
       </c>
-      <c r="B353" s="5" t="s">
+      <c r="B353" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C353" s="2" t="s">
@@ -3518,88 +3576,88 @@
       <c r="D353" s="3"/>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A354" s="9"/>
-      <c r="B354" s="6"/>
+      <c r="A354" s="6"/>
+      <c r="B354" s="8"/>
       <c r="C354" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D354" s="4"/>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A355" s="9"/>
-      <c r="B355" s="6"/>
+      <c r="A355" s="6"/>
+      <c r="B355" s="8"/>
       <c r="C355" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D355" s="4"/>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A356" s="9"/>
-      <c r="B356" s="6"/>
+      <c r="A356" s="6"/>
+      <c r="B356" s="8"/>
       <c r="C356" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D356" s="4"/>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A357" s="9"/>
-      <c r="B357" s="6"/>
+      <c r="A357" s="6"/>
+      <c r="B357" s="8"/>
       <c r="C357" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D357" s="4"/>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A358" s="9"/>
-      <c r="B358" s="6"/>
+      <c r="A358" s="6"/>
+      <c r="B358" s="8"/>
       <c r="C358" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D358" s="4"/>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A359" s="9"/>
-      <c r="B359" s="6"/>
+      <c r="A359" s="6"/>
+      <c r="B359" s="8"/>
       <c r="C359" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D359" s="4"/>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A360" s="9"/>
-      <c r="B360" s="6"/>
+      <c r="A360" s="6"/>
+      <c r="B360" s="8"/>
       <c r="C360" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D360" s="4"/>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A361" s="9"/>
-      <c r="B361" s="6"/>
+      <c r="A361" s="6"/>
+      <c r="B361" s="8"/>
       <c r="C361" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D361" s="4"/>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A362" s="9"/>
-      <c r="B362" s="6"/>
+      <c r="A362" s="6"/>
+      <c r="B362" s="8"/>
       <c r="C362" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D362" s="4"/>
     </row>
     <row r="363" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A363" s="9"/>
-      <c r="B363" s="7"/>
+      <c r="A363" s="6"/>
+      <c r="B363" s="9"/>
       <c r="C363" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D363" s="4"/>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A364" s="9"/>
-      <c r="B364" s="5" t="s">
+      <c r="A364" s="6"/>
+      <c r="B364" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C364" s="2" t="s">
@@ -3608,88 +3666,88 @@
       <c r="D364" s="3"/>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A365" s="9"/>
-      <c r="B365" s="6"/>
+      <c r="A365" s="6"/>
+      <c r="B365" s="8"/>
       <c r="C365" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D365" s="4"/>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A366" s="9"/>
-      <c r="B366" s="6"/>
+      <c r="A366" s="6"/>
+      <c r="B366" s="8"/>
       <c r="C366" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D366" s="4"/>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A367" s="9"/>
-      <c r="B367" s="6"/>
+      <c r="A367" s="6"/>
+      <c r="B367" s="8"/>
       <c r="C367" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D367" s="4"/>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A368" s="9"/>
-      <c r="B368" s="6"/>
+      <c r="A368" s="6"/>
+      <c r="B368" s="8"/>
       <c r="C368" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D368" s="4"/>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A369" s="9"/>
-      <c r="B369" s="6"/>
+      <c r="A369" s="6"/>
+      <c r="B369" s="8"/>
       <c r="C369" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D369" s="4"/>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A370" s="9"/>
-      <c r="B370" s="6"/>
+      <c r="A370" s="6"/>
+      <c r="B370" s="8"/>
       <c r="C370" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D370" s="4"/>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A371" s="9"/>
-      <c r="B371" s="6"/>
+      <c r="A371" s="6"/>
+      <c r="B371" s="8"/>
       <c r="C371" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D371" s="4"/>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A372" s="9"/>
-      <c r="B372" s="6"/>
+      <c r="A372" s="6"/>
+      <c r="B372" s="8"/>
       <c r="C372" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D372" s="4"/>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A373" s="9"/>
-      <c r="B373" s="6"/>
+      <c r="A373" s="6"/>
+      <c r="B373" s="8"/>
       <c r="C373" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D373" s="4"/>
     </row>
     <row r="374" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A374" s="9"/>
-      <c r="B374" s="7"/>
+      <c r="A374" s="6"/>
+      <c r="B374" s="9"/>
       <c r="C374" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D374" s="4"/>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A375" s="9"/>
-      <c r="B375" s="5" t="s">
+      <c r="A375" s="6"/>
+      <c r="B375" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C375" s="2" t="s">
@@ -3698,88 +3756,88 @@
       <c r="D375" s="3"/>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A376" s="9"/>
-      <c r="B376" s="6"/>
+      <c r="A376" s="6"/>
+      <c r="B376" s="8"/>
       <c r="C376" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D376" s="4"/>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A377" s="9"/>
-      <c r="B377" s="6"/>
+      <c r="A377" s="6"/>
+      <c r="B377" s="8"/>
       <c r="C377" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D377" s="4"/>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A378" s="9"/>
-      <c r="B378" s="6"/>
+      <c r="A378" s="6"/>
+      <c r="B378" s="8"/>
       <c r="C378" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D378" s="4"/>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A379" s="9"/>
-      <c r="B379" s="6"/>
+      <c r="A379" s="6"/>
+      <c r="B379" s="8"/>
       <c r="C379" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D379" s="4"/>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A380" s="9"/>
-      <c r="B380" s="6"/>
+      <c r="A380" s="6"/>
+      <c r="B380" s="8"/>
       <c r="C380" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D380" s="4"/>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A381" s="9"/>
-      <c r="B381" s="6"/>
+      <c r="A381" s="6"/>
+      <c r="B381" s="8"/>
       <c r="C381" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D381" s="4"/>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A382" s="9"/>
-      <c r="B382" s="6"/>
+      <c r="A382" s="6"/>
+      <c r="B382" s="8"/>
       <c r="C382" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D382" s="4"/>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A383" s="9"/>
-      <c r="B383" s="6"/>
+      <c r="A383" s="6"/>
+      <c r="B383" s="8"/>
       <c r="C383" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D383" s="4"/>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A384" s="9"/>
-      <c r="B384" s="6"/>
+      <c r="A384" s="6"/>
+      <c r="B384" s="8"/>
       <c r="C384" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D384" s="4"/>
     </row>
     <row r="385" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A385" s="9"/>
-      <c r="B385" s="7"/>
+      <c r="A385" s="6"/>
+      <c r="B385" s="9"/>
       <c r="C385" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D385" s="4"/>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A386" s="9"/>
-      <c r="B386" s="5" t="s">
+      <c r="A386" s="6"/>
+      <c r="B386" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C386" s="2" t="s">
@@ -3788,90 +3846,90 @@
       <c r="D386" s="3"/>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A387" s="9"/>
-      <c r="B387" s="6"/>
+      <c r="A387" s="6"/>
+      <c r="B387" s="8"/>
       <c r="C387" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D387" s="4"/>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A388" s="9"/>
-      <c r="B388" s="6"/>
+      <c r="A388" s="6"/>
+      <c r="B388" s="8"/>
       <c r="C388" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D388" s="4"/>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A389" s="9"/>
-      <c r="B389" s="6"/>
+      <c r="A389" s="6"/>
+      <c r="B389" s="8"/>
       <c r="C389" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D389" s="4"/>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A390" s="9"/>
-      <c r="B390" s="6"/>
+      <c r="A390" s="6"/>
+      <c r="B390" s="8"/>
       <c r="C390" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D390" s="4"/>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A391" s="9"/>
-      <c r="B391" s="6"/>
+      <c r="A391" s="6"/>
+      <c r="B391" s="8"/>
       <c r="C391" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D391" s="4"/>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A392" s="9"/>
-      <c r="B392" s="6"/>
+      <c r="A392" s="6"/>
+      <c r="B392" s="8"/>
       <c r="C392" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D392" s="4"/>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A393" s="9"/>
-      <c r="B393" s="6"/>
+      <c r="A393" s="6"/>
+      <c r="B393" s="8"/>
       <c r="C393" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D393" s="4"/>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A394" s="9"/>
-      <c r="B394" s="6"/>
+      <c r="A394" s="6"/>
+      <c r="B394" s="8"/>
       <c r="C394" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D394" s="4"/>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A395" s="9"/>
-      <c r="B395" s="6"/>
+      <c r="A395" s="6"/>
+      <c r="B395" s="8"/>
       <c r="C395" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D395" s="4"/>
     </row>
     <row r="396" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A396" s="9"/>
-      <c r="B396" s="7"/>
+      <c r="A396" s="6"/>
+      <c r="B396" s="9"/>
       <c r="C396" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D396" s="4"/>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A397" s="8">
+      <c r="A397" s="5">
         <v>10</v>
       </c>
-      <c r="B397" s="5" t="s">
+      <c r="B397" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C397" s="2" t="s">
@@ -3880,88 +3938,88 @@
       <c r="D397" s="3"/>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A398" s="9"/>
-      <c r="B398" s="6"/>
+      <c r="A398" s="6"/>
+      <c r="B398" s="8"/>
       <c r="C398" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D398" s="4"/>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A399" s="9"/>
-      <c r="B399" s="6"/>
+      <c r="A399" s="6"/>
+      <c r="B399" s="8"/>
       <c r="C399" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D399" s="4"/>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A400" s="9"/>
-      <c r="B400" s="6"/>
+      <c r="A400" s="6"/>
+      <c r="B400" s="8"/>
       <c r="C400" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D400" s="4"/>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A401" s="9"/>
-      <c r="B401" s="6"/>
+      <c r="A401" s="6"/>
+      <c r="B401" s="8"/>
       <c r="C401" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D401" s="4"/>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A402" s="9"/>
-      <c r="B402" s="6"/>
+      <c r="A402" s="6"/>
+      <c r="B402" s="8"/>
       <c r="C402" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D402" s="4"/>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A403" s="9"/>
-      <c r="B403" s="6"/>
+      <c r="A403" s="6"/>
+      <c r="B403" s="8"/>
       <c r="C403" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D403" s="4"/>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A404" s="9"/>
-      <c r="B404" s="6"/>
+      <c r="A404" s="6"/>
+      <c r="B404" s="8"/>
       <c r="C404" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D404" s="4"/>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A405" s="9"/>
-      <c r="B405" s="6"/>
+      <c r="A405" s="6"/>
+      <c r="B405" s="8"/>
       <c r="C405" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D405" s="4"/>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A406" s="9"/>
-      <c r="B406" s="6"/>
+      <c r="A406" s="6"/>
+      <c r="B406" s="8"/>
       <c r="C406" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D406" s="4"/>
     </row>
     <row r="407" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A407" s="9"/>
-      <c r="B407" s="7"/>
+      <c r="A407" s="6"/>
+      <c r="B407" s="9"/>
       <c r="C407" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D407" s="4"/>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A408" s="9"/>
-      <c r="B408" s="5" t="s">
+      <c r="A408" s="6"/>
+      <c r="B408" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C408" s="2" t="s">
@@ -3970,88 +4028,88 @@
       <c r="D408" s="3"/>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A409" s="9"/>
-      <c r="B409" s="6"/>
+      <c r="A409" s="6"/>
+      <c r="B409" s="8"/>
       <c r="C409" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D409" s="4"/>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A410" s="9"/>
-      <c r="B410" s="6"/>
+      <c r="A410" s="6"/>
+      <c r="B410" s="8"/>
       <c r="C410" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D410" s="4"/>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A411" s="9"/>
-      <c r="B411" s="6"/>
+      <c r="A411" s="6"/>
+      <c r="B411" s="8"/>
       <c r="C411" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D411" s="4"/>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A412" s="9"/>
-      <c r="B412" s="6"/>
+      <c r="A412" s="6"/>
+      <c r="B412" s="8"/>
       <c r="C412" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D412" s="4"/>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A413" s="9"/>
-      <c r="B413" s="6"/>
+      <c r="A413" s="6"/>
+      <c r="B413" s="8"/>
       <c r="C413" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D413" s="4"/>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A414" s="9"/>
-      <c r="B414" s="6"/>
+      <c r="A414" s="6"/>
+      <c r="B414" s="8"/>
       <c r="C414" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D414" s="4"/>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A415" s="9"/>
-      <c r="B415" s="6"/>
+      <c r="A415" s="6"/>
+      <c r="B415" s="8"/>
       <c r="C415" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D415" s="4"/>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A416" s="9"/>
-      <c r="B416" s="6"/>
+      <c r="A416" s="6"/>
+      <c r="B416" s="8"/>
       <c r="C416" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D416" s="4"/>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A417" s="9"/>
-      <c r="B417" s="6"/>
+      <c r="A417" s="6"/>
+      <c r="B417" s="8"/>
       <c r="C417" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D417" s="4"/>
     </row>
     <row r="418" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A418" s="9"/>
-      <c r="B418" s="7"/>
+      <c r="A418" s="6"/>
+      <c r="B418" s="9"/>
       <c r="C418" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D418" s="4"/>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A419" s="9"/>
-      <c r="B419" s="5" t="s">
+      <c r="A419" s="6"/>
+      <c r="B419" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C419" s="2" t="s">
@@ -4060,88 +4118,88 @@
       <c r="D419" s="3"/>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A420" s="9"/>
-      <c r="B420" s="6"/>
+      <c r="A420" s="6"/>
+      <c r="B420" s="8"/>
       <c r="C420" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D420" s="4"/>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A421" s="9"/>
-      <c r="B421" s="6"/>
+      <c r="A421" s="6"/>
+      <c r="B421" s="8"/>
       <c r="C421" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D421" s="4"/>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A422" s="9"/>
-      <c r="B422" s="6"/>
+      <c r="A422" s="6"/>
+      <c r="B422" s="8"/>
       <c r="C422" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D422" s="4"/>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A423" s="9"/>
-      <c r="B423" s="6"/>
+      <c r="A423" s="6"/>
+      <c r="B423" s="8"/>
       <c r="C423" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D423" s="4"/>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A424" s="9"/>
-      <c r="B424" s="6"/>
+      <c r="A424" s="6"/>
+      <c r="B424" s="8"/>
       <c r="C424" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D424" s="4"/>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A425" s="9"/>
-      <c r="B425" s="6"/>
+      <c r="A425" s="6"/>
+      <c r="B425" s="8"/>
       <c r="C425" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D425" s="4"/>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A426" s="9"/>
-      <c r="B426" s="6"/>
+      <c r="A426" s="6"/>
+      <c r="B426" s="8"/>
       <c r="C426" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D426" s="4"/>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A427" s="9"/>
-      <c r="B427" s="6"/>
+      <c r="A427" s="6"/>
+      <c r="B427" s="8"/>
       <c r="C427" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D427" s="4"/>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A428" s="9"/>
-      <c r="B428" s="6"/>
+      <c r="A428" s="6"/>
+      <c r="B428" s="8"/>
       <c r="C428" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D428" s="4"/>
     </row>
     <row r="429" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A429" s="9"/>
-      <c r="B429" s="7"/>
+      <c r="A429" s="6"/>
+      <c r="B429" s="9"/>
       <c r="C429" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D429" s="4"/>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A430" s="9"/>
-      <c r="B430" s="5" t="s">
+      <c r="A430" s="6"/>
+      <c r="B430" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C430" s="2" t="s">
@@ -4150,90 +4208,90 @@
       <c r="D430" s="3"/>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A431" s="9"/>
-      <c r="B431" s="6"/>
+      <c r="A431" s="6"/>
+      <c r="B431" s="8"/>
       <c r="C431" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D431" s="4"/>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A432" s="9"/>
-      <c r="B432" s="6"/>
+      <c r="A432" s="6"/>
+      <c r="B432" s="8"/>
       <c r="C432" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D432" s="4"/>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A433" s="9"/>
-      <c r="B433" s="6"/>
+      <c r="A433" s="6"/>
+      <c r="B433" s="8"/>
       <c r="C433" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D433" s="4"/>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A434" s="9"/>
-      <c r="B434" s="6"/>
+      <c r="A434" s="6"/>
+      <c r="B434" s="8"/>
       <c r="C434" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D434" s="4"/>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A435" s="9"/>
-      <c r="B435" s="6"/>
+      <c r="A435" s="6"/>
+      <c r="B435" s="8"/>
       <c r="C435" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D435" s="4"/>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A436" s="9"/>
-      <c r="B436" s="6"/>
+      <c r="A436" s="6"/>
+      <c r="B436" s="8"/>
       <c r="C436" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D436" s="4"/>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A437" s="9"/>
-      <c r="B437" s="6"/>
+      <c r="A437" s="6"/>
+      <c r="B437" s="8"/>
       <c r="C437" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D437" s="4"/>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A438" s="9"/>
-      <c r="B438" s="6"/>
+      <c r="A438" s="6"/>
+      <c r="B438" s="8"/>
       <c r="C438" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D438" s="4"/>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A439" s="9"/>
-      <c r="B439" s="6"/>
+      <c r="A439" s="6"/>
+      <c r="B439" s="8"/>
       <c r="C439" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D439" s="4"/>
     </row>
     <row r="440" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A440" s="9"/>
-      <c r="B440" s="7"/>
+      <c r="A440" s="6"/>
+      <c r="B440" s="9"/>
       <c r="C440" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D440" s="4"/>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A441" s="8">
+      <c r="A441" s="5">
         <v>11</v>
       </c>
-      <c r="B441" s="5" t="s">
+      <c r="B441" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C441" s="2" t="s">
@@ -4242,88 +4300,88 @@
       <c r="D441" s="3"/>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A442" s="9"/>
-      <c r="B442" s="6"/>
+      <c r="A442" s="6"/>
+      <c r="B442" s="8"/>
       <c r="C442" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D442" s="4"/>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A443" s="9"/>
-      <c r="B443" s="6"/>
+      <c r="A443" s="6"/>
+      <c r="B443" s="8"/>
       <c r="C443" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D443" s="4"/>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A444" s="9"/>
-      <c r="B444" s="6"/>
+      <c r="A444" s="6"/>
+      <c r="B444" s="8"/>
       <c r="C444" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D444" s="4"/>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A445" s="9"/>
-      <c r="B445" s="6"/>
+      <c r="A445" s="6"/>
+      <c r="B445" s="8"/>
       <c r="C445" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D445" s="4"/>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A446" s="9"/>
-      <c r="B446" s="6"/>
+      <c r="A446" s="6"/>
+      <c r="B446" s="8"/>
       <c r="C446" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D446" s="4"/>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A447" s="9"/>
-      <c r="B447" s="6"/>
+      <c r="A447" s="6"/>
+      <c r="B447" s="8"/>
       <c r="C447" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D447" s="4"/>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A448" s="9"/>
-      <c r="B448" s="6"/>
+      <c r="A448" s="6"/>
+      <c r="B448" s="8"/>
       <c r="C448" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D448" s="4"/>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A449" s="9"/>
-      <c r="B449" s="6"/>
+      <c r="A449" s="6"/>
+      <c r="B449" s="8"/>
       <c r="C449" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D449" s="4"/>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A450" s="9"/>
-      <c r="B450" s="6"/>
+      <c r="A450" s="6"/>
+      <c r="B450" s="8"/>
       <c r="C450" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D450" s="4"/>
     </row>
     <row r="451" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A451" s="9"/>
-      <c r="B451" s="7"/>
+      <c r="A451" s="6"/>
+      <c r="B451" s="9"/>
       <c r="C451" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D451" s="4"/>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A452" s="9"/>
-      <c r="B452" s="5" t="s">
+      <c r="A452" s="6"/>
+      <c r="B452" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C452" s="2" t="s">
@@ -4332,88 +4390,88 @@
       <c r="D452" s="3"/>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A453" s="9"/>
-      <c r="B453" s="6"/>
+      <c r="A453" s="6"/>
+      <c r="B453" s="8"/>
       <c r="C453" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D453" s="4"/>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A454" s="9"/>
-      <c r="B454" s="6"/>
+      <c r="A454" s="6"/>
+      <c r="B454" s="8"/>
       <c r="C454" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D454" s="4"/>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A455" s="9"/>
-      <c r="B455" s="6"/>
+      <c r="A455" s="6"/>
+      <c r="B455" s="8"/>
       <c r="C455" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D455" s="4"/>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A456" s="9"/>
-      <c r="B456" s="6"/>
+      <c r="A456" s="6"/>
+      <c r="B456" s="8"/>
       <c r="C456" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D456" s="4"/>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A457" s="9"/>
-      <c r="B457" s="6"/>
+      <c r="A457" s="6"/>
+      <c r="B457" s="8"/>
       <c r="C457" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D457" s="4"/>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A458" s="9"/>
-      <c r="B458" s="6"/>
+      <c r="A458" s="6"/>
+      <c r="B458" s="8"/>
       <c r="C458" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D458" s="4"/>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A459" s="9"/>
-      <c r="B459" s="6"/>
+      <c r="A459" s="6"/>
+      <c r="B459" s="8"/>
       <c r="C459" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D459" s="4"/>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A460" s="9"/>
-      <c r="B460" s="6"/>
+      <c r="A460" s="6"/>
+      <c r="B460" s="8"/>
       <c r="C460" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D460" s="4"/>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A461" s="9"/>
-      <c r="B461" s="6"/>
+      <c r="A461" s="6"/>
+      <c r="B461" s="8"/>
       <c r="C461" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D461" s="4"/>
     </row>
     <row r="462" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A462" s="9"/>
-      <c r="B462" s="7"/>
+      <c r="A462" s="6"/>
+      <c r="B462" s="9"/>
       <c r="C462" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D462" s="4"/>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A463" s="9"/>
-      <c r="B463" s="5" t="s">
+      <c r="A463" s="6"/>
+      <c r="B463" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C463" s="2" t="s">
@@ -4422,88 +4480,88 @@
       <c r="D463" s="3"/>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A464" s="9"/>
-      <c r="B464" s="6"/>
+      <c r="A464" s="6"/>
+      <c r="B464" s="8"/>
       <c r="C464" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D464" s="4"/>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A465" s="9"/>
-      <c r="B465" s="6"/>
+      <c r="A465" s="6"/>
+      <c r="B465" s="8"/>
       <c r="C465" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D465" s="4"/>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A466" s="9"/>
-      <c r="B466" s="6"/>
+      <c r="A466" s="6"/>
+      <c r="B466" s="8"/>
       <c r="C466" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D466" s="4"/>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A467" s="9"/>
-      <c r="B467" s="6"/>
+      <c r="A467" s="6"/>
+      <c r="B467" s="8"/>
       <c r="C467" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D467" s="4"/>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A468" s="9"/>
-      <c r="B468" s="6"/>
+      <c r="A468" s="6"/>
+      <c r="B468" s="8"/>
       <c r="C468" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D468" s="4"/>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A469" s="9"/>
-      <c r="B469" s="6"/>
+      <c r="A469" s="6"/>
+      <c r="B469" s="8"/>
       <c r="C469" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D469" s="4"/>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A470" s="9"/>
-      <c r="B470" s="6"/>
+      <c r="A470" s="6"/>
+      <c r="B470" s="8"/>
       <c r="C470" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D470" s="4"/>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A471" s="9"/>
-      <c r="B471" s="6"/>
+      <c r="A471" s="6"/>
+      <c r="B471" s="8"/>
       <c r="C471" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D471" s="4"/>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A472" s="9"/>
-      <c r="B472" s="6"/>
+      <c r="A472" s="6"/>
+      <c r="B472" s="8"/>
       <c r="C472" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D472" s="4"/>
     </row>
     <row r="473" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A473" s="9"/>
-      <c r="B473" s="7"/>
+      <c r="A473" s="6"/>
+      <c r="B473" s="9"/>
       <c r="C473" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D473" s="4"/>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A474" s="9"/>
-      <c r="B474" s="5" t="s">
+      <c r="A474" s="6"/>
+      <c r="B474" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C474" s="2" t="s">
@@ -4512,90 +4570,90 @@
       <c r="D474" s="3"/>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A475" s="9"/>
-      <c r="B475" s="6"/>
+      <c r="A475" s="6"/>
+      <c r="B475" s="8"/>
       <c r="C475" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D475" s="4"/>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A476" s="9"/>
-      <c r="B476" s="6"/>
+      <c r="A476" s="6"/>
+      <c r="B476" s="8"/>
       <c r="C476" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D476" s="4"/>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A477" s="9"/>
-      <c r="B477" s="6"/>
+      <c r="A477" s="6"/>
+      <c r="B477" s="8"/>
       <c r="C477" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D477" s="4"/>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A478" s="9"/>
-      <c r="B478" s="6"/>
+      <c r="A478" s="6"/>
+      <c r="B478" s="8"/>
       <c r="C478" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D478" s="4"/>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A479" s="9"/>
-      <c r="B479" s="6"/>
+      <c r="A479" s="6"/>
+      <c r="B479" s="8"/>
       <c r="C479" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D479" s="4"/>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A480" s="9"/>
-      <c r="B480" s="6"/>
+      <c r="A480" s="6"/>
+      <c r="B480" s="8"/>
       <c r="C480" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D480" s="4"/>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A481" s="9"/>
-      <c r="B481" s="6"/>
+      <c r="A481" s="6"/>
+      <c r="B481" s="8"/>
       <c r="C481" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D481" s="4"/>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A482" s="9"/>
-      <c r="B482" s="6"/>
+      <c r="A482" s="6"/>
+      <c r="B482" s="8"/>
       <c r="C482" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D482" s="4"/>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A483" s="9"/>
-      <c r="B483" s="6"/>
+      <c r="A483" s="6"/>
+      <c r="B483" s="8"/>
       <c r="C483" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D483" s="4"/>
     </row>
     <row r="484" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A484" s="9"/>
-      <c r="B484" s="7"/>
+      <c r="A484" s="6"/>
+      <c r="B484" s="9"/>
       <c r="C484" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D484" s="4"/>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A485" s="8">
+      <c r="A485" s="5">
         <v>12</v>
       </c>
-      <c r="B485" s="5" t="s">
+      <c r="B485" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C485" s="2" t="s">
@@ -4604,88 +4662,88 @@
       <c r="D485" s="3"/>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A486" s="9"/>
-      <c r="B486" s="6"/>
+      <c r="A486" s="6"/>
+      <c r="B486" s="8"/>
       <c r="C486" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D486" s="4"/>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A487" s="9"/>
-      <c r="B487" s="6"/>
+      <c r="A487" s="6"/>
+      <c r="B487" s="8"/>
       <c r="C487" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D487" s="4"/>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A488" s="9"/>
-      <c r="B488" s="6"/>
+      <c r="A488" s="6"/>
+      <c r="B488" s="8"/>
       <c r="C488" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D488" s="4"/>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A489" s="9"/>
-      <c r="B489" s="6"/>
+      <c r="A489" s="6"/>
+      <c r="B489" s="8"/>
       <c r="C489" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D489" s="4"/>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A490" s="9"/>
-      <c r="B490" s="6"/>
+      <c r="A490" s="6"/>
+      <c r="B490" s="8"/>
       <c r="C490" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D490" s="4"/>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A491" s="9"/>
-      <c r="B491" s="6"/>
+      <c r="A491" s="6"/>
+      <c r="B491" s="8"/>
       <c r="C491" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D491" s="4"/>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A492" s="9"/>
-      <c r="B492" s="6"/>
+      <c r="A492" s="6"/>
+      <c r="B492" s="8"/>
       <c r="C492" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D492" s="4"/>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A493" s="9"/>
-      <c r="B493" s="6"/>
+      <c r="A493" s="6"/>
+      <c r="B493" s="8"/>
       <c r="C493" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D493" s="4"/>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A494" s="9"/>
-      <c r="B494" s="6"/>
+      <c r="A494" s="6"/>
+      <c r="B494" s="8"/>
       <c r="C494" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D494" s="4"/>
     </row>
     <row r="495" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A495" s="9"/>
-      <c r="B495" s="7"/>
+      <c r="A495" s="6"/>
+      <c r="B495" s="9"/>
       <c r="C495" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D495" s="4"/>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A496" s="9"/>
-      <c r="B496" s="5" t="s">
+      <c r="A496" s="6"/>
+      <c r="B496" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C496" s="2" t="s">
@@ -4694,88 +4752,88 @@
       <c r="D496" s="3"/>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A497" s="9"/>
-      <c r="B497" s="6"/>
+      <c r="A497" s="6"/>
+      <c r="B497" s="8"/>
       <c r="C497" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D497" s="4"/>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A498" s="9"/>
-      <c r="B498" s="6"/>
+      <c r="A498" s="6"/>
+      <c r="B498" s="8"/>
       <c r="C498" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D498" s="4"/>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A499" s="9"/>
-      <c r="B499" s="6"/>
+      <c r="A499" s="6"/>
+      <c r="B499" s="8"/>
       <c r="C499" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D499" s="4"/>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A500" s="9"/>
-      <c r="B500" s="6"/>
+      <c r="A500" s="6"/>
+      <c r="B500" s="8"/>
       <c r="C500" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D500" s="4"/>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A501" s="9"/>
-      <c r="B501" s="6"/>
+      <c r="A501" s="6"/>
+      <c r="B501" s="8"/>
       <c r="C501" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D501" s="4"/>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A502" s="9"/>
-      <c r="B502" s="6"/>
+      <c r="A502" s="6"/>
+      <c r="B502" s="8"/>
       <c r="C502" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D502" s="4"/>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A503" s="9"/>
-      <c r="B503" s="6"/>
+      <c r="A503" s="6"/>
+      <c r="B503" s="8"/>
       <c r="C503" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D503" s="4"/>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A504" s="9"/>
-      <c r="B504" s="6"/>
+      <c r="A504" s="6"/>
+      <c r="B504" s="8"/>
       <c r="C504" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D504" s="4"/>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A505" s="9"/>
-      <c r="B505" s="6"/>
+      <c r="A505" s="6"/>
+      <c r="B505" s="8"/>
       <c r="C505" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D505" s="4"/>
     </row>
     <row r="506" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A506" s="9"/>
-      <c r="B506" s="7"/>
+      <c r="A506" s="6"/>
+      <c r="B506" s="9"/>
       <c r="C506" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D506" s="4"/>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A507" s="9"/>
-      <c r="B507" s="5" t="s">
+      <c r="A507" s="6"/>
+      <c r="B507" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C507" s="2" t="s">
@@ -4784,88 +4842,88 @@
       <c r="D507" s="3"/>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A508" s="9"/>
-      <c r="B508" s="6"/>
+      <c r="A508" s="6"/>
+      <c r="B508" s="8"/>
       <c r="C508" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D508" s="4"/>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A509" s="9"/>
-      <c r="B509" s="6"/>
+      <c r="A509" s="6"/>
+      <c r="B509" s="8"/>
       <c r="C509" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D509" s="4"/>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A510" s="9"/>
-      <c r="B510" s="6"/>
+      <c r="A510" s="6"/>
+      <c r="B510" s="8"/>
       <c r="C510" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D510" s="4"/>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A511" s="9"/>
-      <c r="B511" s="6"/>
+      <c r="A511" s="6"/>
+      <c r="B511" s="8"/>
       <c r="C511" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D511" s="4"/>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A512" s="9"/>
-      <c r="B512" s="6"/>
+      <c r="A512" s="6"/>
+      <c r="B512" s="8"/>
       <c r="C512" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D512" s="4"/>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A513" s="9"/>
-      <c r="B513" s="6"/>
+      <c r="A513" s="6"/>
+      <c r="B513" s="8"/>
       <c r="C513" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D513" s="4"/>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A514" s="9"/>
-      <c r="B514" s="6"/>
+      <c r="A514" s="6"/>
+      <c r="B514" s="8"/>
       <c r="C514" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D514" s="4"/>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A515" s="9"/>
-      <c r="B515" s="6"/>
+      <c r="A515" s="6"/>
+      <c r="B515" s="8"/>
       <c r="C515" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D515" s="4"/>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A516" s="9"/>
-      <c r="B516" s="6"/>
+      <c r="A516" s="6"/>
+      <c r="B516" s="8"/>
       <c r="C516" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D516" s="4"/>
     </row>
     <row r="517" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A517" s="9"/>
-      <c r="B517" s="7"/>
+      <c r="A517" s="6"/>
+      <c r="B517" s="9"/>
       <c r="C517" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D517" s="4"/>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A518" s="9"/>
-      <c r="B518" s="5" t="s">
+      <c r="A518" s="6"/>
+      <c r="B518" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C518" s="2" t="s">
@@ -4874,90 +4932,90 @@
       <c r="D518" s="3"/>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A519" s="9"/>
-      <c r="B519" s="6"/>
+      <c r="A519" s="6"/>
+      <c r="B519" s="8"/>
       <c r="C519" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D519" s="4"/>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A520" s="9"/>
-      <c r="B520" s="6"/>
+      <c r="A520" s="6"/>
+      <c r="B520" s="8"/>
       <c r="C520" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D520" s="4"/>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A521" s="9"/>
-      <c r="B521" s="6"/>
+      <c r="A521" s="6"/>
+      <c r="B521" s="8"/>
       <c r="C521" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D521" s="4"/>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A522" s="9"/>
-      <c r="B522" s="6"/>
+      <c r="A522" s="6"/>
+      <c r="B522" s="8"/>
       <c r="C522" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D522" s="4"/>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A523" s="9"/>
-      <c r="B523" s="6"/>
+      <c r="A523" s="6"/>
+      <c r="B523" s="8"/>
       <c r="C523" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D523" s="4"/>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A524" s="9"/>
-      <c r="B524" s="6"/>
+      <c r="A524" s="6"/>
+      <c r="B524" s="8"/>
       <c r="C524" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D524" s="4"/>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A525" s="9"/>
-      <c r="B525" s="6"/>
+      <c r="A525" s="6"/>
+      <c r="B525" s="8"/>
       <c r="C525" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D525" s="4"/>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A526" s="9"/>
-      <c r="B526" s="6"/>
+      <c r="A526" s="6"/>
+      <c r="B526" s="8"/>
       <c r="C526" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D526" s="4"/>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A527" s="9"/>
-      <c r="B527" s="6"/>
+      <c r="A527" s="6"/>
+      <c r="B527" s="8"/>
       <c r="C527" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D527" s="4"/>
     </row>
     <row r="528" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A528" s="9"/>
-      <c r="B528" s="7"/>
+      <c r="A528" s="6"/>
+      <c r="B528" s="9"/>
       <c r="C528" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D528" s="4"/>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A529" s="8">
-        <v>13</v>
-      </c>
-      <c r="B529" s="5" t="s">
+      <c r="A529" s="5">
+        <v>13</v>
+      </c>
+      <c r="B529" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C529" s="2" t="s">
@@ -4966,88 +5024,88 @@
       <c r="D529" s="3"/>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A530" s="9"/>
-      <c r="B530" s="6"/>
+      <c r="A530" s="6"/>
+      <c r="B530" s="8"/>
       <c r="C530" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D530" s="4"/>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A531" s="9"/>
-      <c r="B531" s="6"/>
+      <c r="A531" s="6"/>
+      <c r="B531" s="8"/>
       <c r="C531" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D531" s="4"/>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A532" s="9"/>
-      <c r="B532" s="6"/>
+      <c r="A532" s="6"/>
+      <c r="B532" s="8"/>
       <c r="C532" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D532" s="4"/>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A533" s="9"/>
-      <c r="B533" s="6"/>
+      <c r="A533" s="6"/>
+      <c r="B533" s="8"/>
       <c r="C533" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D533" s="4"/>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A534" s="9"/>
-      <c r="B534" s="6"/>
+      <c r="A534" s="6"/>
+      <c r="B534" s="8"/>
       <c r="C534" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D534" s="4"/>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A535" s="9"/>
-      <c r="B535" s="6"/>
+      <c r="A535" s="6"/>
+      <c r="B535" s="8"/>
       <c r="C535" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D535" s="4"/>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A536" s="9"/>
-      <c r="B536" s="6"/>
+      <c r="A536" s="6"/>
+      <c r="B536" s="8"/>
       <c r="C536" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D536" s="4"/>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A537" s="9"/>
-      <c r="B537" s="6"/>
+      <c r="A537" s="6"/>
+      <c r="B537" s="8"/>
       <c r="C537" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D537" s="4"/>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A538" s="9"/>
-      <c r="B538" s="6"/>
+      <c r="A538" s="6"/>
+      <c r="B538" s="8"/>
       <c r="C538" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D538" s="4"/>
     </row>
     <row r="539" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A539" s="9"/>
-      <c r="B539" s="7"/>
+      <c r="A539" s="6"/>
+      <c r="B539" s="9"/>
       <c r="C539" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D539" s="4"/>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A540" s="9"/>
-      <c r="B540" s="5" t="s">
+      <c r="A540" s="6"/>
+      <c r="B540" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C540" s="2" t="s">
@@ -5056,88 +5114,88 @@
       <c r="D540" s="3"/>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A541" s="9"/>
-      <c r="B541" s="6"/>
+      <c r="A541" s="6"/>
+      <c r="B541" s="8"/>
       <c r="C541" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D541" s="4"/>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A542" s="9"/>
-      <c r="B542" s="6"/>
+      <c r="A542" s="6"/>
+      <c r="B542" s="8"/>
       <c r="C542" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D542" s="4"/>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A543" s="9"/>
-      <c r="B543" s="6"/>
+      <c r="A543" s="6"/>
+      <c r="B543" s="8"/>
       <c r="C543" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D543" s="4"/>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A544" s="9"/>
-      <c r="B544" s="6"/>
+      <c r="A544" s="6"/>
+      <c r="B544" s="8"/>
       <c r="C544" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D544" s="4"/>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A545" s="9"/>
-      <c r="B545" s="6"/>
+      <c r="A545" s="6"/>
+      <c r="B545" s="8"/>
       <c r="C545" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D545" s="4"/>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A546" s="9"/>
-      <c r="B546" s="6"/>
+      <c r="A546" s="6"/>
+      <c r="B546" s="8"/>
       <c r="C546" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D546" s="4"/>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A547" s="9"/>
-      <c r="B547" s="6"/>
+      <c r="A547" s="6"/>
+      <c r="B547" s="8"/>
       <c r="C547" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D547" s="4"/>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A548" s="9"/>
-      <c r="B548" s="6"/>
+      <c r="A548" s="6"/>
+      <c r="B548" s="8"/>
       <c r="C548" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D548" s="4"/>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A549" s="9"/>
-      <c r="B549" s="6"/>
+      <c r="A549" s="6"/>
+      <c r="B549" s="8"/>
       <c r="C549" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D549" s="4"/>
     </row>
     <row r="550" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A550" s="9"/>
-      <c r="B550" s="7"/>
+      <c r="A550" s="6"/>
+      <c r="B550" s="9"/>
       <c r="C550" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D550" s="4"/>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A551" s="9"/>
-      <c r="B551" s="5" t="s">
+      <c r="A551" s="6"/>
+      <c r="B551" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C551" s="2" t="s">
@@ -5146,88 +5204,88 @@
       <c r="D551" s="3"/>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A552" s="9"/>
-      <c r="B552" s="6"/>
+      <c r="A552" s="6"/>
+      <c r="B552" s="8"/>
       <c r="C552" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D552" s="4"/>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A553" s="9"/>
-      <c r="B553" s="6"/>
+      <c r="A553" s="6"/>
+      <c r="B553" s="8"/>
       <c r="C553" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D553" s="4"/>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A554" s="9"/>
-      <c r="B554" s="6"/>
+      <c r="A554" s="6"/>
+      <c r="B554" s="8"/>
       <c r="C554" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D554" s="4"/>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A555" s="9"/>
-      <c r="B555" s="6"/>
+      <c r="A555" s="6"/>
+      <c r="B555" s="8"/>
       <c r="C555" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D555" s="4"/>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A556" s="9"/>
-      <c r="B556" s="6"/>
+      <c r="A556" s="6"/>
+      <c r="B556" s="8"/>
       <c r="C556" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D556" s="4"/>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A557" s="9"/>
-      <c r="B557" s="6"/>
+      <c r="A557" s="6"/>
+      <c r="B557" s="8"/>
       <c r="C557" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D557" s="4"/>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A558" s="9"/>
-      <c r="B558" s="6"/>
+      <c r="A558" s="6"/>
+      <c r="B558" s="8"/>
       <c r="C558" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D558" s="4"/>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A559" s="9"/>
-      <c r="B559" s="6"/>
+      <c r="A559" s="6"/>
+      <c r="B559" s="8"/>
       <c r="C559" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D559" s="4"/>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A560" s="9"/>
-      <c r="B560" s="6"/>
+      <c r="A560" s="6"/>
+      <c r="B560" s="8"/>
       <c r="C560" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D560" s="4"/>
     </row>
     <row r="561" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A561" s="9"/>
-      <c r="B561" s="7"/>
+      <c r="A561" s="6"/>
+      <c r="B561" s="9"/>
       <c r="C561" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D561" s="4"/>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A562" s="9"/>
-      <c r="B562" s="5" t="s">
+      <c r="A562" s="6"/>
+      <c r="B562" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C562" s="2" t="s">
@@ -5236,90 +5294,90 @@
       <c r="D562" s="3"/>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A563" s="9"/>
-      <c r="B563" s="6"/>
+      <c r="A563" s="6"/>
+      <c r="B563" s="8"/>
       <c r="C563" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D563" s="4"/>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A564" s="9"/>
-      <c r="B564" s="6"/>
+      <c r="A564" s="6"/>
+      <c r="B564" s="8"/>
       <c r="C564" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D564" s="4"/>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A565" s="9"/>
-      <c r="B565" s="6"/>
+      <c r="A565" s="6"/>
+      <c r="B565" s="8"/>
       <c r="C565" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D565" s="4"/>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A566" s="9"/>
-      <c r="B566" s="6"/>
+      <c r="A566" s="6"/>
+      <c r="B566" s="8"/>
       <c r="C566" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D566" s="4"/>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A567" s="9"/>
-      <c r="B567" s="6"/>
+      <c r="A567" s="6"/>
+      <c r="B567" s="8"/>
       <c r="C567" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D567" s="4"/>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A568" s="9"/>
-      <c r="B568" s="6"/>
+      <c r="A568" s="6"/>
+      <c r="B568" s="8"/>
       <c r="C568" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D568" s="4"/>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A569" s="9"/>
-      <c r="B569" s="6"/>
+      <c r="A569" s="6"/>
+      <c r="B569" s="8"/>
       <c r="C569" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D569" s="4"/>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A570" s="9"/>
-      <c r="B570" s="6"/>
+      <c r="A570" s="6"/>
+      <c r="B570" s="8"/>
       <c r="C570" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D570" s="4"/>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A571" s="9"/>
-      <c r="B571" s="6"/>
+      <c r="A571" s="6"/>
+      <c r="B571" s="8"/>
       <c r="C571" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D571" s="4"/>
     </row>
     <row r="572" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A572" s="9"/>
-      <c r="B572" s="7"/>
+      <c r="A572" s="6"/>
+      <c r="B572" s="9"/>
       <c r="C572" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D572" s="4"/>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A573" s="8">
+      <c r="A573" s="5">
         <v>14</v>
       </c>
-      <c r="B573" s="5" t="s">
+      <c r="B573" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C573" s="2" t="s">
@@ -5328,88 +5386,88 @@
       <c r="D573" s="3"/>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A574" s="9"/>
-      <c r="B574" s="6"/>
+      <c r="A574" s="6"/>
+      <c r="B574" s="8"/>
       <c r="C574" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D574" s="4"/>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A575" s="9"/>
-      <c r="B575" s="6"/>
+      <c r="A575" s="6"/>
+      <c r="B575" s="8"/>
       <c r="C575" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D575" s="4"/>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A576" s="9"/>
-      <c r="B576" s="6"/>
+      <c r="A576" s="6"/>
+      <c r="B576" s="8"/>
       <c r="C576" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D576" s="4"/>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A577" s="9"/>
-      <c r="B577" s="6"/>
+      <c r="A577" s="6"/>
+      <c r="B577" s="8"/>
       <c r="C577" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D577" s="4"/>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A578" s="9"/>
-      <c r="B578" s="6"/>
+      <c r="A578" s="6"/>
+      <c r="B578" s="8"/>
       <c r="C578" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D578" s="4"/>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A579" s="9"/>
-      <c r="B579" s="6"/>
+      <c r="A579" s="6"/>
+      <c r="B579" s="8"/>
       <c r="C579" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D579" s="4"/>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A580" s="9"/>
-      <c r="B580" s="6"/>
+      <c r="A580" s="6"/>
+      <c r="B580" s="8"/>
       <c r="C580" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D580" s="4"/>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A581" s="9"/>
-      <c r="B581" s="6"/>
+      <c r="A581" s="6"/>
+      <c r="B581" s="8"/>
       <c r="C581" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D581" s="4"/>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A582" s="9"/>
-      <c r="B582" s="6"/>
+      <c r="A582" s="6"/>
+      <c r="B582" s="8"/>
       <c r="C582" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D582" s="4"/>
     </row>
     <row r="583" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A583" s="9"/>
-      <c r="B583" s="7"/>
+      <c r="A583" s="6"/>
+      <c r="B583" s="9"/>
       <c r="C583" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D583" s="4"/>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A584" s="9"/>
-      <c r="B584" s="5" t="s">
+      <c r="A584" s="6"/>
+      <c r="B584" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C584" s="2" t="s">
@@ -5418,88 +5476,88 @@
       <c r="D584" s="3"/>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A585" s="9"/>
-      <c r="B585" s="6"/>
+      <c r="A585" s="6"/>
+      <c r="B585" s="8"/>
       <c r="C585" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D585" s="4"/>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A586" s="9"/>
-      <c r="B586" s="6"/>
+      <c r="A586" s="6"/>
+      <c r="B586" s="8"/>
       <c r="C586" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D586" s="4"/>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A587" s="9"/>
-      <c r="B587" s="6"/>
+      <c r="A587" s="6"/>
+      <c r="B587" s="8"/>
       <c r="C587" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D587" s="4"/>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A588" s="9"/>
-      <c r="B588" s="6"/>
+      <c r="A588" s="6"/>
+      <c r="B588" s="8"/>
       <c r="C588" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D588" s="4"/>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A589" s="9"/>
-      <c r="B589" s="6"/>
+      <c r="A589" s="6"/>
+      <c r="B589" s="8"/>
       <c r="C589" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D589" s="4"/>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A590" s="9"/>
-      <c r="B590" s="6"/>
+      <c r="A590" s="6"/>
+      <c r="B590" s="8"/>
       <c r="C590" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D590" s="4"/>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A591" s="9"/>
-      <c r="B591" s="6"/>
+      <c r="A591" s="6"/>
+      <c r="B591" s="8"/>
       <c r="C591" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D591" s="4"/>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A592" s="9"/>
-      <c r="B592" s="6"/>
+      <c r="A592" s="6"/>
+      <c r="B592" s="8"/>
       <c r="C592" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D592" s="4"/>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A593" s="9"/>
-      <c r="B593" s="6"/>
+      <c r="A593" s="6"/>
+      <c r="B593" s="8"/>
       <c r="C593" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D593" s="4"/>
     </row>
     <row r="594" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A594" s="9"/>
-      <c r="B594" s="7"/>
+      <c r="A594" s="6"/>
+      <c r="B594" s="9"/>
       <c r="C594" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D594" s="4"/>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A595" s="9"/>
-      <c r="B595" s="5" t="s">
+      <c r="A595" s="6"/>
+      <c r="B595" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C595" s="2" t="s">
@@ -5508,88 +5566,88 @@
       <c r="D595" s="3"/>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A596" s="9"/>
-      <c r="B596" s="6"/>
+      <c r="A596" s="6"/>
+      <c r="B596" s="8"/>
       <c r="C596" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D596" s="4"/>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A597" s="9"/>
-      <c r="B597" s="6"/>
+      <c r="A597" s="6"/>
+      <c r="B597" s="8"/>
       <c r="C597" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D597" s="4"/>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A598" s="9"/>
-      <c r="B598" s="6"/>
+      <c r="A598" s="6"/>
+      <c r="B598" s="8"/>
       <c r="C598" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D598" s="4"/>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A599" s="9"/>
-      <c r="B599" s="6"/>
+      <c r="A599" s="6"/>
+      <c r="B599" s="8"/>
       <c r="C599" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D599" s="4"/>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A600" s="9"/>
-      <c r="B600" s="6"/>
+      <c r="A600" s="6"/>
+      <c r="B600" s="8"/>
       <c r="C600" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D600" s="4"/>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A601" s="9"/>
-      <c r="B601" s="6"/>
+      <c r="A601" s="6"/>
+      <c r="B601" s="8"/>
       <c r="C601" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D601" s="4"/>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A602" s="9"/>
-      <c r="B602" s="6"/>
+      <c r="A602" s="6"/>
+      <c r="B602" s="8"/>
       <c r="C602" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D602" s="4"/>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A603" s="9"/>
-      <c r="B603" s="6"/>
+      <c r="A603" s="6"/>
+      <c r="B603" s="8"/>
       <c r="C603" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D603" s="4"/>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A604" s="9"/>
-      <c r="B604" s="6"/>
+      <c r="A604" s="6"/>
+      <c r="B604" s="8"/>
       <c r="C604" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D604" s="4"/>
     </row>
     <row r="605" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A605" s="9"/>
-      <c r="B605" s="7"/>
+      <c r="A605" s="6"/>
+      <c r="B605" s="9"/>
       <c r="C605" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D605" s="4"/>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A606" s="9"/>
-      <c r="B606" s="5" t="s">
+      <c r="A606" s="6"/>
+      <c r="B606" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C606" s="2" t="s">
@@ -5598,90 +5656,90 @@
       <c r="D606" s="3"/>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A607" s="9"/>
-      <c r="B607" s="6"/>
+      <c r="A607" s="6"/>
+      <c r="B607" s="8"/>
       <c r="C607" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D607" s="4"/>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A608" s="9"/>
-      <c r="B608" s="6"/>
+      <c r="A608" s="6"/>
+      <c r="B608" s="8"/>
       <c r="C608" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D608" s="4"/>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A609" s="9"/>
-      <c r="B609" s="6"/>
+      <c r="A609" s="6"/>
+      <c r="B609" s="8"/>
       <c r="C609" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D609" s="4"/>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A610" s="9"/>
-      <c r="B610" s="6"/>
+      <c r="A610" s="6"/>
+      <c r="B610" s="8"/>
       <c r="C610" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D610" s="4"/>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A611" s="9"/>
-      <c r="B611" s="6"/>
+      <c r="A611" s="6"/>
+      <c r="B611" s="8"/>
       <c r="C611" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D611" s="4"/>
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A612" s="9"/>
-      <c r="B612" s="6"/>
+      <c r="A612" s="6"/>
+      <c r="B612" s="8"/>
       <c r="C612" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D612" s="4"/>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A613" s="9"/>
-      <c r="B613" s="6"/>
+      <c r="A613" s="6"/>
+      <c r="B613" s="8"/>
       <c r="C613" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D613" s="4"/>
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A614" s="9"/>
-      <c r="B614" s="6"/>
+      <c r="A614" s="6"/>
+      <c r="B614" s="8"/>
       <c r="C614" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D614" s="4"/>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A615" s="9"/>
-      <c r="B615" s="6"/>
+      <c r="A615" s="6"/>
+      <c r="B615" s="8"/>
       <c r="C615" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D615" s="4"/>
     </row>
     <row r="616" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A616" s="9"/>
-      <c r="B616" s="7"/>
+      <c r="A616" s="6"/>
+      <c r="B616" s="9"/>
       <c r="C616" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D616" s="4"/>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A617" s="8">
+      <c r="A617" s="5">
         <v>15</v>
       </c>
-      <c r="B617" s="5" t="s">
+      <c r="B617" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C617" s="2" t="s">
@@ -5690,88 +5748,88 @@
       <c r="D617" s="3"/>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A618" s="9"/>
-      <c r="B618" s="6"/>
+      <c r="A618" s="6"/>
+      <c r="B618" s="8"/>
       <c r="C618" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D618" s="4"/>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A619" s="9"/>
-      <c r="B619" s="6"/>
+      <c r="A619" s="6"/>
+      <c r="B619" s="8"/>
       <c r="C619" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D619" s="4"/>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A620" s="9"/>
-      <c r="B620" s="6"/>
+      <c r="A620" s="6"/>
+      <c r="B620" s="8"/>
       <c r="C620" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D620" s="4"/>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A621" s="9"/>
-      <c r="B621" s="6"/>
+      <c r="A621" s="6"/>
+      <c r="B621" s="8"/>
       <c r="C621" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D621" s="4"/>
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A622" s="9"/>
-      <c r="B622" s="6"/>
+      <c r="A622" s="6"/>
+      <c r="B622" s="8"/>
       <c r="C622" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D622" s="4"/>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A623" s="9"/>
-      <c r="B623" s="6"/>
+      <c r="A623" s="6"/>
+      <c r="B623" s="8"/>
       <c r="C623" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D623" s="4"/>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A624" s="9"/>
-      <c r="B624" s="6"/>
+      <c r="A624" s="6"/>
+      <c r="B624" s="8"/>
       <c r="C624" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D624" s="4"/>
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A625" s="9"/>
-      <c r="B625" s="6"/>
+      <c r="A625" s="6"/>
+      <c r="B625" s="8"/>
       <c r="C625" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D625" s="4"/>
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A626" s="9"/>
-      <c r="B626" s="6"/>
+      <c r="A626" s="6"/>
+      <c r="B626" s="8"/>
       <c r="C626" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D626" s="4"/>
     </row>
     <row r="627" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A627" s="9"/>
-      <c r="B627" s="7"/>
+      <c r="A627" s="6"/>
+      <c r="B627" s="9"/>
       <c r="C627" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D627" s="4"/>
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A628" s="9"/>
-      <c r="B628" s="5" t="s">
+      <c r="A628" s="6"/>
+      <c r="B628" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C628" s="2" t="s">
@@ -5780,88 +5838,88 @@
       <c r="D628" s="3"/>
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A629" s="9"/>
-      <c r="B629" s="6"/>
+      <c r="A629" s="6"/>
+      <c r="B629" s="8"/>
       <c r="C629" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D629" s="4"/>
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A630" s="9"/>
-      <c r="B630" s="6"/>
+      <c r="A630" s="6"/>
+      <c r="B630" s="8"/>
       <c r="C630" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D630" s="4"/>
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A631" s="9"/>
-      <c r="B631" s="6"/>
+      <c r="A631" s="6"/>
+      <c r="B631" s="8"/>
       <c r="C631" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D631" s="4"/>
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A632" s="9"/>
-      <c r="B632" s="6"/>
+      <c r="A632" s="6"/>
+      <c r="B632" s="8"/>
       <c r="C632" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D632" s="4"/>
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A633" s="9"/>
-      <c r="B633" s="6"/>
+      <c r="A633" s="6"/>
+      <c r="B633" s="8"/>
       <c r="C633" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D633" s="4"/>
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A634" s="9"/>
-      <c r="B634" s="6"/>
+      <c r="A634" s="6"/>
+      <c r="B634" s="8"/>
       <c r="C634" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D634" s="4"/>
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A635" s="9"/>
-      <c r="B635" s="6"/>
+      <c r="A635" s="6"/>
+      <c r="B635" s="8"/>
       <c r="C635" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D635" s="4"/>
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A636" s="9"/>
-      <c r="B636" s="6"/>
+      <c r="A636" s="6"/>
+      <c r="B636" s="8"/>
       <c r="C636" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D636" s="4"/>
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A637" s="9"/>
-      <c r="B637" s="6"/>
+      <c r="A637" s="6"/>
+      <c r="B637" s="8"/>
       <c r="C637" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D637" s="4"/>
     </row>
     <row r="638" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A638" s="9"/>
-      <c r="B638" s="7"/>
+      <c r="A638" s="6"/>
+      <c r="B638" s="9"/>
       <c r="C638" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D638" s="4"/>
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A639" s="9"/>
-      <c r="B639" s="5" t="s">
+      <c r="A639" s="6"/>
+      <c r="B639" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C639" s="2" t="s">
@@ -5870,88 +5928,88 @@
       <c r="D639" s="3"/>
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A640" s="9"/>
-      <c r="B640" s="6"/>
+      <c r="A640" s="6"/>
+      <c r="B640" s="8"/>
       <c r="C640" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D640" s="4"/>
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A641" s="9"/>
-      <c r="B641" s="6"/>
+      <c r="A641" s="6"/>
+      <c r="B641" s="8"/>
       <c r="C641" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D641" s="4"/>
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A642" s="9"/>
-      <c r="B642" s="6"/>
+      <c r="A642" s="6"/>
+      <c r="B642" s="8"/>
       <c r="C642" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D642" s="4"/>
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A643" s="9"/>
-      <c r="B643" s="6"/>
+      <c r="A643" s="6"/>
+      <c r="B643" s="8"/>
       <c r="C643" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D643" s="4"/>
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A644" s="9"/>
-      <c r="B644" s="6"/>
+      <c r="A644" s="6"/>
+      <c r="B644" s="8"/>
       <c r="C644" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D644" s="4"/>
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A645" s="9"/>
-      <c r="B645" s="6"/>
+      <c r="A645" s="6"/>
+      <c r="B645" s="8"/>
       <c r="C645" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D645" s="4"/>
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A646" s="9"/>
-      <c r="B646" s="6"/>
+      <c r="A646" s="6"/>
+      <c r="B646" s="8"/>
       <c r="C646" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D646" s="4"/>
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A647" s="9"/>
-      <c r="B647" s="6"/>
+      <c r="A647" s="6"/>
+      <c r="B647" s="8"/>
       <c r="C647" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D647" s="4"/>
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A648" s="9"/>
-      <c r="B648" s="6"/>
+      <c r="A648" s="6"/>
+      <c r="B648" s="8"/>
       <c r="C648" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D648" s="4"/>
     </row>
     <row r="649" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A649" s="9"/>
-      <c r="B649" s="7"/>
+      <c r="A649" s="6"/>
+      <c r="B649" s="9"/>
       <c r="C649" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D649" s="4"/>
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A650" s="9"/>
-      <c r="B650" s="5" t="s">
+      <c r="A650" s="6"/>
+      <c r="B650" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C650" s="2" t="s">
@@ -5960,90 +6018,90 @@
       <c r="D650" s="3"/>
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A651" s="9"/>
-      <c r="B651" s="6"/>
+      <c r="A651" s="6"/>
+      <c r="B651" s="8"/>
       <c r="C651" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D651" s="4"/>
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A652" s="9"/>
-      <c r="B652" s="6"/>
+      <c r="A652" s="6"/>
+      <c r="B652" s="8"/>
       <c r="C652" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D652" s="4"/>
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A653" s="9"/>
-      <c r="B653" s="6"/>
+      <c r="A653" s="6"/>
+      <c r="B653" s="8"/>
       <c r="C653" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D653" s="4"/>
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A654" s="9"/>
-      <c r="B654" s="6"/>
+      <c r="A654" s="6"/>
+      <c r="B654" s="8"/>
       <c r="C654" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D654" s="4"/>
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A655" s="9"/>
-      <c r="B655" s="6"/>
+      <c r="A655" s="6"/>
+      <c r="B655" s="8"/>
       <c r="C655" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D655" s="4"/>
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A656" s="9"/>
-      <c r="B656" s="6"/>
+      <c r="A656" s="6"/>
+      <c r="B656" s="8"/>
       <c r="C656" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D656" s="4"/>
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A657" s="9"/>
-      <c r="B657" s="6"/>
+      <c r="A657" s="6"/>
+      <c r="B657" s="8"/>
       <c r="C657" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D657" s="4"/>
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A658" s="9"/>
-      <c r="B658" s="6"/>
+      <c r="A658" s="6"/>
+      <c r="B658" s="8"/>
       <c r="C658" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D658" s="4"/>
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A659" s="9"/>
-      <c r="B659" s="6"/>
+      <c r="A659" s="6"/>
+      <c r="B659" s="8"/>
       <c r="C659" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D659" s="4"/>
     </row>
     <row r="660" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A660" s="9"/>
-      <c r="B660" s="7"/>
+      <c r="A660" s="6"/>
+      <c r="B660" s="9"/>
       <c r="C660" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D660" s="4"/>
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A661" s="8">
+      <c r="A661" s="5">
         <v>16</v>
       </c>
-      <c r="B661" s="5" t="s">
+      <c r="B661" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C661" s="2" t="s">
@@ -6052,88 +6110,88 @@
       <c r="D661" s="3"/>
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A662" s="9"/>
-      <c r="B662" s="6"/>
+      <c r="A662" s="6"/>
+      <c r="B662" s="8"/>
       <c r="C662" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D662" s="4"/>
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A663" s="9"/>
-      <c r="B663" s="6"/>
+      <c r="A663" s="6"/>
+      <c r="B663" s="8"/>
       <c r="C663" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D663" s="4"/>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A664" s="9"/>
-      <c r="B664" s="6"/>
+      <c r="A664" s="6"/>
+      <c r="B664" s="8"/>
       <c r="C664" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D664" s="4"/>
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A665" s="9"/>
-      <c r="B665" s="6"/>
+      <c r="A665" s="6"/>
+      <c r="B665" s="8"/>
       <c r="C665" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D665" s="4"/>
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A666" s="9"/>
-      <c r="B666" s="6"/>
+      <c r="A666" s="6"/>
+      <c r="B666" s="8"/>
       <c r="C666" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D666" s="4"/>
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A667" s="9"/>
-      <c r="B667" s="6"/>
+      <c r="A667" s="6"/>
+      <c r="B667" s="8"/>
       <c r="C667" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D667" s="4"/>
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A668" s="9"/>
-      <c r="B668" s="6"/>
+      <c r="A668" s="6"/>
+      <c r="B668" s="8"/>
       <c r="C668" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D668" s="4"/>
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A669" s="9"/>
-      <c r="B669" s="6"/>
+      <c r="A669" s="6"/>
+      <c r="B669" s="8"/>
       <c r="C669" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D669" s="4"/>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A670" s="9"/>
-      <c r="B670" s="6"/>
+      <c r="A670" s="6"/>
+      <c r="B670" s="8"/>
       <c r="C670" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D670" s="4"/>
     </row>
     <row r="671" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A671" s="9"/>
-      <c r="B671" s="7"/>
+      <c r="A671" s="6"/>
+      <c r="B671" s="9"/>
       <c r="C671" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D671" s="4"/>
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A672" s="9"/>
-      <c r="B672" s="5" t="s">
+      <c r="A672" s="6"/>
+      <c r="B672" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C672" s="2" t="s">
@@ -6142,88 +6200,88 @@
       <c r="D672" s="3"/>
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A673" s="9"/>
-      <c r="B673" s="6"/>
+      <c r="A673" s="6"/>
+      <c r="B673" s="8"/>
       <c r="C673" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D673" s="4"/>
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A674" s="9"/>
-      <c r="B674" s="6"/>
+      <c r="A674" s="6"/>
+      <c r="B674" s="8"/>
       <c r="C674" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D674" s="4"/>
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A675" s="9"/>
-      <c r="B675" s="6"/>
+      <c r="A675" s="6"/>
+      <c r="B675" s="8"/>
       <c r="C675" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D675" s="4"/>
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A676" s="9"/>
-      <c r="B676" s="6"/>
+      <c r="A676" s="6"/>
+      <c r="B676" s="8"/>
       <c r="C676" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D676" s="4"/>
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A677" s="9"/>
-      <c r="B677" s="6"/>
+      <c r="A677" s="6"/>
+      <c r="B677" s="8"/>
       <c r="C677" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D677" s="4"/>
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A678" s="9"/>
-      <c r="B678" s="6"/>
+      <c r="A678" s="6"/>
+      <c r="B678" s="8"/>
       <c r="C678" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D678" s="4"/>
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A679" s="9"/>
-      <c r="B679" s="6"/>
+      <c r="A679" s="6"/>
+      <c r="B679" s="8"/>
       <c r="C679" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D679" s="4"/>
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A680" s="9"/>
-      <c r="B680" s="6"/>
+      <c r="A680" s="6"/>
+      <c r="B680" s="8"/>
       <c r="C680" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D680" s="4"/>
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A681" s="9"/>
-      <c r="B681" s="6"/>
+      <c r="A681" s="6"/>
+      <c r="B681" s="8"/>
       <c r="C681" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D681" s="4"/>
     </row>
     <row r="682" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A682" s="9"/>
-      <c r="B682" s="7"/>
+      <c r="A682" s="6"/>
+      <c r="B682" s="9"/>
       <c r="C682" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D682" s="4"/>
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A683" s="9"/>
-      <c r="B683" s="5" t="s">
+      <c r="A683" s="6"/>
+      <c r="B683" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C683" s="2" t="s">
@@ -6232,88 +6290,88 @@
       <c r="D683" s="3"/>
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A684" s="9"/>
-      <c r="B684" s="6"/>
+      <c r="A684" s="6"/>
+      <c r="B684" s="8"/>
       <c r="C684" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D684" s="4"/>
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A685" s="9"/>
-      <c r="B685" s="6"/>
+      <c r="A685" s="6"/>
+      <c r="B685" s="8"/>
       <c r="C685" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D685" s="4"/>
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A686" s="9"/>
-      <c r="B686" s="6"/>
+      <c r="A686" s="6"/>
+      <c r="B686" s="8"/>
       <c r="C686" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D686" s="4"/>
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A687" s="9"/>
-      <c r="B687" s="6"/>
+      <c r="A687" s="6"/>
+      <c r="B687" s="8"/>
       <c r="C687" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D687" s="4"/>
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A688" s="9"/>
-      <c r="B688" s="6"/>
+      <c r="A688" s="6"/>
+      <c r="B688" s="8"/>
       <c r="C688" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D688" s="4"/>
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A689" s="9"/>
-      <c r="B689" s="6"/>
+      <c r="A689" s="6"/>
+      <c r="B689" s="8"/>
       <c r="C689" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D689" s="4"/>
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A690" s="9"/>
-      <c r="B690" s="6"/>
+      <c r="A690" s="6"/>
+      <c r="B690" s="8"/>
       <c r="C690" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D690" s="4"/>
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A691" s="9"/>
-      <c r="B691" s="6"/>
+      <c r="A691" s="6"/>
+      <c r="B691" s="8"/>
       <c r="C691" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D691" s="4"/>
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A692" s="9"/>
-      <c r="B692" s="6"/>
+      <c r="A692" s="6"/>
+      <c r="B692" s="8"/>
       <c r="C692" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D692" s="4"/>
     </row>
     <row r="693" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A693" s="9"/>
-      <c r="B693" s="7"/>
+      <c r="A693" s="6"/>
+      <c r="B693" s="9"/>
       <c r="C693" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D693" s="4"/>
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A694" s="9"/>
-      <c r="B694" s="5" t="s">
+      <c r="A694" s="6"/>
+      <c r="B694" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C694" s="2" t="s">
@@ -6322,90 +6380,90 @@
       <c r="D694" s="3"/>
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A695" s="9"/>
-      <c r="B695" s="6"/>
+      <c r="A695" s="6"/>
+      <c r="B695" s="8"/>
       <c r="C695" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D695" s="4"/>
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A696" s="9"/>
-      <c r="B696" s="6"/>
+      <c r="A696" s="6"/>
+      <c r="B696" s="8"/>
       <c r="C696" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D696" s="4"/>
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A697" s="9"/>
-      <c r="B697" s="6"/>
+      <c r="A697" s="6"/>
+      <c r="B697" s="8"/>
       <c r="C697" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D697" s="4"/>
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A698" s="9"/>
-      <c r="B698" s="6"/>
+      <c r="A698" s="6"/>
+      <c r="B698" s="8"/>
       <c r="C698" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D698" s="4"/>
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A699" s="9"/>
-      <c r="B699" s="6"/>
+      <c r="A699" s="6"/>
+      <c r="B699" s="8"/>
       <c r="C699" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D699" s="4"/>
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A700" s="9"/>
-      <c r="B700" s="6"/>
+      <c r="A700" s="6"/>
+      <c r="B700" s="8"/>
       <c r="C700" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D700" s="4"/>
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A701" s="9"/>
-      <c r="B701" s="6"/>
+      <c r="A701" s="6"/>
+      <c r="B701" s="8"/>
       <c r="C701" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D701" s="4"/>
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A702" s="9"/>
-      <c r="B702" s="6"/>
+      <c r="A702" s="6"/>
+      <c r="B702" s="8"/>
       <c r="C702" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D702" s="4"/>
     </row>
     <row r="703" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A703" s="9"/>
-      <c r="B703" s="6"/>
+      <c r="A703" s="6"/>
+      <c r="B703" s="8"/>
       <c r="C703" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D703" s="4"/>
     </row>
     <row r="704" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A704" s="9"/>
-      <c r="B704" s="7"/>
+      <c r="A704" s="6"/>
+      <c r="B704" s="9"/>
       <c r="C704" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D704" s="4"/>
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A705" s="8">
+      <c r="A705" s="5">
         <v>17</v>
       </c>
-      <c r="B705" s="5" t="s">
+      <c r="B705" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C705" s="2" t="s">
@@ -6414,88 +6472,88 @@
       <c r="D705" s="3"/>
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A706" s="9"/>
-      <c r="B706" s="6"/>
+      <c r="A706" s="6"/>
+      <c r="B706" s="8"/>
       <c r="C706" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D706" s="4"/>
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A707" s="9"/>
-      <c r="B707" s="6"/>
+      <c r="A707" s="6"/>
+      <c r="B707" s="8"/>
       <c r="C707" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D707" s="4"/>
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A708" s="9"/>
-      <c r="B708" s="6"/>
+      <c r="A708" s="6"/>
+      <c r="B708" s="8"/>
       <c r="C708" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D708" s="4"/>
     </row>
     <row r="709" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A709" s="9"/>
-      <c r="B709" s="6"/>
+      <c r="A709" s="6"/>
+      <c r="B709" s="8"/>
       <c r="C709" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D709" s="4"/>
     </row>
     <row r="710" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A710" s="9"/>
-      <c r="B710" s="6"/>
+      <c r="A710" s="6"/>
+      <c r="B710" s="8"/>
       <c r="C710" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D710" s="4"/>
     </row>
     <row r="711" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A711" s="9"/>
-      <c r="B711" s="6"/>
+      <c r="A711" s="6"/>
+      <c r="B711" s="8"/>
       <c r="C711" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D711" s="4"/>
     </row>
     <row r="712" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A712" s="9"/>
-      <c r="B712" s="6"/>
+      <c r="A712" s="6"/>
+      <c r="B712" s="8"/>
       <c r="C712" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D712" s="4"/>
     </row>
     <row r="713" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A713" s="9"/>
-      <c r="B713" s="6"/>
+      <c r="A713" s="6"/>
+      <c r="B713" s="8"/>
       <c r="C713" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D713" s="4"/>
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A714" s="9"/>
-      <c r="B714" s="6"/>
+      <c r="A714" s="6"/>
+      <c r="B714" s="8"/>
       <c r="C714" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D714" s="4"/>
     </row>
     <row r="715" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A715" s="9"/>
-      <c r="B715" s="7"/>
+      <c r="A715" s="6"/>
+      <c r="B715" s="9"/>
       <c r="C715" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D715" s="4"/>
     </row>
     <row r="716" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A716" s="9"/>
-      <c r="B716" s="5" t="s">
+      <c r="A716" s="6"/>
+      <c r="B716" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C716" s="2" t="s">
@@ -6504,88 +6562,88 @@
       <c r="D716" s="3"/>
     </row>
     <row r="717" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A717" s="9"/>
-      <c r="B717" s="6"/>
+      <c r="A717" s="6"/>
+      <c r="B717" s="8"/>
       <c r="C717" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D717" s="4"/>
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A718" s="9"/>
-      <c r="B718" s="6"/>
+      <c r="A718" s="6"/>
+      <c r="B718" s="8"/>
       <c r="C718" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D718" s="4"/>
     </row>
     <row r="719" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A719" s="9"/>
-      <c r="B719" s="6"/>
+      <c r="A719" s="6"/>
+      <c r="B719" s="8"/>
       <c r="C719" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D719" s="4"/>
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A720" s="9"/>
-      <c r="B720" s="6"/>
+      <c r="A720" s="6"/>
+      <c r="B720" s="8"/>
       <c r="C720" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D720" s="4"/>
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A721" s="9"/>
-      <c r="B721" s="6"/>
+      <c r="A721" s="6"/>
+      <c r="B721" s="8"/>
       <c r="C721" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D721" s="4"/>
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A722" s="9"/>
-      <c r="B722" s="6"/>
+      <c r="A722" s="6"/>
+      <c r="B722" s="8"/>
       <c r="C722" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D722" s="4"/>
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A723" s="9"/>
-      <c r="B723" s="6"/>
+      <c r="A723" s="6"/>
+      <c r="B723" s="8"/>
       <c r="C723" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D723" s="4"/>
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A724" s="9"/>
-      <c r="B724" s="6"/>
+      <c r="A724" s="6"/>
+      <c r="B724" s="8"/>
       <c r="C724" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D724" s="4"/>
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A725" s="9"/>
-      <c r="B725" s="6"/>
+      <c r="A725" s="6"/>
+      <c r="B725" s="8"/>
       <c r="C725" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D725" s="4"/>
     </row>
     <row r="726" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A726" s="9"/>
-      <c r="B726" s="7"/>
+      <c r="A726" s="6"/>
+      <c r="B726" s="9"/>
       <c r="C726" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D726" s="4"/>
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A727" s="9"/>
-      <c r="B727" s="5" t="s">
+      <c r="A727" s="6"/>
+      <c r="B727" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C727" s="2" t="s">
@@ -6594,88 +6652,88 @@
       <c r="D727" s="3"/>
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A728" s="9"/>
-      <c r="B728" s="6"/>
+      <c r="A728" s="6"/>
+      <c r="B728" s="8"/>
       <c r="C728" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D728" s="4"/>
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A729" s="9"/>
-      <c r="B729" s="6"/>
+      <c r="A729" s="6"/>
+      <c r="B729" s="8"/>
       <c r="C729" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D729" s="4"/>
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A730" s="9"/>
-      <c r="B730" s="6"/>
+      <c r="A730" s="6"/>
+      <c r="B730" s="8"/>
       <c r="C730" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D730" s="4"/>
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A731" s="9"/>
-      <c r="B731" s="6"/>
+      <c r="A731" s="6"/>
+      <c r="B731" s="8"/>
       <c r="C731" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D731" s="4"/>
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A732" s="9"/>
-      <c r="B732" s="6"/>
+      <c r="A732" s="6"/>
+      <c r="B732" s="8"/>
       <c r="C732" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D732" s="4"/>
     </row>
     <row r="733" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A733" s="9"/>
-      <c r="B733" s="6"/>
+      <c r="A733" s="6"/>
+      <c r="B733" s="8"/>
       <c r="C733" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D733" s="4"/>
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A734" s="9"/>
-      <c r="B734" s="6"/>
+      <c r="A734" s="6"/>
+      <c r="B734" s="8"/>
       <c r="C734" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D734" s="4"/>
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A735" s="9"/>
-      <c r="B735" s="6"/>
+      <c r="A735" s="6"/>
+      <c r="B735" s="8"/>
       <c r="C735" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D735" s="4"/>
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A736" s="9"/>
-      <c r="B736" s="6"/>
+      <c r="A736" s="6"/>
+      <c r="B736" s="8"/>
       <c r="C736" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D736" s="4"/>
     </row>
     <row r="737" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A737" s="9"/>
-      <c r="B737" s="7"/>
+      <c r="A737" s="6"/>
+      <c r="B737" s="9"/>
       <c r="C737" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D737" s="4"/>
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A738" s="9"/>
-      <c r="B738" s="5" t="s">
+      <c r="A738" s="6"/>
+      <c r="B738" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C738" s="2" t="s">
@@ -6684,90 +6742,90 @@
       <c r="D738" s="3"/>
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A739" s="9"/>
-      <c r="B739" s="6"/>
+      <c r="A739" s="6"/>
+      <c r="B739" s="8"/>
       <c r="C739" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D739" s="4"/>
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A740" s="9"/>
-      <c r="B740" s="6"/>
+      <c r="A740" s="6"/>
+      <c r="B740" s="8"/>
       <c r="C740" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D740" s="4"/>
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A741" s="9"/>
-      <c r="B741" s="6"/>
+      <c r="A741" s="6"/>
+      <c r="B741" s="8"/>
       <c r="C741" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D741" s="4"/>
     </row>
     <row r="742" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A742" s="9"/>
-      <c r="B742" s="6"/>
+      <c r="A742" s="6"/>
+      <c r="B742" s="8"/>
       <c r="C742" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D742" s="4"/>
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A743" s="9"/>
-      <c r="B743" s="6"/>
+      <c r="A743" s="6"/>
+      <c r="B743" s="8"/>
       <c r="C743" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D743" s="4"/>
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A744" s="9"/>
-      <c r="B744" s="6"/>
+      <c r="A744" s="6"/>
+      <c r="B744" s="8"/>
       <c r="C744" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D744" s="4"/>
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A745" s="9"/>
-      <c r="B745" s="6"/>
+      <c r="A745" s="6"/>
+      <c r="B745" s="8"/>
       <c r="C745" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D745" s="4"/>
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A746" s="9"/>
-      <c r="B746" s="6"/>
+      <c r="A746" s="6"/>
+      <c r="B746" s="8"/>
       <c r="C746" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D746" s="4"/>
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A747" s="9"/>
-      <c r="B747" s="6"/>
+      <c r="A747" s="6"/>
+      <c r="B747" s="8"/>
       <c r="C747" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D747" s="4"/>
     </row>
     <row r="748" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A748" s="9"/>
-      <c r="B748" s="7"/>
+      <c r="A748" s="6"/>
+      <c r="B748" s="9"/>
       <c r="C748" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D748" s="4"/>
     </row>
     <row r="749" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A749" s="8">
+      <c r="A749" s="5">
         <v>18</v>
       </c>
-      <c r="B749" s="5" t="s">
+      <c r="B749" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C749" s="2" t="s">
@@ -6776,88 +6834,88 @@
       <c r="D749" s="3"/>
     </row>
     <row r="750" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A750" s="9"/>
-      <c r="B750" s="6"/>
+      <c r="A750" s="6"/>
+      <c r="B750" s="8"/>
       <c r="C750" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D750" s="4"/>
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A751" s="9"/>
-      <c r="B751" s="6"/>
+      <c r="A751" s="6"/>
+      <c r="B751" s="8"/>
       <c r="C751" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D751" s="4"/>
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A752" s="9"/>
-      <c r="B752" s="6"/>
+      <c r="A752" s="6"/>
+      <c r="B752" s="8"/>
       <c r="C752" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D752" s="4"/>
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A753" s="9"/>
-      <c r="B753" s="6"/>
+      <c r="A753" s="6"/>
+      <c r="B753" s="8"/>
       <c r="C753" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D753" s="4"/>
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A754" s="9"/>
-      <c r="B754" s="6"/>
+      <c r="A754" s="6"/>
+      <c r="B754" s="8"/>
       <c r="C754" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D754" s="4"/>
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A755" s="9"/>
-      <c r="B755" s="6"/>
+      <c r="A755" s="6"/>
+      <c r="B755" s="8"/>
       <c r="C755" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D755" s="4"/>
     </row>
     <row r="756" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A756" s="9"/>
-      <c r="B756" s="6"/>
+      <c r="A756" s="6"/>
+      <c r="B756" s="8"/>
       <c r="C756" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D756" s="4"/>
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A757" s="9"/>
-      <c r="B757" s="6"/>
+      <c r="A757" s="6"/>
+      <c r="B757" s="8"/>
       <c r="C757" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D757" s="4"/>
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A758" s="9"/>
-      <c r="B758" s="6"/>
+      <c r="A758" s="6"/>
+      <c r="B758" s="8"/>
       <c r="C758" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D758" s="4"/>
     </row>
     <row r="759" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A759" s="9"/>
-      <c r="B759" s="7"/>
+      <c r="A759" s="6"/>
+      <c r="B759" s="9"/>
       <c r="C759" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D759" s="4"/>
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A760" s="9"/>
-      <c r="B760" s="5" t="s">
+      <c r="A760" s="6"/>
+      <c r="B760" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C760" s="2" t="s">
@@ -6866,88 +6924,88 @@
       <c r="D760" s="3"/>
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A761" s="9"/>
-      <c r="B761" s="6"/>
+      <c r="A761" s="6"/>
+      <c r="B761" s="8"/>
       <c r="C761" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D761" s="4"/>
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A762" s="9"/>
-      <c r="B762" s="6"/>
+      <c r="A762" s="6"/>
+      <c r="B762" s="8"/>
       <c r="C762" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D762" s="4"/>
     </row>
     <row r="763" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A763" s="9"/>
-      <c r="B763" s="6"/>
+      <c r="A763" s="6"/>
+      <c r="B763" s="8"/>
       <c r="C763" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D763" s="4"/>
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A764" s="9"/>
-      <c r="B764" s="6"/>
+      <c r="A764" s="6"/>
+      <c r="B764" s="8"/>
       <c r="C764" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D764" s="4"/>
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A765" s="9"/>
-      <c r="B765" s="6"/>
+      <c r="A765" s="6"/>
+      <c r="B765" s="8"/>
       <c r="C765" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D765" s="4"/>
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A766" s="9"/>
-      <c r="B766" s="6"/>
+      <c r="A766" s="6"/>
+      <c r="B766" s="8"/>
       <c r="C766" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D766" s="4"/>
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A767" s="9"/>
-      <c r="B767" s="6"/>
+      <c r="A767" s="6"/>
+      <c r="B767" s="8"/>
       <c r="C767" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D767" s="4"/>
     </row>
     <row r="768" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A768" s="9"/>
-      <c r="B768" s="6"/>
+      <c r="A768" s="6"/>
+      <c r="B768" s="8"/>
       <c r="C768" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D768" s="4"/>
     </row>
     <row r="769" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A769" s="9"/>
-      <c r="B769" s="6"/>
+      <c r="A769" s="6"/>
+      <c r="B769" s="8"/>
       <c r="C769" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D769" s="4"/>
     </row>
     <row r="770" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A770" s="9"/>
-      <c r="B770" s="7"/>
+      <c r="A770" s="6"/>
+      <c r="B770" s="9"/>
       <c r="C770" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D770" s="4"/>
     </row>
     <row r="771" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A771" s="9"/>
-      <c r="B771" s="5" t="s">
+      <c r="A771" s="6"/>
+      <c r="B771" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C771" s="2" t="s">
@@ -6956,88 +7014,88 @@
       <c r="D771" s="3"/>
     </row>
     <row r="772" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A772" s="9"/>
-      <c r="B772" s="6"/>
+      <c r="A772" s="6"/>
+      <c r="B772" s="8"/>
       <c r="C772" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D772" s="4"/>
     </row>
     <row r="773" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A773" s="9"/>
-      <c r="B773" s="6"/>
+      <c r="A773" s="6"/>
+      <c r="B773" s="8"/>
       <c r="C773" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D773" s="4"/>
     </row>
     <row r="774" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A774" s="9"/>
-      <c r="B774" s="6"/>
+      <c r="A774" s="6"/>
+      <c r="B774" s="8"/>
       <c r="C774" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D774" s="4"/>
     </row>
     <row r="775" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A775" s="9"/>
-      <c r="B775" s="6"/>
+      <c r="A775" s="6"/>
+      <c r="B775" s="8"/>
       <c r="C775" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D775" s="4"/>
     </row>
     <row r="776" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A776" s="9"/>
-      <c r="B776" s="6"/>
+      <c r="A776" s="6"/>
+      <c r="B776" s="8"/>
       <c r="C776" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D776" s="4"/>
     </row>
     <row r="777" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A777" s="9"/>
-      <c r="B777" s="6"/>
+      <c r="A777" s="6"/>
+      <c r="B777" s="8"/>
       <c r="C777" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D777" s="4"/>
     </row>
     <row r="778" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A778" s="9"/>
-      <c r="B778" s="6"/>
+      <c r="A778" s="6"/>
+      <c r="B778" s="8"/>
       <c r="C778" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D778" s="4"/>
     </row>
     <row r="779" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A779" s="9"/>
-      <c r="B779" s="6"/>
+      <c r="A779" s="6"/>
+      <c r="B779" s="8"/>
       <c r="C779" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D779" s="4"/>
     </row>
     <row r="780" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A780" s="9"/>
-      <c r="B780" s="6"/>
+      <c r="A780" s="6"/>
+      <c r="B780" s="8"/>
       <c r="C780" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D780" s="4"/>
     </row>
     <row r="781" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A781" s="9"/>
-      <c r="B781" s="7"/>
+      <c r="A781" s="6"/>
+      <c r="B781" s="9"/>
       <c r="C781" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D781" s="4"/>
     </row>
     <row r="782" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A782" s="9"/>
-      <c r="B782" s="5" t="s">
+      <c r="A782" s="6"/>
+      <c r="B782" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C782" s="2" t="s">
@@ -7046,90 +7104,90 @@
       <c r="D782" s="3"/>
     </row>
     <row r="783" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A783" s="9"/>
-      <c r="B783" s="6"/>
+      <c r="A783" s="6"/>
+      <c r="B783" s="8"/>
       <c r="C783" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D783" s="4"/>
     </row>
     <row r="784" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A784" s="9"/>
-      <c r="B784" s="6"/>
+      <c r="A784" s="6"/>
+      <c r="B784" s="8"/>
       <c r="C784" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D784" s="4"/>
     </row>
     <row r="785" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A785" s="9"/>
-      <c r="B785" s="6"/>
+      <c r="A785" s="6"/>
+      <c r="B785" s="8"/>
       <c r="C785" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D785" s="4"/>
     </row>
     <row r="786" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A786" s="9"/>
-      <c r="B786" s="6"/>
+      <c r="A786" s="6"/>
+      <c r="B786" s="8"/>
       <c r="C786" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D786" s="4"/>
     </row>
     <row r="787" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A787" s="9"/>
-      <c r="B787" s="6"/>
+      <c r="A787" s="6"/>
+      <c r="B787" s="8"/>
       <c r="C787" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D787" s="4"/>
     </row>
     <row r="788" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A788" s="9"/>
-      <c r="B788" s="6"/>
+      <c r="A788" s="6"/>
+      <c r="B788" s="8"/>
       <c r="C788" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D788" s="4"/>
     </row>
     <row r="789" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A789" s="9"/>
-      <c r="B789" s="6"/>
+      <c r="A789" s="6"/>
+      <c r="B789" s="8"/>
       <c r="C789" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D789" s="4"/>
     </row>
     <row r="790" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A790" s="9"/>
-      <c r="B790" s="6"/>
+      <c r="A790" s="6"/>
+      <c r="B790" s="8"/>
       <c r="C790" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D790" s="4"/>
     </row>
     <row r="791" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A791" s="9"/>
-      <c r="B791" s="6"/>
+      <c r="A791" s="6"/>
+      <c r="B791" s="8"/>
       <c r="C791" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D791" s="4"/>
     </row>
     <row r="792" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A792" s="9"/>
-      <c r="B792" s="7"/>
+      <c r="A792" s="6"/>
+      <c r="B792" s="9"/>
       <c r="C792" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D792" s="4"/>
     </row>
     <row r="793" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A793" s="8">
+      <c r="A793" s="5">
         <v>19</v>
       </c>
-      <c r="B793" s="5" t="s">
+      <c r="B793" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C793" s="2" t="s">
@@ -7138,88 +7196,88 @@
       <c r="D793" s="3"/>
     </row>
     <row r="794" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A794" s="9"/>
-      <c r="B794" s="6"/>
+      <c r="A794" s="6"/>
+      <c r="B794" s="8"/>
       <c r="C794" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D794" s="4"/>
     </row>
     <row r="795" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A795" s="9"/>
-      <c r="B795" s="6"/>
+      <c r="A795" s="6"/>
+      <c r="B795" s="8"/>
       <c r="C795" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D795" s="4"/>
     </row>
     <row r="796" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A796" s="9"/>
-      <c r="B796" s="6"/>
+      <c r="A796" s="6"/>
+      <c r="B796" s="8"/>
       <c r="C796" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D796" s="4"/>
     </row>
     <row r="797" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A797" s="9"/>
-      <c r="B797" s="6"/>
+      <c r="A797" s="6"/>
+      <c r="B797" s="8"/>
       <c r="C797" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D797" s="4"/>
     </row>
     <row r="798" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A798" s="9"/>
-      <c r="B798" s="6"/>
+      <c r="A798" s="6"/>
+      <c r="B798" s="8"/>
       <c r="C798" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D798" s="4"/>
     </row>
     <row r="799" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A799" s="9"/>
-      <c r="B799" s="6"/>
+      <c r="A799" s="6"/>
+      <c r="B799" s="8"/>
       <c r="C799" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D799" s="4"/>
     </row>
     <row r="800" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A800" s="9"/>
-      <c r="B800" s="6"/>
+      <c r="A800" s="6"/>
+      <c r="B800" s="8"/>
       <c r="C800" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D800" s="4"/>
     </row>
     <row r="801" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A801" s="9"/>
-      <c r="B801" s="6"/>
+      <c r="A801" s="6"/>
+      <c r="B801" s="8"/>
       <c r="C801" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D801" s="4"/>
     </row>
     <row r="802" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A802" s="9"/>
-      <c r="B802" s="6"/>
+      <c r="A802" s="6"/>
+      <c r="B802" s="8"/>
       <c r="C802" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D802" s="4"/>
     </row>
     <row r="803" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A803" s="9"/>
-      <c r="B803" s="7"/>
+      <c r="A803" s="6"/>
+      <c r="B803" s="9"/>
       <c r="C803" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D803" s="4"/>
     </row>
     <row r="804" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A804" s="9"/>
-      <c r="B804" s="5" t="s">
+      <c r="A804" s="6"/>
+      <c r="B804" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C804" s="2" t="s">
@@ -7228,88 +7286,88 @@
       <c r="D804" s="3"/>
     </row>
     <row r="805" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A805" s="9"/>
-      <c r="B805" s="6"/>
+      <c r="A805" s="6"/>
+      <c r="B805" s="8"/>
       <c r="C805" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D805" s="4"/>
     </row>
     <row r="806" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A806" s="9"/>
-      <c r="B806" s="6"/>
+      <c r="A806" s="6"/>
+      <c r="B806" s="8"/>
       <c r="C806" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D806" s="4"/>
     </row>
     <row r="807" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A807" s="9"/>
-      <c r="B807" s="6"/>
+      <c r="A807" s="6"/>
+      <c r="B807" s="8"/>
       <c r="C807" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D807" s="4"/>
     </row>
     <row r="808" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A808" s="9"/>
-      <c r="B808" s="6"/>
+      <c r="A808" s="6"/>
+      <c r="B808" s="8"/>
       <c r="C808" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D808" s="4"/>
     </row>
     <row r="809" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A809" s="9"/>
-      <c r="B809" s="6"/>
+      <c r="A809" s="6"/>
+      <c r="B809" s="8"/>
       <c r="C809" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D809" s="4"/>
     </row>
     <row r="810" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A810" s="9"/>
-      <c r="B810" s="6"/>
+      <c r="A810" s="6"/>
+      <c r="B810" s="8"/>
       <c r="C810" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D810" s="4"/>
     </row>
     <row r="811" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A811" s="9"/>
-      <c r="B811" s="6"/>
+      <c r="A811" s="6"/>
+      <c r="B811" s="8"/>
       <c r="C811" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D811" s="4"/>
     </row>
     <row r="812" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A812" s="9"/>
-      <c r="B812" s="6"/>
+      <c r="A812" s="6"/>
+      <c r="B812" s="8"/>
       <c r="C812" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D812" s="4"/>
     </row>
     <row r="813" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A813" s="9"/>
-      <c r="B813" s="6"/>
+      <c r="A813" s="6"/>
+      <c r="B813" s="8"/>
       <c r="C813" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D813" s="4"/>
     </row>
     <row r="814" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A814" s="9"/>
-      <c r="B814" s="7"/>
+      <c r="A814" s="6"/>
+      <c r="B814" s="9"/>
       <c r="C814" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D814" s="4"/>
     </row>
     <row r="815" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A815" s="9"/>
-      <c r="B815" s="5" t="s">
+      <c r="A815" s="6"/>
+      <c r="B815" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C815" s="2" t="s">
@@ -7318,88 +7376,88 @@
       <c r="D815" s="3"/>
     </row>
     <row r="816" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A816" s="9"/>
-      <c r="B816" s="6"/>
+      <c r="A816" s="6"/>
+      <c r="B816" s="8"/>
       <c r="C816" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D816" s="4"/>
     </row>
     <row r="817" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A817" s="9"/>
-      <c r="B817" s="6"/>
+      <c r="A817" s="6"/>
+      <c r="B817" s="8"/>
       <c r="C817" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D817" s="4"/>
     </row>
     <row r="818" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A818" s="9"/>
-      <c r="B818" s="6"/>
+      <c r="A818" s="6"/>
+      <c r="B818" s="8"/>
       <c r="C818" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D818" s="4"/>
     </row>
     <row r="819" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A819" s="9"/>
-      <c r="B819" s="6"/>
+      <c r="A819" s="6"/>
+      <c r="B819" s="8"/>
       <c r="C819" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D819" s="4"/>
     </row>
     <row r="820" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A820" s="9"/>
-      <c r="B820" s="6"/>
+      <c r="A820" s="6"/>
+      <c r="B820" s="8"/>
       <c r="C820" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D820" s="4"/>
     </row>
     <row r="821" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A821" s="9"/>
-      <c r="B821" s="6"/>
+      <c r="A821" s="6"/>
+      <c r="B821" s="8"/>
       <c r="C821" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D821" s="4"/>
     </row>
     <row r="822" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A822" s="9"/>
-      <c r="B822" s="6"/>
+      <c r="A822" s="6"/>
+      <c r="B822" s="8"/>
       <c r="C822" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D822" s="4"/>
     </row>
     <row r="823" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A823" s="9"/>
-      <c r="B823" s="6"/>
+      <c r="A823" s="6"/>
+      <c r="B823" s="8"/>
       <c r="C823" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D823" s="4"/>
     </row>
     <row r="824" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A824" s="9"/>
-      <c r="B824" s="6"/>
+      <c r="A824" s="6"/>
+      <c r="B824" s="8"/>
       <c r="C824" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D824" s="4"/>
     </row>
     <row r="825" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A825" s="9"/>
-      <c r="B825" s="7"/>
+      <c r="A825" s="6"/>
+      <c r="B825" s="9"/>
       <c r="C825" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D825" s="4"/>
     </row>
     <row r="826" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A826" s="9"/>
-      <c r="B826" s="5" t="s">
+      <c r="A826" s="6"/>
+      <c r="B826" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C826" s="2" t="s">
@@ -7408,90 +7466,90 @@
       <c r="D826" s="3"/>
     </row>
     <row r="827" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A827" s="9"/>
-      <c r="B827" s="6"/>
+      <c r="A827" s="6"/>
+      <c r="B827" s="8"/>
       <c r="C827" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D827" s="4"/>
     </row>
     <row r="828" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A828" s="9"/>
-      <c r="B828" s="6"/>
+      <c r="A828" s="6"/>
+      <c r="B828" s="8"/>
       <c r="C828" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D828" s="4"/>
     </row>
     <row r="829" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A829" s="9"/>
-      <c r="B829" s="6"/>
+      <c r="A829" s="6"/>
+      <c r="B829" s="8"/>
       <c r="C829" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D829" s="4"/>
     </row>
     <row r="830" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A830" s="9"/>
-      <c r="B830" s="6"/>
+      <c r="A830" s="6"/>
+      <c r="B830" s="8"/>
       <c r="C830" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D830" s="4"/>
     </row>
     <row r="831" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A831" s="9"/>
-      <c r="B831" s="6"/>
+      <c r="A831" s="6"/>
+      <c r="B831" s="8"/>
       <c r="C831" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D831" s="4"/>
     </row>
     <row r="832" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A832" s="9"/>
-      <c r="B832" s="6"/>
+      <c r="A832" s="6"/>
+      <c r="B832" s="8"/>
       <c r="C832" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D832" s="4"/>
     </row>
     <row r="833" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A833" s="9"/>
-      <c r="B833" s="6"/>
+      <c r="A833" s="6"/>
+      <c r="B833" s="8"/>
       <c r="C833" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D833" s="4"/>
     </row>
     <row r="834" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A834" s="9"/>
-      <c r="B834" s="6"/>
+      <c r="A834" s="6"/>
+      <c r="B834" s="8"/>
       <c r="C834" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D834" s="4"/>
     </row>
     <row r="835" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A835" s="9"/>
-      <c r="B835" s="6"/>
+      <c r="A835" s="6"/>
+      <c r="B835" s="8"/>
       <c r="C835" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D835" s="4"/>
     </row>
     <row r="836" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A836" s="9"/>
-      <c r="B836" s="7"/>
+      <c r="A836" s="6"/>
+      <c r="B836" s="9"/>
       <c r="C836" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D836" s="4"/>
     </row>
     <row r="837" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A837" s="8">
+      <c r="A837" s="5">
         <v>20</v>
       </c>
-      <c r="B837" s="5" t="s">
+      <c r="B837" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C837" s="2" t="s">
@@ -7500,88 +7558,88 @@
       <c r="D837" s="3"/>
     </row>
     <row r="838" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A838" s="9"/>
-      <c r="B838" s="6"/>
+      <c r="A838" s="6"/>
+      <c r="B838" s="8"/>
       <c r="C838" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D838" s="4"/>
     </row>
     <row r="839" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A839" s="9"/>
-      <c r="B839" s="6"/>
+      <c r="A839" s="6"/>
+      <c r="B839" s="8"/>
       <c r="C839" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D839" s="4"/>
     </row>
     <row r="840" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A840" s="9"/>
-      <c r="B840" s="6"/>
+      <c r="A840" s="6"/>
+      <c r="B840" s="8"/>
       <c r="C840" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D840" s="4"/>
     </row>
     <row r="841" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A841" s="9"/>
-      <c r="B841" s="6"/>
+      <c r="A841" s="6"/>
+      <c r="B841" s="8"/>
       <c r="C841" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D841" s="4"/>
     </row>
     <row r="842" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A842" s="9"/>
-      <c r="B842" s="6"/>
+      <c r="A842" s="6"/>
+      <c r="B842" s="8"/>
       <c r="C842" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D842" s="4"/>
     </row>
     <row r="843" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A843" s="9"/>
-      <c r="B843" s="6"/>
+      <c r="A843" s="6"/>
+      <c r="B843" s="8"/>
       <c r="C843" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D843" s="4"/>
     </row>
     <row r="844" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A844" s="9"/>
-      <c r="B844" s="6"/>
+      <c r="A844" s="6"/>
+      <c r="B844" s="8"/>
       <c r="C844" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D844" s="4"/>
     </row>
     <row r="845" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A845" s="9"/>
-      <c r="B845" s="6"/>
+      <c r="A845" s="6"/>
+      <c r="B845" s="8"/>
       <c r="C845" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D845" s="4"/>
     </row>
     <row r="846" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A846" s="9"/>
-      <c r="B846" s="6"/>
+      <c r="A846" s="6"/>
+      <c r="B846" s="8"/>
       <c r="C846" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D846" s="4"/>
     </row>
     <row r="847" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A847" s="9"/>
-      <c r="B847" s="7"/>
+      <c r="A847" s="6"/>
+      <c r="B847" s="9"/>
       <c r="C847" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D847" s="4"/>
     </row>
     <row r="848" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A848" s="9"/>
-      <c r="B848" s="5" t="s">
+      <c r="A848" s="6"/>
+      <c r="B848" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C848" s="2" t="s">
@@ -7590,88 +7648,88 @@
       <c r="D848" s="3"/>
     </row>
     <row r="849" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A849" s="9"/>
-      <c r="B849" s="6"/>
+      <c r="A849" s="6"/>
+      <c r="B849" s="8"/>
       <c r="C849" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D849" s="4"/>
     </row>
     <row r="850" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A850" s="9"/>
-      <c r="B850" s="6"/>
+      <c r="A850" s="6"/>
+      <c r="B850" s="8"/>
       <c r="C850" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D850" s="4"/>
     </row>
     <row r="851" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A851" s="9"/>
-      <c r="B851" s="6"/>
+      <c r="A851" s="6"/>
+      <c r="B851" s="8"/>
       <c r="C851" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D851" s="4"/>
     </row>
     <row r="852" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A852" s="9"/>
-      <c r="B852" s="6"/>
+      <c r="A852" s="6"/>
+      <c r="B852" s="8"/>
       <c r="C852" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D852" s="4"/>
     </row>
     <row r="853" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A853" s="9"/>
-      <c r="B853" s="6"/>
+      <c r="A853" s="6"/>
+      <c r="B853" s="8"/>
       <c r="C853" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D853" s="4"/>
     </row>
     <row r="854" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A854" s="9"/>
-      <c r="B854" s="6"/>
+      <c r="A854" s="6"/>
+      <c r="B854" s="8"/>
       <c r="C854" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D854" s="4"/>
     </row>
     <row r="855" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A855" s="9"/>
-      <c r="B855" s="6"/>
+      <c r="A855" s="6"/>
+      <c r="B855" s="8"/>
       <c r="C855" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D855" s="4"/>
     </row>
     <row r="856" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A856" s="9"/>
-      <c r="B856" s="6"/>
+      <c r="A856" s="6"/>
+      <c r="B856" s="8"/>
       <c r="C856" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D856" s="4"/>
     </row>
     <row r="857" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A857" s="9"/>
-      <c r="B857" s="6"/>
+      <c r="A857" s="6"/>
+      <c r="B857" s="8"/>
       <c r="C857" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D857" s="4"/>
     </row>
     <row r="858" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A858" s="9"/>
-      <c r="B858" s="7"/>
+      <c r="A858" s="6"/>
+      <c r="B858" s="9"/>
       <c r="C858" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D858" s="4"/>
     </row>
     <row r="859" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A859" s="9"/>
-      <c r="B859" s="5" t="s">
+      <c r="A859" s="6"/>
+      <c r="B859" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C859" s="2" t="s">
@@ -7680,88 +7738,88 @@
       <c r="D859" s="3"/>
     </row>
     <row r="860" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A860" s="9"/>
-      <c r="B860" s="6"/>
+      <c r="A860" s="6"/>
+      <c r="B860" s="8"/>
       <c r="C860" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D860" s="4"/>
     </row>
     <row r="861" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A861" s="9"/>
-      <c r="B861" s="6"/>
+      <c r="A861" s="6"/>
+      <c r="B861" s="8"/>
       <c r="C861" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D861" s="4"/>
     </row>
     <row r="862" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A862" s="9"/>
-      <c r="B862" s="6"/>
+      <c r="A862" s="6"/>
+      <c r="B862" s="8"/>
       <c r="C862" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D862" s="4"/>
     </row>
     <row r="863" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A863" s="9"/>
-      <c r="B863" s="6"/>
+      <c r="A863" s="6"/>
+      <c r="B863" s="8"/>
       <c r="C863" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D863" s="4"/>
     </row>
     <row r="864" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A864" s="9"/>
-      <c r="B864" s="6"/>
+      <c r="A864" s="6"/>
+      <c r="B864" s="8"/>
       <c r="C864" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D864" s="4"/>
     </row>
     <row r="865" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A865" s="9"/>
-      <c r="B865" s="6"/>
+      <c r="A865" s="6"/>
+      <c r="B865" s="8"/>
       <c r="C865" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D865" s="4"/>
     </row>
     <row r="866" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A866" s="9"/>
-      <c r="B866" s="6"/>
+      <c r="A866" s="6"/>
+      <c r="B866" s="8"/>
       <c r="C866" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D866" s="4"/>
     </row>
     <row r="867" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A867" s="9"/>
-      <c r="B867" s="6"/>
+      <c r="A867" s="6"/>
+      <c r="B867" s="8"/>
       <c r="C867" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D867" s="4"/>
     </row>
     <row r="868" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A868" s="9"/>
-      <c r="B868" s="6"/>
+      <c r="A868" s="6"/>
+      <c r="B868" s="8"/>
       <c r="C868" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D868" s="4"/>
     </row>
     <row r="869" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A869" s="9"/>
-      <c r="B869" s="7"/>
+      <c r="A869" s="6"/>
+      <c r="B869" s="9"/>
       <c r="C869" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D869" s="4"/>
     </row>
     <row r="870" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A870" s="9"/>
-      <c r="B870" s="5" t="s">
+      <c r="A870" s="6"/>
+      <c r="B870" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C870" s="2" t="s">
@@ -7770,80 +7828,80 @@
       <c r="D870" s="3"/>
     </row>
     <row r="871" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A871" s="9"/>
-      <c r="B871" s="6"/>
+      <c r="A871" s="6"/>
+      <c r="B871" s="8"/>
       <c r="C871" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D871" s="4"/>
     </row>
     <row r="872" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A872" s="9"/>
-      <c r="B872" s="6"/>
+      <c r="A872" s="6"/>
+      <c r="B872" s="8"/>
       <c r="C872" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D872" s="4"/>
     </row>
     <row r="873" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A873" s="9"/>
-      <c r="B873" s="6"/>
+      <c r="A873" s="6"/>
+      <c r="B873" s="8"/>
       <c r="C873" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D873" s="4"/>
     </row>
     <row r="874" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A874" s="9"/>
-      <c r="B874" s="6"/>
+      <c r="A874" s="6"/>
+      <c r="B874" s="8"/>
       <c r="C874" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D874" s="4"/>
     </row>
     <row r="875" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A875" s="9"/>
-      <c r="B875" s="6"/>
+      <c r="A875" s="6"/>
+      <c r="B875" s="8"/>
       <c r="C875" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D875" s="4"/>
     </row>
     <row r="876" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A876" s="9"/>
-      <c r="B876" s="6"/>
+      <c r="A876" s="6"/>
+      <c r="B876" s="8"/>
       <c r="C876" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D876" s="4"/>
     </row>
     <row r="877" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A877" s="9"/>
-      <c r="B877" s="6"/>
+      <c r="A877" s="6"/>
+      <c r="B877" s="8"/>
       <c r="C877" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D877" s="4"/>
     </row>
     <row r="878" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A878" s="9"/>
-      <c r="B878" s="6"/>
+      <c r="A878" s="6"/>
+      <c r="B878" s="8"/>
       <c r="C878" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D878" s="4"/>
     </row>
     <row r="879" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A879" s="9"/>
-      <c r="B879" s="6"/>
+      <c r="A879" s="6"/>
+      <c r="B879" s="8"/>
       <c r="C879" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D879" s="4"/>
     </row>
     <row r="880" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A880" s="9"/>
-      <c r="B880" s="7"/>
+      <c r="A880" s="6"/>
+      <c r="B880" s="9"/>
       <c r="C880" s="1" t="s">
         <v>6</v>
       </c>
@@ -7851,106 +7909,106 @@
     </row>
   </sheetData>
   <mergeCells count="100">
+    <mergeCell ref="A441:A484"/>
+    <mergeCell ref="B441:B451"/>
+    <mergeCell ref="B452:B462"/>
+    <mergeCell ref="B463:B473"/>
+    <mergeCell ref="B474:B484"/>
+    <mergeCell ref="A397:A440"/>
+    <mergeCell ref="B397:B407"/>
+    <mergeCell ref="B408:B418"/>
+    <mergeCell ref="B419:B429"/>
+    <mergeCell ref="B430:B440"/>
+    <mergeCell ref="B23:B33"/>
+    <mergeCell ref="B34:B44"/>
+    <mergeCell ref="A1:A44"/>
+    <mergeCell ref="B1:B11"/>
+    <mergeCell ref="B12:B22"/>
+    <mergeCell ref="A45:A88"/>
+    <mergeCell ref="B45:B55"/>
+    <mergeCell ref="B56:B66"/>
+    <mergeCell ref="B67:B77"/>
+    <mergeCell ref="B78:B88"/>
+    <mergeCell ref="A89:A132"/>
+    <mergeCell ref="B89:B99"/>
+    <mergeCell ref="B100:B110"/>
+    <mergeCell ref="B111:B121"/>
+    <mergeCell ref="B122:B132"/>
+    <mergeCell ref="A133:A176"/>
+    <mergeCell ref="B133:B143"/>
+    <mergeCell ref="B144:B154"/>
+    <mergeCell ref="B155:B165"/>
+    <mergeCell ref="B166:B176"/>
+    <mergeCell ref="A177:A220"/>
+    <mergeCell ref="B177:B187"/>
+    <mergeCell ref="B188:B198"/>
+    <mergeCell ref="B199:B209"/>
+    <mergeCell ref="B210:B220"/>
+    <mergeCell ref="A221:A264"/>
+    <mergeCell ref="B221:B231"/>
+    <mergeCell ref="B232:B242"/>
+    <mergeCell ref="B243:B253"/>
+    <mergeCell ref="B254:B264"/>
+    <mergeCell ref="A265:A308"/>
+    <mergeCell ref="B265:B275"/>
+    <mergeCell ref="B276:B286"/>
+    <mergeCell ref="B287:B297"/>
+    <mergeCell ref="B298:B308"/>
+    <mergeCell ref="A353:A396"/>
+    <mergeCell ref="B353:B363"/>
+    <mergeCell ref="B364:B374"/>
+    <mergeCell ref="B375:B385"/>
+    <mergeCell ref="B386:B396"/>
+    <mergeCell ref="A309:A352"/>
+    <mergeCell ref="B309:B319"/>
+    <mergeCell ref="B320:B330"/>
+    <mergeCell ref="B331:B341"/>
+    <mergeCell ref="B342:B352"/>
+    <mergeCell ref="A485:A528"/>
+    <mergeCell ref="B485:B495"/>
+    <mergeCell ref="B496:B506"/>
+    <mergeCell ref="B507:B517"/>
+    <mergeCell ref="B518:B528"/>
+    <mergeCell ref="A529:A572"/>
+    <mergeCell ref="B529:B539"/>
+    <mergeCell ref="B540:B550"/>
+    <mergeCell ref="B551:B561"/>
+    <mergeCell ref="B562:B572"/>
+    <mergeCell ref="A573:A616"/>
+    <mergeCell ref="B573:B583"/>
+    <mergeCell ref="B584:B594"/>
+    <mergeCell ref="B595:B605"/>
+    <mergeCell ref="B606:B616"/>
+    <mergeCell ref="A617:A660"/>
+    <mergeCell ref="B617:B627"/>
+    <mergeCell ref="B628:B638"/>
+    <mergeCell ref="B639:B649"/>
+    <mergeCell ref="B650:B660"/>
+    <mergeCell ref="A661:A704"/>
+    <mergeCell ref="B661:B671"/>
+    <mergeCell ref="B672:B682"/>
+    <mergeCell ref="B683:B693"/>
+    <mergeCell ref="B694:B704"/>
+    <mergeCell ref="A705:A748"/>
+    <mergeCell ref="B705:B715"/>
+    <mergeCell ref="B716:B726"/>
+    <mergeCell ref="B727:B737"/>
+    <mergeCell ref="B738:B748"/>
+    <mergeCell ref="A749:A792"/>
+    <mergeCell ref="B749:B759"/>
+    <mergeCell ref="B760:B770"/>
+    <mergeCell ref="B771:B781"/>
+    <mergeCell ref="B782:B792"/>
+    <mergeCell ref="A793:A836"/>
+    <mergeCell ref="B793:B803"/>
+    <mergeCell ref="B804:B814"/>
+    <mergeCell ref="B815:B825"/>
+    <mergeCell ref="B826:B836"/>
     <mergeCell ref="A837:A880"/>
     <mergeCell ref="B837:B847"/>
     <mergeCell ref="B848:B858"/>
     <mergeCell ref="B859:B869"/>
     <mergeCell ref="B870:B880"/>
-    <mergeCell ref="A793:A836"/>
-    <mergeCell ref="B793:B803"/>
-    <mergeCell ref="B804:B814"/>
-    <mergeCell ref="B815:B825"/>
-    <mergeCell ref="B826:B836"/>
-    <mergeCell ref="A749:A792"/>
-    <mergeCell ref="B749:B759"/>
-    <mergeCell ref="B760:B770"/>
-    <mergeCell ref="B771:B781"/>
-    <mergeCell ref="B782:B792"/>
-    <mergeCell ref="A705:A748"/>
-    <mergeCell ref="B705:B715"/>
-    <mergeCell ref="B716:B726"/>
-    <mergeCell ref="B727:B737"/>
-    <mergeCell ref="B738:B748"/>
-    <mergeCell ref="A661:A704"/>
-    <mergeCell ref="B661:B671"/>
-    <mergeCell ref="B672:B682"/>
-    <mergeCell ref="B683:B693"/>
-    <mergeCell ref="B694:B704"/>
-    <mergeCell ref="A617:A660"/>
-    <mergeCell ref="B617:B627"/>
-    <mergeCell ref="B628:B638"/>
-    <mergeCell ref="B639:B649"/>
-    <mergeCell ref="B650:B660"/>
-    <mergeCell ref="A573:A616"/>
-    <mergeCell ref="B573:B583"/>
-    <mergeCell ref="B584:B594"/>
-    <mergeCell ref="B595:B605"/>
-    <mergeCell ref="B606:B616"/>
-    <mergeCell ref="A529:A572"/>
-    <mergeCell ref="B529:B539"/>
-    <mergeCell ref="B540:B550"/>
-    <mergeCell ref="B551:B561"/>
-    <mergeCell ref="B562:B572"/>
-    <mergeCell ref="A485:A528"/>
-    <mergeCell ref="B485:B495"/>
-    <mergeCell ref="B496:B506"/>
-    <mergeCell ref="B507:B517"/>
-    <mergeCell ref="B518:B528"/>
-    <mergeCell ref="A309:A352"/>
-    <mergeCell ref="B309:B319"/>
-    <mergeCell ref="B320:B330"/>
-    <mergeCell ref="B331:B341"/>
-    <mergeCell ref="B342:B352"/>
-    <mergeCell ref="A353:A396"/>
-    <mergeCell ref="B353:B363"/>
-    <mergeCell ref="B364:B374"/>
-    <mergeCell ref="B375:B385"/>
-    <mergeCell ref="B386:B396"/>
-    <mergeCell ref="A265:A308"/>
-    <mergeCell ref="B265:B275"/>
-    <mergeCell ref="B276:B286"/>
-    <mergeCell ref="B287:B297"/>
-    <mergeCell ref="B298:B308"/>
-    <mergeCell ref="A221:A264"/>
-    <mergeCell ref="B221:B231"/>
-    <mergeCell ref="B232:B242"/>
-    <mergeCell ref="B243:B253"/>
-    <mergeCell ref="B254:B264"/>
-    <mergeCell ref="A177:A220"/>
-    <mergeCell ref="B177:B187"/>
-    <mergeCell ref="B188:B198"/>
-    <mergeCell ref="B199:B209"/>
-    <mergeCell ref="B210:B220"/>
-    <mergeCell ref="A133:A176"/>
-    <mergeCell ref="B133:B143"/>
-    <mergeCell ref="B144:B154"/>
-    <mergeCell ref="B155:B165"/>
-    <mergeCell ref="B166:B176"/>
-    <mergeCell ref="A89:A132"/>
-    <mergeCell ref="B89:B99"/>
-    <mergeCell ref="B100:B110"/>
-    <mergeCell ref="B111:B121"/>
-    <mergeCell ref="B122:B132"/>
-    <mergeCell ref="A45:A88"/>
-    <mergeCell ref="B45:B55"/>
-    <mergeCell ref="B56:B66"/>
-    <mergeCell ref="B67:B77"/>
-    <mergeCell ref="B78:B88"/>
-    <mergeCell ref="B23:B33"/>
-    <mergeCell ref="B34:B44"/>
-    <mergeCell ref="A1:A44"/>
-    <mergeCell ref="B1:B11"/>
-    <mergeCell ref="B12:B22"/>
-    <mergeCell ref="A397:A440"/>
-    <mergeCell ref="B397:B407"/>
-    <mergeCell ref="B408:B418"/>
-    <mergeCell ref="B419:B429"/>
-    <mergeCell ref="B430:B440"/>
-    <mergeCell ref="A441:A484"/>
-    <mergeCell ref="B441:B451"/>
-    <mergeCell ref="B452:B462"/>
-    <mergeCell ref="B463:B473"/>
-    <mergeCell ref="B474:B484"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DTW/data/10person/no_skip.xlsx
+++ b/DTW/data/10person/no_skip.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\INC_BEV_FastMOT\DTW\data\10person\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jji94\Documents\Github\INC_BEV_FastMOT\DTW\data\10person\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F674D5AC-2871-4DA0-8AC3-B8798F90B16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3031AD-2867-401C-8FEB-1CAD183DAA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="290" yWindow="1060" windowWidth="14920" windowHeight="18060" xr2:uid="{F7770F3D-F9C2-4C2A-97D3-3A6C1C02D526}"/>
+    <workbookView xWindow="75" yWindow="180" windowWidth="7995" windowHeight="13395" xr2:uid="{F7770F3D-F9C2-4C2A-97D3-3A6C1C02D526}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="32">
   <si>
     <t>정익</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,6 +114,54 @@
   </si>
   <si>
     <t>5,9,10,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,17,21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -620,16 +668,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E810037-98D3-4B06-AAD8-9F0B4D51D317}">
   <dimension ref="A1:D880"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D144" sqref="D144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="34.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="5">
         <v>1</v>
       </c>
@@ -643,7 +691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
       <c r="B2" s="8"/>
       <c r="C2" s="1" t="s">
@@ -653,7 +701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="8"/>
       <c r="C3" s="1" t="s">
@@ -663,7 +711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="8"/>
       <c r="C4" s="1" t="s">
@@ -673,7 +721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="8"/>
       <c r="C5" s="1" t="s">
@@ -683,7 +731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="8"/>
       <c r="C6" s="1" t="s">
@@ -693,7 +741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="8"/>
       <c r="C7" s="1" t="s">
@@ -703,7 +751,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="8"/>
       <c r="C8" s="1" t="s">
@@ -713,7 +761,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="8"/>
       <c r="C9" s="1" t="s">
@@ -721,7 +769,7 @@
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="8"/>
       <c r="C10" s="1" t="s">
@@ -729,7 +777,7 @@
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="9"/>
       <c r="C11" s="1" t="s">
@@ -739,7 +787,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="7" t="s">
         <v>3</v>
@@ -749,7 +797,7 @@
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="8"/>
       <c r="C13" s="1" t="s">
@@ -757,7 +805,7 @@
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="8"/>
       <c r="C14" s="1" t="s">
@@ -765,7 +813,7 @@
       </c>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="8"/>
       <c r="C15" s="1" t="s">
@@ -773,7 +821,7 @@
       </c>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="8"/>
       <c r="C16" s="1" t="s">
@@ -781,7 +829,7 @@
       </c>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="8"/>
       <c r="C17" s="1" t="s">
@@ -789,7 +837,7 @@
       </c>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="8"/>
       <c r="C18" s="1" t="s">
@@ -797,7 +845,7 @@
       </c>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="8"/>
       <c r="C19" s="1" t="s">
@@ -805,7 +853,7 @@
       </c>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="8"/>
       <c r="C20" s="1" t="s">
@@ -813,7 +861,7 @@
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="8"/>
       <c r="C21" s="1" t="s">
@@ -821,7 +869,7 @@
       </c>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6"/>
       <c r="B22" s="9"/>
       <c r="C22" s="1" t="s">
@@ -829,7 +877,7 @@
       </c>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="7" t="s">
         <v>4</v>
@@ -841,7 +889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="8"/>
       <c r="C24" s="1" t="s">
@@ -851,7 +899,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="8"/>
       <c r="C25" s="1" t="s">
@@ -861,7 +909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="8"/>
       <c r="C26" s="1" t="s">
@@ -871,7 +919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="8"/>
       <c r="C27" s="1" t="s">
@@ -881,7 +929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="8"/>
       <c r="C28" s="1" t="s">
@@ -891,7 +939,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="8"/>
       <c r="C29" s="1" t="s">
@@ -899,7 +947,7 @@
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="8"/>
       <c r="C30" s="1" t="s">
@@ -909,7 +957,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="8"/>
       <c r="C31" s="1" t="s">
@@ -919,7 +967,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="8"/>
       <c r="C32" s="1" t="s">
@@ -929,7 +977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6"/>
       <c r="B33" s="9"/>
       <c r="C33" s="1" t="s">
@@ -939,7 +987,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="7" t="s">
         <v>5</v>
@@ -949,7 +997,7 @@
       </c>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="8"/>
       <c r="C35" s="1" t="s">
@@ -957,7 +1005,7 @@
       </c>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="8"/>
       <c r="C36" s="1" t="s">
@@ -965,7 +1013,7 @@
       </c>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="8"/>
       <c r="C37" s="1" t="s">
@@ -973,7 +1021,7 @@
       </c>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="8"/>
       <c r="C38" s="1" t="s">
@@ -981,7 +1029,7 @@
       </c>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="8"/>
       <c r="C39" s="1" t="s">
@@ -989,7 +1037,7 @@
       </c>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="8"/>
       <c r="C40" s="1" t="s">
@@ -997,7 +1045,7 @@
       </c>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="8"/>
       <c r="C41" s="1" t="s">
@@ -1005,7 +1053,7 @@
       </c>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="8"/>
       <c r="C42" s="1" t="s">
@@ -1013,7 +1061,7 @@
       </c>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="8"/>
       <c r="C43" s="1" t="s">
@@ -1021,7 +1069,7 @@
       </c>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="6"/>
       <c r="B44" s="9"/>
       <c r="C44" s="1" t="s">
@@ -1029,7 +1077,7 @@
       </c>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>2</v>
       </c>
@@ -1039,81 +1087,101 @@
       <c r="C45" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D45" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="8"/>
       <c r="C46" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D46" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="8"/>
       <c r="C47" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D47" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="8"/>
       <c r="C48" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="4"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D48" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="8"/>
       <c r="C49" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D49" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="8"/>
       <c r="C50" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="4"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D50" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="8"/>
       <c r="C51" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D51" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="8"/>
       <c r="C52" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D52" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="8"/>
       <c r="C53" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="4"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D53" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
       <c r="B54" s="8"/>
       <c r="C54" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D54" s="4"/>
-    </row>
-    <row r="55" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D54" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6"/>
       <c r="B55" s="9"/>
       <c r="C55" s="1" t="s">
@@ -1121,7 +1189,7 @@
       </c>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="7" t="s">
         <v>3</v>
@@ -1131,7 +1199,7 @@
       </c>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="8"/>
       <c r="C57" s="1" t="s">
@@ -1139,7 +1207,7 @@
       </c>
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="B58" s="8"/>
       <c r="C58" s="1" t="s">
@@ -1147,7 +1215,7 @@
       </c>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
       <c r="B59" s="8"/>
       <c r="C59" s="1" t="s">
@@ -1155,7 +1223,7 @@
       </c>
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="6"/>
       <c r="B60" s="8"/>
       <c r="C60" s="1" t="s">
@@ -1163,7 +1231,7 @@
       </c>
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="6"/>
       <c r="B61" s="8"/>
       <c r="C61" s="1" t="s">
@@ -1171,7 +1239,7 @@
       </c>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="6"/>
       <c r="B62" s="8"/>
       <c r="C62" s="1" t="s">
@@ -1179,7 +1247,7 @@
       </c>
       <c r="D62" s="4"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
       <c r="B63" s="8"/>
       <c r="C63" s="1" t="s">
@@ -1187,7 +1255,7 @@
       </c>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="6"/>
       <c r="B64" s="8"/>
       <c r="C64" s="1" t="s">
@@ -1195,7 +1263,7 @@
       </c>
       <c r="D64" s="4"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="6"/>
       <c r="B65" s="8"/>
       <c r="C65" s="1" t="s">
@@ -1203,7 +1271,7 @@
       </c>
       <c r="D65" s="4"/>
     </row>
-    <row r="66" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="6"/>
       <c r="B66" s="9"/>
       <c r="C66" s="1" t="s">
@@ -1211,7 +1279,7 @@
       </c>
       <c r="D66" s="4"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="6"/>
       <c r="B67" s="7" t="s">
         <v>4</v>
@@ -1219,57 +1287,71 @@
       <c r="C67" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D67" s="3"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D67" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="6"/>
       <c r="B68" s="8"/>
       <c r="C68" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D68" s="4"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D68" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="6"/>
       <c r="B69" s="8"/>
       <c r="C69" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D69" s="4"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D69" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="6"/>
       <c r="B70" s="8"/>
       <c r="C70" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D70" s="4"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D70" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="6"/>
       <c r="B71" s="8"/>
       <c r="C71" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D71" s="4"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D71" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="6"/>
       <c r="B72" s="8"/>
       <c r="C72" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D72" s="4"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D72" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="6"/>
       <c r="B73" s="8"/>
       <c r="C73" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D73" s="4"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D73" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="6"/>
       <c r="B74" s="8"/>
       <c r="C74" s="1" t="s">
@@ -1277,31 +1359,37 @@
       </c>
       <c r="D74" s="4"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="6"/>
       <c r="B75" s="8"/>
       <c r="C75" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D75" s="4"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D75" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="6"/>
       <c r="B76" s="8"/>
       <c r="C76" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D76" s="4"/>
-    </row>
-    <row r="77" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D76" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="6"/>
       <c r="B77" s="9"/>
       <c r="C77" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D77" s="4"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D77" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="6"/>
       <c r="B78" s="7" t="s">
         <v>5</v>
@@ -1311,7 +1399,7 @@
       </c>
       <c r="D78" s="3"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="6"/>
       <c r="B79" s="8"/>
       <c r="C79" s="1" t="s">
@@ -1319,7 +1407,7 @@
       </c>
       <c r="D79" s="4"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="6"/>
       <c r="B80" s="8"/>
       <c r="C80" s="1" t="s">
@@ -1327,7 +1415,7 @@
       </c>
       <c r="D80" s="4"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="6"/>
       <c r="B81" s="8"/>
       <c r="C81" s="1" t="s">
@@ -1335,7 +1423,7 @@
       </c>
       <c r="D81" s="4"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="6"/>
       <c r="B82" s="8"/>
       <c r="C82" s="1" t="s">
@@ -1343,7 +1431,7 @@
       </c>
       <c r="D82" s="4"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="6"/>
       <c r="B83" s="8"/>
       <c r="C83" s="1" t="s">
@@ -1351,7 +1439,7 @@
       </c>
       <c r="D83" s="4"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="6"/>
       <c r="B84" s="8"/>
       <c r="C84" s="1" t="s">
@@ -1359,7 +1447,7 @@
       </c>
       <c r="D84" s="4"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="6"/>
       <c r="B85" s="8"/>
       <c r="C85" s="1" t="s">
@@ -1367,7 +1455,7 @@
       </c>
       <c r="D85" s="4"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="6"/>
       <c r="B86" s="8"/>
       <c r="C86" s="1" t="s">
@@ -1375,7 +1463,7 @@
       </c>
       <c r="D86" s="4"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="6"/>
       <c r="B87" s="8"/>
       <c r="C87" s="1" t="s">
@@ -1383,7 +1471,7 @@
       </c>
       <c r="D87" s="4"/>
     </row>
-    <row r="88" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="6"/>
       <c r="B88" s="9"/>
       <c r="C88" s="1" t="s">
@@ -1391,7 +1479,7 @@
       </c>
       <c r="D88" s="4"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="5">
         <v>3</v>
       </c>
@@ -1401,89 +1489,111 @@
       <c r="C89" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D89" s="3"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D89" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="6"/>
       <c r="B90" s="8"/>
       <c r="C90" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D90" s="4"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D90" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="6"/>
       <c r="B91" s="8"/>
       <c r="C91" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D91" s="4"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D91" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="6"/>
       <c r="B92" s="8"/>
       <c r="C92" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D92" s="4"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D92" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="6"/>
       <c r="B93" s="8"/>
       <c r="C93" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D93" s="4"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D93" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="6"/>
       <c r="B94" s="8"/>
       <c r="C94" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D94" s="4"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D94" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="6"/>
       <c r="B95" s="8"/>
       <c r="C95" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D95" s="4"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D95" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="6"/>
       <c r="B96" s="8"/>
       <c r="C96" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D96" s="4"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D96" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="6"/>
       <c r="B97" s="8"/>
       <c r="C97" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D97" s="4"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D97" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="6"/>
       <c r="B98" s="8"/>
       <c r="C98" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D98" s="4"/>
-    </row>
-    <row r="99" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D98" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="6"/>
       <c r="B99" s="9"/>
       <c r="C99" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D99" s="4"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D99" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="6"/>
       <c r="B100" s="7" t="s">
         <v>3</v>
@@ -1493,7 +1603,7 @@
       </c>
       <c r="D100" s="3"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="6"/>
       <c r="B101" s="8"/>
       <c r="C101" s="1" t="s">
@@ -1501,7 +1611,7 @@
       </c>
       <c r="D101" s="4"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="6"/>
       <c r="B102" s="8"/>
       <c r="C102" s="1" t="s">
@@ -1509,7 +1619,7 @@
       </c>
       <c r="D102" s="4"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="6"/>
       <c r="B103" s="8"/>
       <c r="C103" s="1" t="s">
@@ -1517,7 +1627,7 @@
       </c>
       <c r="D103" s="4"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="6"/>
       <c r="B104" s="8"/>
       <c r="C104" s="1" t="s">
@@ -1525,7 +1635,7 @@
       </c>
       <c r="D104" s="4"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="6"/>
       <c r="B105" s="8"/>
       <c r="C105" s="1" t="s">
@@ -1533,7 +1643,7 @@
       </c>
       <c r="D105" s="4"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="6"/>
       <c r="B106" s="8"/>
       <c r="C106" s="1" t="s">
@@ -1541,7 +1651,7 @@
       </c>
       <c r="D106" s="4"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="6"/>
       <c r="B107" s="8"/>
       <c r="C107" s="1" t="s">
@@ -1549,7 +1659,7 @@
       </c>
       <c r="D107" s="4"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="6"/>
       <c r="B108" s="8"/>
       <c r="C108" s="1" t="s">
@@ -1557,7 +1667,7 @@
       </c>
       <c r="D108" s="4"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="6"/>
       <c r="B109" s="8"/>
       <c r="C109" s="1" t="s">
@@ -1565,7 +1675,7 @@
       </c>
       <c r="D109" s="4"/>
     </row>
-    <row r="110" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="6"/>
       <c r="B110" s="9"/>
       <c r="C110" s="1" t="s">
@@ -1573,7 +1683,7 @@
       </c>
       <c r="D110" s="4"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="6"/>
       <c r="B111" s="7" t="s">
         <v>4</v>
@@ -1581,81 +1691,101 @@
       <c r="C111" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D111" s="3"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D111" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="6"/>
       <c r="B112" s="8"/>
       <c r="C112" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D112" s="4"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D112" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="6"/>
       <c r="B113" s="8"/>
       <c r="C113" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D113" s="4"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D113" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="6"/>
       <c r="B114" s="8"/>
       <c r="C114" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D114" s="4"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D114" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="6"/>
       <c r="B115" s="8"/>
       <c r="C115" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D115" s="4"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D115" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="6"/>
       <c r="B116" s="8"/>
       <c r="C116" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D116" s="4"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D116" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="6"/>
       <c r="B117" s="8"/>
       <c r="C117" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D117" s="4"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D117" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="6"/>
       <c r="B118" s="8"/>
       <c r="C118" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D118" s="4"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D118" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="6"/>
       <c r="B119" s="8"/>
       <c r="C119" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D119" s="4"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D119" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="6"/>
       <c r="B120" s="8"/>
       <c r="C120" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D120" s="4"/>
-    </row>
-    <row r="121" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D120" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="6"/>
       <c r="B121" s="9"/>
       <c r="C121" s="1" t="s">
@@ -1663,7 +1793,7 @@
       </c>
       <c r="D121" s="4"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="6"/>
       <c r="B122" s="7" t="s">
         <v>5</v>
@@ -1673,7 +1803,7 @@
       </c>
       <c r="D122" s="3"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="6"/>
       <c r="B123" s="8"/>
       <c r="C123" s="1" t="s">
@@ -1681,7 +1811,7 @@
       </c>
       <c r="D123" s="4"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="6"/>
       <c r="B124" s="8"/>
       <c r="C124" s="1" t="s">
@@ -1689,7 +1819,7 @@
       </c>
       <c r="D124" s="4"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="6"/>
       <c r="B125" s="8"/>
       <c r="C125" s="1" t="s">
@@ -1697,7 +1827,7 @@
       </c>
       <c r="D125" s="4"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="6"/>
       <c r="B126" s="8"/>
       <c r="C126" s="1" t="s">
@@ -1705,7 +1835,7 @@
       </c>
       <c r="D126" s="4"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="6"/>
       <c r="B127" s="8"/>
       <c r="C127" s="1" t="s">
@@ -1713,7 +1843,7 @@
       </c>
       <c r="D127" s="4"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="6"/>
       <c r="B128" s="8"/>
       <c r="C128" s="1" t="s">
@@ -1721,7 +1851,7 @@
       </c>
       <c r="D128" s="4"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="6"/>
       <c r="B129" s="8"/>
       <c r="C129" s="1" t="s">
@@ -1729,7 +1859,7 @@
       </c>
       <c r="D129" s="4"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="6"/>
       <c r="B130" s="8"/>
       <c r="C130" s="1" t="s">
@@ -1737,7 +1867,7 @@
       </c>
       <c r="D130" s="4"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="6"/>
       <c r="B131" s="8"/>
       <c r="C131" s="1" t="s">
@@ -1745,7 +1875,7 @@
       </c>
       <c r="D131" s="4"/>
     </row>
-    <row r="132" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="6"/>
       <c r="B132" s="9"/>
       <c r="C132" s="1" t="s">
@@ -1753,7 +1883,7 @@
       </c>
       <c r="D132" s="4"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="5">
         <v>4</v>
       </c>
@@ -1765,7 +1895,7 @@
       </c>
       <c r="D133" s="3"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="6"/>
       <c r="B134" s="8"/>
       <c r="C134" s="1" t="s">
@@ -1773,7 +1903,7 @@
       </c>
       <c r="D134" s="4"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="6"/>
       <c r="B135" s="8"/>
       <c r="C135" s="1" t="s">
@@ -1781,7 +1911,7 @@
       </c>
       <c r="D135" s="4"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="6"/>
       <c r="B136" s="8"/>
       <c r="C136" s="1" t="s">
@@ -1789,7 +1919,7 @@
       </c>
       <c r="D136" s="4"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="6"/>
       <c r="B137" s="8"/>
       <c r="C137" s="1" t="s">
@@ -1797,7 +1927,7 @@
       </c>
       <c r="D137" s="4"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="6"/>
       <c r="B138" s="8"/>
       <c r="C138" s="1" t="s">
@@ -1805,7 +1935,7 @@
       </c>
       <c r="D138" s="4"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="6"/>
       <c r="B139" s="8"/>
       <c r="C139" s="1" t="s">
@@ -1813,7 +1943,7 @@
       </c>
       <c r="D139" s="4"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="6"/>
       <c r="B140" s="8"/>
       <c r="C140" s="1" t="s">
@@ -1821,7 +1951,7 @@
       </c>
       <c r="D140" s="4"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="6"/>
       <c r="B141" s="8"/>
       <c r="C141" s="1" t="s">
@@ -1829,7 +1959,7 @@
       </c>
       <c r="D141" s="4"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="6"/>
       <c r="B142" s="8"/>
       <c r="C142" s="1" t="s">
@@ -1837,7 +1967,7 @@
       </c>
       <c r="D142" s="4"/>
     </row>
-    <row r="143" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="6"/>
       <c r="B143" s="9"/>
       <c r="C143" s="1" t="s">
@@ -1845,7 +1975,7 @@
       </c>
       <c r="D143" s="4"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="6"/>
       <c r="B144" s="7" t="s">
         <v>3</v>
@@ -1855,7 +1985,7 @@
       </c>
       <c r="D144" s="3"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="6"/>
       <c r="B145" s="8"/>
       <c r="C145" s="1" t="s">
@@ -1863,7 +1993,7 @@
       </c>
       <c r="D145" s="4"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="6"/>
       <c r="B146" s="8"/>
       <c r="C146" s="1" t="s">
@@ -1871,7 +2001,7 @@
       </c>
       <c r="D146" s="4"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="6"/>
       <c r="B147" s="8"/>
       <c r="C147" s="1" t="s">
@@ -1879,7 +2009,7 @@
       </c>
       <c r="D147" s="4"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="6"/>
       <c r="B148" s="8"/>
       <c r="C148" s="1" t="s">
@@ -1887,7 +2017,7 @@
       </c>
       <c r="D148" s="4"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="6"/>
       <c r="B149" s="8"/>
       <c r="C149" s="1" t="s">
@@ -1895,7 +2025,7 @@
       </c>
       <c r="D149" s="4"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="6"/>
       <c r="B150" s="8"/>
       <c r="C150" s="1" t="s">
@@ -1903,7 +2033,7 @@
       </c>
       <c r="D150" s="4"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="6"/>
       <c r="B151" s="8"/>
       <c r="C151" s="1" t="s">
@@ -1911,7 +2041,7 @@
       </c>
       <c r="D151" s="4"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="6"/>
       <c r="B152" s="8"/>
       <c r="C152" s="1" t="s">
@@ -1919,7 +2049,7 @@
       </c>
       <c r="D152" s="4"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="6"/>
       <c r="B153" s="8"/>
       <c r="C153" s="1" t="s">
@@ -1927,7 +2057,7 @@
       </c>
       <c r="D153" s="4"/>
     </row>
-    <row r="154" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="6"/>
       <c r="B154" s="9"/>
       <c r="C154" s="1" t="s">
@@ -1935,7 +2065,7 @@
       </c>
       <c r="D154" s="4"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="6"/>
       <c r="B155" s="7" t="s">
         <v>4</v>
@@ -1945,7 +2075,7 @@
       </c>
       <c r="D155" s="3"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="6"/>
       <c r="B156" s="8"/>
       <c r="C156" s="1" t="s">
@@ -1953,7 +2083,7 @@
       </c>
       <c r="D156" s="4"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="6"/>
       <c r="B157" s="8"/>
       <c r="C157" s="1" t="s">
@@ -1961,7 +2091,7 @@
       </c>
       <c r="D157" s="4"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="6"/>
       <c r="B158" s="8"/>
       <c r="C158" s="1" t="s">
@@ -1969,7 +2099,7 @@
       </c>
       <c r="D158" s="4"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="6"/>
       <c r="B159" s="8"/>
       <c r="C159" s="1" t="s">
@@ -1977,7 +2107,7 @@
       </c>
       <c r="D159" s="4"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="6"/>
       <c r="B160" s="8"/>
       <c r="C160" s="1" t="s">
@@ -1985,7 +2115,7 @@
       </c>
       <c r="D160" s="4"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="6"/>
       <c r="B161" s="8"/>
       <c r="C161" s="1" t="s">
@@ -1993,7 +2123,7 @@
       </c>
       <c r="D161" s="4"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="6"/>
       <c r="B162" s="8"/>
       <c r="C162" s="1" t="s">
@@ -2001,7 +2131,7 @@
       </c>
       <c r="D162" s="4"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="6"/>
       <c r="B163" s="8"/>
       <c r="C163" s="1" t="s">
@@ -2009,7 +2139,7 @@
       </c>
       <c r="D163" s="4"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="6"/>
       <c r="B164" s="8"/>
       <c r="C164" s="1" t="s">
@@ -2017,7 +2147,7 @@
       </c>
       <c r="D164" s="4"/>
     </row>
-    <row r="165" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="165" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="6"/>
       <c r="B165" s="9"/>
       <c r="C165" s="1" t="s">
@@ -2025,7 +2155,7 @@
       </c>
       <c r="D165" s="4"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="6"/>
       <c r="B166" s="7" t="s">
         <v>5</v>
@@ -2035,7 +2165,7 @@
       </c>
       <c r="D166" s="3"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="6"/>
       <c r="B167" s="8"/>
       <c r="C167" s="1" t="s">
@@ -2043,7 +2173,7 @@
       </c>
       <c r="D167" s="4"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="6"/>
       <c r="B168" s="8"/>
       <c r="C168" s="1" t="s">
@@ -2051,7 +2181,7 @@
       </c>
       <c r="D168" s="4"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="6"/>
       <c r="B169" s="8"/>
       <c r="C169" s="1" t="s">
@@ -2059,7 +2189,7 @@
       </c>
       <c r="D169" s="4"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="6"/>
       <c r="B170" s="8"/>
       <c r="C170" s="1" t="s">
@@ -2067,7 +2197,7 @@
       </c>
       <c r="D170" s="4"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="6"/>
       <c r="B171" s="8"/>
       <c r="C171" s="1" t="s">
@@ -2075,7 +2205,7 @@
       </c>
       <c r="D171" s="4"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="6"/>
       <c r="B172" s="8"/>
       <c r="C172" s="1" t="s">
@@ -2083,7 +2213,7 @@
       </c>
       <c r="D172" s="4"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="6"/>
       <c r="B173" s="8"/>
       <c r="C173" s="1" t="s">
@@ -2091,7 +2221,7 @@
       </c>
       <c r="D173" s="4"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="6"/>
       <c r="B174" s="8"/>
       <c r="C174" s="1" t="s">
@@ -2099,7 +2229,7 @@
       </c>
       <c r="D174" s="4"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="6"/>
       <c r="B175" s="8"/>
       <c r="C175" s="1" t="s">
@@ -2107,7 +2237,7 @@
       </c>
       <c r="D175" s="4"/>
     </row>
-    <row r="176" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="176" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="6"/>
       <c r="B176" s="9"/>
       <c r="C176" s="1" t="s">
@@ -2115,7 +2245,7 @@
       </c>
       <c r="D176" s="4"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="5">
         <v>5</v>
       </c>
@@ -2127,7 +2257,7 @@
       </c>
       <c r="D177" s="3"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="6"/>
       <c r="B178" s="8"/>
       <c r="C178" s="1" t="s">
@@ -2135,7 +2265,7 @@
       </c>
       <c r="D178" s="4"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="6"/>
       <c r="B179" s="8"/>
       <c r="C179" s="1" t="s">
@@ -2143,7 +2273,7 @@
       </c>
       <c r="D179" s="4"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="6"/>
       <c r="B180" s="8"/>
       <c r="C180" s="1" t="s">
@@ -2151,7 +2281,7 @@
       </c>
       <c r="D180" s="4"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="6"/>
       <c r="B181" s="8"/>
       <c r="C181" s="1" t="s">
@@ -2159,7 +2289,7 @@
       </c>
       <c r="D181" s="4"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="6"/>
       <c r="B182" s="8"/>
       <c r="C182" s="1" t="s">
@@ -2167,7 +2297,7 @@
       </c>
       <c r="D182" s="4"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="6"/>
       <c r="B183" s="8"/>
       <c r="C183" s="1" t="s">
@@ -2175,7 +2305,7 @@
       </c>
       <c r="D183" s="4"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="6"/>
       <c r="B184" s="8"/>
       <c r="C184" s="1" t="s">
@@ -2183,7 +2313,7 @@
       </c>
       <c r="D184" s="4"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="6"/>
       <c r="B185" s="8"/>
       <c r="C185" s="1" t="s">
@@ -2191,7 +2321,7 @@
       </c>
       <c r="D185" s="4"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="6"/>
       <c r="B186" s="8"/>
       <c r="C186" s="1" t="s">
@@ -2199,7 +2329,7 @@
       </c>
       <c r="D186" s="4"/>
     </row>
-    <row r="187" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="187" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="6"/>
       <c r="B187" s="9"/>
       <c r="C187" s="1" t="s">
@@ -2207,7 +2337,7 @@
       </c>
       <c r="D187" s="4"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="6"/>
       <c r="B188" s="7" t="s">
         <v>3</v>
@@ -2217,7 +2347,7 @@
       </c>
       <c r="D188" s="3"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="6"/>
       <c r="B189" s="8"/>
       <c r="C189" s="1" t="s">
@@ -2225,7 +2355,7 @@
       </c>
       <c r="D189" s="4"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="6"/>
       <c r="B190" s="8"/>
       <c r="C190" s="1" t="s">
@@ -2233,7 +2363,7 @@
       </c>
       <c r="D190" s="4"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="6"/>
       <c r="B191" s="8"/>
       <c r="C191" s="1" t="s">
@@ -2241,7 +2371,7 @@
       </c>
       <c r="D191" s="4"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="6"/>
       <c r="B192" s="8"/>
       <c r="C192" s="1" t="s">
@@ -2249,7 +2379,7 @@
       </c>
       <c r="D192" s="4"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="6"/>
       <c r="B193" s="8"/>
       <c r="C193" s="1" t="s">
@@ -2257,7 +2387,7 @@
       </c>
       <c r="D193" s="4"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="6"/>
       <c r="B194" s="8"/>
       <c r="C194" s="1" t="s">
@@ -2265,7 +2395,7 @@
       </c>
       <c r="D194" s="4"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="6"/>
       <c r="B195" s="8"/>
       <c r="C195" s="1" t="s">
@@ -2273,7 +2403,7 @@
       </c>
       <c r="D195" s="4"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="6"/>
       <c r="B196" s="8"/>
       <c r="C196" s="1" t="s">
@@ -2281,7 +2411,7 @@
       </c>
       <c r="D196" s="4"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="6"/>
       <c r="B197" s="8"/>
       <c r="C197" s="1" t="s">
@@ -2289,7 +2419,7 @@
       </c>
       <c r="D197" s="4"/>
     </row>
-    <row r="198" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="198" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="6"/>
       <c r="B198" s="9"/>
       <c r="C198" s="1" t="s">
@@ -2297,7 +2427,7 @@
       </c>
       <c r="D198" s="4"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="6"/>
       <c r="B199" s="7" t="s">
         <v>4</v>
@@ -2307,7 +2437,7 @@
       </c>
       <c r="D199" s="3"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="6"/>
       <c r="B200" s="8"/>
       <c r="C200" s="1" t="s">
@@ -2315,7 +2445,7 @@
       </c>
       <c r="D200" s="4"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="6"/>
       <c r="B201" s="8"/>
       <c r="C201" s="1" t="s">
@@ -2323,7 +2453,7 @@
       </c>
       <c r="D201" s="4"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="6"/>
       <c r="B202" s="8"/>
       <c r="C202" s="1" t="s">
@@ -2331,7 +2461,7 @@
       </c>
       <c r="D202" s="4"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="6"/>
       <c r="B203" s="8"/>
       <c r="C203" s="1" t="s">
@@ -2339,7 +2469,7 @@
       </c>
       <c r="D203" s="4"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="6"/>
       <c r="B204" s="8"/>
       <c r="C204" s="1" t="s">
@@ -2347,7 +2477,7 @@
       </c>
       <c r="D204" s="4"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="6"/>
       <c r="B205" s="8"/>
       <c r="C205" s="1" t="s">
@@ -2355,7 +2485,7 @@
       </c>
       <c r="D205" s="4"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="6"/>
       <c r="B206" s="8"/>
       <c r="C206" s="1" t="s">
@@ -2363,7 +2493,7 @@
       </c>
       <c r="D206" s="4"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="6"/>
       <c r="B207" s="8"/>
       <c r="C207" s="1" t="s">
@@ -2371,7 +2501,7 @@
       </c>
       <c r="D207" s="4"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="6"/>
       <c r="B208" s="8"/>
       <c r="C208" s="1" t="s">
@@ -2379,7 +2509,7 @@
       </c>
       <c r="D208" s="4"/>
     </row>
-    <row r="209" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="209" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="6"/>
       <c r="B209" s="9"/>
       <c r="C209" s="1" t="s">
@@ -2387,7 +2517,7 @@
       </c>
       <c r="D209" s="4"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="6"/>
       <c r="B210" s="7" t="s">
         <v>5</v>
@@ -2397,7 +2527,7 @@
       </c>
       <c r="D210" s="3"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="6"/>
       <c r="B211" s="8"/>
       <c r="C211" s="1" t="s">
@@ -2405,7 +2535,7 @@
       </c>
       <c r="D211" s="4"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="6"/>
       <c r="B212" s="8"/>
       <c r="C212" s="1" t="s">
@@ -2413,7 +2543,7 @@
       </c>
       <c r="D212" s="4"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="6"/>
       <c r="B213" s="8"/>
       <c r="C213" s="1" t="s">
@@ -2421,7 +2551,7 @@
       </c>
       <c r="D213" s="4"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="6"/>
       <c r="B214" s="8"/>
       <c r="C214" s="1" t="s">
@@ -2429,7 +2559,7 @@
       </c>
       <c r="D214" s="4"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="6"/>
       <c r="B215" s="8"/>
       <c r="C215" s="1" t="s">
@@ -2437,7 +2567,7 @@
       </c>
       <c r="D215" s="4"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="6"/>
       <c r="B216" s="8"/>
       <c r="C216" s="1" t="s">
@@ -2445,7 +2575,7 @@
       </c>
       <c r="D216" s="4"/>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="6"/>
       <c r="B217" s="8"/>
       <c r="C217" s="1" t="s">
@@ -2453,7 +2583,7 @@
       </c>
       <c r="D217" s="4"/>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="6"/>
       <c r="B218" s="8"/>
       <c r="C218" s="1" t="s">
@@ -2461,7 +2591,7 @@
       </c>
       <c r="D218" s="4"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="6"/>
       <c r="B219" s="8"/>
       <c r="C219" s="1" t="s">
@@ -2469,7 +2599,7 @@
       </c>
       <c r="D219" s="4"/>
     </row>
-    <row r="220" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="6"/>
       <c r="B220" s="9"/>
       <c r="C220" s="1" t="s">
@@ -2477,7 +2607,7 @@
       </c>
       <c r="D220" s="4"/>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="5">
         <v>6</v>
       </c>
@@ -2489,7 +2619,7 @@
       </c>
       <c r="D221" s="3"/>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="6"/>
       <c r="B222" s="8"/>
       <c r="C222" s="1" t="s">
@@ -2497,7 +2627,7 @@
       </c>
       <c r="D222" s="4"/>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="6"/>
       <c r="B223" s="8"/>
       <c r="C223" s="1" t="s">
@@ -2505,7 +2635,7 @@
       </c>
       <c r="D223" s="4"/>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="6"/>
       <c r="B224" s="8"/>
       <c r="C224" s="1" t="s">
@@ -2513,7 +2643,7 @@
       </c>
       <c r="D224" s="4"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="6"/>
       <c r="B225" s="8"/>
       <c r="C225" s="1" t="s">
@@ -2521,7 +2651,7 @@
       </c>
       <c r="D225" s="4"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="6"/>
       <c r="B226" s="8"/>
       <c r="C226" s="1" t="s">
@@ -2529,7 +2659,7 @@
       </c>
       <c r="D226" s="4"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="6"/>
       <c r="B227" s="8"/>
       <c r="C227" s="1" t="s">
@@ -2537,7 +2667,7 @@
       </c>
       <c r="D227" s="4"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="6"/>
       <c r="B228" s="8"/>
       <c r="C228" s="1" t="s">
@@ -2545,7 +2675,7 @@
       </c>
       <c r="D228" s="4"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="6"/>
       <c r="B229" s="8"/>
       <c r="C229" s="1" t="s">
@@ -2553,7 +2683,7 @@
       </c>
       <c r="D229" s="4"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="6"/>
       <c r="B230" s="8"/>
       <c r="C230" s="1" t="s">
@@ -2561,7 +2691,7 @@
       </c>
       <c r="D230" s="4"/>
     </row>
-    <row r="231" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="231" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="6"/>
       <c r="B231" s="9"/>
       <c r="C231" s="1" t="s">
@@ -2569,7 +2699,7 @@
       </c>
       <c r="D231" s="4"/>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="6"/>
       <c r="B232" s="7" t="s">
         <v>3</v>
@@ -2579,7 +2709,7 @@
       </c>
       <c r="D232" s="3"/>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="6"/>
       <c r="B233" s="8"/>
       <c r="C233" s="1" t="s">
@@ -2587,7 +2717,7 @@
       </c>
       <c r="D233" s="4"/>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="6"/>
       <c r="B234" s="8"/>
       <c r="C234" s="1" t="s">
@@ -2595,7 +2725,7 @@
       </c>
       <c r="D234" s="4"/>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="6"/>
       <c r="B235" s="8"/>
       <c r="C235" s="1" t="s">
@@ -2603,7 +2733,7 @@
       </c>
       <c r="D235" s="4"/>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="6"/>
       <c r="B236" s="8"/>
       <c r="C236" s="1" t="s">
@@ -2611,7 +2741,7 @@
       </c>
       <c r="D236" s="4"/>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="6"/>
       <c r="B237" s="8"/>
       <c r="C237" s="1" t="s">
@@ -2619,7 +2749,7 @@
       </c>
       <c r="D237" s="4"/>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="6"/>
       <c r="B238" s="8"/>
       <c r="C238" s="1" t="s">
@@ -2627,7 +2757,7 @@
       </c>
       <c r="D238" s="4"/>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="6"/>
       <c r="B239" s="8"/>
       <c r="C239" s="1" t="s">
@@ -2635,7 +2765,7 @@
       </c>
       <c r="D239" s="4"/>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="6"/>
       <c r="B240" s="8"/>
       <c r="C240" s="1" t="s">
@@ -2643,7 +2773,7 @@
       </c>
       <c r="D240" s="4"/>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="6"/>
       <c r="B241" s="8"/>
       <c r="C241" s="1" t="s">
@@ -2651,7 +2781,7 @@
       </c>
       <c r="D241" s="4"/>
     </row>
-    <row r="242" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="242" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A242" s="6"/>
       <c r="B242" s="9"/>
       <c r="C242" s="1" t="s">
@@ -2659,7 +2789,7 @@
       </c>
       <c r="D242" s="4"/>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="6"/>
       <c r="B243" s="7" t="s">
         <v>4</v>
@@ -2669,7 +2799,7 @@
       </c>
       <c r="D243" s="3"/>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="6"/>
       <c r="B244" s="8"/>
       <c r="C244" s="1" t="s">
@@ -2677,7 +2807,7 @@
       </c>
       <c r="D244" s="4"/>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="6"/>
       <c r="B245" s="8"/>
       <c r="C245" s="1" t="s">
@@ -2685,7 +2815,7 @@
       </c>
       <c r="D245" s="4"/>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="6"/>
       <c r="B246" s="8"/>
       <c r="C246" s="1" t="s">
@@ -2693,7 +2823,7 @@
       </c>
       <c r="D246" s="4"/>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="6"/>
       <c r="B247" s="8"/>
       <c r="C247" s="1" t="s">
@@ -2701,7 +2831,7 @@
       </c>
       <c r="D247" s="4"/>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="6"/>
       <c r="B248" s="8"/>
       <c r="C248" s="1" t="s">
@@ -2709,7 +2839,7 @@
       </c>
       <c r="D248" s="4"/>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="6"/>
       <c r="B249" s="8"/>
       <c r="C249" s="1" t="s">
@@ -2717,7 +2847,7 @@
       </c>
       <c r="D249" s="4"/>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="6"/>
       <c r="B250" s="8"/>
       <c r="C250" s="1" t="s">
@@ -2725,7 +2855,7 @@
       </c>
       <c r="D250" s="4"/>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="6"/>
       <c r="B251" s="8"/>
       <c r="C251" s="1" t="s">
@@ -2733,7 +2863,7 @@
       </c>
       <c r="D251" s="4"/>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="6"/>
       <c r="B252" s="8"/>
       <c r="C252" s="1" t="s">
@@ -2741,7 +2871,7 @@
       </c>
       <c r="D252" s="4"/>
     </row>
-    <row r="253" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="253" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A253" s="6"/>
       <c r="B253" s="9"/>
       <c r="C253" s="1" t="s">
@@ -2749,7 +2879,7 @@
       </c>
       <c r="D253" s="4"/>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="6"/>
       <c r="B254" s="7" t="s">
         <v>5</v>
@@ -2759,7 +2889,7 @@
       </c>
       <c r="D254" s="3"/>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="6"/>
       <c r="B255" s="8"/>
       <c r="C255" s="1" t="s">
@@ -2767,7 +2897,7 @@
       </c>
       <c r="D255" s="4"/>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="6"/>
       <c r="B256" s="8"/>
       <c r="C256" s="1" t="s">
@@ -2775,7 +2905,7 @@
       </c>
       <c r="D256" s="4"/>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="6"/>
       <c r="B257" s="8"/>
       <c r="C257" s="1" t="s">
@@ -2783,7 +2913,7 @@
       </c>
       <c r="D257" s="4"/>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="6"/>
       <c r="B258" s="8"/>
       <c r="C258" s="1" t="s">
@@ -2791,7 +2921,7 @@
       </c>
       <c r="D258" s="4"/>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="6"/>
       <c r="B259" s="8"/>
       <c r="C259" s="1" t="s">
@@ -2799,7 +2929,7 @@
       </c>
       <c r="D259" s="4"/>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="6"/>
       <c r="B260" s="8"/>
       <c r="C260" s="1" t="s">
@@ -2807,7 +2937,7 @@
       </c>
       <c r="D260" s="4"/>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="6"/>
       <c r="B261" s="8"/>
       <c r="C261" s="1" t="s">
@@ -2815,7 +2945,7 @@
       </c>
       <c r="D261" s="4"/>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="6"/>
       <c r="B262" s="8"/>
       <c r="C262" s="1" t="s">
@@ -2823,7 +2953,7 @@
       </c>
       <c r="D262" s="4"/>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="6"/>
       <c r="B263" s="8"/>
       <c r="C263" s="1" t="s">
@@ -2831,7 +2961,7 @@
       </c>
       <c r="D263" s="4"/>
     </row>
-    <row r="264" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="264" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A264" s="6"/>
       <c r="B264" s="9"/>
       <c r="C264" s="1" t="s">
@@ -2839,7 +2969,7 @@
       </c>
       <c r="D264" s="4"/>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="5">
         <v>7</v>
       </c>
@@ -2851,7 +2981,7 @@
       </c>
       <c r="D265" s="3"/>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="6"/>
       <c r="B266" s="8"/>
       <c r="C266" s="1" t="s">
@@ -2859,7 +2989,7 @@
       </c>
       <c r="D266" s="4"/>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="6"/>
       <c r="B267" s="8"/>
       <c r="C267" s="1" t="s">
@@ -2867,7 +2997,7 @@
       </c>
       <c r="D267" s="4"/>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="6"/>
       <c r="B268" s="8"/>
       <c r="C268" s="1" t="s">
@@ -2875,7 +3005,7 @@
       </c>
       <c r="D268" s="4"/>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="6"/>
       <c r="B269" s="8"/>
       <c r="C269" s="1" t="s">
@@ -2883,7 +3013,7 @@
       </c>
       <c r="D269" s="4"/>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="6"/>
       <c r="B270" s="8"/>
       <c r="C270" s="1" t="s">
@@ -2891,7 +3021,7 @@
       </c>
       <c r="D270" s="4"/>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="6"/>
       <c r="B271" s="8"/>
       <c r="C271" s="1" t="s">
@@ -2899,7 +3029,7 @@
       </c>
       <c r="D271" s="4"/>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="6"/>
       <c r="B272" s="8"/>
       <c r="C272" s="1" t="s">
@@ -2907,7 +3037,7 @@
       </c>
       <c r="D272" s="4"/>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="6"/>
       <c r="B273" s="8"/>
       <c r="C273" s="1" t="s">
@@ -2915,7 +3045,7 @@
       </c>
       <c r="D273" s="4"/>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="6"/>
       <c r="B274" s="8"/>
       <c r="C274" s="1" t="s">
@@ -2923,7 +3053,7 @@
       </c>
       <c r="D274" s="4"/>
     </row>
-    <row r="275" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="275" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A275" s="6"/>
       <c r="B275" s="9"/>
       <c r="C275" s="1" t="s">
@@ -2931,7 +3061,7 @@
       </c>
       <c r="D275" s="4"/>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="6"/>
       <c r="B276" s="7" t="s">
         <v>3</v>
@@ -2941,7 +3071,7 @@
       </c>
       <c r="D276" s="3"/>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="6"/>
       <c r="B277" s="8"/>
       <c r="C277" s="1" t="s">
@@ -2949,7 +3079,7 @@
       </c>
       <c r="D277" s="4"/>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="6"/>
       <c r="B278" s="8"/>
       <c r="C278" s="1" t="s">
@@ -2957,7 +3087,7 @@
       </c>
       <c r="D278" s="4"/>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="6"/>
       <c r="B279" s="8"/>
       <c r="C279" s="1" t="s">
@@ -2965,7 +3095,7 @@
       </c>
       <c r="D279" s="4"/>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="6"/>
       <c r="B280" s="8"/>
       <c r="C280" s="1" t="s">
@@ -2973,7 +3103,7 @@
       </c>
       <c r="D280" s="4"/>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="6"/>
       <c r="B281" s="8"/>
       <c r="C281" s="1" t="s">
@@ -2981,7 +3111,7 @@
       </c>
       <c r="D281" s="4"/>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="6"/>
       <c r="B282" s="8"/>
       <c r="C282" s="1" t="s">
@@ -2989,7 +3119,7 @@
       </c>
       <c r="D282" s="4"/>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="6"/>
       <c r="B283" s="8"/>
       <c r="C283" s="1" t="s">
@@ -2997,7 +3127,7 @@
       </c>
       <c r="D283" s="4"/>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="6"/>
       <c r="B284" s="8"/>
       <c r="C284" s="1" t="s">
@@ -3005,7 +3135,7 @@
       </c>
       <c r="D284" s="4"/>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="6"/>
       <c r="B285" s="8"/>
       <c r="C285" s="1" t="s">
@@ -3013,7 +3143,7 @@
       </c>
       <c r="D285" s="4"/>
     </row>
-    <row r="286" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="286" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A286" s="6"/>
       <c r="B286" s="9"/>
       <c r="C286" s="1" t="s">
@@ -3021,7 +3151,7 @@
       </c>
       <c r="D286" s="4"/>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="6"/>
       <c r="B287" s="7" t="s">
         <v>4</v>
@@ -3031,7 +3161,7 @@
       </c>
       <c r="D287" s="3"/>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="6"/>
       <c r="B288" s="8"/>
       <c r="C288" s="1" t="s">
@@ -3039,7 +3169,7 @@
       </c>
       <c r="D288" s="4"/>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="6"/>
       <c r="B289" s="8"/>
       <c r="C289" s="1" t="s">
@@ -3047,7 +3177,7 @@
       </c>
       <c r="D289" s="4"/>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="6"/>
       <c r="B290" s="8"/>
       <c r="C290" s="1" t="s">
@@ -3055,7 +3185,7 @@
       </c>
       <c r="D290" s="4"/>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="6"/>
       <c r="B291" s="8"/>
       <c r="C291" s="1" t="s">
@@ -3063,7 +3193,7 @@
       </c>
       <c r="D291" s="4"/>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="6"/>
       <c r="B292" s="8"/>
       <c r="C292" s="1" t="s">
@@ -3071,7 +3201,7 @@
       </c>
       <c r="D292" s="4"/>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="6"/>
       <c r="B293" s="8"/>
       <c r="C293" s="1" t="s">
@@ -3079,7 +3209,7 @@
       </c>
       <c r="D293" s="4"/>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="6"/>
       <c r="B294" s="8"/>
       <c r="C294" s="1" t="s">
@@ -3087,7 +3217,7 @@
       </c>
       <c r="D294" s="4"/>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="6"/>
       <c r="B295" s="8"/>
       <c r="C295" s="1" t="s">
@@ -3095,7 +3225,7 @@
       </c>
       <c r="D295" s="4"/>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="6"/>
       <c r="B296" s="8"/>
       <c r="C296" s="1" t="s">
@@ -3103,7 +3233,7 @@
       </c>
       <c r="D296" s="4"/>
     </row>
-    <row r="297" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="297" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A297" s="6"/>
       <c r="B297" s="9"/>
       <c r="C297" s="1" t="s">
@@ -3111,7 +3241,7 @@
       </c>
       <c r="D297" s="4"/>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="6"/>
       <c r="B298" s="7" t="s">
         <v>5</v>
@@ -3121,7 +3251,7 @@
       </c>
       <c r="D298" s="3"/>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="6"/>
       <c r="B299" s="8"/>
       <c r="C299" s="1" t="s">
@@ -3129,7 +3259,7 @@
       </c>
       <c r="D299" s="4"/>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="6"/>
       <c r="B300" s="8"/>
       <c r="C300" s="1" t="s">
@@ -3137,7 +3267,7 @@
       </c>
       <c r="D300" s="4"/>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="6"/>
       <c r="B301" s="8"/>
       <c r="C301" s="1" t="s">
@@ -3145,7 +3275,7 @@
       </c>
       <c r="D301" s="4"/>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="6"/>
       <c r="B302" s="8"/>
       <c r="C302" s="1" t="s">
@@ -3153,7 +3283,7 @@
       </c>
       <c r="D302" s="4"/>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="6"/>
       <c r="B303" s="8"/>
       <c r="C303" s="1" t="s">
@@ -3161,7 +3291,7 @@
       </c>
       <c r="D303" s="4"/>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="6"/>
       <c r="B304" s="8"/>
       <c r="C304" s="1" t="s">
@@ -3169,7 +3299,7 @@
       </c>
       <c r="D304" s="4"/>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="6"/>
       <c r="B305" s="8"/>
       <c r="C305" s="1" t="s">
@@ -3177,7 +3307,7 @@
       </c>
       <c r="D305" s="4"/>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="6"/>
       <c r="B306" s="8"/>
       <c r="C306" s="1" t="s">
@@ -3185,7 +3315,7 @@
       </c>
       <c r="D306" s="4"/>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="6"/>
       <c r="B307" s="8"/>
       <c r="C307" s="1" t="s">
@@ -3193,7 +3323,7 @@
       </c>
       <c r="D307" s="4"/>
     </row>
-    <row r="308" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="308" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A308" s="6"/>
       <c r="B308" s="9"/>
       <c r="C308" s="1" t="s">
@@ -3201,7 +3331,7 @@
       </c>
       <c r="D308" s="4"/>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="5">
         <v>8</v>
       </c>
@@ -3213,7 +3343,7 @@
       </c>
       <c r="D309" s="3"/>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="6"/>
       <c r="B310" s="8"/>
       <c r="C310" s="1" t="s">
@@ -3221,7 +3351,7 @@
       </c>
       <c r="D310" s="4"/>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="6"/>
       <c r="B311" s="8"/>
       <c r="C311" s="1" t="s">
@@ -3229,7 +3359,7 @@
       </c>
       <c r="D311" s="4"/>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="6"/>
       <c r="B312" s="8"/>
       <c r="C312" s="1" t="s">
@@ -3237,7 +3367,7 @@
       </c>
       <c r="D312" s="4"/>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="6"/>
       <c r="B313" s="8"/>
       <c r="C313" s="1" t="s">
@@ -3245,7 +3375,7 @@
       </c>
       <c r="D313" s="4"/>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="6"/>
       <c r="B314" s="8"/>
       <c r="C314" s="1" t="s">
@@ -3253,7 +3383,7 @@
       </c>
       <c r="D314" s="4"/>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="6"/>
       <c r="B315" s="8"/>
       <c r="C315" s="1" t="s">
@@ -3261,7 +3391,7 @@
       </c>
       <c r="D315" s="4"/>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="6"/>
       <c r="B316" s="8"/>
       <c r="C316" s="1" t="s">
@@ -3269,7 +3399,7 @@
       </c>
       <c r="D316" s="4"/>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="6"/>
       <c r="B317" s="8"/>
       <c r="C317" s="1" t="s">
@@ -3277,7 +3407,7 @@
       </c>
       <c r="D317" s="4"/>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="6"/>
       <c r="B318" s="8"/>
       <c r="C318" s="1" t="s">
@@ -3285,7 +3415,7 @@
       </c>
       <c r="D318" s="4"/>
     </row>
-    <row r="319" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="319" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A319" s="6"/>
       <c r="B319" s="9"/>
       <c r="C319" s="1" t="s">
@@ -3293,7 +3423,7 @@
       </c>
       <c r="D319" s="4"/>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="6"/>
       <c r="B320" s="7" t="s">
         <v>3</v>
@@ -3303,7 +3433,7 @@
       </c>
       <c r="D320" s="3"/>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="6"/>
       <c r="B321" s="8"/>
       <c r="C321" s="1" t="s">
@@ -3311,7 +3441,7 @@
       </c>
       <c r="D321" s="4"/>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="6"/>
       <c r="B322" s="8"/>
       <c r="C322" s="1" t="s">
@@ -3319,7 +3449,7 @@
       </c>
       <c r="D322" s="4"/>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="6"/>
       <c r="B323" s="8"/>
       <c r="C323" s="1" t="s">
@@ -3327,7 +3457,7 @@
       </c>
       <c r="D323" s="4"/>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="6"/>
       <c r="B324" s="8"/>
       <c r="C324" s="1" t="s">
@@ -3335,7 +3465,7 @@
       </c>
       <c r="D324" s="4"/>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="6"/>
       <c r="B325" s="8"/>
       <c r="C325" s="1" t="s">
@@ -3343,7 +3473,7 @@
       </c>
       <c r="D325" s="4"/>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="6"/>
       <c r="B326" s="8"/>
       <c r="C326" s="1" t="s">
@@ -3351,7 +3481,7 @@
       </c>
       <c r="D326" s="4"/>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="6"/>
       <c r="B327" s="8"/>
       <c r="C327" s="1" t="s">
@@ -3359,7 +3489,7 @@
       </c>
       <c r="D327" s="4"/>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" s="6"/>
       <c r="B328" s="8"/>
       <c r="C328" s="1" t="s">
@@ -3367,7 +3497,7 @@
       </c>
       <c r="D328" s="4"/>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="6"/>
       <c r="B329" s="8"/>
       <c r="C329" s="1" t="s">
@@ -3375,7 +3505,7 @@
       </c>
       <c r="D329" s="4"/>
     </row>
-    <row r="330" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="330" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A330" s="6"/>
       <c r="B330" s="9"/>
       <c r="C330" s="1" t="s">
@@ -3383,7 +3513,7 @@
       </c>
       <c r="D330" s="4"/>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="6"/>
       <c r="B331" s="7" t="s">
         <v>4</v>
@@ -3393,7 +3523,7 @@
       </c>
       <c r="D331" s="3"/>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="6"/>
       <c r="B332" s="8"/>
       <c r="C332" s="1" t="s">
@@ -3401,7 +3531,7 @@
       </c>
       <c r="D332" s="4"/>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="6"/>
       <c r="B333" s="8"/>
       <c r="C333" s="1" t="s">
@@ -3409,7 +3539,7 @@
       </c>
       <c r="D333" s="4"/>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="6"/>
       <c r="B334" s="8"/>
       <c r="C334" s="1" t="s">
@@ -3417,7 +3547,7 @@
       </c>
       <c r="D334" s="4"/>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="6"/>
       <c r="B335" s="8"/>
       <c r="C335" s="1" t="s">
@@ -3425,7 +3555,7 @@
       </c>
       <c r="D335" s="4"/>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="6"/>
       <c r="B336" s="8"/>
       <c r="C336" s="1" t="s">
@@ -3433,7 +3563,7 @@
       </c>
       <c r="D336" s="4"/>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="6"/>
       <c r="B337" s="8"/>
       <c r="C337" s="1" t="s">
@@ -3441,7 +3571,7 @@
       </c>
       <c r="D337" s="4"/>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="6"/>
       <c r="B338" s="8"/>
       <c r="C338" s="1" t="s">
@@ -3449,7 +3579,7 @@
       </c>
       <c r="D338" s="4"/>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="6"/>
       <c r="B339" s="8"/>
       <c r="C339" s="1" t="s">
@@ -3457,7 +3587,7 @@
       </c>
       <c r="D339" s="4"/>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="6"/>
       <c r="B340" s="8"/>
       <c r="C340" s="1" t="s">
@@ -3465,7 +3595,7 @@
       </c>
       <c r="D340" s="4"/>
     </row>
-    <row r="341" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="341" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A341" s="6"/>
       <c r="B341" s="9"/>
       <c r="C341" s="1" t="s">
@@ -3473,7 +3603,7 @@
       </c>
       <c r="D341" s="4"/>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="6"/>
       <c r="B342" s="7" t="s">
         <v>5</v>
@@ -3483,7 +3613,7 @@
       </c>
       <c r="D342" s="3"/>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="6"/>
       <c r="B343" s="8"/>
       <c r="C343" s="1" t="s">
@@ -3491,7 +3621,7 @@
       </c>
       <c r="D343" s="4"/>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="6"/>
       <c r="B344" s="8"/>
       <c r="C344" s="1" t="s">
@@ -3499,7 +3629,7 @@
       </c>
       <c r="D344" s="4"/>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="6"/>
       <c r="B345" s="8"/>
       <c r="C345" s="1" t="s">
@@ -3507,7 +3637,7 @@
       </c>
       <c r="D345" s="4"/>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="6"/>
       <c r="B346" s="8"/>
       <c r="C346" s="1" t="s">
@@ -3515,7 +3645,7 @@
       </c>
       <c r="D346" s="4"/>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="6"/>
       <c r="B347" s="8"/>
       <c r="C347" s="1" t="s">
@@ -3523,7 +3653,7 @@
       </c>
       <c r="D347" s="4"/>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="6"/>
       <c r="B348" s="8"/>
       <c r="C348" s="1" t="s">
@@ -3531,7 +3661,7 @@
       </c>
       <c r="D348" s="4"/>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="6"/>
       <c r="B349" s="8"/>
       <c r="C349" s="1" t="s">
@@ -3539,7 +3669,7 @@
       </c>
       <c r="D349" s="4"/>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="6"/>
       <c r="B350" s="8"/>
       <c r="C350" s="1" t="s">
@@ -3547,7 +3677,7 @@
       </c>
       <c r="D350" s="4"/>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="6"/>
       <c r="B351" s="8"/>
       <c r="C351" s="1" t="s">
@@ -3555,7 +3685,7 @@
       </c>
       <c r="D351" s="4"/>
     </row>
-    <row r="352" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="352" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A352" s="6"/>
       <c r="B352" s="9"/>
       <c r="C352" s="1" t="s">
@@ -3563,7 +3693,7 @@
       </c>
       <c r="D352" s="4"/>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" s="5">
         <v>9</v>
       </c>
@@ -3575,7 +3705,7 @@
       </c>
       <c r="D353" s="3"/>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" s="6"/>
       <c r="B354" s="8"/>
       <c r="C354" s="1" t="s">
@@ -3583,7 +3713,7 @@
       </c>
       <c r="D354" s="4"/>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" s="6"/>
       <c r="B355" s="8"/>
       <c r="C355" s="1" t="s">
@@ -3591,7 +3721,7 @@
       </c>
       <c r="D355" s="4"/>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" s="6"/>
       <c r="B356" s="8"/>
       <c r="C356" s="1" t="s">
@@ -3599,7 +3729,7 @@
       </c>
       <c r="D356" s="4"/>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" s="6"/>
       <c r="B357" s="8"/>
       <c r="C357" s="1" t="s">
@@ -3607,7 +3737,7 @@
       </c>
       <c r="D357" s="4"/>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" s="6"/>
       <c r="B358" s="8"/>
       <c r="C358" s="1" t="s">
@@ -3615,7 +3745,7 @@
       </c>
       <c r="D358" s="4"/>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" s="6"/>
       <c r="B359" s="8"/>
       <c r="C359" s="1" t="s">
@@ -3623,7 +3753,7 @@
       </c>
       <c r="D359" s="4"/>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" s="6"/>
       <c r="B360" s="8"/>
       <c r="C360" s="1" t="s">
@@ -3631,7 +3761,7 @@
       </c>
       <c r="D360" s="4"/>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" s="6"/>
       <c r="B361" s="8"/>
       <c r="C361" s="1" t="s">
@@ -3639,7 +3769,7 @@
       </c>
       <c r="D361" s="4"/>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" s="6"/>
       <c r="B362" s="8"/>
       <c r="C362" s="1" t="s">
@@ -3647,7 +3777,7 @@
       </c>
       <c r="D362" s="4"/>
     </row>
-    <row r="363" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="363" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A363" s="6"/>
       <c r="B363" s="9"/>
       <c r="C363" s="1" t="s">
@@ -3655,7 +3785,7 @@
       </c>
       <c r="D363" s="4"/>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="6"/>
       <c r="B364" s="7" t="s">
         <v>3</v>
@@ -3665,7 +3795,7 @@
       </c>
       <c r="D364" s="3"/>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" s="6"/>
       <c r="B365" s="8"/>
       <c r="C365" s="1" t="s">
@@ -3673,7 +3803,7 @@
       </c>
       <c r="D365" s="4"/>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" s="6"/>
       <c r="B366" s="8"/>
       <c r="C366" s="1" t="s">
@@ -3681,7 +3811,7 @@
       </c>
       <c r="D366" s="4"/>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" s="6"/>
       <c r="B367" s="8"/>
       <c r="C367" s="1" t="s">
@@ -3689,7 +3819,7 @@
       </c>
       <c r="D367" s="4"/>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" s="6"/>
       <c r="B368" s="8"/>
       <c r="C368" s="1" t="s">
@@ -3697,7 +3827,7 @@
       </c>
       <c r="D368" s="4"/>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" s="6"/>
       <c r="B369" s="8"/>
       <c r="C369" s="1" t="s">
@@ -3705,7 +3835,7 @@
       </c>
       <c r="D369" s="4"/>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" s="6"/>
       <c r="B370" s="8"/>
       <c r="C370" s="1" t="s">
@@ -3713,7 +3843,7 @@
       </c>
       <c r="D370" s="4"/>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" s="6"/>
       <c r="B371" s="8"/>
       <c r="C371" s="1" t="s">
@@ -3721,7 +3851,7 @@
       </c>
       <c r="D371" s="4"/>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" s="6"/>
       <c r="B372" s="8"/>
       <c r="C372" s="1" t="s">
@@ -3729,7 +3859,7 @@
       </c>
       <c r="D372" s="4"/>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" s="6"/>
       <c r="B373" s="8"/>
       <c r="C373" s="1" t="s">
@@ -3737,7 +3867,7 @@
       </c>
       <c r="D373" s="4"/>
     </row>
-    <row r="374" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="374" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A374" s="6"/>
       <c r="B374" s="9"/>
       <c r="C374" s="1" t="s">
@@ -3745,7 +3875,7 @@
       </c>
       <c r="D374" s="4"/>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" s="6"/>
       <c r="B375" s="7" t="s">
         <v>4</v>
@@ -3755,7 +3885,7 @@
       </c>
       <c r="D375" s="3"/>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" s="6"/>
       <c r="B376" s="8"/>
       <c r="C376" s="1" t="s">
@@ -3763,7 +3893,7 @@
       </c>
       <c r="D376" s="4"/>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" s="6"/>
       <c r="B377" s="8"/>
       <c r="C377" s="1" t="s">
@@ -3771,7 +3901,7 @@
       </c>
       <c r="D377" s="4"/>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" s="6"/>
       <c r="B378" s="8"/>
       <c r="C378" s="1" t="s">
@@ -3779,7 +3909,7 @@
       </c>
       <c r="D378" s="4"/>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" s="6"/>
       <c r="B379" s="8"/>
       <c r="C379" s="1" t="s">
@@ -3787,7 +3917,7 @@
       </c>
       <c r="D379" s="4"/>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" s="6"/>
       <c r="B380" s="8"/>
       <c r="C380" s="1" t="s">
@@ -3795,7 +3925,7 @@
       </c>
       <c r="D380" s="4"/>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" s="6"/>
       <c r="B381" s="8"/>
       <c r="C381" s="1" t="s">
@@ -3803,7 +3933,7 @@
       </c>
       <c r="D381" s="4"/>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" s="6"/>
       <c r="B382" s="8"/>
       <c r="C382" s="1" t="s">
@@ -3811,7 +3941,7 @@
       </c>
       <c r="D382" s="4"/>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" s="6"/>
       <c r="B383" s="8"/>
       <c r="C383" s="1" t="s">
@@ -3819,7 +3949,7 @@
       </c>
       <c r="D383" s="4"/>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" s="6"/>
       <c r="B384" s="8"/>
       <c r="C384" s="1" t="s">
@@ -3827,7 +3957,7 @@
       </c>
       <c r="D384" s="4"/>
     </row>
-    <row r="385" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="385" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A385" s="6"/>
       <c r="B385" s="9"/>
       <c r="C385" s="1" t="s">
@@ -3835,7 +3965,7 @@
       </c>
       <c r="D385" s="4"/>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" s="6"/>
       <c r="B386" s="7" t="s">
         <v>5</v>
@@ -3845,7 +3975,7 @@
       </c>
       <c r="D386" s="3"/>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" s="6"/>
       <c r="B387" s="8"/>
       <c r="C387" s="1" t="s">
@@ -3853,7 +3983,7 @@
       </c>
       <c r="D387" s="4"/>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" s="6"/>
       <c r="B388" s="8"/>
       <c r="C388" s="1" t="s">
@@ -3861,7 +3991,7 @@
       </c>
       <c r="D388" s="4"/>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" s="6"/>
       <c r="B389" s="8"/>
       <c r="C389" s="1" t="s">
@@ -3869,7 +3999,7 @@
       </c>
       <c r="D389" s="4"/>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" s="6"/>
       <c r="B390" s="8"/>
       <c r="C390" s="1" t="s">
@@ -3877,7 +4007,7 @@
       </c>
       <c r="D390" s="4"/>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" s="6"/>
       <c r="B391" s="8"/>
       <c r="C391" s="1" t="s">
@@ -3885,7 +4015,7 @@
       </c>
       <c r="D391" s="4"/>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" s="6"/>
       <c r="B392" s="8"/>
       <c r="C392" s="1" t="s">
@@ -3893,7 +4023,7 @@
       </c>
       <c r="D392" s="4"/>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" s="6"/>
       <c r="B393" s="8"/>
       <c r="C393" s="1" t="s">
@@ -3901,7 +4031,7 @@
       </c>
       <c r="D393" s="4"/>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" s="6"/>
       <c r="B394" s="8"/>
       <c r="C394" s="1" t="s">
@@ -3909,7 +4039,7 @@
       </c>
       <c r="D394" s="4"/>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" s="6"/>
       <c r="B395" s="8"/>
       <c r="C395" s="1" t="s">
@@ -3917,7 +4047,7 @@
       </c>
       <c r="D395" s="4"/>
     </row>
-    <row r="396" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="396" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A396" s="6"/>
       <c r="B396" s="9"/>
       <c r="C396" s="1" t="s">
@@ -3925,7 +4055,7 @@
       </c>
       <c r="D396" s="4"/>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" s="5">
         <v>10</v>
       </c>
@@ -3937,7 +4067,7 @@
       </c>
       <c r="D397" s="3"/>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" s="6"/>
       <c r="B398" s="8"/>
       <c r="C398" s="1" t="s">
@@ -3945,7 +4075,7 @@
       </c>
       <c r="D398" s="4"/>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" s="6"/>
       <c r="B399" s="8"/>
       <c r="C399" s="1" t="s">
@@ -3953,7 +4083,7 @@
       </c>
       <c r="D399" s="4"/>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" s="6"/>
       <c r="B400" s="8"/>
       <c r="C400" s="1" t="s">
@@ -3961,7 +4091,7 @@
       </c>
       <c r="D400" s="4"/>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" s="6"/>
       <c r="B401" s="8"/>
       <c r="C401" s="1" t="s">
@@ -3969,7 +4099,7 @@
       </c>
       <c r="D401" s="4"/>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" s="6"/>
       <c r="B402" s="8"/>
       <c r="C402" s="1" t="s">
@@ -3977,7 +4107,7 @@
       </c>
       <c r="D402" s="4"/>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" s="6"/>
       <c r="B403" s="8"/>
       <c r="C403" s="1" t="s">
@@ -3985,7 +4115,7 @@
       </c>
       <c r="D403" s="4"/>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" s="6"/>
       <c r="B404" s="8"/>
       <c r="C404" s="1" t="s">
@@ -3993,7 +4123,7 @@
       </c>
       <c r="D404" s="4"/>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" s="6"/>
       <c r="B405" s="8"/>
       <c r="C405" s="1" t="s">
@@ -4001,7 +4131,7 @@
       </c>
       <c r="D405" s="4"/>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" s="6"/>
       <c r="B406" s="8"/>
       <c r="C406" s="1" t="s">
@@ -4009,7 +4139,7 @@
       </c>
       <c r="D406" s="4"/>
     </row>
-    <row r="407" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="407" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A407" s="6"/>
       <c r="B407" s="9"/>
       <c r="C407" s="1" t="s">
@@ -4017,7 +4147,7 @@
       </c>
       <c r="D407" s="4"/>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" s="6"/>
       <c r="B408" s="7" t="s">
         <v>3</v>
@@ -4027,7 +4157,7 @@
       </c>
       <c r="D408" s="3"/>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" s="6"/>
       <c r="B409" s="8"/>
       <c r="C409" s="1" t="s">
@@ -4035,7 +4165,7 @@
       </c>
       <c r="D409" s="4"/>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" s="6"/>
       <c r="B410" s="8"/>
       <c r="C410" s="1" t="s">
@@ -4043,7 +4173,7 @@
       </c>
       <c r="D410" s="4"/>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" s="6"/>
       <c r="B411" s="8"/>
       <c r="C411" s="1" t="s">
@@ -4051,7 +4181,7 @@
       </c>
       <c r="D411" s="4"/>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" s="6"/>
       <c r="B412" s="8"/>
       <c r="C412" s="1" t="s">
@@ -4059,7 +4189,7 @@
       </c>
       <c r="D412" s="4"/>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" s="6"/>
       <c r="B413" s="8"/>
       <c r="C413" s="1" t="s">
@@ -4067,7 +4197,7 @@
       </c>
       <c r="D413" s="4"/>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" s="6"/>
       <c r="B414" s="8"/>
       <c r="C414" s="1" t="s">
@@ -4075,7 +4205,7 @@
       </c>
       <c r="D414" s="4"/>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" s="6"/>
       <c r="B415" s="8"/>
       <c r="C415" s="1" t="s">
@@ -4083,7 +4213,7 @@
       </c>
       <c r="D415" s="4"/>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" s="6"/>
       <c r="B416" s="8"/>
       <c r="C416" s="1" t="s">
@@ -4091,7 +4221,7 @@
       </c>
       <c r="D416" s="4"/>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" s="6"/>
       <c r="B417" s="8"/>
       <c r="C417" s="1" t="s">
@@ -4099,7 +4229,7 @@
       </c>
       <c r="D417" s="4"/>
     </row>
-    <row r="418" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="418" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A418" s="6"/>
       <c r="B418" s="9"/>
       <c r="C418" s="1" t="s">
@@ -4107,7 +4237,7 @@
       </c>
       <c r="D418" s="4"/>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" s="6"/>
       <c r="B419" s="7" t="s">
         <v>4</v>
@@ -4117,7 +4247,7 @@
       </c>
       <c r="D419" s="3"/>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" s="6"/>
       <c r="B420" s="8"/>
       <c r="C420" s="1" t="s">
@@ -4125,7 +4255,7 @@
       </c>
       <c r="D420" s="4"/>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" s="6"/>
       <c r="B421" s="8"/>
       <c r="C421" s="1" t="s">
@@ -4133,7 +4263,7 @@
       </c>
       <c r="D421" s="4"/>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" s="6"/>
       <c r="B422" s="8"/>
       <c r="C422" s="1" t="s">
@@ -4141,7 +4271,7 @@
       </c>
       <c r="D422" s="4"/>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" s="6"/>
       <c r="B423" s="8"/>
       <c r="C423" s="1" t="s">
@@ -4149,7 +4279,7 @@
       </c>
       <c r="D423" s="4"/>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" s="6"/>
       <c r="B424" s="8"/>
       <c r="C424" s="1" t="s">
@@ -4157,7 +4287,7 @@
       </c>
       <c r="D424" s="4"/>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" s="6"/>
       <c r="B425" s="8"/>
       <c r="C425" s="1" t="s">
@@ -4165,7 +4295,7 @@
       </c>
       <c r="D425" s="4"/>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" s="6"/>
       <c r="B426" s="8"/>
       <c r="C426" s="1" t="s">
@@ -4173,7 +4303,7 @@
       </c>
       <c r="D426" s="4"/>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" s="6"/>
       <c r="B427" s="8"/>
       <c r="C427" s="1" t="s">
@@ -4181,7 +4311,7 @@
       </c>
       <c r="D427" s="4"/>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" s="6"/>
       <c r="B428" s="8"/>
       <c r="C428" s="1" t="s">
@@ -4189,7 +4319,7 @@
       </c>
       <c r="D428" s="4"/>
     </row>
-    <row r="429" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="429" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A429" s="6"/>
       <c r="B429" s="9"/>
       <c r="C429" s="1" t="s">
@@ -4197,7 +4327,7 @@
       </c>
       <c r="D429" s="4"/>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" s="6"/>
       <c r="B430" s="7" t="s">
         <v>5</v>
@@ -4207,7 +4337,7 @@
       </c>
       <c r="D430" s="3"/>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" s="6"/>
       <c r="B431" s="8"/>
       <c r="C431" s="1" t="s">
@@ -4215,7 +4345,7 @@
       </c>
       <c r="D431" s="4"/>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" s="6"/>
       <c r="B432" s="8"/>
       <c r="C432" s="1" t="s">
@@ -4223,7 +4353,7 @@
       </c>
       <c r="D432" s="4"/>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" s="6"/>
       <c r="B433" s="8"/>
       <c r="C433" s="1" t="s">
@@ -4231,7 +4361,7 @@
       </c>
       <c r="D433" s="4"/>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" s="6"/>
       <c r="B434" s="8"/>
       <c r="C434" s="1" t="s">
@@ -4239,7 +4369,7 @@
       </c>
       <c r="D434" s="4"/>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" s="6"/>
       <c r="B435" s="8"/>
       <c r="C435" s="1" t="s">
@@ -4247,7 +4377,7 @@
       </c>
       <c r="D435" s="4"/>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" s="6"/>
       <c r="B436" s="8"/>
       <c r="C436" s="1" t="s">
@@ -4255,7 +4385,7 @@
       </c>
       <c r="D436" s="4"/>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" s="6"/>
       <c r="B437" s="8"/>
       <c r="C437" s="1" t="s">
@@ -4263,7 +4393,7 @@
       </c>
       <c r="D437" s="4"/>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" s="6"/>
       <c r="B438" s="8"/>
       <c r="C438" s="1" t="s">
@@ -4271,7 +4401,7 @@
       </c>
       <c r="D438" s="4"/>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" s="6"/>
       <c r="B439" s="8"/>
       <c r="C439" s="1" t="s">
@@ -4279,7 +4409,7 @@
       </c>
       <c r="D439" s="4"/>
     </row>
-    <row r="440" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="440" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A440" s="6"/>
       <c r="B440" s="9"/>
       <c r="C440" s="1" t="s">
@@ -4287,7 +4417,7 @@
       </c>
       <c r="D440" s="4"/>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" s="5">
         <v>11</v>
       </c>
@@ -4299,7 +4429,7 @@
       </c>
       <c r="D441" s="3"/>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" s="6"/>
       <c r="B442" s="8"/>
       <c r="C442" s="1" t="s">
@@ -4307,7 +4437,7 @@
       </c>
       <c r="D442" s="4"/>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" s="6"/>
       <c r="B443" s="8"/>
       <c r="C443" s="1" t="s">
@@ -4315,7 +4445,7 @@
       </c>
       <c r="D443" s="4"/>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" s="6"/>
       <c r="B444" s="8"/>
       <c r="C444" s="1" t="s">
@@ -4323,7 +4453,7 @@
       </c>
       <c r="D444" s="4"/>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" s="6"/>
       <c r="B445" s="8"/>
       <c r="C445" s="1" t="s">
@@ -4331,7 +4461,7 @@
       </c>
       <c r="D445" s="4"/>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" s="6"/>
       <c r="B446" s="8"/>
       <c r="C446" s="1" t="s">
@@ -4339,7 +4469,7 @@
       </c>
       <c r="D446" s="4"/>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" s="6"/>
       <c r="B447" s="8"/>
       <c r="C447" s="1" t="s">
@@ -4347,7 +4477,7 @@
       </c>
       <c r="D447" s="4"/>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" s="6"/>
       <c r="B448" s="8"/>
       <c r="C448" s="1" t="s">
@@ -4355,7 +4485,7 @@
       </c>
       <c r="D448" s="4"/>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" s="6"/>
       <c r="B449" s="8"/>
       <c r="C449" s="1" t="s">
@@ -4363,7 +4493,7 @@
       </c>
       <c r="D449" s="4"/>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" s="6"/>
       <c r="B450" s="8"/>
       <c r="C450" s="1" t="s">
@@ -4371,7 +4501,7 @@
       </c>
       <c r="D450" s="4"/>
     </row>
-    <row r="451" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="451" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A451" s="6"/>
       <c r="B451" s="9"/>
       <c r="C451" s="1" t="s">
@@ -4379,7 +4509,7 @@
       </c>
       <c r="D451" s="4"/>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" s="6"/>
       <c r="B452" s="7" t="s">
         <v>3</v>
@@ -4389,7 +4519,7 @@
       </c>
       <c r="D452" s="3"/>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" s="6"/>
       <c r="B453" s="8"/>
       <c r="C453" s="1" t="s">
@@ -4397,7 +4527,7 @@
       </c>
       <c r="D453" s="4"/>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" s="6"/>
       <c r="B454" s="8"/>
       <c r="C454" s="1" t="s">
@@ -4405,7 +4535,7 @@
       </c>
       <c r="D454" s="4"/>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" s="6"/>
       <c r="B455" s="8"/>
       <c r="C455" s="1" t="s">
@@ -4413,7 +4543,7 @@
       </c>
       <c r="D455" s="4"/>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" s="6"/>
       <c r="B456" s="8"/>
       <c r="C456" s="1" t="s">
@@ -4421,7 +4551,7 @@
       </c>
       <c r="D456" s="4"/>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" s="6"/>
       <c r="B457" s="8"/>
       <c r="C457" s="1" t="s">
@@ -4429,7 +4559,7 @@
       </c>
       <c r="D457" s="4"/>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" s="6"/>
       <c r="B458" s="8"/>
       <c r="C458" s="1" t="s">
@@ -4437,7 +4567,7 @@
       </c>
       <c r="D458" s="4"/>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" s="6"/>
       <c r="B459" s="8"/>
       <c r="C459" s="1" t="s">
@@ -4445,7 +4575,7 @@
       </c>
       <c r="D459" s="4"/>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" s="6"/>
       <c r="B460" s="8"/>
       <c r="C460" s="1" t="s">
@@ -4453,7 +4583,7 @@
       </c>
       <c r="D460" s="4"/>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" s="6"/>
       <c r="B461" s="8"/>
       <c r="C461" s="1" t="s">
@@ -4461,7 +4591,7 @@
       </c>
       <c r="D461" s="4"/>
     </row>
-    <row r="462" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="462" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A462" s="6"/>
       <c r="B462" s="9"/>
       <c r="C462" s="1" t="s">
@@ -4469,7 +4599,7 @@
       </c>
       <c r="D462" s="4"/>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" s="6"/>
       <c r="B463" s="7" t="s">
         <v>4</v>
@@ -4479,7 +4609,7 @@
       </c>
       <c r="D463" s="3"/>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" s="6"/>
       <c r="B464" s="8"/>
       <c r="C464" s="1" t="s">
@@ -4487,7 +4617,7 @@
       </c>
       <c r="D464" s="4"/>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" s="6"/>
       <c r="B465" s="8"/>
       <c r="C465" s="1" t="s">
@@ -4495,7 +4625,7 @@
       </c>
       <c r="D465" s="4"/>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" s="6"/>
       <c r="B466" s="8"/>
       <c r="C466" s="1" t="s">
@@ -4503,7 +4633,7 @@
       </c>
       <c r="D466" s="4"/>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" s="6"/>
       <c r="B467" s="8"/>
       <c r="C467" s="1" t="s">
@@ -4511,7 +4641,7 @@
       </c>
       <c r="D467" s="4"/>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" s="6"/>
       <c r="B468" s="8"/>
       <c r="C468" s="1" t="s">
@@ -4519,7 +4649,7 @@
       </c>
       <c r="D468" s="4"/>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" s="6"/>
       <c r="B469" s="8"/>
       <c r="C469" s="1" t="s">
@@ -4527,7 +4657,7 @@
       </c>
       <c r="D469" s="4"/>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" s="6"/>
       <c r="B470" s="8"/>
       <c r="C470" s="1" t="s">
@@ -4535,7 +4665,7 @@
       </c>
       <c r="D470" s="4"/>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" s="6"/>
       <c r="B471" s="8"/>
       <c r="C471" s="1" t="s">
@@ -4543,7 +4673,7 @@
       </c>
       <c r="D471" s="4"/>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" s="6"/>
       <c r="B472" s="8"/>
       <c r="C472" s="1" t="s">
@@ -4551,7 +4681,7 @@
       </c>
       <c r="D472" s="4"/>
     </row>
-    <row r="473" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="473" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A473" s="6"/>
       <c r="B473" s="9"/>
       <c r="C473" s="1" t="s">
@@ -4559,7 +4689,7 @@
       </c>
       <c r="D473" s="4"/>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" s="6"/>
       <c r="B474" s="7" t="s">
         <v>5</v>
@@ -4569,7 +4699,7 @@
       </c>
       <c r="D474" s="3"/>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" s="6"/>
       <c r="B475" s="8"/>
       <c r="C475" s="1" t="s">
@@ -4577,7 +4707,7 @@
       </c>
       <c r="D475" s="4"/>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" s="6"/>
       <c r="B476" s="8"/>
       <c r="C476" s="1" t="s">
@@ -4585,7 +4715,7 @@
       </c>
       <c r="D476" s="4"/>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" s="6"/>
       <c r="B477" s="8"/>
       <c r="C477" s="1" t="s">
@@ -4593,7 +4723,7 @@
       </c>
       <c r="D477" s="4"/>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" s="6"/>
       <c r="B478" s="8"/>
       <c r="C478" s="1" t="s">
@@ -4601,7 +4731,7 @@
       </c>
       <c r="D478" s="4"/>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" s="6"/>
       <c r="B479" s="8"/>
       <c r="C479" s="1" t="s">
@@ -4609,7 +4739,7 @@
       </c>
       <c r="D479" s="4"/>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" s="6"/>
       <c r="B480" s="8"/>
       <c r="C480" s="1" t="s">
@@ -4617,7 +4747,7 @@
       </c>
       <c r="D480" s="4"/>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" s="6"/>
       <c r="B481" s="8"/>
       <c r="C481" s="1" t="s">
@@ -4625,7 +4755,7 @@
       </c>
       <c r="D481" s="4"/>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" s="6"/>
       <c r="B482" s="8"/>
       <c r="C482" s="1" t="s">
@@ -4633,7 +4763,7 @@
       </c>
       <c r="D482" s="4"/>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" s="6"/>
       <c r="B483" s="8"/>
       <c r="C483" s="1" t="s">
@@ -4641,7 +4771,7 @@
       </c>
       <c r="D483" s="4"/>
     </row>
-    <row r="484" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="484" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A484" s="6"/>
       <c r="B484" s="9"/>
       <c r="C484" s="1" t="s">
@@ -4649,7 +4779,7 @@
       </c>
       <c r="D484" s="4"/>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485" s="5">
         <v>12</v>
       </c>
@@ -4661,7 +4791,7 @@
       </c>
       <c r="D485" s="3"/>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" s="6"/>
       <c r="B486" s="8"/>
       <c r="C486" s="1" t="s">
@@ -4669,7 +4799,7 @@
       </c>
       <c r="D486" s="4"/>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487" s="6"/>
       <c r="B487" s="8"/>
       <c r="C487" s="1" t="s">
@@ -4677,7 +4807,7 @@
       </c>
       <c r="D487" s="4"/>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488" s="6"/>
       <c r="B488" s="8"/>
       <c r="C488" s="1" t="s">
@@ -4685,7 +4815,7 @@
       </c>
       <c r="D488" s="4"/>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489" s="6"/>
       <c r="B489" s="8"/>
       <c r="C489" s="1" t="s">
@@ -4693,7 +4823,7 @@
       </c>
       <c r="D489" s="4"/>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490" s="6"/>
       <c r="B490" s="8"/>
       <c r="C490" s="1" t="s">
@@ -4701,7 +4831,7 @@
       </c>
       <c r="D490" s="4"/>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491" s="6"/>
       <c r="B491" s="8"/>
       <c r="C491" s="1" t="s">
@@ -4709,7 +4839,7 @@
       </c>
       <c r="D491" s="4"/>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492" s="6"/>
       <c r="B492" s="8"/>
       <c r="C492" s="1" t="s">
@@ -4717,7 +4847,7 @@
       </c>
       <c r="D492" s="4"/>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493" s="6"/>
       <c r="B493" s="8"/>
       <c r="C493" s="1" t="s">
@@ -4725,7 +4855,7 @@
       </c>
       <c r="D493" s="4"/>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494" s="6"/>
       <c r="B494" s="8"/>
       <c r="C494" s="1" t="s">
@@ -4733,7 +4863,7 @@
       </c>
       <c r="D494" s="4"/>
     </row>
-    <row r="495" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="495" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A495" s="6"/>
       <c r="B495" s="9"/>
       <c r="C495" s="1" t="s">
@@ -4741,7 +4871,7 @@
       </c>
       <c r="D495" s="4"/>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496" s="6"/>
       <c r="B496" s="7" t="s">
         <v>3</v>
@@ -4751,7 +4881,7 @@
       </c>
       <c r="D496" s="3"/>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497" s="6"/>
       <c r="B497" s="8"/>
       <c r="C497" s="1" t="s">
@@ -4759,7 +4889,7 @@
       </c>
       <c r="D497" s="4"/>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498" s="6"/>
       <c r="B498" s="8"/>
       <c r="C498" s="1" t="s">
@@ -4767,7 +4897,7 @@
       </c>
       <c r="D498" s="4"/>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499" s="6"/>
       <c r="B499" s="8"/>
       <c r="C499" s="1" t="s">
@@ -4775,7 +4905,7 @@
       </c>
       <c r="D499" s="4"/>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A500" s="6"/>
       <c r="B500" s="8"/>
       <c r="C500" s="1" t="s">
@@ -4783,7 +4913,7 @@
       </c>
       <c r="D500" s="4"/>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A501" s="6"/>
       <c r="B501" s="8"/>
       <c r="C501" s="1" t="s">
@@ -4791,7 +4921,7 @@
       </c>
       <c r="D501" s="4"/>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A502" s="6"/>
       <c r="B502" s="8"/>
       <c r="C502" s="1" t="s">
@@ -4799,7 +4929,7 @@
       </c>
       <c r="D502" s="4"/>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A503" s="6"/>
       <c r="B503" s="8"/>
       <c r="C503" s="1" t="s">
@@ -4807,7 +4937,7 @@
       </c>
       <c r="D503" s="4"/>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A504" s="6"/>
       <c r="B504" s="8"/>
       <c r="C504" s="1" t="s">
@@ -4815,7 +4945,7 @@
       </c>
       <c r="D504" s="4"/>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A505" s="6"/>
       <c r="B505" s="8"/>
       <c r="C505" s="1" t="s">
@@ -4823,7 +4953,7 @@
       </c>
       <c r="D505" s="4"/>
     </row>
-    <row r="506" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="506" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A506" s="6"/>
       <c r="B506" s="9"/>
       <c r="C506" s="1" t="s">
@@ -4831,7 +4961,7 @@
       </c>
       <c r="D506" s="4"/>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A507" s="6"/>
       <c r="B507" s="7" t="s">
         <v>4</v>
@@ -4841,7 +4971,7 @@
       </c>
       <c r="D507" s="3"/>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A508" s="6"/>
       <c r="B508" s="8"/>
       <c r="C508" s="1" t="s">
@@ -4849,7 +4979,7 @@
       </c>
       <c r="D508" s="4"/>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A509" s="6"/>
       <c r="B509" s="8"/>
       <c r="C509" s="1" t="s">
@@ -4857,7 +4987,7 @@
       </c>
       <c r="D509" s="4"/>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A510" s="6"/>
       <c r="B510" s="8"/>
       <c r="C510" s="1" t="s">
@@ -4865,7 +4995,7 @@
       </c>
       <c r="D510" s="4"/>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A511" s="6"/>
       <c r="B511" s="8"/>
       <c r="C511" s="1" t="s">
@@ -4873,7 +5003,7 @@
       </c>
       <c r="D511" s="4"/>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A512" s="6"/>
       <c r="B512" s="8"/>
       <c r="C512" s="1" t="s">
@@ -4881,7 +5011,7 @@
       </c>
       <c r="D512" s="4"/>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A513" s="6"/>
       <c r="B513" s="8"/>
       <c r="C513" s="1" t="s">
@@ -4889,7 +5019,7 @@
       </c>
       <c r="D513" s="4"/>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A514" s="6"/>
       <c r="B514" s="8"/>
       <c r="C514" s="1" t="s">
@@ -4897,7 +5027,7 @@
       </c>
       <c r="D514" s="4"/>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A515" s="6"/>
       <c r="B515" s="8"/>
       <c r="C515" s="1" t="s">
@@ -4905,7 +5035,7 @@
       </c>
       <c r="D515" s="4"/>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A516" s="6"/>
       <c r="B516" s="8"/>
       <c r="C516" s="1" t="s">
@@ -4913,7 +5043,7 @@
       </c>
       <c r="D516" s="4"/>
     </row>
-    <row r="517" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="517" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A517" s="6"/>
       <c r="B517" s="9"/>
       <c r="C517" s="1" t="s">
@@ -4921,7 +5051,7 @@
       </c>
       <c r="D517" s="4"/>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A518" s="6"/>
       <c r="B518" s="7" t="s">
         <v>5</v>
@@ -4931,7 +5061,7 @@
       </c>
       <c r="D518" s="3"/>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A519" s="6"/>
       <c r="B519" s="8"/>
       <c r="C519" s="1" t="s">
@@ -4939,7 +5069,7 @@
       </c>
       <c r="D519" s="4"/>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A520" s="6"/>
       <c r="B520" s="8"/>
       <c r="C520" s="1" t="s">
@@ -4947,7 +5077,7 @@
       </c>
       <c r="D520" s="4"/>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A521" s="6"/>
       <c r="B521" s="8"/>
       <c r="C521" s="1" t="s">
@@ -4955,7 +5085,7 @@
       </c>
       <c r="D521" s="4"/>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A522" s="6"/>
       <c r="B522" s="8"/>
       <c r="C522" s="1" t="s">
@@ -4963,7 +5093,7 @@
       </c>
       <c r="D522" s="4"/>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A523" s="6"/>
       <c r="B523" s="8"/>
       <c r="C523" s="1" t="s">
@@ -4971,7 +5101,7 @@
       </c>
       <c r="D523" s="4"/>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A524" s="6"/>
       <c r="B524" s="8"/>
       <c r="C524" s="1" t="s">
@@ -4979,7 +5109,7 @@
       </c>
       <c r="D524" s="4"/>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A525" s="6"/>
       <c r="B525" s="8"/>
       <c r="C525" s="1" t="s">
@@ -4987,7 +5117,7 @@
       </c>
       <c r="D525" s="4"/>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A526" s="6"/>
       <c r="B526" s="8"/>
       <c r="C526" s="1" t="s">
@@ -4995,7 +5125,7 @@
       </c>
       <c r="D526" s="4"/>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A527" s="6"/>
       <c r="B527" s="8"/>
       <c r="C527" s="1" t="s">
@@ -5003,7 +5133,7 @@
       </c>
       <c r="D527" s="4"/>
     </row>
-    <row r="528" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="528" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A528" s="6"/>
       <c r="B528" s="9"/>
       <c r="C528" s="1" t="s">
@@ -5011,7 +5141,7 @@
       </c>
       <c r="D528" s="4"/>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A529" s="5">
         <v>13</v>
       </c>
@@ -5023,7 +5153,7 @@
       </c>
       <c r="D529" s="3"/>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A530" s="6"/>
       <c r="B530" s="8"/>
       <c r="C530" s="1" t="s">
@@ -5031,7 +5161,7 @@
       </c>
       <c r="D530" s="4"/>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A531" s="6"/>
       <c r="B531" s="8"/>
       <c r="C531" s="1" t="s">
@@ -5039,7 +5169,7 @@
       </c>
       <c r="D531" s="4"/>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A532" s="6"/>
       <c r="B532" s="8"/>
       <c r="C532" s="1" t="s">
@@ -5047,7 +5177,7 @@
       </c>
       <c r="D532" s="4"/>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A533" s="6"/>
       <c r="B533" s="8"/>
       <c r="C533" s="1" t="s">
@@ -5055,7 +5185,7 @@
       </c>
       <c r="D533" s="4"/>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A534" s="6"/>
       <c r="B534" s="8"/>
       <c r="C534" s="1" t="s">
@@ -5063,7 +5193,7 @@
       </c>
       <c r="D534" s="4"/>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A535" s="6"/>
       <c r="B535" s="8"/>
       <c r="C535" s="1" t="s">
@@ -5071,7 +5201,7 @@
       </c>
       <c r="D535" s="4"/>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A536" s="6"/>
       <c r="B536" s="8"/>
       <c r="C536" s="1" t="s">
@@ -5079,7 +5209,7 @@
       </c>
       <c r="D536" s="4"/>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A537" s="6"/>
       <c r="B537" s="8"/>
       <c r="C537" s="1" t="s">
@@ -5087,7 +5217,7 @@
       </c>
       <c r="D537" s="4"/>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A538" s="6"/>
       <c r="B538" s="8"/>
       <c r="C538" s="1" t="s">
@@ -5095,7 +5225,7 @@
       </c>
       <c r="D538" s="4"/>
     </row>
-    <row r="539" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="539" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A539" s="6"/>
       <c r="B539" s="9"/>
       <c r="C539" s="1" t="s">
@@ -5103,7 +5233,7 @@
       </c>
       <c r="D539" s="4"/>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A540" s="6"/>
       <c r="B540" s="7" t="s">
         <v>3</v>
@@ -5113,7 +5243,7 @@
       </c>
       <c r="D540" s="3"/>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A541" s="6"/>
       <c r="B541" s="8"/>
       <c r="C541" s="1" t="s">
@@ -5121,7 +5251,7 @@
       </c>
       <c r="D541" s="4"/>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A542" s="6"/>
       <c r="B542" s="8"/>
       <c r="C542" s="1" t="s">
@@ -5129,7 +5259,7 @@
       </c>
       <c r="D542" s="4"/>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A543" s="6"/>
       <c r="B543" s="8"/>
       <c r="C543" s="1" t="s">
@@ -5137,7 +5267,7 @@
       </c>
       <c r="D543" s="4"/>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A544" s="6"/>
       <c r="B544" s="8"/>
       <c r="C544" s="1" t="s">
@@ -5145,7 +5275,7 @@
       </c>
       <c r="D544" s="4"/>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A545" s="6"/>
       <c r="B545" s="8"/>
       <c r="C545" s="1" t="s">
@@ -5153,7 +5283,7 @@
       </c>
       <c r="D545" s="4"/>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A546" s="6"/>
       <c r="B546" s="8"/>
       <c r="C546" s="1" t="s">
@@ -5161,7 +5291,7 @@
       </c>
       <c r="D546" s="4"/>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A547" s="6"/>
       <c r="B547" s="8"/>
       <c r="C547" s="1" t="s">
@@ -5169,7 +5299,7 @@
       </c>
       <c r="D547" s="4"/>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A548" s="6"/>
       <c r="B548" s="8"/>
       <c r="C548" s="1" t="s">
@@ -5177,7 +5307,7 @@
       </c>
       <c r="D548" s="4"/>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A549" s="6"/>
       <c r="B549" s="8"/>
       <c r="C549" s="1" t="s">
@@ -5185,7 +5315,7 @@
       </c>
       <c r="D549" s="4"/>
     </row>
-    <row r="550" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="550" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A550" s="6"/>
       <c r="B550" s="9"/>
       <c r="C550" s="1" t="s">
@@ -5193,7 +5323,7 @@
       </c>
       <c r="D550" s="4"/>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A551" s="6"/>
       <c r="B551" s="7" t="s">
         <v>4</v>
@@ -5203,7 +5333,7 @@
       </c>
       <c r="D551" s="3"/>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A552" s="6"/>
       <c r="B552" s="8"/>
       <c r="C552" s="1" t="s">
@@ -5211,7 +5341,7 @@
       </c>
       <c r="D552" s="4"/>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A553" s="6"/>
       <c r="B553" s="8"/>
       <c r="C553" s="1" t="s">
@@ -5219,7 +5349,7 @@
       </c>
       <c r="D553" s="4"/>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A554" s="6"/>
       <c r="B554" s="8"/>
       <c r="C554" s="1" t="s">
@@ -5227,7 +5357,7 @@
       </c>
       <c r="D554" s="4"/>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A555" s="6"/>
       <c r="B555" s="8"/>
       <c r="C555" s="1" t="s">
@@ -5235,7 +5365,7 @@
       </c>
       <c r="D555" s="4"/>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A556" s="6"/>
       <c r="B556" s="8"/>
       <c r="C556" s="1" t="s">
@@ -5243,7 +5373,7 @@
       </c>
       <c r="D556" s="4"/>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A557" s="6"/>
       <c r="B557" s="8"/>
       <c r="C557" s="1" t="s">
@@ -5251,7 +5381,7 @@
       </c>
       <c r="D557" s="4"/>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A558" s="6"/>
       <c r="B558" s="8"/>
       <c r="C558" s="1" t="s">
@@ -5259,7 +5389,7 @@
       </c>
       <c r="D558" s="4"/>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A559" s="6"/>
       <c r="B559" s="8"/>
       <c r="C559" s="1" t="s">
@@ -5267,7 +5397,7 @@
       </c>
       <c r="D559" s="4"/>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A560" s="6"/>
       <c r="B560" s="8"/>
       <c r="C560" s="1" t="s">
@@ -5275,7 +5405,7 @@
       </c>
       <c r="D560" s="4"/>
     </row>
-    <row r="561" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="561" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A561" s="6"/>
       <c r="B561" s="9"/>
       <c r="C561" s="1" t="s">
@@ -5283,7 +5413,7 @@
       </c>
       <c r="D561" s="4"/>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A562" s="6"/>
       <c r="B562" s="7" t="s">
         <v>5</v>
@@ -5293,7 +5423,7 @@
       </c>
       <c r="D562" s="3"/>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A563" s="6"/>
       <c r="B563" s="8"/>
       <c r="C563" s="1" t="s">
@@ -5301,7 +5431,7 @@
       </c>
       <c r="D563" s="4"/>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A564" s="6"/>
       <c r="B564" s="8"/>
       <c r="C564" s="1" t="s">
@@ -5309,7 +5439,7 @@
       </c>
       <c r="D564" s="4"/>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A565" s="6"/>
       <c r="B565" s="8"/>
       <c r="C565" s="1" t="s">
@@ -5317,7 +5447,7 @@
       </c>
       <c r="D565" s="4"/>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A566" s="6"/>
       <c r="B566" s="8"/>
       <c r="C566" s="1" t="s">
@@ -5325,7 +5455,7 @@
       </c>
       <c r="D566" s="4"/>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A567" s="6"/>
       <c r="B567" s="8"/>
       <c r="C567" s="1" t="s">
@@ -5333,7 +5463,7 @@
       </c>
       <c r="D567" s="4"/>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A568" s="6"/>
       <c r="B568" s="8"/>
       <c r="C568" s="1" t="s">
@@ -5341,7 +5471,7 @@
       </c>
       <c r="D568" s="4"/>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A569" s="6"/>
       <c r="B569" s="8"/>
       <c r="C569" s="1" t="s">
@@ -5349,7 +5479,7 @@
       </c>
       <c r="D569" s="4"/>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A570" s="6"/>
       <c r="B570" s="8"/>
       <c r="C570" s="1" t="s">
@@ -5357,7 +5487,7 @@
       </c>
       <c r="D570" s="4"/>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A571" s="6"/>
       <c r="B571" s="8"/>
       <c r="C571" s="1" t="s">
@@ -5365,7 +5495,7 @@
       </c>
       <c r="D571" s="4"/>
     </row>
-    <row r="572" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="572" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A572" s="6"/>
       <c r="B572" s="9"/>
       <c r="C572" s="1" t="s">
@@ -5373,7 +5503,7 @@
       </c>
       <c r="D572" s="4"/>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A573" s="5">
         <v>14</v>
       </c>
@@ -5385,7 +5515,7 @@
       </c>
       <c r="D573" s="3"/>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A574" s="6"/>
       <c r="B574" s="8"/>
       <c r="C574" s="1" t="s">
@@ -5393,7 +5523,7 @@
       </c>
       <c r="D574" s="4"/>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A575" s="6"/>
       <c r="B575" s="8"/>
       <c r="C575" s="1" t="s">
@@ -5401,7 +5531,7 @@
       </c>
       <c r="D575" s="4"/>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A576" s="6"/>
       <c r="B576" s="8"/>
       <c r="C576" s="1" t="s">
@@ -5409,7 +5539,7 @@
       </c>
       <c r="D576" s="4"/>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A577" s="6"/>
       <c r="B577" s="8"/>
       <c r="C577" s="1" t="s">
@@ -5417,7 +5547,7 @@
       </c>
       <c r="D577" s="4"/>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A578" s="6"/>
       <c r="B578" s="8"/>
       <c r="C578" s="1" t="s">
@@ -5425,7 +5555,7 @@
       </c>
       <c r="D578" s="4"/>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A579" s="6"/>
       <c r="B579" s="8"/>
       <c r="C579" s="1" t="s">
@@ -5433,7 +5563,7 @@
       </c>
       <c r="D579" s="4"/>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A580" s="6"/>
       <c r="B580" s="8"/>
       <c r="C580" s="1" t="s">
@@ -5441,7 +5571,7 @@
       </c>
       <c r="D580" s="4"/>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A581" s="6"/>
       <c r="B581" s="8"/>
       <c r="C581" s="1" t="s">
@@ -5449,7 +5579,7 @@
       </c>
       <c r="D581" s="4"/>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A582" s="6"/>
       <c r="B582" s="8"/>
       <c r="C582" s="1" t="s">
@@ -5457,7 +5587,7 @@
       </c>
       <c r="D582" s="4"/>
     </row>
-    <row r="583" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="583" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A583" s="6"/>
       <c r="B583" s="9"/>
       <c r="C583" s="1" t="s">
@@ -5465,7 +5595,7 @@
       </c>
       <c r="D583" s="4"/>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A584" s="6"/>
       <c r="B584" s="7" t="s">
         <v>3</v>
@@ -5475,7 +5605,7 @@
       </c>
       <c r="D584" s="3"/>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A585" s="6"/>
       <c r="B585" s="8"/>
       <c r="C585" s="1" t="s">
@@ -5483,7 +5613,7 @@
       </c>
       <c r="D585" s="4"/>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A586" s="6"/>
       <c r="B586" s="8"/>
       <c r="C586" s="1" t="s">
@@ -5491,7 +5621,7 @@
       </c>
       <c r="D586" s="4"/>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A587" s="6"/>
       <c r="B587" s="8"/>
       <c r="C587" s="1" t="s">
@@ -5499,7 +5629,7 @@
       </c>
       <c r="D587" s="4"/>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A588" s="6"/>
       <c r="B588" s="8"/>
       <c r="C588" s="1" t="s">
@@ -5507,7 +5637,7 @@
       </c>
       <c r="D588" s="4"/>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A589" s="6"/>
       <c r="B589" s="8"/>
       <c r="C589" s="1" t="s">
@@ -5515,7 +5645,7 @@
       </c>
       <c r="D589" s="4"/>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A590" s="6"/>
       <c r="B590" s="8"/>
       <c r="C590" s="1" t="s">
@@ -5523,7 +5653,7 @@
       </c>
       <c r="D590" s="4"/>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A591" s="6"/>
       <c r="B591" s="8"/>
       <c r="C591" s="1" t="s">
@@ -5531,7 +5661,7 @@
       </c>
       <c r="D591" s="4"/>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A592" s="6"/>
       <c r="B592" s="8"/>
       <c r="C592" s="1" t="s">
@@ -5539,7 +5669,7 @@
       </c>
       <c r="D592" s="4"/>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A593" s="6"/>
       <c r="B593" s="8"/>
       <c r="C593" s="1" t="s">
@@ -5547,7 +5677,7 @@
       </c>
       <c r="D593" s="4"/>
     </row>
-    <row r="594" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="594" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A594" s="6"/>
       <c r="B594" s="9"/>
       <c r="C594" s="1" t="s">
@@ -5555,7 +5685,7 @@
       </c>
       <c r="D594" s="4"/>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A595" s="6"/>
       <c r="B595" s="7" t="s">
         <v>4</v>
@@ -5565,7 +5695,7 @@
       </c>
       <c r="D595" s="3"/>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A596" s="6"/>
       <c r="B596" s="8"/>
       <c r="C596" s="1" t="s">
@@ -5573,7 +5703,7 @@
       </c>
       <c r="D596" s="4"/>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A597" s="6"/>
       <c r="B597" s="8"/>
       <c r="C597" s="1" t="s">
@@ -5581,7 +5711,7 @@
       </c>
       <c r="D597" s="4"/>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A598" s="6"/>
       <c r="B598" s="8"/>
       <c r="C598" s="1" t="s">
@@ -5589,7 +5719,7 @@
       </c>
       <c r="D598" s="4"/>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A599" s="6"/>
       <c r="B599" s="8"/>
       <c r="C599" s="1" t="s">
@@ -5597,7 +5727,7 @@
       </c>
       <c r="D599" s="4"/>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A600" s="6"/>
       <c r="B600" s="8"/>
       <c r="C600" s="1" t="s">
@@ -5605,7 +5735,7 @@
       </c>
       <c r="D600" s="4"/>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A601" s="6"/>
       <c r="B601" s="8"/>
       <c r="C601" s="1" t="s">
@@ -5613,7 +5743,7 @@
       </c>
       <c r="D601" s="4"/>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A602" s="6"/>
       <c r="B602" s="8"/>
       <c r="C602" s="1" t="s">
@@ -5621,7 +5751,7 @@
       </c>
       <c r="D602" s="4"/>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A603" s="6"/>
       <c r="B603" s="8"/>
       <c r="C603" s="1" t="s">
@@ -5629,7 +5759,7 @@
       </c>
       <c r="D603" s="4"/>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A604" s="6"/>
       <c r="B604" s="8"/>
       <c r="C604" s="1" t="s">
@@ -5637,7 +5767,7 @@
       </c>
       <c r="D604" s="4"/>
     </row>
-    <row r="605" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="605" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A605" s="6"/>
       <c r="B605" s="9"/>
       <c r="C605" s="1" t="s">
@@ -5645,7 +5775,7 @@
       </c>
       <c r="D605" s="4"/>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A606" s="6"/>
       <c r="B606" s="7" t="s">
         <v>5</v>
@@ -5655,7 +5785,7 @@
       </c>
       <c r="D606" s="3"/>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A607" s="6"/>
       <c r="B607" s="8"/>
       <c r="C607" s="1" t="s">
@@ -5663,7 +5793,7 @@
       </c>
       <c r="D607" s="4"/>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A608" s="6"/>
       <c r="B608" s="8"/>
       <c r="C608" s="1" t="s">
@@ -5671,7 +5801,7 @@
       </c>
       <c r="D608" s="4"/>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A609" s="6"/>
       <c r="B609" s="8"/>
       <c r="C609" s="1" t="s">
@@ -5679,7 +5809,7 @@
       </c>
       <c r="D609" s="4"/>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A610" s="6"/>
       <c r="B610" s="8"/>
       <c r="C610" s="1" t="s">
@@ -5687,7 +5817,7 @@
       </c>
       <c r="D610" s="4"/>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A611" s="6"/>
       <c r="B611" s="8"/>
       <c r="C611" s="1" t="s">
@@ -5695,7 +5825,7 @@
       </c>
       <c r="D611" s="4"/>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A612" s="6"/>
       <c r="B612" s="8"/>
       <c r="C612" s="1" t="s">
@@ -5703,7 +5833,7 @@
       </c>
       <c r="D612" s="4"/>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A613" s="6"/>
       <c r="B613" s="8"/>
       <c r="C613" s="1" t="s">
@@ -5711,7 +5841,7 @@
       </c>
       <c r="D613" s="4"/>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A614" s="6"/>
       <c r="B614" s="8"/>
       <c r="C614" s="1" t="s">
@@ -5719,7 +5849,7 @@
       </c>
       <c r="D614" s="4"/>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A615" s="6"/>
       <c r="B615" s="8"/>
       <c r="C615" s="1" t="s">
@@ -5727,7 +5857,7 @@
       </c>
       <c r="D615" s="4"/>
     </row>
-    <row r="616" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="616" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A616" s="6"/>
       <c r="B616" s="9"/>
       <c r="C616" s="1" t="s">
@@ -5735,7 +5865,7 @@
       </c>
       <c r="D616" s="4"/>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A617" s="5">
         <v>15</v>
       </c>
@@ -5747,7 +5877,7 @@
       </c>
       <c r="D617" s="3"/>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A618" s="6"/>
       <c r="B618" s="8"/>
       <c r="C618" s="1" t="s">
@@ -5755,7 +5885,7 @@
       </c>
       <c r="D618" s="4"/>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A619" s="6"/>
       <c r="B619" s="8"/>
       <c r="C619" s="1" t="s">
@@ -5763,7 +5893,7 @@
       </c>
       <c r="D619" s="4"/>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A620" s="6"/>
       <c r="B620" s="8"/>
       <c r="C620" s="1" t="s">
@@ -5771,7 +5901,7 @@
       </c>
       <c r="D620" s="4"/>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A621" s="6"/>
       <c r="B621" s="8"/>
       <c r="C621" s="1" t="s">
@@ -5779,7 +5909,7 @@
       </c>
       <c r="D621" s="4"/>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A622" s="6"/>
       <c r="B622" s="8"/>
       <c r="C622" s="1" t="s">
@@ -5787,7 +5917,7 @@
       </c>
       <c r="D622" s="4"/>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A623" s="6"/>
       <c r="B623" s="8"/>
       <c r="C623" s="1" t="s">
@@ -5795,7 +5925,7 @@
       </c>
       <c r="D623" s="4"/>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A624" s="6"/>
       <c r="B624" s="8"/>
       <c r="C624" s="1" t="s">
@@ -5803,7 +5933,7 @@
       </c>
       <c r="D624" s="4"/>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A625" s="6"/>
       <c r="B625" s="8"/>
       <c r="C625" s="1" t="s">
@@ -5811,7 +5941,7 @@
       </c>
       <c r="D625" s="4"/>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A626" s="6"/>
       <c r="B626" s="8"/>
       <c r="C626" s="1" t="s">
@@ -5819,7 +5949,7 @@
       </c>
       <c r="D626" s="4"/>
     </row>
-    <row r="627" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="627" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A627" s="6"/>
       <c r="B627" s="9"/>
       <c r="C627" s="1" t="s">
@@ -5827,7 +5957,7 @@
       </c>
       <c r="D627" s="4"/>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A628" s="6"/>
       <c r="B628" s="7" t="s">
         <v>3</v>
@@ -5837,7 +5967,7 @@
       </c>
       <c r="D628" s="3"/>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A629" s="6"/>
       <c r="B629" s="8"/>
       <c r="C629" s="1" t="s">
@@ -5845,7 +5975,7 @@
       </c>
       <c r="D629" s="4"/>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A630" s="6"/>
       <c r="B630" s="8"/>
       <c r="C630" s="1" t="s">
@@ -5853,7 +5983,7 @@
       </c>
       <c r="D630" s="4"/>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A631" s="6"/>
       <c r="B631" s="8"/>
       <c r="C631" s="1" t="s">
@@ -5861,7 +5991,7 @@
       </c>
       <c r="D631" s="4"/>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A632" s="6"/>
       <c r="B632" s="8"/>
       <c r="C632" s="1" t="s">
@@ -5869,7 +5999,7 @@
       </c>
       <c r="D632" s="4"/>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A633" s="6"/>
       <c r="B633" s="8"/>
       <c r="C633" s="1" t="s">
@@ -5877,7 +6007,7 @@
       </c>
       <c r="D633" s="4"/>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A634" s="6"/>
       <c r="B634" s="8"/>
       <c r="C634" s="1" t="s">
@@ -5885,7 +6015,7 @@
       </c>
       <c r="D634" s="4"/>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A635" s="6"/>
       <c r="B635" s="8"/>
       <c r="C635" s="1" t="s">
@@ -5893,7 +6023,7 @@
       </c>
       <c r="D635" s="4"/>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A636" s="6"/>
       <c r="B636" s="8"/>
       <c r="C636" s="1" t="s">
@@ -5901,7 +6031,7 @@
       </c>
       <c r="D636" s="4"/>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A637" s="6"/>
       <c r="B637" s="8"/>
       <c r="C637" s="1" t="s">
@@ -5909,7 +6039,7 @@
       </c>
       <c r="D637" s="4"/>
     </row>
-    <row r="638" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="638" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A638" s="6"/>
       <c r="B638" s="9"/>
       <c r="C638" s="1" t="s">
@@ -5917,7 +6047,7 @@
       </c>
       <c r="D638" s="4"/>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A639" s="6"/>
       <c r="B639" s="7" t="s">
         <v>4</v>
@@ -5927,7 +6057,7 @@
       </c>
       <c r="D639" s="3"/>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A640" s="6"/>
       <c r="B640" s="8"/>
       <c r="C640" s="1" t="s">
@@ -5935,7 +6065,7 @@
       </c>
       <c r="D640" s="4"/>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A641" s="6"/>
       <c r="B641" s="8"/>
       <c r="C641" s="1" t="s">
@@ -5943,7 +6073,7 @@
       </c>
       <c r="D641" s="4"/>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A642" s="6"/>
       <c r="B642" s="8"/>
       <c r="C642" s="1" t="s">
@@ -5951,7 +6081,7 @@
       </c>
       <c r="D642" s="4"/>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A643" s="6"/>
       <c r="B643" s="8"/>
       <c r="C643" s="1" t="s">
@@ -5959,7 +6089,7 @@
       </c>
       <c r="D643" s="4"/>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A644" s="6"/>
       <c r="B644" s="8"/>
       <c r="C644" s="1" t="s">
@@ -5967,7 +6097,7 @@
       </c>
       <c r="D644" s="4"/>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A645" s="6"/>
       <c r="B645" s="8"/>
       <c r="C645" s="1" t="s">
@@ -5975,7 +6105,7 @@
       </c>
       <c r="D645" s="4"/>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A646" s="6"/>
       <c r="B646" s="8"/>
       <c r="C646" s="1" t="s">
@@ -5983,7 +6113,7 @@
       </c>
       <c r="D646" s="4"/>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A647" s="6"/>
       <c r="B647" s="8"/>
       <c r="C647" s="1" t="s">
@@ -5991,7 +6121,7 @@
       </c>
       <c r="D647" s="4"/>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A648" s="6"/>
       <c r="B648" s="8"/>
       <c r="C648" s="1" t="s">
@@ -5999,7 +6129,7 @@
       </c>
       <c r="D648" s="4"/>
     </row>
-    <row r="649" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="649" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A649" s="6"/>
       <c r="B649" s="9"/>
       <c r="C649" s="1" t="s">
@@ -6007,7 +6137,7 @@
       </c>
       <c r="D649" s="4"/>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A650" s="6"/>
       <c r="B650" s="7" t="s">
         <v>5</v>
@@ -6017,7 +6147,7 @@
       </c>
       <c r="D650" s="3"/>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A651" s="6"/>
       <c r="B651" s="8"/>
       <c r="C651" s="1" t="s">
@@ -6025,7 +6155,7 @@
       </c>
       <c r="D651" s="4"/>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A652" s="6"/>
       <c r="B652" s="8"/>
       <c r="C652" s="1" t="s">
@@ -6033,7 +6163,7 @@
       </c>
       <c r="D652" s="4"/>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A653" s="6"/>
       <c r="B653" s="8"/>
       <c r="C653" s="1" t="s">
@@ -6041,7 +6171,7 @@
       </c>
       <c r="D653" s="4"/>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A654" s="6"/>
       <c r="B654" s="8"/>
       <c r="C654" s="1" t="s">
@@ -6049,7 +6179,7 @@
       </c>
       <c r="D654" s="4"/>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A655" s="6"/>
       <c r="B655" s="8"/>
       <c r="C655" s="1" t="s">
@@ -6057,7 +6187,7 @@
       </c>
       <c r="D655" s="4"/>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A656" s="6"/>
       <c r="B656" s="8"/>
       <c r="C656" s="1" t="s">
@@ -6065,7 +6195,7 @@
       </c>
       <c r="D656" s="4"/>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A657" s="6"/>
       <c r="B657" s="8"/>
       <c r="C657" s="1" t="s">
@@ -6073,7 +6203,7 @@
       </c>
       <c r="D657" s="4"/>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A658" s="6"/>
       <c r="B658" s="8"/>
       <c r="C658" s="1" t="s">
@@ -6081,7 +6211,7 @@
       </c>
       <c r="D658" s="4"/>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A659" s="6"/>
       <c r="B659" s="8"/>
       <c r="C659" s="1" t="s">
@@ -6089,7 +6219,7 @@
       </c>
       <c r="D659" s="4"/>
     </row>
-    <row r="660" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="660" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A660" s="6"/>
       <c r="B660" s="9"/>
       <c r="C660" s="1" t="s">
@@ -6097,7 +6227,7 @@
       </c>
       <c r="D660" s="4"/>
     </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A661" s="5">
         <v>16</v>
       </c>
@@ -6109,7 +6239,7 @@
       </c>
       <c r="D661" s="3"/>
     </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A662" s="6"/>
       <c r="B662" s="8"/>
       <c r="C662" s="1" t="s">
@@ -6117,7 +6247,7 @@
       </c>
       <c r="D662" s="4"/>
     </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A663" s="6"/>
       <c r="B663" s="8"/>
       <c r="C663" s="1" t="s">
@@ -6125,7 +6255,7 @@
       </c>
       <c r="D663" s="4"/>
     </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A664" s="6"/>
       <c r="B664" s="8"/>
       <c r="C664" s="1" t="s">
@@ -6133,7 +6263,7 @@
       </c>
       <c r="D664" s="4"/>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A665" s="6"/>
       <c r="B665" s="8"/>
       <c r="C665" s="1" t="s">
@@ -6141,7 +6271,7 @@
       </c>
       <c r="D665" s="4"/>
     </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A666" s="6"/>
       <c r="B666" s="8"/>
       <c r="C666" s="1" t="s">
@@ -6149,7 +6279,7 @@
       </c>
       <c r="D666" s="4"/>
     </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A667" s="6"/>
       <c r="B667" s="8"/>
       <c r="C667" s="1" t="s">
@@ -6157,7 +6287,7 @@
       </c>
       <c r="D667" s="4"/>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A668" s="6"/>
       <c r="B668" s="8"/>
       <c r="C668" s="1" t="s">
@@ -6165,7 +6295,7 @@
       </c>
       <c r="D668" s="4"/>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A669" s="6"/>
       <c r="B669" s="8"/>
       <c r="C669" s="1" t="s">
@@ -6173,7 +6303,7 @@
       </c>
       <c r="D669" s="4"/>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A670" s="6"/>
       <c r="B670" s="8"/>
       <c r="C670" s="1" t="s">
@@ -6181,7 +6311,7 @@
       </c>
       <c r="D670" s="4"/>
     </row>
-    <row r="671" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="671" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A671" s="6"/>
       <c r="B671" s="9"/>
       <c r="C671" s="1" t="s">
@@ -6189,7 +6319,7 @@
       </c>
       <c r="D671" s="4"/>
     </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A672" s="6"/>
       <c r="B672" s="7" t="s">
         <v>3</v>
@@ -6199,7 +6329,7 @@
       </c>
       <c r="D672" s="3"/>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A673" s="6"/>
       <c r="B673" s="8"/>
       <c r="C673" s="1" t="s">
@@ -6207,7 +6337,7 @@
       </c>
       <c r="D673" s="4"/>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A674" s="6"/>
       <c r="B674" s="8"/>
       <c r="C674" s="1" t="s">
@@ -6215,7 +6345,7 @@
       </c>
       <c r="D674" s="4"/>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A675" s="6"/>
       <c r="B675" s="8"/>
       <c r="C675" s="1" t="s">
@@ -6223,7 +6353,7 @@
       </c>
       <c r="D675" s="4"/>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A676" s="6"/>
       <c r="B676" s="8"/>
       <c r="C676" s="1" t="s">
@@ -6231,7 +6361,7 @@
       </c>
       <c r="D676" s="4"/>
     </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A677" s="6"/>
       <c r="B677" s="8"/>
       <c r="C677" s="1" t="s">
@@ -6239,7 +6369,7 @@
       </c>
       <c r="D677" s="4"/>
     </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A678" s="6"/>
       <c r="B678" s="8"/>
       <c r="C678" s="1" t="s">
@@ -6247,7 +6377,7 @@
       </c>
       <c r="D678" s="4"/>
     </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A679" s="6"/>
       <c r="B679" s="8"/>
       <c r="C679" s="1" t="s">
@@ -6255,7 +6385,7 @@
       </c>
       <c r="D679" s="4"/>
     </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A680" s="6"/>
       <c r="B680" s="8"/>
       <c r="C680" s="1" t="s">
@@ -6263,7 +6393,7 @@
       </c>
       <c r="D680" s="4"/>
     </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A681" s="6"/>
       <c r="B681" s="8"/>
       <c r="C681" s="1" t="s">
@@ -6271,7 +6401,7 @@
       </c>
       <c r="D681" s="4"/>
     </row>
-    <row r="682" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="682" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A682" s="6"/>
       <c r="B682" s="9"/>
       <c r="C682" s="1" t="s">
@@ -6279,7 +6409,7 @@
       </c>
       <c r="D682" s="4"/>
     </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A683" s="6"/>
       <c r="B683" s="7" t="s">
         <v>4</v>
@@ -6289,7 +6419,7 @@
       </c>
       <c r="D683" s="3"/>
     </row>
-    <row r="684" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A684" s="6"/>
       <c r="B684" s="8"/>
       <c r="C684" s="1" t="s">
@@ -6297,7 +6427,7 @@
       </c>
       <c r="D684" s="4"/>
     </row>
-    <row r="685" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A685" s="6"/>
       <c r="B685" s="8"/>
       <c r="C685" s="1" t="s">
@@ -6305,7 +6435,7 @@
       </c>
       <c r="D685" s="4"/>
     </row>
-    <row r="686" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A686" s="6"/>
       <c r="B686" s="8"/>
       <c r="C686" s="1" t="s">
@@ -6313,7 +6443,7 @@
       </c>
       <c r="D686" s="4"/>
     </row>
-    <row r="687" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A687" s="6"/>
       <c r="B687" s="8"/>
       <c r="C687" s="1" t="s">
@@ -6321,7 +6451,7 @@
       </c>
       <c r="D687" s="4"/>
     </row>
-    <row r="688" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A688" s="6"/>
       <c r="B688" s="8"/>
       <c r="C688" s="1" t="s">
@@ -6329,7 +6459,7 @@
       </c>
       <c r="D688" s="4"/>
     </row>
-    <row r="689" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A689" s="6"/>
       <c r="B689" s="8"/>
       <c r="C689" s="1" t="s">
@@ -6337,7 +6467,7 @@
       </c>
       <c r="D689" s="4"/>
     </row>
-    <row r="690" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A690" s="6"/>
       <c r="B690" s="8"/>
       <c r="C690" s="1" t="s">
@@ -6345,7 +6475,7 @@
       </c>
       <c r="D690" s="4"/>
     </row>
-    <row r="691" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A691" s="6"/>
       <c r="B691" s="8"/>
       <c r="C691" s="1" t="s">
@@ -6353,7 +6483,7 @@
       </c>
       <c r="D691" s="4"/>
     </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A692" s="6"/>
       <c r="B692" s="8"/>
       <c r="C692" s="1" t="s">
@@ -6361,7 +6491,7 @@
       </c>
       <c r="D692" s="4"/>
     </row>
-    <row r="693" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="693" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A693" s="6"/>
       <c r="B693" s="9"/>
       <c r="C693" s="1" t="s">
@@ -6369,7 +6499,7 @@
       </c>
       <c r="D693" s="4"/>
     </row>
-    <row r="694" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A694" s="6"/>
       <c r="B694" s="7" t="s">
         <v>5</v>
@@ -6379,7 +6509,7 @@
       </c>
       <c r="D694" s="3"/>
     </row>
-    <row r="695" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A695" s="6"/>
       <c r="B695" s="8"/>
       <c r="C695" s="1" t="s">
@@ -6387,7 +6517,7 @@
       </c>
       <c r="D695" s="4"/>
     </row>
-    <row r="696" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A696" s="6"/>
       <c r="B696" s="8"/>
       <c r="C696" s="1" t="s">
@@ -6395,7 +6525,7 @@
       </c>
       <c r="D696" s="4"/>
     </row>
-    <row r="697" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A697" s="6"/>
       <c r="B697" s="8"/>
       <c r="C697" s="1" t="s">
@@ -6403,7 +6533,7 @@
       </c>
       <c r="D697" s="4"/>
     </row>
-    <row r="698" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A698" s="6"/>
       <c r="B698" s="8"/>
       <c r="C698" s="1" t="s">
@@ -6411,7 +6541,7 @@
       </c>
       <c r="D698" s="4"/>
     </row>
-    <row r="699" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A699" s="6"/>
       <c r="B699" s="8"/>
       <c r="C699" s="1" t="s">
@@ -6419,7 +6549,7 @@
       </c>
       <c r="D699" s="4"/>
     </row>
-    <row r="700" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A700" s="6"/>
       <c r="B700" s="8"/>
       <c r="C700" s="1" t="s">
@@ -6427,7 +6557,7 @@
       </c>
       <c r="D700" s="4"/>
     </row>
-    <row r="701" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A701" s="6"/>
       <c r="B701" s="8"/>
       <c r="C701" s="1" t="s">
@@ -6435,7 +6565,7 @@
       </c>
       <c r="D701" s="4"/>
     </row>
-    <row r="702" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A702" s="6"/>
       <c r="B702" s="8"/>
       <c r="C702" s="1" t="s">
@@ -6443,7 +6573,7 @@
       </c>
       <c r="D702" s="4"/>
     </row>
-    <row r="703" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A703" s="6"/>
       <c r="B703" s="8"/>
       <c r="C703" s="1" t="s">
@@ -6451,7 +6581,7 @@
       </c>
       <c r="D703" s="4"/>
     </row>
-    <row r="704" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="704" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A704" s="6"/>
       <c r="B704" s="9"/>
       <c r="C704" s="1" t="s">
@@ -6459,7 +6589,7 @@
       </c>
       <c r="D704" s="4"/>
     </row>
-    <row r="705" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A705" s="5">
         <v>17</v>
       </c>
@@ -6471,7 +6601,7 @@
       </c>
       <c r="D705" s="3"/>
     </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A706" s="6"/>
       <c r="B706" s="8"/>
       <c r="C706" s="1" t="s">
@@ -6479,7 +6609,7 @@
       </c>
       <c r="D706" s="4"/>
     </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A707" s="6"/>
       <c r="B707" s="8"/>
       <c r="C707" s="1" t="s">
@@ -6487,7 +6617,7 @@
       </c>
       <c r="D707" s="4"/>
     </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A708" s="6"/>
       <c r="B708" s="8"/>
       <c r="C708" s="1" t="s">
@@ -6495,7 +6625,7 @@
       </c>
       <c r="D708" s="4"/>
     </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A709" s="6"/>
       <c r="B709" s="8"/>
       <c r="C709" s="1" t="s">
@@ -6503,7 +6633,7 @@
       </c>
       <c r="D709" s="4"/>
     </row>
-    <row r="710" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A710" s="6"/>
       <c r="B710" s="8"/>
       <c r="C710" s="1" t="s">
@@ -6511,7 +6641,7 @@
       </c>
       <c r="D710" s="4"/>
     </row>
-    <row r="711" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A711" s="6"/>
       <c r="B711" s="8"/>
       <c r="C711" s="1" t="s">
@@ -6519,7 +6649,7 @@
       </c>
       <c r="D711" s="4"/>
     </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A712" s="6"/>
       <c r="B712" s="8"/>
       <c r="C712" s="1" t="s">
@@ -6527,7 +6657,7 @@
       </c>
       <c r="D712" s="4"/>
     </row>
-    <row r="713" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A713" s="6"/>
       <c r="B713" s="8"/>
       <c r="C713" s="1" t="s">
@@ -6535,7 +6665,7 @@
       </c>
       <c r="D713" s="4"/>
     </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A714" s="6"/>
       <c r="B714" s="8"/>
       <c r="C714" s="1" t="s">
@@ -6543,7 +6673,7 @@
       </c>
       <c r="D714" s="4"/>
     </row>
-    <row r="715" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="715" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A715" s="6"/>
       <c r="B715" s="9"/>
       <c r="C715" s="1" t="s">
@@ -6551,7 +6681,7 @@
       </c>
       <c r="D715" s="4"/>
     </row>
-    <row r="716" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A716" s="6"/>
       <c r="B716" s="7" t="s">
         <v>3</v>
@@ -6561,7 +6691,7 @@
       </c>
       <c r="D716" s="3"/>
     </row>
-    <row r="717" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A717" s="6"/>
       <c r="B717" s="8"/>
       <c r="C717" s="1" t="s">
@@ -6569,7 +6699,7 @@
       </c>
       <c r="D717" s="4"/>
     </row>
-    <row r="718" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A718" s="6"/>
       <c r="B718" s="8"/>
       <c r="C718" s="1" t="s">
@@ -6577,7 +6707,7 @@
       </c>
       <c r="D718" s="4"/>
     </row>
-    <row r="719" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A719" s="6"/>
       <c r="B719" s="8"/>
       <c r="C719" s="1" t="s">
@@ -6585,7 +6715,7 @@
       </c>
       <c r="D719" s="4"/>
     </row>
-    <row r="720" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A720" s="6"/>
       <c r="B720" s="8"/>
       <c r="C720" s="1" t="s">
@@ -6593,7 +6723,7 @@
       </c>
       <c r="D720" s="4"/>
     </row>
-    <row r="721" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A721" s="6"/>
       <c r="B721" s="8"/>
       <c r="C721" s="1" t="s">
@@ -6601,7 +6731,7 @@
       </c>
       <c r="D721" s="4"/>
     </row>
-    <row r="722" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A722" s="6"/>
       <c r="B722" s="8"/>
       <c r="C722" s="1" t="s">
@@ -6609,7 +6739,7 @@
       </c>
       <c r="D722" s="4"/>
     </row>
-    <row r="723" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A723" s="6"/>
       <c r="B723" s="8"/>
       <c r="C723" s="1" t="s">
@@ -6617,7 +6747,7 @@
       </c>
       <c r="D723" s="4"/>
     </row>
-    <row r="724" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A724" s="6"/>
       <c r="B724" s="8"/>
       <c r="C724" s="1" t="s">
@@ -6625,7 +6755,7 @@
       </c>
       <c r="D724" s="4"/>
     </row>
-    <row r="725" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A725" s="6"/>
       <c r="B725" s="8"/>
       <c r="C725" s="1" t="s">
@@ -6633,7 +6763,7 @@
       </c>
       <c r="D725" s="4"/>
     </row>
-    <row r="726" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="726" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A726" s="6"/>
       <c r="B726" s="9"/>
       <c r="C726" s="1" t="s">
@@ -6641,7 +6771,7 @@
       </c>
       <c r="D726" s="4"/>
     </row>
-    <row r="727" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A727" s="6"/>
       <c r="B727" s="7" t="s">
         <v>4</v>
@@ -6651,7 +6781,7 @@
       </c>
       <c r="D727" s="3"/>
     </row>
-    <row r="728" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A728" s="6"/>
       <c r="B728" s="8"/>
       <c r="C728" s="1" t="s">
@@ -6659,7 +6789,7 @@
       </c>
       <c r="D728" s="4"/>
     </row>
-    <row r="729" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A729" s="6"/>
       <c r="B729" s="8"/>
       <c r="C729" s="1" t="s">
@@ -6667,7 +6797,7 @@
       </c>
       <c r="D729" s="4"/>
     </row>
-    <row r="730" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A730" s="6"/>
       <c r="B730" s="8"/>
       <c r="C730" s="1" t="s">
@@ -6675,7 +6805,7 @@
       </c>
       <c r="D730" s="4"/>
     </row>
-    <row r="731" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A731" s="6"/>
       <c r="B731" s="8"/>
       <c r="C731" s="1" t="s">
@@ -6683,7 +6813,7 @@
       </c>
       <c r="D731" s="4"/>
     </row>
-    <row r="732" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A732" s="6"/>
       <c r="B732" s="8"/>
       <c r="C732" s="1" t="s">
@@ -6691,7 +6821,7 @@
       </c>
       <c r="D732" s="4"/>
     </row>
-    <row r="733" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A733" s="6"/>
       <c r="B733" s="8"/>
       <c r="C733" s="1" t="s">
@@ -6699,7 +6829,7 @@
       </c>
       <c r="D733" s="4"/>
     </row>
-    <row r="734" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A734" s="6"/>
       <c r="B734" s="8"/>
       <c r="C734" s="1" t="s">
@@ -6707,7 +6837,7 @@
       </c>
       <c r="D734" s="4"/>
     </row>
-    <row r="735" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A735" s="6"/>
       <c r="B735" s="8"/>
       <c r="C735" s="1" t="s">
@@ -6715,7 +6845,7 @@
       </c>
       <c r="D735" s="4"/>
     </row>
-    <row r="736" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A736" s="6"/>
       <c r="B736" s="8"/>
       <c r="C736" s="1" t="s">
@@ -6723,7 +6853,7 @@
       </c>
       <c r="D736" s="4"/>
     </row>
-    <row r="737" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="737" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A737" s="6"/>
       <c r="B737" s="9"/>
       <c r="C737" s="1" t="s">
@@ -6731,7 +6861,7 @@
       </c>
       <c r="D737" s="4"/>
     </row>
-    <row r="738" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="738" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A738" s="6"/>
       <c r="B738" s="7" t="s">
         <v>5</v>
@@ -6741,7 +6871,7 @@
       </c>
       <c r="D738" s="3"/>
     </row>
-    <row r="739" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="739" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A739" s="6"/>
       <c r="B739" s="8"/>
       <c r="C739" s="1" t="s">
@@ -6749,7 +6879,7 @@
       </c>
       <c r="D739" s="4"/>
     </row>
-    <row r="740" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A740" s="6"/>
       <c r="B740" s="8"/>
       <c r="C740" s="1" t="s">
@@ -6757,7 +6887,7 @@
       </c>
       <c r="D740" s="4"/>
     </row>
-    <row r="741" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="741" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A741" s="6"/>
       <c r="B741" s="8"/>
       <c r="C741" s="1" t="s">
@@ -6765,7 +6895,7 @@
       </c>
       <c r="D741" s="4"/>
     </row>
-    <row r="742" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="742" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A742" s="6"/>
       <c r="B742" s="8"/>
       <c r="C742" s="1" t="s">
@@ -6773,7 +6903,7 @@
       </c>
       <c r="D742" s="4"/>
     </row>
-    <row r="743" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="743" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A743" s="6"/>
       <c r="B743" s="8"/>
       <c r="C743" s="1" t="s">
@@ -6781,7 +6911,7 @@
       </c>
       <c r="D743" s="4"/>
     </row>
-    <row r="744" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="744" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A744" s="6"/>
       <c r="B744" s="8"/>
       <c r="C744" s="1" t="s">
@@ -6789,7 +6919,7 @@
       </c>
       <c r="D744" s="4"/>
     </row>
-    <row r="745" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="745" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A745" s="6"/>
       <c r="B745" s="8"/>
       <c r="C745" s="1" t="s">
@@ -6797,7 +6927,7 @@
       </c>
       <c r="D745" s="4"/>
     </row>
-    <row r="746" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="746" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A746" s="6"/>
       <c r="B746" s="8"/>
       <c r="C746" s="1" t="s">
@@ -6805,7 +6935,7 @@
       </c>
       <c r="D746" s="4"/>
     </row>
-    <row r="747" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="747" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A747" s="6"/>
       <c r="B747" s="8"/>
       <c r="C747" s="1" t="s">
@@ -6813,7 +6943,7 @@
       </c>
       <c r="D747" s="4"/>
     </row>
-    <row r="748" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="748" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A748" s="6"/>
       <c r="B748" s="9"/>
       <c r="C748" s="1" t="s">
@@ -6821,7 +6951,7 @@
       </c>
       <c r="D748" s="4"/>
     </row>
-    <row r="749" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="749" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A749" s="5">
         <v>18</v>
       </c>
@@ -6833,7 +6963,7 @@
       </c>
       <c r="D749" s="3"/>
     </row>
-    <row r="750" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="750" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A750" s="6"/>
       <c r="B750" s="8"/>
       <c r="C750" s="1" t="s">
@@ -6841,7 +6971,7 @@
       </c>
       <c r="D750" s="4"/>
     </row>
-    <row r="751" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="751" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A751" s="6"/>
       <c r="B751" s="8"/>
       <c r="C751" s="1" t="s">
@@ -6849,7 +6979,7 @@
       </c>
       <c r="D751" s="4"/>
     </row>
-    <row r="752" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="752" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A752" s="6"/>
       <c r="B752" s="8"/>
       <c r="C752" s="1" t="s">
@@ -6857,7 +6987,7 @@
       </c>
       <c r="D752" s="4"/>
     </row>
-    <row r="753" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="753" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A753" s="6"/>
       <c r="B753" s="8"/>
       <c r="C753" s="1" t="s">
@@ -6865,7 +6995,7 @@
       </c>
       <c r="D753" s="4"/>
     </row>
-    <row r="754" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="754" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A754" s="6"/>
       <c r="B754" s="8"/>
       <c r="C754" s="1" t="s">
@@ -6873,7 +7003,7 @@
       </c>
       <c r="D754" s="4"/>
     </row>
-    <row r="755" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="755" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A755" s="6"/>
       <c r="B755" s="8"/>
       <c r="C755" s="1" t="s">
@@ -6881,7 +7011,7 @@
       </c>
       <c r="D755" s="4"/>
     </row>
-    <row r="756" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="756" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A756" s="6"/>
       <c r="B756" s="8"/>
       <c r="C756" s="1" t="s">
@@ -6889,7 +7019,7 @@
       </c>
       <c r="D756" s="4"/>
     </row>
-    <row r="757" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A757" s="6"/>
       <c r="B757" s="8"/>
       <c r="C757" s="1" t="s">
@@ -6897,7 +7027,7 @@
       </c>
       <c r="D757" s="4"/>
     </row>
-    <row r="758" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="758" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A758" s="6"/>
       <c r="B758" s="8"/>
       <c r="C758" s="1" t="s">
@@ -6905,7 +7035,7 @@
       </c>
       <c r="D758" s="4"/>
     </row>
-    <row r="759" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="759" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A759" s="6"/>
       <c r="B759" s="9"/>
       <c r="C759" s="1" t="s">
@@ -6913,7 +7043,7 @@
       </c>
       <c r="D759" s="4"/>
     </row>
-    <row r="760" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="760" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A760" s="6"/>
       <c r="B760" s="7" t="s">
         <v>3</v>
@@ -6923,7 +7053,7 @@
       </c>
       <c r="D760" s="3"/>
     </row>
-    <row r="761" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="761" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A761" s="6"/>
       <c r="B761" s="8"/>
       <c r="C761" s="1" t="s">
@@ -6931,7 +7061,7 @@
       </c>
       <c r="D761" s="4"/>
     </row>
-    <row r="762" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="762" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A762" s="6"/>
       <c r="B762" s="8"/>
       <c r="C762" s="1" t="s">
@@ -6939,7 +7069,7 @@
       </c>
       <c r="D762" s="4"/>
     </row>
-    <row r="763" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="763" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A763" s="6"/>
       <c r="B763" s="8"/>
       <c r="C763" s="1" t="s">
@@ -6947,7 +7077,7 @@
       </c>
       <c r="D763" s="4"/>
     </row>
-    <row r="764" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="764" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A764" s="6"/>
       <c r="B764" s="8"/>
       <c r="C764" s="1" t="s">
@@ -6955,7 +7085,7 @@
       </c>
       <c r="D764" s="4"/>
     </row>
-    <row r="765" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="765" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A765" s="6"/>
       <c r="B765" s="8"/>
       <c r="C765" s="1" t="s">
@@ -6963,7 +7093,7 @@
       </c>
       <c r="D765" s="4"/>
     </row>
-    <row r="766" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="766" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A766" s="6"/>
       <c r="B766" s="8"/>
       <c r="C766" s="1" t="s">
@@ -6971,7 +7101,7 @@
       </c>
       <c r="D766" s="4"/>
     </row>
-    <row r="767" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="767" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A767" s="6"/>
       <c r="B767" s="8"/>
       <c r="C767" s="1" t="s">
@@ -6979,7 +7109,7 @@
       </c>
       <c r="D767" s="4"/>
     </row>
-    <row r="768" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="768" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A768" s="6"/>
       <c r="B768" s="8"/>
       <c r="C768" s="1" t="s">
@@ -6987,7 +7117,7 @@
       </c>
       <c r="D768" s="4"/>
     </row>
-    <row r="769" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A769" s="6"/>
       <c r="B769" s="8"/>
       <c r="C769" s="1" t="s">
@@ -6995,7 +7125,7 @@
       </c>
       <c r="D769" s="4"/>
     </row>
-    <row r="770" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="770" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A770" s="6"/>
       <c r="B770" s="9"/>
       <c r="C770" s="1" t="s">
@@ -7003,7 +7133,7 @@
       </c>
       <c r="D770" s="4"/>
     </row>
-    <row r="771" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A771" s="6"/>
       <c r="B771" s="7" t="s">
         <v>4</v>
@@ -7013,7 +7143,7 @@
       </c>
       <c r="D771" s="3"/>
     </row>
-    <row r="772" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="772" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A772" s="6"/>
       <c r="B772" s="8"/>
       <c r="C772" s="1" t="s">
@@ -7021,7 +7151,7 @@
       </c>
       <c r="D772" s="4"/>
     </row>
-    <row r="773" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="773" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A773" s="6"/>
       <c r="B773" s="8"/>
       <c r="C773" s="1" t="s">
@@ -7029,7 +7159,7 @@
       </c>
       <c r="D773" s="4"/>
     </row>
-    <row r="774" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="774" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A774" s="6"/>
       <c r="B774" s="8"/>
       <c r="C774" s="1" t="s">
@@ -7037,7 +7167,7 @@
       </c>
       <c r="D774" s="4"/>
     </row>
-    <row r="775" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="775" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A775" s="6"/>
       <c r="B775" s="8"/>
       <c r="C775" s="1" t="s">
@@ -7045,7 +7175,7 @@
       </c>
       <c r="D775" s="4"/>
     </row>
-    <row r="776" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="776" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A776" s="6"/>
       <c r="B776" s="8"/>
       <c r="C776" s="1" t="s">
@@ -7053,7 +7183,7 @@
       </c>
       <c r="D776" s="4"/>
     </row>
-    <row r="777" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="777" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A777" s="6"/>
       <c r="B777" s="8"/>
       <c r="C777" s="1" t="s">
@@ -7061,7 +7191,7 @@
       </c>
       <c r="D777" s="4"/>
     </row>
-    <row r="778" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="778" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A778" s="6"/>
       <c r="B778" s="8"/>
       <c r="C778" s="1" t="s">
@@ -7069,7 +7199,7 @@
       </c>
       <c r="D778" s="4"/>
     </row>
-    <row r="779" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="779" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A779" s="6"/>
       <c r="B779" s="8"/>
       <c r="C779" s="1" t="s">
@@ -7077,7 +7207,7 @@
       </c>
       <c r="D779" s="4"/>
     </row>
-    <row r="780" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="780" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A780" s="6"/>
       <c r="B780" s="8"/>
       <c r="C780" s="1" t="s">
@@ -7085,7 +7215,7 @@
       </c>
       <c r="D780" s="4"/>
     </row>
-    <row r="781" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="781" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A781" s="6"/>
       <c r="B781" s="9"/>
       <c r="C781" s="1" t="s">
@@ -7093,7 +7223,7 @@
       </c>
       <c r="D781" s="4"/>
     </row>
-    <row r="782" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="782" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A782" s="6"/>
       <c r="B782" s="7" t="s">
         <v>5</v>
@@ -7103,7 +7233,7 @@
       </c>
       <c r="D782" s="3"/>
     </row>
-    <row r="783" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="783" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A783" s="6"/>
       <c r="B783" s="8"/>
       <c r="C783" s="1" t="s">
@@ -7111,7 +7241,7 @@
       </c>
       <c r="D783" s="4"/>
     </row>
-    <row r="784" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="784" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A784" s="6"/>
       <c r="B784" s="8"/>
       <c r="C784" s="1" t="s">
@@ -7119,7 +7249,7 @@
       </c>
       <c r="D784" s="4"/>
     </row>
-    <row r="785" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="785" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A785" s="6"/>
       <c r="B785" s="8"/>
       <c r="C785" s="1" t="s">
@@ -7127,7 +7257,7 @@
       </c>
       <c r="D785" s="4"/>
     </row>
-    <row r="786" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="786" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A786" s="6"/>
       <c r="B786" s="8"/>
       <c r="C786" s="1" t="s">
@@ -7135,7 +7265,7 @@
       </c>
       <c r="D786" s="4"/>
     </row>
-    <row r="787" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="787" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A787" s="6"/>
       <c r="B787" s="8"/>
       <c r="C787" s="1" t="s">
@@ -7143,7 +7273,7 @@
       </c>
       <c r="D787" s="4"/>
     </row>
-    <row r="788" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="788" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A788" s="6"/>
       <c r="B788" s="8"/>
       <c r="C788" s="1" t="s">
@@ -7151,7 +7281,7 @@
       </c>
       <c r="D788" s="4"/>
     </row>
-    <row r="789" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="789" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A789" s="6"/>
       <c r="B789" s="8"/>
       <c r="C789" s="1" t="s">
@@ -7159,7 +7289,7 @@
       </c>
       <c r="D789" s="4"/>
     </row>
-    <row r="790" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="790" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A790" s="6"/>
       <c r="B790" s="8"/>
       <c r="C790" s="1" t="s">
@@ -7167,7 +7297,7 @@
       </c>
       <c r="D790" s="4"/>
     </row>
-    <row r="791" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="791" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A791" s="6"/>
       <c r="B791" s="8"/>
       <c r="C791" s="1" t="s">
@@ -7175,7 +7305,7 @@
       </c>
       <c r="D791" s="4"/>
     </row>
-    <row r="792" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="792" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A792" s="6"/>
       <c r="B792" s="9"/>
       <c r="C792" s="1" t="s">
@@ -7183,7 +7313,7 @@
       </c>
       <c r="D792" s="4"/>
     </row>
-    <row r="793" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="793" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A793" s="5">
         <v>19</v>
       </c>
@@ -7195,7 +7325,7 @@
       </c>
       <c r="D793" s="3"/>
     </row>
-    <row r="794" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="794" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A794" s="6"/>
       <c r="B794" s="8"/>
       <c r="C794" s="1" t="s">
@@ -7203,7 +7333,7 @@
       </c>
       <c r="D794" s="4"/>
     </row>
-    <row r="795" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="795" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A795" s="6"/>
       <c r="B795" s="8"/>
       <c r="C795" s="1" t="s">
@@ -7211,7 +7341,7 @@
       </c>
       <c r="D795" s="4"/>
     </row>
-    <row r="796" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="796" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A796" s="6"/>
       <c r="B796" s="8"/>
       <c r="C796" s="1" t="s">
@@ -7219,7 +7349,7 @@
       </c>
       <c r="D796" s="4"/>
     </row>
-    <row r="797" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="797" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A797" s="6"/>
       <c r="B797" s="8"/>
       <c r="C797" s="1" t="s">
@@ -7227,7 +7357,7 @@
       </c>
       <c r="D797" s="4"/>
     </row>
-    <row r="798" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="798" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A798" s="6"/>
       <c r="B798" s="8"/>
       <c r="C798" s="1" t="s">
@@ -7235,7 +7365,7 @@
       </c>
       <c r="D798" s="4"/>
     </row>
-    <row r="799" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="799" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A799" s="6"/>
       <c r="B799" s="8"/>
       <c r="C799" s="1" t="s">
@@ -7243,7 +7373,7 @@
       </c>
       <c r="D799" s="4"/>
     </row>
-    <row r="800" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="800" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A800" s="6"/>
       <c r="B800" s="8"/>
       <c r="C800" s="1" t="s">
@@ -7251,7 +7381,7 @@
       </c>
       <c r="D800" s="4"/>
     </row>
-    <row r="801" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="801" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A801" s="6"/>
       <c r="B801" s="8"/>
       <c r="C801" s="1" t="s">
@@ -7259,7 +7389,7 @@
       </c>
       <c r="D801" s="4"/>
     </row>
-    <row r="802" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="802" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A802" s="6"/>
       <c r="B802" s="8"/>
       <c r="C802" s="1" t="s">
@@ -7267,7 +7397,7 @@
       </c>
       <c r="D802" s="4"/>
     </row>
-    <row r="803" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="803" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A803" s="6"/>
       <c r="B803" s="9"/>
       <c r="C803" s="1" t="s">
@@ -7275,7 +7405,7 @@
       </c>
       <c r="D803" s="4"/>
     </row>
-    <row r="804" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="804" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A804" s="6"/>
       <c r="B804" s="7" t="s">
         <v>3</v>
@@ -7285,7 +7415,7 @@
       </c>
       <c r="D804" s="3"/>
     </row>
-    <row r="805" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="805" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A805" s="6"/>
       <c r="B805" s="8"/>
       <c r="C805" s="1" t="s">
@@ -7293,7 +7423,7 @@
       </c>
       <c r="D805" s="4"/>
     </row>
-    <row r="806" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="806" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A806" s="6"/>
       <c r="B806" s="8"/>
       <c r="C806" s="1" t="s">
@@ -7301,7 +7431,7 @@
       </c>
       <c r="D806" s="4"/>
     </row>
-    <row r="807" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="807" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A807" s="6"/>
       <c r="B807" s="8"/>
       <c r="C807" s="1" t="s">
@@ -7309,7 +7439,7 @@
       </c>
       <c r="D807" s="4"/>
     </row>
-    <row r="808" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="808" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A808" s="6"/>
       <c r="B808" s="8"/>
       <c r="C808" s="1" t="s">
@@ -7317,7 +7447,7 @@
       </c>
       <c r="D808" s="4"/>
     </row>
-    <row r="809" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="809" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A809" s="6"/>
       <c r="B809" s="8"/>
       <c r="C809" s="1" t="s">
@@ -7325,7 +7455,7 @@
       </c>
       <c r="D809" s="4"/>
     </row>
-    <row r="810" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="810" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A810" s="6"/>
       <c r="B810" s="8"/>
       <c r="C810" s="1" t="s">
@@ -7333,7 +7463,7 @@
       </c>
       <c r="D810" s="4"/>
     </row>
-    <row r="811" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="811" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A811" s="6"/>
       <c r="B811" s="8"/>
       <c r="C811" s="1" t="s">
@@ -7341,7 +7471,7 @@
       </c>
       <c r="D811" s="4"/>
     </row>
-    <row r="812" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="812" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A812" s="6"/>
       <c r="B812" s="8"/>
       <c r="C812" s="1" t="s">
@@ -7349,7 +7479,7 @@
       </c>
       <c r="D812" s="4"/>
     </row>
-    <row r="813" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="813" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A813" s="6"/>
       <c r="B813" s="8"/>
       <c r="C813" s="1" t="s">
@@ -7357,7 +7487,7 @@
       </c>
       <c r="D813" s="4"/>
     </row>
-    <row r="814" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="814" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A814" s="6"/>
       <c r="B814" s="9"/>
       <c r="C814" s="1" t="s">
@@ -7365,7 +7495,7 @@
       </c>
       <c r="D814" s="4"/>
     </row>
-    <row r="815" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="815" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A815" s="6"/>
       <c r="B815" s="7" t="s">
         <v>4</v>
@@ -7375,7 +7505,7 @@
       </c>
       <c r="D815" s="3"/>
     </row>
-    <row r="816" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="816" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A816" s="6"/>
       <c r="B816" s="8"/>
       <c r="C816" s="1" t="s">
@@ -7383,7 +7513,7 @@
       </c>
       <c r="D816" s="4"/>
     </row>
-    <row r="817" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="817" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A817" s="6"/>
       <c r="B817" s="8"/>
       <c r="C817" s="1" t="s">
@@ -7391,7 +7521,7 @@
       </c>
       <c r="D817" s="4"/>
     </row>
-    <row r="818" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="818" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A818" s="6"/>
       <c r="B818" s="8"/>
       <c r="C818" s="1" t="s">
@@ -7399,7 +7529,7 @@
       </c>
       <c r="D818" s="4"/>
     </row>
-    <row r="819" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="819" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A819" s="6"/>
       <c r="B819" s="8"/>
       <c r="C819" s="1" t="s">
@@ -7407,7 +7537,7 @@
       </c>
       <c r="D819" s="4"/>
     </row>
-    <row r="820" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="820" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A820" s="6"/>
       <c r="B820" s="8"/>
       <c r="C820" s="1" t="s">
@@ -7415,7 +7545,7 @@
       </c>
       <c r="D820" s="4"/>
     </row>
-    <row r="821" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="821" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A821" s="6"/>
       <c r="B821" s="8"/>
       <c r="C821" s="1" t="s">
@@ -7423,7 +7553,7 @@
       </c>
       <c r="D821" s="4"/>
     </row>
-    <row r="822" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="822" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A822" s="6"/>
       <c r="B822" s="8"/>
       <c r="C822" s="1" t="s">
@@ -7431,7 +7561,7 @@
       </c>
       <c r="D822" s="4"/>
     </row>
-    <row r="823" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="823" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A823" s="6"/>
       <c r="B823" s="8"/>
       <c r="C823" s="1" t="s">
@@ -7439,7 +7569,7 @@
       </c>
       <c r="D823" s="4"/>
     </row>
-    <row r="824" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="824" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A824" s="6"/>
       <c r="B824" s="8"/>
       <c r="C824" s="1" t="s">
@@ -7447,7 +7577,7 @@
       </c>
       <c r="D824" s="4"/>
     </row>
-    <row r="825" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="825" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A825" s="6"/>
       <c r="B825" s="9"/>
       <c r="C825" s="1" t="s">
@@ -7455,7 +7585,7 @@
       </c>
       <c r="D825" s="4"/>
     </row>
-    <row r="826" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="826" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A826" s="6"/>
       <c r="B826" s="7" t="s">
         <v>5</v>
@@ -7465,7 +7595,7 @@
       </c>
       <c r="D826" s="3"/>
     </row>
-    <row r="827" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="827" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A827" s="6"/>
       <c r="B827" s="8"/>
       <c r="C827" s="1" t="s">
@@ -7473,7 +7603,7 @@
       </c>
       <c r="D827" s="4"/>
     </row>
-    <row r="828" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="828" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A828" s="6"/>
       <c r="B828" s="8"/>
       <c r="C828" s="1" t="s">
@@ -7481,7 +7611,7 @@
       </c>
       <c r="D828" s="4"/>
     </row>
-    <row r="829" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="829" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A829" s="6"/>
       <c r="B829" s="8"/>
       <c r="C829" s="1" t="s">
@@ -7489,7 +7619,7 @@
       </c>
       <c r="D829" s="4"/>
     </row>
-    <row r="830" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="830" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A830" s="6"/>
       <c r="B830" s="8"/>
       <c r="C830" s="1" t="s">
@@ -7497,7 +7627,7 @@
       </c>
       <c r="D830" s="4"/>
     </row>
-    <row r="831" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="831" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A831" s="6"/>
       <c r="B831" s="8"/>
       <c r="C831" s="1" t="s">
@@ -7505,7 +7635,7 @@
       </c>
       <c r="D831" s="4"/>
     </row>
-    <row r="832" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="832" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A832" s="6"/>
       <c r="B832" s="8"/>
       <c r="C832" s="1" t="s">
@@ -7513,7 +7643,7 @@
       </c>
       <c r="D832" s="4"/>
     </row>
-    <row r="833" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="833" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A833" s="6"/>
       <c r="B833" s="8"/>
       <c r="C833" s="1" t="s">
@@ -7521,7 +7651,7 @@
       </c>
       <c r="D833" s="4"/>
     </row>
-    <row r="834" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="834" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A834" s="6"/>
       <c r="B834" s="8"/>
       <c r="C834" s="1" t="s">
@@ -7529,7 +7659,7 @@
       </c>
       <c r="D834" s="4"/>
     </row>
-    <row r="835" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="835" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A835" s="6"/>
       <c r="B835" s="8"/>
       <c r="C835" s="1" t="s">
@@ -7537,7 +7667,7 @@
       </c>
       <c r="D835" s="4"/>
     </row>
-    <row r="836" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="836" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A836" s="6"/>
       <c r="B836" s="9"/>
       <c r="C836" s="1" t="s">
@@ -7545,7 +7675,7 @@
       </c>
       <c r="D836" s="4"/>
     </row>
-    <row r="837" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="837" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A837" s="5">
         <v>20</v>
       </c>
@@ -7557,7 +7687,7 @@
       </c>
       <c r="D837" s="3"/>
     </row>
-    <row r="838" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="838" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A838" s="6"/>
       <c r="B838" s="8"/>
       <c r="C838" s="1" t="s">
@@ -7565,7 +7695,7 @@
       </c>
       <c r="D838" s="4"/>
     </row>
-    <row r="839" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="839" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A839" s="6"/>
       <c r="B839" s="8"/>
       <c r="C839" s="1" t="s">
@@ -7573,7 +7703,7 @@
       </c>
       <c r="D839" s="4"/>
     </row>
-    <row r="840" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="840" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A840" s="6"/>
       <c r="B840" s="8"/>
       <c r="C840" s="1" t="s">
@@ -7581,7 +7711,7 @@
       </c>
       <c r="D840" s="4"/>
     </row>
-    <row r="841" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="841" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A841" s="6"/>
       <c r="B841" s="8"/>
       <c r="C841" s="1" t="s">
@@ -7589,7 +7719,7 @@
       </c>
       <c r="D841" s="4"/>
     </row>
-    <row r="842" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="842" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A842" s="6"/>
       <c r="B842" s="8"/>
       <c r="C842" s="1" t="s">
@@ -7597,7 +7727,7 @@
       </c>
       <c r="D842" s="4"/>
     </row>
-    <row r="843" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="843" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A843" s="6"/>
       <c r="B843" s="8"/>
       <c r="C843" s="1" t="s">
@@ -7605,7 +7735,7 @@
       </c>
       <c r="D843" s="4"/>
     </row>
-    <row r="844" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="844" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A844" s="6"/>
       <c r="B844" s="8"/>
       <c r="C844" s="1" t="s">
@@ -7613,7 +7743,7 @@
       </c>
       <c r="D844" s="4"/>
     </row>
-    <row r="845" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="845" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A845" s="6"/>
       <c r="B845" s="8"/>
       <c r="C845" s="1" t="s">
@@ -7621,7 +7751,7 @@
       </c>
       <c r="D845" s="4"/>
     </row>
-    <row r="846" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="846" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A846" s="6"/>
       <c r="B846" s="8"/>
       <c r="C846" s="1" t="s">
@@ -7629,7 +7759,7 @@
       </c>
       <c r="D846" s="4"/>
     </row>
-    <row r="847" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="847" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A847" s="6"/>
       <c r="B847" s="9"/>
       <c r="C847" s="1" t="s">
@@ -7637,7 +7767,7 @@
       </c>
       <c r="D847" s="4"/>
     </row>
-    <row r="848" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="848" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A848" s="6"/>
       <c r="B848" s="7" t="s">
         <v>3</v>
@@ -7647,7 +7777,7 @@
       </c>
       <c r="D848" s="3"/>
     </row>
-    <row r="849" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="849" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A849" s="6"/>
       <c r="B849" s="8"/>
       <c r="C849" s="1" t="s">
@@ -7655,7 +7785,7 @@
       </c>
       <c r="D849" s="4"/>
     </row>
-    <row r="850" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="850" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A850" s="6"/>
       <c r="B850" s="8"/>
       <c r="C850" s="1" t="s">
@@ -7663,7 +7793,7 @@
       </c>
       <c r="D850" s="4"/>
     </row>
-    <row r="851" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="851" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A851" s="6"/>
       <c r="B851" s="8"/>
       <c r="C851" s="1" t="s">
@@ -7671,7 +7801,7 @@
       </c>
       <c r="D851" s="4"/>
     </row>
-    <row r="852" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="852" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A852" s="6"/>
       <c r="B852" s="8"/>
       <c r="C852" s="1" t="s">
@@ -7679,7 +7809,7 @@
       </c>
       <c r="D852" s="4"/>
     </row>
-    <row r="853" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="853" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A853" s="6"/>
       <c r="B853" s="8"/>
       <c r="C853" s="1" t="s">
@@ -7687,7 +7817,7 @@
       </c>
       <c r="D853" s="4"/>
     </row>
-    <row r="854" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="854" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A854" s="6"/>
       <c r="B854" s="8"/>
       <c r="C854" s="1" t="s">
@@ -7695,7 +7825,7 @@
       </c>
       <c r="D854" s="4"/>
     </row>
-    <row r="855" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="855" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A855" s="6"/>
       <c r="B855" s="8"/>
       <c r="C855" s="1" t="s">
@@ -7703,7 +7833,7 @@
       </c>
       <c r="D855" s="4"/>
     </row>
-    <row r="856" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="856" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A856" s="6"/>
       <c r="B856" s="8"/>
       <c r="C856" s="1" t="s">
@@ -7711,7 +7841,7 @@
       </c>
       <c r="D856" s="4"/>
     </row>
-    <row r="857" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="857" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A857" s="6"/>
       <c r="B857" s="8"/>
       <c r="C857" s="1" t="s">
@@ -7719,7 +7849,7 @@
       </c>
       <c r="D857" s="4"/>
     </row>
-    <row r="858" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="858" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A858" s="6"/>
       <c r="B858" s="9"/>
       <c r="C858" s="1" t="s">
@@ -7727,7 +7857,7 @@
       </c>
       <c r="D858" s="4"/>
     </row>
-    <row r="859" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="859" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A859" s="6"/>
       <c r="B859" s="7" t="s">
         <v>4</v>
@@ -7737,7 +7867,7 @@
       </c>
       <c r="D859" s="3"/>
     </row>
-    <row r="860" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="860" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A860" s="6"/>
       <c r="B860" s="8"/>
       <c r="C860" s="1" t="s">
@@ -7745,7 +7875,7 @@
       </c>
       <c r="D860" s="4"/>
     </row>
-    <row r="861" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="861" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A861" s="6"/>
       <c r="B861" s="8"/>
       <c r="C861" s="1" t="s">
@@ -7753,7 +7883,7 @@
       </c>
       <c r="D861" s="4"/>
     </row>
-    <row r="862" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="862" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A862" s="6"/>
       <c r="B862" s="8"/>
       <c r="C862" s="1" t="s">
@@ -7761,7 +7891,7 @@
       </c>
       <c r="D862" s="4"/>
     </row>
-    <row r="863" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="863" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A863" s="6"/>
       <c r="B863" s="8"/>
       <c r="C863" s="1" t="s">
@@ -7769,7 +7899,7 @@
       </c>
       <c r="D863" s="4"/>
     </row>
-    <row r="864" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="864" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A864" s="6"/>
       <c r="B864" s="8"/>
       <c r="C864" s="1" t="s">
@@ -7777,7 +7907,7 @@
       </c>
       <c r="D864" s="4"/>
     </row>
-    <row r="865" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="865" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A865" s="6"/>
       <c r="B865" s="8"/>
       <c r="C865" s="1" t="s">
@@ -7785,7 +7915,7 @@
       </c>
       <c r="D865" s="4"/>
     </row>
-    <row r="866" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="866" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A866" s="6"/>
       <c r="B866" s="8"/>
       <c r="C866" s="1" t="s">
@@ -7793,7 +7923,7 @@
       </c>
       <c r="D866" s="4"/>
     </row>
-    <row r="867" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="867" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A867" s="6"/>
       <c r="B867" s="8"/>
       <c r="C867" s="1" t="s">
@@ -7801,7 +7931,7 @@
       </c>
       <c r="D867" s="4"/>
     </row>
-    <row r="868" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="868" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A868" s="6"/>
       <c r="B868" s="8"/>
       <c r="C868" s="1" t="s">
@@ -7809,7 +7939,7 @@
       </c>
       <c r="D868" s="4"/>
     </row>
-    <row r="869" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="869" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A869" s="6"/>
       <c r="B869" s="9"/>
       <c r="C869" s="1" t="s">
@@ -7817,7 +7947,7 @@
       </c>
       <c r="D869" s="4"/>
     </row>
-    <row r="870" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="870" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A870" s="6"/>
       <c r="B870" s="7" t="s">
         <v>5</v>
@@ -7827,7 +7957,7 @@
       </c>
       <c r="D870" s="3"/>
     </row>
-    <row r="871" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="871" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A871" s="6"/>
       <c r="B871" s="8"/>
       <c r="C871" s="1" t="s">
@@ -7835,7 +7965,7 @@
       </c>
       <c r="D871" s="4"/>
     </row>
-    <row r="872" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="872" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A872" s="6"/>
       <c r="B872" s="8"/>
       <c r="C872" s="1" t="s">
@@ -7843,7 +7973,7 @@
       </c>
       <c r="D872" s="4"/>
     </row>
-    <row r="873" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="873" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A873" s="6"/>
       <c r="B873" s="8"/>
       <c r="C873" s="1" t="s">
@@ -7851,7 +7981,7 @@
       </c>
       <c r="D873" s="4"/>
     </row>
-    <row r="874" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="874" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A874" s="6"/>
       <c r="B874" s="8"/>
       <c r="C874" s="1" t="s">
@@ -7859,7 +7989,7 @@
       </c>
       <c r="D874" s="4"/>
     </row>
-    <row r="875" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="875" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A875" s="6"/>
       <c r="B875" s="8"/>
       <c r="C875" s="1" t="s">
@@ -7867,7 +7997,7 @@
       </c>
       <c r="D875" s="4"/>
     </row>
-    <row r="876" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="876" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A876" s="6"/>
       <c r="B876" s="8"/>
       <c r="C876" s="1" t="s">
@@ -7875,7 +8005,7 @@
       </c>
       <c r="D876" s="4"/>
     </row>
-    <row r="877" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="877" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A877" s="6"/>
       <c r="B877" s="8"/>
       <c r="C877" s="1" t="s">
@@ -7883,7 +8013,7 @@
       </c>
       <c r="D877" s="4"/>
     </row>
-    <row r="878" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="878" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A878" s="6"/>
       <c r="B878" s="8"/>
       <c r="C878" s="1" t="s">
@@ -7891,7 +8021,7 @@
       </c>
       <c r="D878" s="4"/>
     </row>
-    <row r="879" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="879" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A879" s="6"/>
       <c r="B879" s="8"/>
       <c r="C879" s="1" t="s">
@@ -7899,7 +8029,7 @@
       </c>
       <c r="D879" s="4"/>
     </row>
-    <row r="880" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="880" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A880" s="6"/>
       <c r="B880" s="9"/>
       <c r="C880" s="1" t="s">
@@ -7909,106 +8039,106 @@
     </row>
   </sheetData>
   <mergeCells count="100">
+    <mergeCell ref="A837:A880"/>
+    <mergeCell ref="B837:B847"/>
+    <mergeCell ref="B848:B858"/>
+    <mergeCell ref="B859:B869"/>
+    <mergeCell ref="B870:B880"/>
+    <mergeCell ref="A793:A836"/>
+    <mergeCell ref="B793:B803"/>
+    <mergeCell ref="B804:B814"/>
+    <mergeCell ref="B815:B825"/>
+    <mergeCell ref="B826:B836"/>
+    <mergeCell ref="A749:A792"/>
+    <mergeCell ref="B749:B759"/>
+    <mergeCell ref="B760:B770"/>
+    <mergeCell ref="B771:B781"/>
+    <mergeCell ref="B782:B792"/>
+    <mergeCell ref="A705:A748"/>
+    <mergeCell ref="B705:B715"/>
+    <mergeCell ref="B716:B726"/>
+    <mergeCell ref="B727:B737"/>
+    <mergeCell ref="B738:B748"/>
+    <mergeCell ref="A661:A704"/>
+    <mergeCell ref="B661:B671"/>
+    <mergeCell ref="B672:B682"/>
+    <mergeCell ref="B683:B693"/>
+    <mergeCell ref="B694:B704"/>
+    <mergeCell ref="A617:A660"/>
+    <mergeCell ref="B617:B627"/>
+    <mergeCell ref="B628:B638"/>
+    <mergeCell ref="B639:B649"/>
+    <mergeCell ref="B650:B660"/>
+    <mergeCell ref="A573:A616"/>
+    <mergeCell ref="B573:B583"/>
+    <mergeCell ref="B584:B594"/>
+    <mergeCell ref="B595:B605"/>
+    <mergeCell ref="B606:B616"/>
+    <mergeCell ref="A529:A572"/>
+    <mergeCell ref="B529:B539"/>
+    <mergeCell ref="B540:B550"/>
+    <mergeCell ref="B551:B561"/>
+    <mergeCell ref="B562:B572"/>
+    <mergeCell ref="A485:A528"/>
+    <mergeCell ref="B485:B495"/>
+    <mergeCell ref="B496:B506"/>
+    <mergeCell ref="B507:B517"/>
+    <mergeCell ref="B518:B528"/>
+    <mergeCell ref="A309:A352"/>
+    <mergeCell ref="B309:B319"/>
+    <mergeCell ref="B320:B330"/>
+    <mergeCell ref="B331:B341"/>
+    <mergeCell ref="B342:B352"/>
+    <mergeCell ref="A353:A396"/>
+    <mergeCell ref="B353:B363"/>
+    <mergeCell ref="B364:B374"/>
+    <mergeCell ref="B375:B385"/>
+    <mergeCell ref="B386:B396"/>
+    <mergeCell ref="A265:A308"/>
+    <mergeCell ref="B265:B275"/>
+    <mergeCell ref="B276:B286"/>
+    <mergeCell ref="B287:B297"/>
+    <mergeCell ref="B298:B308"/>
+    <mergeCell ref="A221:A264"/>
+    <mergeCell ref="B221:B231"/>
+    <mergeCell ref="B232:B242"/>
+    <mergeCell ref="B243:B253"/>
+    <mergeCell ref="B254:B264"/>
+    <mergeCell ref="A177:A220"/>
+    <mergeCell ref="B177:B187"/>
+    <mergeCell ref="B188:B198"/>
+    <mergeCell ref="B199:B209"/>
+    <mergeCell ref="B210:B220"/>
+    <mergeCell ref="A133:A176"/>
+    <mergeCell ref="B133:B143"/>
+    <mergeCell ref="B144:B154"/>
+    <mergeCell ref="B155:B165"/>
+    <mergeCell ref="B166:B176"/>
+    <mergeCell ref="A89:A132"/>
+    <mergeCell ref="B89:B99"/>
+    <mergeCell ref="B100:B110"/>
+    <mergeCell ref="B111:B121"/>
+    <mergeCell ref="B122:B132"/>
+    <mergeCell ref="A45:A88"/>
+    <mergeCell ref="B45:B55"/>
+    <mergeCell ref="B56:B66"/>
+    <mergeCell ref="B67:B77"/>
+    <mergeCell ref="B78:B88"/>
+    <mergeCell ref="B23:B33"/>
+    <mergeCell ref="B34:B44"/>
+    <mergeCell ref="A1:A44"/>
+    <mergeCell ref="B1:B11"/>
+    <mergeCell ref="B12:B22"/>
+    <mergeCell ref="A397:A440"/>
+    <mergeCell ref="B397:B407"/>
+    <mergeCell ref="B408:B418"/>
+    <mergeCell ref="B419:B429"/>
+    <mergeCell ref="B430:B440"/>
     <mergeCell ref="A441:A484"/>
     <mergeCell ref="B441:B451"/>
     <mergeCell ref="B452:B462"/>
     <mergeCell ref="B463:B473"/>
     <mergeCell ref="B474:B484"/>
-    <mergeCell ref="A397:A440"/>
-    <mergeCell ref="B397:B407"/>
-    <mergeCell ref="B408:B418"/>
-    <mergeCell ref="B419:B429"/>
-    <mergeCell ref="B430:B440"/>
-    <mergeCell ref="B23:B33"/>
-    <mergeCell ref="B34:B44"/>
-    <mergeCell ref="A1:A44"/>
-    <mergeCell ref="B1:B11"/>
-    <mergeCell ref="B12:B22"/>
-    <mergeCell ref="A45:A88"/>
-    <mergeCell ref="B45:B55"/>
-    <mergeCell ref="B56:B66"/>
-    <mergeCell ref="B67:B77"/>
-    <mergeCell ref="B78:B88"/>
-    <mergeCell ref="A89:A132"/>
-    <mergeCell ref="B89:B99"/>
-    <mergeCell ref="B100:B110"/>
-    <mergeCell ref="B111:B121"/>
-    <mergeCell ref="B122:B132"/>
-    <mergeCell ref="A133:A176"/>
-    <mergeCell ref="B133:B143"/>
-    <mergeCell ref="B144:B154"/>
-    <mergeCell ref="B155:B165"/>
-    <mergeCell ref="B166:B176"/>
-    <mergeCell ref="A177:A220"/>
-    <mergeCell ref="B177:B187"/>
-    <mergeCell ref="B188:B198"/>
-    <mergeCell ref="B199:B209"/>
-    <mergeCell ref="B210:B220"/>
-    <mergeCell ref="A221:A264"/>
-    <mergeCell ref="B221:B231"/>
-    <mergeCell ref="B232:B242"/>
-    <mergeCell ref="B243:B253"/>
-    <mergeCell ref="B254:B264"/>
-    <mergeCell ref="A265:A308"/>
-    <mergeCell ref="B265:B275"/>
-    <mergeCell ref="B276:B286"/>
-    <mergeCell ref="B287:B297"/>
-    <mergeCell ref="B298:B308"/>
-    <mergeCell ref="A353:A396"/>
-    <mergeCell ref="B353:B363"/>
-    <mergeCell ref="B364:B374"/>
-    <mergeCell ref="B375:B385"/>
-    <mergeCell ref="B386:B396"/>
-    <mergeCell ref="A309:A352"/>
-    <mergeCell ref="B309:B319"/>
-    <mergeCell ref="B320:B330"/>
-    <mergeCell ref="B331:B341"/>
-    <mergeCell ref="B342:B352"/>
-    <mergeCell ref="A485:A528"/>
-    <mergeCell ref="B485:B495"/>
-    <mergeCell ref="B496:B506"/>
-    <mergeCell ref="B507:B517"/>
-    <mergeCell ref="B518:B528"/>
-    <mergeCell ref="A529:A572"/>
-    <mergeCell ref="B529:B539"/>
-    <mergeCell ref="B540:B550"/>
-    <mergeCell ref="B551:B561"/>
-    <mergeCell ref="B562:B572"/>
-    <mergeCell ref="A573:A616"/>
-    <mergeCell ref="B573:B583"/>
-    <mergeCell ref="B584:B594"/>
-    <mergeCell ref="B595:B605"/>
-    <mergeCell ref="B606:B616"/>
-    <mergeCell ref="A617:A660"/>
-    <mergeCell ref="B617:B627"/>
-    <mergeCell ref="B628:B638"/>
-    <mergeCell ref="B639:B649"/>
-    <mergeCell ref="B650:B660"/>
-    <mergeCell ref="A661:A704"/>
-    <mergeCell ref="B661:B671"/>
-    <mergeCell ref="B672:B682"/>
-    <mergeCell ref="B683:B693"/>
-    <mergeCell ref="B694:B704"/>
-    <mergeCell ref="A705:A748"/>
-    <mergeCell ref="B705:B715"/>
-    <mergeCell ref="B716:B726"/>
-    <mergeCell ref="B727:B737"/>
-    <mergeCell ref="B738:B748"/>
-    <mergeCell ref="A749:A792"/>
-    <mergeCell ref="B749:B759"/>
-    <mergeCell ref="B760:B770"/>
-    <mergeCell ref="B771:B781"/>
-    <mergeCell ref="B782:B792"/>
-    <mergeCell ref="A793:A836"/>
-    <mergeCell ref="B793:B803"/>
-    <mergeCell ref="B804:B814"/>
-    <mergeCell ref="B815:B825"/>
-    <mergeCell ref="B826:B836"/>
-    <mergeCell ref="A837:A880"/>
-    <mergeCell ref="B837:B847"/>
-    <mergeCell ref="B848:B858"/>
-    <mergeCell ref="B859:B869"/>
-    <mergeCell ref="B870:B880"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DTW/data/10person/no_skip.xlsx
+++ b/DTW/data/10person/no_skip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jji94\Documents\Github\INC_BEV_FastMOT\DTW\data\10person\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3031AD-2867-401C-8FEB-1CAD183DAA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E7BC1C-9031-4502-ADF5-1BFD2F86FFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="180" windowWidth="7995" windowHeight="13395" xr2:uid="{F7770F3D-F9C2-4C2A-97D3-3A6C1C02D526}"/>
+    <workbookView xWindow="195" yWindow="810" windowWidth="7995" windowHeight="12900" xr2:uid="{F7770F3D-F9C2-4C2A-97D3-3A6C1C02D526}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="88">
   <si>
     <t>정익</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,6 +162,230 @@
   </si>
   <si>
     <t>7,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,13,16,8,7,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,5,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,14,18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,4,8,17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,11,14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5,6,9,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,14,15,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,17,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,6,15,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,13,18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,9,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,14,17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,12,15,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5,1,10,19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14,17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,7,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,12,18,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,6,9,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,12,14,17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -668,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E810037-98D3-4B06-AAD8-9F0B4D51D317}">
   <dimension ref="A1:D880"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D144" sqref="D144"/>
+    <sheetView tabSelected="1" topLeftCell="A143" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D158" sqref="D158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1893,7 +2117,9 @@
       <c r="C133" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D133" s="3"/>
+      <c r="D133" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="6"/>
@@ -1901,7 +2127,9 @@
       <c r="C134" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D134" s="4"/>
+      <c r="D134" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="6"/>
@@ -1909,7 +2137,9 @@
       <c r="C135" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D135" s="4"/>
+      <c r="D135" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="6"/>
@@ -1917,7 +2147,9 @@
       <c r="C136" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D136" s="4"/>
+      <c r="D136" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="6"/>
@@ -1925,7 +2157,9 @@
       <c r="C137" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D137" s="4"/>
+      <c r="D137" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="6"/>
@@ -1933,7 +2167,9 @@
       <c r="C138" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D138" s="4"/>
+      <c r="D138" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="6"/>
@@ -1941,7 +2177,9 @@
       <c r="C139" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D139" s="4"/>
+      <c r="D139" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="6"/>
@@ -1949,7 +2187,9 @@
       <c r="C140" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D140" s="4"/>
+      <c r="D140" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="6"/>
@@ -1957,7 +2197,9 @@
       <c r="C141" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D141" s="4"/>
+      <c r="D141" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="6"/>
@@ -1965,7 +2207,9 @@
       <c r="C142" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D142" s="4"/>
+      <c r="D142" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="143" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="6"/>
@@ -2073,7 +2317,9 @@
       <c r="C155" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D155" s="3"/>
+      <c r="D155" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="6"/>
@@ -2081,7 +2327,9 @@
       <c r="C156" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D156" s="4"/>
+      <c r="D156" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="6"/>
@@ -2089,7 +2337,9 @@
       <c r="C157" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D157" s="4"/>
+      <c r="D157" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="6"/>
@@ -2097,7 +2347,9 @@
       <c r="C158" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D158" s="4"/>
+      <c r="D158" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="6"/>
@@ -2105,7 +2357,9 @@
       <c r="C159" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D159" s="4"/>
+      <c r="D159" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="6"/>
@@ -2113,7 +2367,9 @@
       <c r="C160" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D160" s="4"/>
+      <c r="D160" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="6"/>
@@ -2129,7 +2385,9 @@
       <c r="C162" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D162" s="4"/>
+      <c r="D162" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="6"/>
@@ -2137,7 +2395,9 @@
       <c r="C163" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D163" s="4"/>
+      <c r="D163" s="4">
+        <v>11</v>
+      </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="6"/>
@@ -2145,7 +2405,9 @@
       <c r="C164" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D164" s="4"/>
+      <c r="D164" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="165" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="6"/>
@@ -2255,7 +2517,9 @@
       <c r="C177" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D177" s="3"/>
+      <c r="D177" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="6"/>
@@ -2263,7 +2527,9 @@
       <c r="C178" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D178" s="4"/>
+      <c r="D178" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="6"/>
@@ -2271,7 +2537,9 @@
       <c r="C179" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D179" s="4"/>
+      <c r="D179" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="6"/>
@@ -2287,7 +2555,9 @@
       <c r="C181" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D181" s="4"/>
+      <c r="D181" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="6"/>
@@ -2295,7 +2565,9 @@
       <c r="C182" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D182" s="4"/>
+      <c r="D182" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="6"/>
@@ -2311,7 +2583,9 @@
       <c r="C184" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D184" s="4"/>
+      <c r="D184" s="4">
+        <v>14</v>
+      </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="6"/>
@@ -2319,7 +2593,9 @@
       <c r="C185" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D185" s="4"/>
+      <c r="D185" s="4">
+        <v>11</v>
+      </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="6"/>
@@ -2327,7 +2603,9 @@
       <c r="C186" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D186" s="4"/>
+      <c r="D186" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="187" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="6"/>
@@ -2335,7 +2613,9 @@
       <c r="C187" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D187" s="4"/>
+      <c r="D187" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="6"/>
@@ -2435,7 +2715,9 @@
       <c r="C199" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D199" s="3"/>
+      <c r="D199" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="6"/>
@@ -2443,7 +2725,9 @@
       <c r="C200" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D200" s="4"/>
+      <c r="D200" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="6"/>
@@ -2451,7 +2735,9 @@
       <c r="C201" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D201" s="4"/>
+      <c r="D201" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="6"/>
@@ -2459,7 +2745,9 @@
       <c r="C202" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D202" s="4"/>
+      <c r="D202" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="6"/>
@@ -2475,7 +2763,9 @@
       <c r="C204" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D204" s="4"/>
+      <c r="D204" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="6"/>
@@ -2499,7 +2789,9 @@
       <c r="C207" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D207" s="4"/>
+      <c r="D207" s="4">
+        <v>18</v>
+      </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="6"/>
@@ -2507,7 +2799,9 @@
       <c r="C208" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D208" s="4"/>
+      <c r="D208" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="209" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="6"/>
@@ -2515,7 +2809,9 @@
       <c r="C209" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D209" s="4"/>
+      <c r="D209" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="6"/>
@@ -2617,7 +2913,9 @@
       <c r="C221" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D221" s="3"/>
+      <c r="D221" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="6"/>
@@ -2625,7 +2923,9 @@
       <c r="C222" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D222" s="4"/>
+      <c r="D222" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="6"/>
@@ -2633,7 +2933,9 @@
       <c r="C223" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D223" s="4"/>
+      <c r="D223" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="6"/>
@@ -2641,7 +2943,9 @@
       <c r="C224" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D224" s="4"/>
+      <c r="D224" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="6"/>
@@ -2649,7 +2953,9 @@
       <c r="C225" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D225" s="4"/>
+      <c r="D225" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="6"/>
@@ -2657,7 +2963,9 @@
       <c r="C226" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D226" s="4"/>
+      <c r="D226" s="4">
+        <v>20</v>
+      </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="6"/>
@@ -2673,7 +2981,9 @@
       <c r="C228" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D228" s="4"/>
+      <c r="D228" s="4">
+        <v>11</v>
+      </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="6"/>
@@ -2681,7 +2991,9 @@
       <c r="C229" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D229" s="4"/>
+      <c r="D229" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="6"/>
@@ -2689,7 +3001,9 @@
       <c r="C230" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D230" s="4"/>
+      <c r="D230" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="231" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="6"/>
@@ -2697,7 +3011,9 @@
       <c r="C231" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D231" s="4"/>
+      <c r="D231" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="6"/>
@@ -2797,7 +3113,9 @@
       <c r="C243" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D243" s="3"/>
+      <c r="D243" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="6"/>
@@ -2805,7 +3123,9 @@
       <c r="C244" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D244" s="4"/>
+      <c r="D244" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="6"/>
@@ -2813,7 +3133,9 @@
       <c r="C245" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D245" s="4"/>
+      <c r="D245" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="6"/>
@@ -2821,7 +3143,9 @@
       <c r="C246" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D246" s="4"/>
+      <c r="D246" s="4">
+        <v>12</v>
+      </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="6"/>
@@ -2829,7 +3153,9 @@
       <c r="C247" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D247" s="4"/>
+      <c r="D247" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="6"/>
@@ -2837,7 +3163,9 @@
       <c r="C248" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D248" s="4"/>
+      <c r="D248" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="6"/>
@@ -2845,7 +3173,9 @@
       <c r="C249" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D249" s="4"/>
+      <c r="D249" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="6"/>
@@ -2861,7 +3191,9 @@
       <c r="C251" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D251" s="4"/>
+      <c r="D251" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="6"/>
@@ -2869,7 +3201,9 @@
       <c r="C252" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D252" s="4"/>
+      <c r="D252" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="253" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A253" s="6"/>
@@ -2877,7 +3211,9 @@
       <c r="C253" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D253" s="4"/>
+      <c r="D253" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="6"/>
@@ -2979,7 +3315,9 @@
       <c r="C265" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D265" s="3"/>
+      <c r="D265" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="6"/>
@@ -2987,7 +3325,9 @@
       <c r="C266" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D266" s="4"/>
+      <c r="D266" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="6"/>
@@ -2995,7 +3335,9 @@
       <c r="C267" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D267" s="4"/>
+      <c r="D267" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="6"/>
@@ -3003,7 +3345,9 @@
       <c r="C268" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D268" s="4"/>
+      <c r="D268" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="6"/>
@@ -3011,7 +3355,9 @@
       <c r="C269" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D269" s="4"/>
+      <c r="D269" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="6"/>
@@ -3019,7 +3365,9 @@
       <c r="C270" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D270" s="4"/>
+      <c r="D270" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="6"/>
@@ -3027,7 +3375,9 @@
       <c r="C271" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D271" s="4"/>
+      <c r="D271" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="6"/>
@@ -3035,7 +3385,9 @@
       <c r="C272" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D272" s="4"/>
+      <c r="D272" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="6"/>
@@ -3043,7 +3395,9 @@
       <c r="C273" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D273" s="4"/>
+      <c r="D273" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="6"/>
@@ -3051,7 +3405,9 @@
       <c r="C274" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D274" s="4"/>
+      <c r="D274" s="4">
+        <v>15</v>
+      </c>
     </row>
     <row r="275" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A275" s="6"/>
@@ -3059,7 +3415,9 @@
       <c r="C275" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D275" s="4"/>
+      <c r="D275" s="4">
+        <v>11</v>
+      </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="6"/>
@@ -3159,7 +3517,9 @@
       <c r="C287" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D287" s="3"/>
+      <c r="D287" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="6"/>
@@ -3167,7 +3527,9 @@
       <c r="C288" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D288" s="4"/>
+      <c r="D288" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="6"/>
@@ -3175,7 +3537,9 @@
       <c r="C289" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D289" s="4"/>
+      <c r="D289" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="6"/>
@@ -3183,7 +3547,9 @@
       <c r="C290" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D290" s="4"/>
+      <c r="D290" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="6"/>
@@ -3191,7 +3557,9 @@
       <c r="C291" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D291" s="4"/>
+      <c r="D291" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="6"/>
@@ -3199,7 +3567,9 @@
       <c r="C292" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D292" s="4"/>
+      <c r="D292" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="6"/>
@@ -3207,7 +3577,9 @@
       <c r="C293" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D293" s="4"/>
+      <c r="D293" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="6"/>
@@ -3223,7 +3595,9 @@
       <c r="C295" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D295" s="4"/>
+      <c r="D295" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="6"/>
@@ -3231,7 +3605,9 @@
       <c r="C296" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D296" s="4"/>
+      <c r="D296" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="297" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A297" s="6"/>
@@ -3341,7 +3717,9 @@
       <c r="C309" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D309" s="3"/>
+      <c r="D309" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="6"/>
@@ -3349,7 +3727,9 @@
       <c r="C310" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D310" s="4"/>
+      <c r="D310" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="6"/>
@@ -3357,7 +3737,9 @@
       <c r="C311" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D311" s="4"/>
+      <c r="D311" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="6"/>
@@ -3365,7 +3747,9 @@
       <c r="C312" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D312" s="4"/>
+      <c r="D312" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="6"/>
@@ -3373,7 +3757,9 @@
       <c r="C313" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D313" s="4"/>
+      <c r="D313" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="6"/>
@@ -3381,7 +3767,9 @@
       <c r="C314" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D314" s="4"/>
+      <c r="D314" s="4">
+        <v>15</v>
+      </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="6"/>
@@ -3389,7 +3777,9 @@
       <c r="C315" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D315" s="4"/>
+      <c r="D315" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="6"/>
@@ -3397,7 +3787,9 @@
       <c r="C316" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D316" s="4"/>
+      <c r="D316" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="6"/>
@@ -3405,7 +3797,9 @@
       <c r="C317" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D317" s="4"/>
+      <c r="D317" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="6"/>
@@ -3413,7 +3807,9 @@
       <c r="C318" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D318" s="4"/>
+      <c r="D318" s="4">
+        <v>11</v>
+      </c>
     </row>
     <row r="319" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A319" s="6"/>
@@ -3421,7 +3817,9 @@
       <c r="C319" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D319" s="4"/>
+      <c r="D319" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="6"/>
@@ -3521,7 +3919,9 @@
       <c r="C331" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D331" s="3"/>
+      <c r="D331" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="6"/>
@@ -3529,7 +3929,9 @@
       <c r="C332" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D332" s="4"/>
+      <c r="D332" s="4">
+        <v>11</v>
+      </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="6"/>
@@ -3545,7 +3947,9 @@
       <c r="C334" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D334" s="4"/>
+      <c r="D334" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="6"/>
@@ -3553,7 +3957,9 @@
       <c r="C335" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D335" s="4"/>
+      <c r="D335" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="6"/>
@@ -3561,7 +3967,9 @@
       <c r="C336" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D336" s="4"/>
+      <c r="D336" s="4">
+        <v>13</v>
+      </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="6"/>
@@ -3577,7 +3985,9 @@
       <c r="C338" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D338" s="4"/>
+      <c r="D338" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="6"/>
@@ -3593,7 +4003,9 @@
       <c r="C340" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D340" s="4"/>
+      <c r="D340" s="4">
+        <v>14</v>
+      </c>
     </row>
     <row r="341" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A341" s="6"/>
@@ -3601,7 +4013,9 @@
       <c r="C341" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D341" s="4"/>
+      <c r="D341" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="6"/>
@@ -3703,7 +4117,9 @@
       <c r="C353" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D353" s="3"/>
+      <c r="D353" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" s="6"/>
@@ -3711,7 +4127,9 @@
       <c r="C354" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D354" s="4"/>
+      <c r="D354" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" s="6"/>
@@ -3719,7 +4137,9 @@
       <c r="C355" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D355" s="4"/>
+      <c r="D355" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" s="6"/>
@@ -3727,7 +4147,9 @@
       <c r="C356" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D356" s="4"/>
+      <c r="D356" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" s="6"/>
@@ -3735,7 +4157,9 @@
       <c r="C357" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D357" s="4"/>
+      <c r="D357" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" s="6"/>
@@ -3743,7 +4167,9 @@
       <c r="C358" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D358" s="4"/>
+      <c r="D358" s="4">
+        <v>13</v>
+      </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" s="6"/>
@@ -3751,7 +4177,9 @@
       <c r="C359" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D359" s="4"/>
+      <c r="D359" s="4" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" s="6"/>
@@ -3759,7 +4187,9 @@
       <c r="C360" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D360" s="4"/>
+      <c r="D360" s="4" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" s="6"/>
@@ -3767,7 +4197,9 @@
       <c r="C361" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D361" s="4"/>
+      <c r="D361" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" s="6"/>
@@ -3775,7 +4207,9 @@
       <c r="C362" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D362" s="4"/>
+      <c r="D362" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="363" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A363" s="6"/>
@@ -3783,7 +4217,9 @@
       <c r="C363" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D363" s="4"/>
+      <c r="D363" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="6"/>
@@ -3883,7 +4319,9 @@
       <c r="C375" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D375" s="3"/>
+      <c r="D375" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" s="6"/>
@@ -3891,7 +4329,9 @@
       <c r="C376" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D376" s="4"/>
+      <c r="D376" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" s="6"/>
@@ -3899,7 +4339,9 @@
       <c r="C377" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D377" s="4"/>
+      <c r="D377" s="4" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" s="6"/>
@@ -3907,7 +4349,9 @@
       <c r="C378" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D378" s="4"/>
+      <c r="D378" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" s="6"/>
@@ -3923,7 +4367,9 @@
       <c r="C380" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D380" s="4"/>
+      <c r="D380" s="4">
+        <v>14</v>
+      </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" s="6"/>
@@ -3931,7 +4377,9 @@
       <c r="C381" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D381" s="4"/>
+      <c r="D381" s="4">
+        <v>21</v>
+      </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" s="6"/>
@@ -3939,7 +4387,9 @@
       <c r="C382" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D382" s="4"/>
+      <c r="D382" s="4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" s="6"/>
@@ -3947,7 +4397,9 @@
       <c r="C383" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D383" s="4"/>
+      <c r="D383" s="4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" s="6"/>
@@ -3955,7 +4407,9 @@
       <c r="C384" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D384" s="4"/>
+      <c r="D384" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="385" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A385" s="6"/>
@@ -3963,7 +4417,9 @@
       <c r="C385" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D385" s="4"/>
+      <c r="D385" s="4" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" s="6"/>
@@ -4065,7 +4521,9 @@
       <c r="C397" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D397" s="3"/>
+      <c r="D397" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" s="6"/>
@@ -4073,7 +4531,9 @@
       <c r="C398" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D398" s="4"/>
+      <c r="D398" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" s="6"/>
@@ -4081,7 +4541,9 @@
       <c r="C399" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D399" s="4"/>
+      <c r="D399" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" s="6"/>
@@ -4089,7 +4551,9 @@
       <c r="C400" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D400" s="4"/>
+      <c r="D400" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" s="6"/>
@@ -4097,7 +4561,9 @@
       <c r="C401" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D401" s="4"/>
+      <c r="D401" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" s="6"/>
@@ -4105,7 +4571,9 @@
       <c r="C402" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D402" s="4"/>
+      <c r="D402" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" s="6"/>
@@ -4113,7 +4581,9 @@
       <c r="C403" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D403" s="4"/>
+      <c r="D403" s="4">
+        <v>15</v>
+      </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" s="6"/>
@@ -4121,7 +4591,9 @@
       <c r="C404" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D404" s="4"/>
+      <c r="D404" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" s="6"/>
@@ -4129,7 +4601,9 @@
       <c r="C405" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D405" s="4"/>
+      <c r="D405" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" s="6"/>
@@ -4137,7 +4611,9 @@
       <c r="C406" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D406" s="4"/>
+      <c r="D406" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="407" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A407" s="6"/>
@@ -4145,7 +4621,9 @@
       <c r="C407" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D407" s="4"/>
+      <c r="D407" s="4">
+        <v>11</v>
+      </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" s="6"/>
@@ -4245,7 +4723,9 @@
       <c r="C419" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D419" s="3"/>
+      <c r="D419" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" s="6"/>
@@ -4253,7 +4733,9 @@
       <c r="C420" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D420" s="4"/>
+      <c r="D420" s="4">
+        <v>14</v>
+      </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" s="6"/>
@@ -4261,7 +4743,9 @@
       <c r="C421" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D421" s="4"/>
+      <c r="D421" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" s="6"/>
@@ -4269,7 +4753,9 @@
       <c r="C422" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D422" s="4"/>
+      <c r="D422" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" s="6"/>
@@ -4277,7 +4763,9 @@
       <c r="C423" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D423" s="4"/>
+      <c r="D423" s="4" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" s="6"/>
@@ -4285,7 +4773,9 @@
       <c r="C424" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D424" s="4"/>
+      <c r="D424" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" s="6"/>
@@ -4293,7 +4783,9 @@
       <c r="C425" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D425" s="4"/>
+      <c r="D425" s="4">
+        <v>24</v>
+      </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" s="6"/>
@@ -4301,7 +4793,9 @@
       <c r="C426" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D426" s="4"/>
+      <c r="D426" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" s="6"/>
@@ -4309,7 +4803,9 @@
       <c r="C427" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D427" s="4"/>
+      <c r="D427" s="4" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" s="6"/>
@@ -4317,7 +4813,9 @@
       <c r="C428" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D428" s="4"/>
+      <c r="D428" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="429" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A429" s="6"/>
@@ -4325,7 +4823,9 @@
       <c r="C429" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D429" s="4"/>
+      <c r="D429" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" s="6"/>
@@ -4427,7 +4927,9 @@
       <c r="C441" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D441" s="3"/>
+      <c r="D441" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" s="6"/>
@@ -4435,7 +4937,9 @@
       <c r="C442" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D442" s="4"/>
+      <c r="D442" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" s="6"/>
@@ -4443,7 +4947,9 @@
       <c r="C443" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D443" s="4"/>
+      <c r="D443" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" s="6"/>
@@ -4451,7 +4957,9 @@
       <c r="C444" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D444" s="4"/>
+      <c r="D444" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" s="6"/>
@@ -4459,7 +4967,9 @@
       <c r="C445" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D445" s="4"/>
+      <c r="D445" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" s="6"/>
@@ -4467,7 +4977,9 @@
       <c r="C446" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D446" s="4"/>
+      <c r="D446" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" s="6"/>
@@ -4475,7 +4987,9 @@
       <c r="C447" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D447" s="4"/>
+      <c r="D447" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" s="6"/>
@@ -4483,7 +4997,9 @@
       <c r="C448" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D448" s="4"/>
+      <c r="D448" s="4">
+        <v>14</v>
+      </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" s="6"/>
@@ -4491,7 +5007,9 @@
       <c r="C449" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D449" s="4"/>
+      <c r="D449" s="4" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" s="6"/>
@@ -4499,7 +5017,9 @@
       <c r="C450" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D450" s="4"/>
+      <c r="D450" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="451" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A451" s="6"/>
@@ -4507,7 +5027,9 @@
       <c r="C451" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D451" s="4"/>
+      <c r="D451" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" s="6"/>
@@ -4607,7 +5129,9 @@
       <c r="C463" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D463" s="3"/>
+      <c r="D463" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" s="6"/>
@@ -4615,7 +5139,9 @@
       <c r="C464" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D464" s="4"/>
+      <c r="D464" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" s="6"/>
@@ -4623,7 +5149,9 @@
       <c r="C465" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D465" s="4"/>
+      <c r="D465" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" s="6"/>
@@ -4631,7 +5159,9 @@
       <c r="C466" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D466" s="4"/>
+      <c r="D466" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" s="6"/>
@@ -4639,7 +5169,9 @@
       <c r="C467" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D467" s="4"/>
+      <c r="D467" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" s="6"/>
@@ -4647,7 +5179,9 @@
       <c r="C468" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D468" s="4"/>
+      <c r="D468" s="4" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" s="6"/>
@@ -4655,7 +5189,9 @@
       <c r="C469" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D469" s="4"/>
+      <c r="D469" s="4" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" s="6"/>
@@ -4671,7 +5207,9 @@
       <c r="C471" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D471" s="4"/>
+      <c r="D471" s="4" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" s="6"/>
@@ -4679,7 +5217,9 @@
       <c r="C472" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D472" s="4"/>
+      <c r="D472" s="4" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="473" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A473" s="6"/>
@@ -4687,7 +5227,9 @@
       <c r="C473" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D473" s="4"/>
+      <c r="D473" s="4" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" s="6"/>
@@ -4789,7 +5331,9 @@
       <c r="C485" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D485" s="3"/>
+      <c r="D485" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" s="6"/>
@@ -4797,7 +5341,9 @@
       <c r="C486" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D486" s="4"/>
+      <c r="D486" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487" s="6"/>
@@ -4805,7 +5351,9 @@
       <c r="C487" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D487" s="4"/>
+      <c r="D487" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488" s="6"/>
@@ -4813,7 +5361,9 @@
       <c r="C488" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D488" s="4"/>
+      <c r="D488" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489" s="6"/>
@@ -4821,7 +5371,9 @@
       <c r="C489" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D489" s="4"/>
+      <c r="D489" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490" s="6"/>
@@ -4829,7 +5381,9 @@
       <c r="C490" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D490" s="4"/>
+      <c r="D490" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491" s="6"/>
@@ -4845,7 +5399,9 @@
       <c r="C492" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D492" s="4"/>
+      <c r="D492" s="4">
+        <v>11</v>
+      </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493" s="6"/>
@@ -4853,7 +5409,9 @@
       <c r="C493" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D493" s="4"/>
+      <c r="D493" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494" s="6"/>
@@ -4861,7 +5419,9 @@
       <c r="C494" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D494" s="4"/>
+      <c r="D494" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="495" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A495" s="6"/>
@@ -4869,7 +5429,9 @@
       <c r="C495" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D495" s="4"/>
+      <c r="D495" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496" s="6"/>
@@ -4969,7 +5531,9 @@
       <c r="C507" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D507" s="3"/>
+      <c r="D507" s="3">
+        <v>7</v>
+      </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A508" s="6"/>
@@ -4977,7 +5541,9 @@
       <c r="C508" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D508" s="4"/>
+      <c r="D508" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A509" s="6"/>
@@ -4985,7 +5551,9 @@
       <c r="C509" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D509" s="4"/>
+      <c r="D509" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A510" s="6"/>
@@ -5001,7 +5569,9 @@
       <c r="C511" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D511" s="4"/>
+      <c r="D511" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A512" s="6"/>
@@ -5017,7 +5587,9 @@
       <c r="C513" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D513" s="4"/>
+      <c r="D513" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A514" s="6"/>
@@ -5025,7 +5597,9 @@
       <c r="C514" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D514" s="4"/>
+      <c r="D514" s="4">
+        <v>13</v>
+      </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A515" s="6"/>
@@ -5033,7 +5607,9 @@
       <c r="C515" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D515" s="4"/>
+      <c r="D515" s="4" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A516" s="6"/>
@@ -5041,7 +5617,9 @@
       <c r="C516" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D516" s="4"/>
+      <c r="D516" s="4" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="517" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A517" s="6"/>
@@ -5049,7 +5627,9 @@
       <c r="C517" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D517" s="4"/>
+      <c r="D517" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A518" s="6"/>
@@ -5151,7 +5731,9 @@
       <c r="C529" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D529" s="3"/>
+      <c r="D529" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A530" s="6"/>
@@ -5159,7 +5741,9 @@
       <c r="C530" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D530" s="4"/>
+      <c r="D530" s="4">
+        <v>15</v>
+      </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A531" s="6"/>
@@ -5167,7 +5751,9 @@
       <c r="C531" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D531" s="4"/>
+      <c r="D531" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A532" s="6"/>
@@ -5175,7 +5761,9 @@
       <c r="C532" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D532" s="4"/>
+      <c r="D532" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A533" s="6"/>
@@ -5191,7 +5779,9 @@
       <c r="C534" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D534" s="4"/>
+      <c r="D534" s="4" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A535" s="6"/>
@@ -5207,7 +5797,9 @@
       <c r="C536" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D536" s="4"/>
+      <c r="D536" s="4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A537" s="6"/>
@@ -5215,7 +5807,9 @@
       <c r="C537" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D537" s="4"/>
+      <c r="D537" s="4">
+        <v>23</v>
+      </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A538" s="6"/>
@@ -5223,7 +5817,9 @@
       <c r="C538" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D538" s="4"/>
+      <c r="D538" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="539" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A539" s="6"/>
@@ -5231,7 +5827,9 @@
       <c r="C539" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D539" s="4"/>
+      <c r="D539" s="4" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A540" s="6"/>
@@ -5331,7 +5929,9 @@
       <c r="C551" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D551" s="3"/>
+      <c r="D551" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A552" s="6"/>
@@ -5339,7 +5939,9 @@
       <c r="C552" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D552" s="4"/>
+      <c r="D552" s="4">
+        <v>16</v>
+      </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A553" s="6"/>
@@ -5355,7 +5957,9 @@
       <c r="C554" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D554" s="4"/>
+      <c r="D554" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A555" s="6"/>
@@ -5363,7 +5967,9 @@
       <c r="C555" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D555" s="4"/>
+      <c r="D555" s="4" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A556" s="6"/>
@@ -5371,7 +5977,9 @@
       <c r="C556" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D556" s="4"/>
+      <c r="D556" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A557" s="6"/>
@@ -5379,7 +5987,9 @@
       <c r="C557" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D557" s="4"/>
+      <c r="D557" s="4" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A558" s="6"/>
@@ -5387,7 +5997,9 @@
       <c r="C558" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D558" s="4"/>
+      <c r="D558" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A559" s="6"/>
@@ -5395,7 +6007,9 @@
       <c r="C559" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D559" s="4"/>
+      <c r="D559" s="4">
+        <v>13</v>
+      </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A560" s="6"/>
@@ -5403,7 +6017,9 @@
       <c r="C560" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D560" s="4"/>
+      <c r="D560" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="561" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A561" s="6"/>
@@ -5411,7 +6027,9 @@
       <c r="C561" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D561" s="4"/>
+      <c r="D561" s="4" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A562" s="6"/>
@@ -5513,7 +6131,9 @@
       <c r="C573" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D573" s="3"/>
+      <c r="D573" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A574" s="6"/>
@@ -5521,7 +6141,9 @@
       <c r="C574" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D574" s="4"/>
+      <c r="D574" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A575" s="6"/>
@@ -5529,7 +6151,9 @@
       <c r="C575" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D575" s="4"/>
+      <c r="D575" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A576" s="6"/>
@@ -5537,7 +6161,9 @@
       <c r="C576" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D576" s="4"/>
+      <c r="D576" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A577" s="6"/>
@@ -5545,7 +6171,9 @@
       <c r="C577" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D577" s="4"/>
+      <c r="D577" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A578" s="6"/>
@@ -5553,7 +6181,9 @@
       <c r="C578" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D578" s="4"/>
+      <c r="D578" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A579" s="6"/>
@@ -5561,7 +6191,9 @@
       <c r="C579" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D579" s="4"/>
+      <c r="D579" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A580" s="6"/>
@@ -5569,7 +6201,9 @@
       <c r="C580" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D580" s="4"/>
+      <c r="D580" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A581" s="6"/>
@@ -5577,7 +6211,9 @@
       <c r="C581" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D581" s="4"/>
+      <c r="D581" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A582" s="6"/>
@@ -5585,7 +6221,9 @@
       <c r="C582" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D582" s="4"/>
+      <c r="D582" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="583" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A583" s="6"/>
@@ -5693,7 +6331,9 @@
       <c r="C595" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D595" s="3"/>
+      <c r="D595" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A596" s="6"/>
@@ -5701,7 +6341,9 @@
       <c r="C596" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D596" s="4"/>
+      <c r="D596" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A597" s="6"/>
@@ -5709,7 +6351,9 @@
       <c r="C597" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D597" s="4"/>
+      <c r="D597" s="4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A598" s="6"/>
@@ -5717,7 +6361,9 @@
       <c r="C598" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D598" s="4"/>
+      <c r="D598" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A599" s="6"/>
@@ -5725,7 +6371,9 @@
       <c r="C599" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D599" s="4"/>
+      <c r="D599" s="4" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A600" s="6"/>
@@ -5733,7 +6381,9 @@
       <c r="C600" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D600" s="4"/>
+      <c r="D600" s="4">
+        <v>11</v>
+      </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A601" s="6"/>
@@ -5741,7 +6391,9 @@
       <c r="C601" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D601" s="4"/>
+      <c r="D601" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A602" s="6"/>
@@ -5749,7 +6401,9 @@
       <c r="C602" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D602" s="4"/>
+      <c r="D602" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A603" s="6"/>
@@ -5757,7 +6411,9 @@
       <c r="C603" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D603" s="4"/>
+      <c r="D603" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A604" s="6"/>
@@ -5765,7 +6421,9 @@
       <c r="C604" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D604" s="4"/>
+      <c r="D604" s="4">
+        <v>13</v>
+      </c>
     </row>
     <row r="605" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A605" s="6"/>
@@ -5773,7 +6431,9 @@
       <c r="C605" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D605" s="4"/>
+      <c r="D605" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A606" s="6"/>
@@ -5875,7 +6535,9 @@
       <c r="C617" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D617" s="3"/>
+      <c r="D617" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A618" s="6"/>
@@ -5883,7 +6545,9 @@
       <c r="C618" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D618" s="4"/>
+      <c r="D618" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A619" s="6"/>
@@ -5891,7 +6555,9 @@
       <c r="C619" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D619" s="4"/>
+      <c r="D619" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A620" s="6"/>
@@ -5899,7 +6565,9 @@
       <c r="C620" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D620" s="4"/>
+      <c r="D620" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A621" s="6"/>
@@ -5907,7 +6575,9 @@
       <c r="C621" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D621" s="4"/>
+      <c r="D621" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A622" s="6"/>
@@ -5923,7 +6593,9 @@
       <c r="C623" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D623" s="4"/>
+      <c r="D623" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A624" s="6"/>
@@ -5931,7 +6603,9 @@
       <c r="C624" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D624" s="4"/>
+      <c r="D624" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A625" s="6"/>
@@ -5939,7 +6613,9 @@
       <c r="C625" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D625" s="4"/>
+      <c r="D625" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A626" s="6"/>
@@ -5947,7 +6623,9 @@
       <c r="C626" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D626" s="4"/>
+      <c r="D626" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="627" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A627" s="6"/>
@@ -6055,7 +6733,9 @@
       <c r="C639" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D639" s="3"/>
+      <c r="D639" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A640" s="6"/>
@@ -6063,7 +6743,9 @@
       <c r="C640" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D640" s="4"/>
+      <c r="D640" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A641" s="6"/>
@@ -6071,7 +6753,9 @@
       <c r="C641" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D641" s="4"/>
+      <c r="D641" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A642" s="6"/>
@@ -6079,7 +6763,9 @@
       <c r="C642" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D642" s="4"/>
+      <c r="D642" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A643" s="6"/>
@@ -6087,7 +6773,9 @@
       <c r="C643" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D643" s="4"/>
+      <c r="D643" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A644" s="6"/>
@@ -6095,7 +6783,9 @@
       <c r="C644" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D644" s="4"/>
+      <c r="D644" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A645" s="6"/>
@@ -6103,7 +6793,9 @@
       <c r="C645" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D645" s="4"/>
+      <c r="D645" s="4">
+        <v>11</v>
+      </c>
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A646" s="6"/>
@@ -6111,7 +6803,9 @@
       <c r="C646" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D646" s="4"/>
+      <c r="D646" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A647" s="6"/>
@@ -6119,7 +6813,9 @@
       <c r="C647" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D647" s="4"/>
+      <c r="D647" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A648" s="6"/>
@@ -6127,7 +6823,9 @@
       <c r="C648" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D648" s="4"/>
+      <c r="D648" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="649" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A649" s="6"/>
@@ -6237,7 +6935,9 @@
       <c r="C661" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D661" s="3"/>
+      <c r="D661" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A662" s="6"/>
@@ -6261,7 +6961,9 @@
       <c r="C664" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D664" s="4"/>
+      <c r="D664" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A665" s="6"/>
@@ -6269,7 +6971,9 @@
       <c r="C665" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D665" s="4"/>
+      <c r="D665" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A666" s="6"/>
@@ -6285,7 +6989,9 @@
       <c r="C667" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D667" s="4"/>
+      <c r="D667" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A668" s="6"/>
@@ -6293,7 +6999,9 @@
       <c r="C668" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D668" s="4"/>
+      <c r="D668" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A669" s="6"/>
@@ -6301,7 +7009,9 @@
       <c r="C669" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D669" s="4"/>
+      <c r="D669" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A670" s="6"/>
@@ -6309,7 +7019,9 @@
       <c r="C670" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D670" s="4"/>
+      <c r="D670" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="671" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A671" s="6"/>
@@ -6317,7 +7029,9 @@
       <c r="C671" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D671" s="4"/>
+      <c r="D671" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A672" s="6"/>
@@ -6417,7 +7131,9 @@
       <c r="C683" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D683" s="3"/>
+      <c r="D683" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A684" s="6"/>
@@ -6425,7 +7141,9 @@
       <c r="C684" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D684" s="4"/>
+      <c r="D684" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A685" s="6"/>
@@ -6433,7 +7151,9 @@
       <c r="C685" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D685" s="4"/>
+      <c r="D685" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A686" s="6"/>
@@ -6441,7 +7161,9 @@
       <c r="C686" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D686" s="4"/>
+      <c r="D686" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A687" s="6"/>
@@ -6449,7 +7171,9 @@
       <c r="C687" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D687" s="4"/>
+      <c r="D687" s="4">
+        <v>11</v>
+      </c>
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A688" s="6"/>
@@ -6457,7 +7181,9 @@
       <c r="C688" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D688" s="4"/>
+      <c r="D688" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A689" s="6"/>
@@ -6465,7 +7191,9 @@
       <c r="C689" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D689" s="4"/>
+      <c r="D689" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A690" s="6"/>
@@ -6473,7 +7201,9 @@
       <c r="C690" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D690" s="4"/>
+      <c r="D690" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A691" s="6"/>
@@ -6481,7 +7211,9 @@
       <c r="C691" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D691" s="4"/>
+      <c r="D691" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A692" s="6"/>
@@ -6489,7 +7221,9 @@
       <c r="C692" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D692" s="4"/>
+      <c r="D692" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="693" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A693" s="6"/>
@@ -6497,7 +7231,9 @@
       <c r="C693" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D693" s="4"/>
+      <c r="D693" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A694" s="6"/>
@@ -6599,7 +7335,9 @@
       <c r="C705" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D705" s="3"/>
+      <c r="D705" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A706" s="6"/>
@@ -6607,7 +7345,9 @@
       <c r="C706" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D706" s="4"/>
+      <c r="D706" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A707" s="6"/>
@@ -6615,7 +7355,9 @@
       <c r="C707" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D707" s="4"/>
+      <c r="D707" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A708" s="6"/>
@@ -6623,7 +7365,9 @@
       <c r="C708" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D708" s="4"/>
+      <c r="D708" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="709" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A709" s="6"/>
@@ -6631,7 +7375,9 @@
       <c r="C709" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D709" s="4"/>
+      <c r="D709" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="710" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A710" s="6"/>
@@ -6647,7 +7393,9 @@
       <c r="C711" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D711" s="4"/>
+      <c r="D711" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="712" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A712" s="6"/>
@@ -6655,7 +7403,9 @@
       <c r="C712" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D712" s="4"/>
+      <c r="D712" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="713" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A713" s="6"/>
@@ -6663,7 +7413,9 @@
       <c r="C713" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D713" s="4"/>
+      <c r="D713" s="4">
+        <v>11</v>
+      </c>
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A714" s="6"/>
@@ -6671,7 +7423,9 @@
       <c r="C714" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D714" s="4"/>
+      <c r="D714" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="715" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A715" s="6"/>
@@ -6779,7 +7533,9 @@
       <c r="C727" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D727" s="3"/>
+      <c r="D727" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A728" s="6"/>
@@ -6787,7 +7543,9 @@
       <c r="C728" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D728" s="4"/>
+      <c r="D728" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A729" s="6"/>
@@ -6795,7 +7553,9 @@
       <c r="C729" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D729" s="4"/>
+      <c r="D729" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A730" s="6"/>
@@ -6803,7 +7563,9 @@
       <c r="C730" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D730" s="4"/>
+      <c r="D730" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A731" s="6"/>
@@ -6811,7 +7573,9 @@
       <c r="C731" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D731" s="4"/>
+      <c r="D731" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A732" s="6"/>
@@ -6819,7 +7583,9 @@
       <c r="C732" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D732" s="4"/>
+      <c r="D732" s="4">
+        <v>12</v>
+      </c>
     </row>
     <row r="733" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A733" s="6"/>
@@ -6827,7 +7593,9 @@
       <c r="C733" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D733" s="4"/>
+      <c r="D733" s="4">
+        <v>13</v>
+      </c>
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A734" s="6"/>
@@ -6835,7 +7603,9 @@
       <c r="C734" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D734" s="4"/>
+      <c r="D734" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A735" s="6"/>
@@ -6843,7 +7613,9 @@
       <c r="C735" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D735" s="4"/>
+      <c r="D735" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A736" s="6"/>
@@ -6851,7 +7623,9 @@
       <c r="C736" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D736" s="4"/>
+      <c r="D736" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="737" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A737" s="6"/>
@@ -6859,7 +7633,9 @@
       <c r="C737" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D737" s="4"/>
+      <c r="D737" s="4">
+        <v>14</v>
+      </c>
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A738" s="6"/>
@@ -6961,7 +7737,9 @@
       <c r="C749" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D749" s="3"/>
+      <c r="D749" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="750" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A750" s="6"/>
@@ -6969,7 +7747,9 @@
       <c r="C750" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D750" s="4"/>
+      <c r="D750" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A751" s="6"/>
@@ -6977,7 +7757,9 @@
       <c r="C751" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D751" s="4"/>
+      <c r="D751" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A752" s="6"/>
@@ -6985,7 +7767,9 @@
       <c r="C752" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D752" s="4"/>
+      <c r="D752" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A753" s="6"/>
@@ -6993,7 +7777,9 @@
       <c r="C753" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D753" s="4"/>
+      <c r="D753" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A754" s="6"/>
@@ -7001,7 +7787,9 @@
       <c r="C754" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D754" s="4"/>
+      <c r="D754" s="4">
+        <v>13</v>
+      </c>
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A755" s="6"/>
@@ -7009,7 +7797,9 @@
       <c r="C755" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D755" s="4"/>
+      <c r="D755" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="756" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A756" s="6"/>
@@ -7017,7 +7807,9 @@
       <c r="C756" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D756" s="4"/>
+      <c r="D756" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A757" s="6"/>
@@ -7025,7 +7817,9 @@
       <c r="C757" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D757" s="4"/>
+      <c r="D757" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A758" s="6"/>
@@ -7033,7 +7827,9 @@
       <c r="C758" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D758" s="4"/>
+      <c r="D758" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="759" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A759" s="6"/>
@@ -7141,7 +7937,9 @@
       <c r="C771" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D771" s="3"/>
+      <c r="D771" s="3">
+        <v>11</v>
+      </c>
     </row>
     <row r="772" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A772" s="6"/>
@@ -7149,7 +7947,9 @@
       <c r="C772" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D772" s="4"/>
+      <c r="D772" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="773" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A773" s="6"/>
@@ -7157,7 +7957,9 @@
       <c r="C773" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D773" s="4"/>
+      <c r="D773" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="774" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A774" s="6"/>
@@ -7165,7 +7967,9 @@
       <c r="C774" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D774" s="4"/>
+      <c r="D774" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="775" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A775" s="6"/>
@@ -7173,7 +7977,9 @@
       <c r="C775" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D775" s="4"/>
+      <c r="D775" s="4" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="776" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A776" s="6"/>
@@ -7181,7 +7987,9 @@
       <c r="C776" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D776" s="4"/>
+      <c r="D776" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="777" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A777" s="6"/>
@@ -7189,7 +7997,9 @@
       <c r="C777" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D777" s="4"/>
+      <c r="D777" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="778" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A778" s="6"/>
@@ -7197,7 +8007,9 @@
       <c r="C778" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D778" s="4"/>
+      <c r="D778" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="779" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A779" s="6"/>
@@ -7205,7 +8017,9 @@
       <c r="C779" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D779" s="4"/>
+      <c r="D779" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="780" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A780" s="6"/>
@@ -7213,7 +8027,9 @@
       <c r="C780" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D780" s="4"/>
+      <c r="D780" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="781" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A781" s="6"/>
@@ -7323,7 +8139,9 @@
       <c r="C793" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D793" s="3"/>
+      <c r="D793" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="794" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A794" s="6"/>
@@ -7331,7 +8149,9 @@
       <c r="C794" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D794" s="4"/>
+      <c r="D794" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="795" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A795" s="6"/>
@@ -7339,7 +8159,9 @@
       <c r="C795" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D795" s="4"/>
+      <c r="D795" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="796" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A796" s="6"/>
@@ -7347,7 +8169,9 @@
       <c r="C796" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D796" s="4"/>
+      <c r="D796" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="797" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A797" s="6"/>
@@ -7355,7 +8179,9 @@
       <c r="C797" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D797" s="4"/>
+      <c r="D797" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="798" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A798" s="6"/>
@@ -7363,7 +8189,9 @@
       <c r="C798" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D798" s="4"/>
+      <c r="D798" s="4">
+        <v>11</v>
+      </c>
     </row>
     <row r="799" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A799" s="6"/>
@@ -7371,7 +8199,9 @@
       <c r="C799" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D799" s="4"/>
+      <c r="D799" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="800" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A800" s="6"/>
@@ -7379,7 +8209,9 @@
       <c r="C800" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D800" s="4"/>
+      <c r="D800" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="801" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A801" s="6"/>
@@ -7387,7 +8219,9 @@
       <c r="C801" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D801" s="4"/>
+      <c r="D801" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="802" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A802" s="6"/>
@@ -7395,7 +8229,9 @@
       <c r="C802" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D802" s="4"/>
+      <c r="D802" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="803" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A803" s="6"/>
@@ -7503,7 +8339,9 @@
       <c r="C815" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D815" s="3"/>
+      <c r="D815" s="3">
+        <v>12</v>
+      </c>
     </row>
     <row r="816" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A816" s="6"/>
@@ -7511,7 +8349,9 @@
       <c r="C816" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D816" s="4"/>
+      <c r="D816" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="817" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A817" s="6"/>
@@ -7519,7 +8359,9 @@
       <c r="C817" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D817" s="4"/>
+      <c r="D817" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="818" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A818" s="6"/>
@@ -7527,7 +8369,9 @@
       <c r="C818" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D818" s="4"/>
+      <c r="D818" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="819" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A819" s="6"/>
@@ -7535,7 +8379,9 @@
       <c r="C819" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D819" s="4"/>
+      <c r="D819" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="820" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A820" s="6"/>
@@ -7543,7 +8389,9 @@
       <c r="C820" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D820" s="4"/>
+      <c r="D820" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="821" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A821" s="6"/>
@@ -7551,7 +8399,9 @@
       <c r="C821" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D821" s="4"/>
+      <c r="D821" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="822" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A822" s="6"/>
@@ -7559,7 +8409,9 @@
       <c r="C822" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D822" s="4"/>
+      <c r="D822" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="823" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A823" s="6"/>
@@ -7567,7 +8419,9 @@
       <c r="C823" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D823" s="4"/>
+      <c r="D823" s="4" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="824" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A824" s="6"/>
@@ -7575,7 +8429,9 @@
       <c r="C824" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D824" s="4"/>
+      <c r="D824" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="825" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A825" s="6"/>
@@ -7685,7 +8541,9 @@
       <c r="C837" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D837" s="3"/>
+      <c r="D837" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="838" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A838" s="6"/>
@@ -7693,7 +8551,9 @@
       <c r="C838" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D838" s="4"/>
+      <c r="D838" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="839" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A839" s="6"/>
@@ -7701,7 +8561,9 @@
       <c r="C839" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D839" s="4"/>
+      <c r="D839" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="840" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A840" s="6"/>
@@ -7709,7 +8571,9 @@
       <c r="C840" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D840" s="4"/>
+      <c r="D840" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="841" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A841" s="6"/>
@@ -7725,7 +8589,9 @@
       <c r="C842" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D842" s="4"/>
+      <c r="D842" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="843" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A843" s="6"/>
@@ -7741,7 +8607,9 @@
       <c r="C844" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D844" s="4"/>
+      <c r="D844" s="4">
+        <v>12</v>
+      </c>
     </row>
     <row r="845" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A845" s="6"/>
@@ -7749,7 +8617,9 @@
       <c r="C845" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D845" s="4"/>
+      <c r="D845" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="846" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A846" s="6"/>
@@ -7757,7 +8627,9 @@
       <c r="C846" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D846" s="4"/>
+      <c r="D846" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="847" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A847" s="6"/>
@@ -7765,7 +8637,9 @@
       <c r="C847" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D847" s="4"/>
+      <c r="D847" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="848" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A848" s="6"/>
@@ -7865,7 +8739,9 @@
       <c r="C859" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D859" s="3"/>
+      <c r="D859" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="860" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A860" s="6"/>
@@ -7873,7 +8749,9 @@
       <c r="C860" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D860" s="4"/>
+      <c r="D860" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="861" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A861" s="6"/>
@@ -7881,7 +8759,9 @@
       <c r="C861" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D861" s="4"/>
+      <c r="D861" s="4" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="862" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A862" s="6"/>
@@ -7889,7 +8769,9 @@
       <c r="C862" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D862" s="4"/>
+      <c r="D862" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="863" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A863" s="6"/>
@@ -7897,7 +8779,9 @@
       <c r="C863" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D863" s="4"/>
+      <c r="D863" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="864" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A864" s="6"/>
@@ -7905,7 +8789,9 @@
       <c r="C864" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D864" s="4"/>
+      <c r="D864" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="865" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A865" s="6"/>
@@ -7913,7 +8799,9 @@
       <c r="C865" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D865" s="4"/>
+      <c r="D865" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="866" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A866" s="6"/>
@@ -7921,7 +8809,9 @@
       <c r="C866" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D866" s="4"/>
+      <c r="D866" s="4" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="867" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A867" s="6"/>
@@ -7929,7 +8819,9 @@
       <c r="C867" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D867" s="4"/>
+      <c r="D867" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="868" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A868" s="6"/>
@@ -7937,7 +8829,9 @@
       <c r="C868" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D868" s="4"/>
+      <c r="D868" s="4">
+        <v>13</v>
+      </c>
     </row>
     <row r="869" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A869" s="6"/>
@@ -8039,106 +8933,106 @@
     </row>
   </sheetData>
   <mergeCells count="100">
+    <mergeCell ref="A441:A484"/>
+    <mergeCell ref="B441:B451"/>
+    <mergeCell ref="B452:B462"/>
+    <mergeCell ref="B463:B473"/>
+    <mergeCell ref="B474:B484"/>
+    <mergeCell ref="A397:A440"/>
+    <mergeCell ref="B397:B407"/>
+    <mergeCell ref="B408:B418"/>
+    <mergeCell ref="B419:B429"/>
+    <mergeCell ref="B430:B440"/>
+    <mergeCell ref="B23:B33"/>
+    <mergeCell ref="B34:B44"/>
+    <mergeCell ref="A1:A44"/>
+    <mergeCell ref="B1:B11"/>
+    <mergeCell ref="B12:B22"/>
+    <mergeCell ref="A45:A88"/>
+    <mergeCell ref="B45:B55"/>
+    <mergeCell ref="B56:B66"/>
+    <mergeCell ref="B67:B77"/>
+    <mergeCell ref="B78:B88"/>
+    <mergeCell ref="A89:A132"/>
+    <mergeCell ref="B89:B99"/>
+    <mergeCell ref="B100:B110"/>
+    <mergeCell ref="B111:B121"/>
+    <mergeCell ref="B122:B132"/>
+    <mergeCell ref="A133:A176"/>
+    <mergeCell ref="B133:B143"/>
+    <mergeCell ref="B144:B154"/>
+    <mergeCell ref="B155:B165"/>
+    <mergeCell ref="B166:B176"/>
+    <mergeCell ref="A177:A220"/>
+    <mergeCell ref="B177:B187"/>
+    <mergeCell ref="B188:B198"/>
+    <mergeCell ref="B199:B209"/>
+    <mergeCell ref="B210:B220"/>
+    <mergeCell ref="A221:A264"/>
+    <mergeCell ref="B221:B231"/>
+    <mergeCell ref="B232:B242"/>
+    <mergeCell ref="B243:B253"/>
+    <mergeCell ref="B254:B264"/>
+    <mergeCell ref="A265:A308"/>
+    <mergeCell ref="B265:B275"/>
+    <mergeCell ref="B276:B286"/>
+    <mergeCell ref="B287:B297"/>
+    <mergeCell ref="B298:B308"/>
+    <mergeCell ref="A353:A396"/>
+    <mergeCell ref="B353:B363"/>
+    <mergeCell ref="B364:B374"/>
+    <mergeCell ref="B375:B385"/>
+    <mergeCell ref="B386:B396"/>
+    <mergeCell ref="A309:A352"/>
+    <mergeCell ref="B309:B319"/>
+    <mergeCell ref="B320:B330"/>
+    <mergeCell ref="B331:B341"/>
+    <mergeCell ref="B342:B352"/>
+    <mergeCell ref="A485:A528"/>
+    <mergeCell ref="B485:B495"/>
+    <mergeCell ref="B496:B506"/>
+    <mergeCell ref="B507:B517"/>
+    <mergeCell ref="B518:B528"/>
+    <mergeCell ref="A529:A572"/>
+    <mergeCell ref="B529:B539"/>
+    <mergeCell ref="B540:B550"/>
+    <mergeCell ref="B551:B561"/>
+    <mergeCell ref="B562:B572"/>
+    <mergeCell ref="A573:A616"/>
+    <mergeCell ref="B573:B583"/>
+    <mergeCell ref="B584:B594"/>
+    <mergeCell ref="B595:B605"/>
+    <mergeCell ref="B606:B616"/>
+    <mergeCell ref="A617:A660"/>
+    <mergeCell ref="B617:B627"/>
+    <mergeCell ref="B628:B638"/>
+    <mergeCell ref="B639:B649"/>
+    <mergeCell ref="B650:B660"/>
+    <mergeCell ref="A661:A704"/>
+    <mergeCell ref="B661:B671"/>
+    <mergeCell ref="B672:B682"/>
+    <mergeCell ref="B683:B693"/>
+    <mergeCell ref="B694:B704"/>
+    <mergeCell ref="A705:A748"/>
+    <mergeCell ref="B705:B715"/>
+    <mergeCell ref="B716:B726"/>
+    <mergeCell ref="B727:B737"/>
+    <mergeCell ref="B738:B748"/>
+    <mergeCell ref="A749:A792"/>
+    <mergeCell ref="B749:B759"/>
+    <mergeCell ref="B760:B770"/>
+    <mergeCell ref="B771:B781"/>
+    <mergeCell ref="B782:B792"/>
+    <mergeCell ref="A793:A836"/>
+    <mergeCell ref="B793:B803"/>
+    <mergeCell ref="B804:B814"/>
+    <mergeCell ref="B815:B825"/>
+    <mergeCell ref="B826:B836"/>
     <mergeCell ref="A837:A880"/>
     <mergeCell ref="B837:B847"/>
     <mergeCell ref="B848:B858"/>
     <mergeCell ref="B859:B869"/>
     <mergeCell ref="B870:B880"/>
-    <mergeCell ref="A793:A836"/>
-    <mergeCell ref="B793:B803"/>
-    <mergeCell ref="B804:B814"/>
-    <mergeCell ref="B815:B825"/>
-    <mergeCell ref="B826:B836"/>
-    <mergeCell ref="A749:A792"/>
-    <mergeCell ref="B749:B759"/>
-    <mergeCell ref="B760:B770"/>
-    <mergeCell ref="B771:B781"/>
-    <mergeCell ref="B782:B792"/>
-    <mergeCell ref="A705:A748"/>
-    <mergeCell ref="B705:B715"/>
-    <mergeCell ref="B716:B726"/>
-    <mergeCell ref="B727:B737"/>
-    <mergeCell ref="B738:B748"/>
-    <mergeCell ref="A661:A704"/>
-    <mergeCell ref="B661:B671"/>
-    <mergeCell ref="B672:B682"/>
-    <mergeCell ref="B683:B693"/>
-    <mergeCell ref="B694:B704"/>
-    <mergeCell ref="A617:A660"/>
-    <mergeCell ref="B617:B627"/>
-    <mergeCell ref="B628:B638"/>
-    <mergeCell ref="B639:B649"/>
-    <mergeCell ref="B650:B660"/>
-    <mergeCell ref="A573:A616"/>
-    <mergeCell ref="B573:B583"/>
-    <mergeCell ref="B584:B594"/>
-    <mergeCell ref="B595:B605"/>
-    <mergeCell ref="B606:B616"/>
-    <mergeCell ref="A529:A572"/>
-    <mergeCell ref="B529:B539"/>
-    <mergeCell ref="B540:B550"/>
-    <mergeCell ref="B551:B561"/>
-    <mergeCell ref="B562:B572"/>
-    <mergeCell ref="A485:A528"/>
-    <mergeCell ref="B485:B495"/>
-    <mergeCell ref="B496:B506"/>
-    <mergeCell ref="B507:B517"/>
-    <mergeCell ref="B518:B528"/>
-    <mergeCell ref="A309:A352"/>
-    <mergeCell ref="B309:B319"/>
-    <mergeCell ref="B320:B330"/>
-    <mergeCell ref="B331:B341"/>
-    <mergeCell ref="B342:B352"/>
-    <mergeCell ref="A353:A396"/>
-    <mergeCell ref="B353:B363"/>
-    <mergeCell ref="B364:B374"/>
-    <mergeCell ref="B375:B385"/>
-    <mergeCell ref="B386:B396"/>
-    <mergeCell ref="A265:A308"/>
-    <mergeCell ref="B265:B275"/>
-    <mergeCell ref="B276:B286"/>
-    <mergeCell ref="B287:B297"/>
-    <mergeCell ref="B298:B308"/>
-    <mergeCell ref="A221:A264"/>
-    <mergeCell ref="B221:B231"/>
-    <mergeCell ref="B232:B242"/>
-    <mergeCell ref="B243:B253"/>
-    <mergeCell ref="B254:B264"/>
-    <mergeCell ref="A177:A220"/>
-    <mergeCell ref="B177:B187"/>
-    <mergeCell ref="B188:B198"/>
-    <mergeCell ref="B199:B209"/>
-    <mergeCell ref="B210:B220"/>
-    <mergeCell ref="A133:A176"/>
-    <mergeCell ref="B133:B143"/>
-    <mergeCell ref="B144:B154"/>
-    <mergeCell ref="B155:B165"/>
-    <mergeCell ref="B166:B176"/>
-    <mergeCell ref="A89:A132"/>
-    <mergeCell ref="B89:B99"/>
-    <mergeCell ref="B100:B110"/>
-    <mergeCell ref="B111:B121"/>
-    <mergeCell ref="B122:B132"/>
-    <mergeCell ref="A45:A88"/>
-    <mergeCell ref="B45:B55"/>
-    <mergeCell ref="B56:B66"/>
-    <mergeCell ref="B67:B77"/>
-    <mergeCell ref="B78:B88"/>
-    <mergeCell ref="B23:B33"/>
-    <mergeCell ref="B34:B44"/>
-    <mergeCell ref="A1:A44"/>
-    <mergeCell ref="B1:B11"/>
-    <mergeCell ref="B12:B22"/>
-    <mergeCell ref="A397:A440"/>
-    <mergeCell ref="B397:B407"/>
-    <mergeCell ref="B408:B418"/>
-    <mergeCell ref="B419:B429"/>
-    <mergeCell ref="B430:B440"/>
-    <mergeCell ref="A441:A484"/>
-    <mergeCell ref="B441:B451"/>
-    <mergeCell ref="B452:B462"/>
-    <mergeCell ref="B463:B473"/>
-    <mergeCell ref="B474:B484"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
